--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEBE683-48BC-412A-9FBE-1B984839DBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E3DCF3-99DB-4953-94C1-37E6E9F7DD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -479,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,6 +580,72 @@
       <c r="M2" s="3">
         <f>F2/D2-1</f>
         <v>8.7142890788771687E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45208</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>F2</f>
+        <v>637440</v>
+      </c>
+      <c r="E3">
+        <v>958</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">D3+E3</f>
+        <v>638398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45208</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="1">F3</f>
+        <v>638398</v>
+      </c>
+      <c r="E4">
+        <v>-485</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>637913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45209</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>637913</v>
+      </c>
+      <c r="E5">
+        <v>382</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>638295</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E3DCF3-99DB-4953-94C1-37E6E9F7DD19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA3C2F-2A77-4FBB-9E2D-92FA1B3A4A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H6" sqref="A3:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,70 +583,13 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45208</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>F2</f>
-        <v>637440</v>
-      </c>
-      <c r="E3">
-        <v>958</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F5" si="0">D3+E3</f>
-        <v>638398</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45208</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D5" si="1">F3</f>
-        <v>638398</v>
-      </c>
-      <c r="E4">
-        <v>-485</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>637913</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45209</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>637913</v>
-      </c>
-      <c r="E5">
-        <v>382</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>638295</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA3C2F-2A77-4FBB-9E2D-92FA1B3A4A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD2020E-5531-4F35-940A-96E8815177FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -109,9 +109,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -161,8 +160,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
@@ -482,7 +481,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="A3:H6"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -577,9 +576,9 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2" s="3">
-        <f>F2/D2-1</f>
-        <v>8.7142890788771687E-4</v>
+      <c r="M2" s="4">
+        <f>ROUND((F2/D2-1)*100, 3)</f>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -607,14 +606,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.90625" style="4"/>
+    <col min="2" max="2" width="10.90625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>462440</v>
       </c>
     </row>
@@ -622,7 +621,7 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>54753.06</v>
       </c>
     </row>
@@ -630,7 +629,7 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>81628.56</v>
       </c>
     </row>
@@ -638,7 +637,7 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>12896.82</v>
       </c>
     </row>
@@ -646,7 +645,7 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>25793.64</v>
       </c>
     </row>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD2020E-5531-4F35-940A-96E8815177FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C167FAB-D4A4-4F4D-9D61-BBFD7EA739DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>POZOACTUAL</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
 </sst>
 </file>
@@ -481,7 +484,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -543,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -577,12 +580,53 @@
         <v>0</v>
       </c>
       <c r="M2" s="4">
-        <f>ROUND((F2/D2-1)*100, 3)</f>
+        <f>ROUND((F2/$D$2-1)*100, 3)</f>
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45209</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>F2</f>
+        <v>637440</v>
+      </c>
+      <c r="E3">
+        <v>250</v>
+      </c>
+      <c r="F3">
+        <f>D3+E3</f>
+        <v>637690</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f>ROUND((F3/$D$2-1)*100, 3)</f>
+        <v>0.126</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C167FAB-D4A4-4F4D-9D61-BBFD7EA739DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF80C90-DFB4-4A04-9EA5-037812DD804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>PSG</t>
+  </si>
+  <si>
+    <t>EUROPEAN CIRCUIT</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>GANA 2-0</t>
+  </si>
+  <si>
+    <t>GANA SERIE</t>
   </si>
 </sst>
 </file>
@@ -113,7 +128,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -157,13 +172,13 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -481,26 +496,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="4.53125" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.06640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -541,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -584,7 +599,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -628,11 +643,137 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45210</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D6" si="0">F3</f>
+        <v>637690</v>
+      </c>
+      <c r="E4">
+        <v>-5000</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F6" si="1">D4+E4</f>
+        <v>632690</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <f>ROUND((F4/$D$2-1)*100, 3)</f>
+        <v>-0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45210</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>632690</v>
+      </c>
+      <c r="E5">
+        <v>-7000</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>625690</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <f>ROUND((F5/$D$2-1)*100, 3)</f>
+        <v>-1.758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45210</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>625690</v>
+      </c>
+      <c r="E6">
+        <v>15250</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>640940</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <f>ROUND((F6/$D$2-1)*100, 3)</f>
+        <v>0.63700000000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -648,12 +789,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.90625" style="3"/>
+    <col min="2" max="2" width="10.9296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -661,7 +802,7 @@
         <v>462440</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -669,7 +810,7 @@
         <v>54753.06</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -677,7 +818,7 @@
         <v>81628.56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -685,7 +826,7 @@
         <v>12896.82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF80C90-DFB4-4A04-9EA5-037812DD804E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDD2CCD-BF67-45EC-B597-E675D2D9B083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -739,18 +739,18 @@
         <v>45210</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>625690</v>
       </c>
       <c r="E6">
-        <v>15250</v>
+        <v>-15250</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>640940</v>
+        <v>610440</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -772,7 +772,7 @@
       </c>
       <c r="M6" s="4">
         <f>ROUND((F6/$D$2-1)*100, 3)</f>
-        <v>0.63700000000000001</v>
+        <v>-4.1520000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDD2CCD-BF67-45EC-B597-E675D2D9B083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9BA304-8FC5-4802-8F13-E1412A8D09CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -739,18 +739,18 @@
         <v>45210</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
         <v>625690</v>
       </c>
       <c r="E6">
-        <v>-15250</v>
+        <v>15250</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>610440</v>
+        <v>640940</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -772,7 +772,7 @@
       </c>
       <c r="M6" s="4">
         <f>ROUND((F6/$D$2-1)*100, 3)</f>
-        <v>-4.1520000000000001</v>
+        <v>0.63700000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9BA304-8FC5-4802-8F13-E1412A8D09CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F4F56F-471D-4AF7-B7EC-6C46E0F7D0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -93,9 +93,6 @@
     <t>GP</t>
   </si>
   <si>
-    <t>WORLDS</t>
-  </si>
-  <si>
     <t>BDS</t>
   </si>
   <si>
@@ -121,6 +118,36 @@
   </si>
   <si>
     <t>GANA SERIE</t>
+  </si>
+  <si>
+    <t>FUTBOL</t>
+  </si>
+  <si>
+    <t>CLASIFICATORIAS 2026</t>
+  </si>
+  <si>
+    <t>ARGENTINA</t>
+  </si>
+  <si>
+    <t>GANA</t>
+  </si>
+  <si>
+    <t>AJEDREZ</t>
+  </si>
+  <si>
+    <t>GANA O EMPATA</t>
+  </si>
+  <si>
+    <t>WESLEY SO</t>
+  </si>
+  <si>
+    <t>CAMPEONATO EEEUU 2023</t>
+  </si>
+  <si>
+    <t>WORLDS 2023</t>
+  </si>
+  <si>
+    <t>GANA MAPA 1</t>
   </si>
 </sst>
 </file>
@@ -496,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -510,7 +537,7 @@
     <col min="5" max="5" width="9.59765625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.73046875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.06640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -532,7 +559,7 @@
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -580,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -624,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -654,27 +681,27 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D6" si="0">F3</f>
+        <f t="shared" ref="D4:D9" si="0">F3</f>
         <v>637690</v>
       </c>
       <c r="E4">
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F6" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F9" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -712,13 +739,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -756,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -773,6 +800,138 @@
       <c r="M6" s="4">
         <f>ROUND((F6/$D$2-1)*100, 3)</f>
         <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45211</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>640940</v>
+      </c>
+      <c r="E7">
+        <v>1150</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>642090</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" ref="M7:M9" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45211</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>642090</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>642130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45212</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>642130</v>
+      </c>
+      <c r="E9">
+        <v>405</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>642535</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.88700000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F4F56F-471D-4AF7-B7EC-6C46E0F7D0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C70F3D6-4DAF-4E2B-8733-6A500691BCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>GANA MAPA 1</t>
+  </si>
+  <si>
+    <t>DOTA 2 THE INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>LGD</t>
+  </si>
+  <si>
+    <t>VALORANT CHAMPIONS LATAM</t>
+  </si>
+  <si>
+    <t>KRU</t>
+  </si>
+  <si>
+    <t>HALO WORLDS 2023</t>
+  </si>
+  <si>
+    <t>OPTIC</t>
+  </si>
+  <si>
+    <t>LOUD</t>
   </si>
 </sst>
 </file>
@@ -155,7 +176,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -199,13 +220,13 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -523,26 +544,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.53125" customWidth="1"/>
-    <col min="3" max="3" width="5.73046875" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -583,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -626,7 +647,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -670,7 +691,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -681,14 +702,14 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D9" si="0">F3</f>
+        <f t="shared" ref="D4:D15" si="0">F3</f>
         <v>637690</v>
       </c>
       <c r="E4">
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F9" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F15" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
@@ -714,7 +735,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -758,7 +779,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -802,7 +823,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -842,11 +863,11 @@
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" ref="M7:M9" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
+        <f t="shared" ref="M7:M15" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -890,7 +911,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -932,6 +953,270 @@
       <c r="M9" s="4">
         <f t="shared" si="2"/>
         <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45213</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>642535</v>
+      </c>
+      <c r="E10">
+        <v>-5000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>637535</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45213</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>637535</v>
+      </c>
+      <c r="E11">
+        <v>1140</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>638675</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45213</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>638675</v>
+      </c>
+      <c r="E12">
+        <v>690</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>639365</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45214</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>639365</v>
+      </c>
+      <c r="E13">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>639429</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45214</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>639429</v>
+      </c>
+      <c r="E14">
+        <v>605</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>640034</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="2"/>
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45214</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>640034</v>
+      </c>
+      <c r="E15">
+        <v>3872</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>643906</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1020000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -948,12 +1233,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.9296875" style="3"/>
+    <col min="2" max="2" width="10.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -961,7 +1246,7 @@
         <v>462440</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -969,7 +1254,7 @@
         <v>54753.06</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -977,7 +1262,7 @@
         <v>81628.56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -985,7 +1270,7 @@
         <v>12896.82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C70F3D6-4DAF-4E2B-8733-6A500691BCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8397D0B4-1AC0-4A4A-BD67-05D7C89F1917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -544,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,40 +963,40 @@
         <v>45213</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>642535</v>
       </c>
       <c r="E10">
-        <v>-5000</v>
+        <v>1140</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>637535</v>
+        <v>643675</v>
       </c>
       <c r="G10" t="s">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="2"/>
-        <v>0.10199999999999999</v>
+        <f>ROUND((F10/$D$2-1)*100, 3)</f>
+        <v>1.0660000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1011,23 +1011,23 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>637535</v>
+        <v>643675</v>
       </c>
       <c r="E11">
-        <v>1140</v>
+        <v>690</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>638675</v>
+        <v>644365</v>
       </c>
       <c r="G11" t="s">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
@@ -1039,8 +1039,8 @@
         <v>0</v>
       </c>
       <c r="M11" s="4">
-        <f t="shared" si="2"/>
-        <v>0.28100000000000003</v>
+        <f>ROUND((F11/$D$2-1)*100, 3)</f>
+        <v>1.1739999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1051,14 +1051,14 @@
         <v>45213</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>638675</v>
+        <v>644365</v>
       </c>
       <c r="E12">
-        <v>690</v>
+        <v>-5000</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -1068,22 +1068,22 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="2"/>
+        <f>ROUND((F12/$D$2-1)*100, 3)</f>
         <v>0.38900000000000001</v>
       </c>
     </row>
@@ -1218,6 +1218,10 @@
         <f t="shared" si="2"/>
         <v>1.1020000000000001</v>
       </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="M18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8397D0B4-1AC0-4A4A-BD67-05D7C89F1917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A032B09F-3192-463E-82CA-A4441FF762EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -547,7 +547,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,40 +963,40 @@
         <v>45213</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>642535</v>
       </c>
       <c r="E10">
-        <v>1140</v>
+        <v>-5000</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>643675</v>
+        <v>637535</v>
       </c>
       <c r="G10" t="s">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="4">
         <f>ROUND((F10/$D$2-1)*100, 3)</f>
-        <v>1.0660000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -1011,14 +1011,14 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>643675</v>
+        <v>637535</v>
       </c>
       <c r="E11">
         <v>690</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>644365</v>
+        <v>638225</v>
       </c>
       <c r="G11" t="s">
         <v>0</v>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="M11" s="4">
         <f>ROUND((F11/$D$2-1)*100, 3)</f>
-        <v>1.1739999999999999</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -1051,14 +1051,14 @@
         <v>45213</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>644365</v>
+        <v>638225</v>
       </c>
       <c r="E12">
-        <v>-5000</v>
+        <v>1140</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -1068,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
         <f>ROUND((F12/$D$2-1)*100, 3)</f>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A032B09F-3192-463E-82CA-A4441FF762EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29863A9-0C8B-42D1-A7BD-039B4CE91E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -176,7 +176,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -220,13 +220,13 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -547,23 +547,23 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="4.53125" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.06640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -604,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -647,7 +647,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -691,7 +691,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -735,7 +735,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -779,7 +779,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -823,7 +823,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -867,7 +867,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -911,7 +911,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -955,7 +955,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -963,43 +963,43 @@
         <v>45213</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
         <v>642535</v>
       </c>
       <c r="E10">
-        <v>-5000</v>
+        <v>1140</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>637535</v>
+        <v>643675</v>
       </c>
       <c r="G10" t="s">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4">
         <f>ROUND((F10/$D$2-1)*100, 3)</f>
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.0660000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1011,14 +1011,14 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>637535</v>
+        <v>643675</v>
       </c>
       <c r="E11">
         <v>690</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>638225</v>
+        <v>644365</v>
       </c>
       <c r="G11" t="s">
         <v>0</v>
@@ -1040,10 +1040,10 @@
       </c>
       <c r="M11" s="4">
         <f>ROUND((F11/$D$2-1)*100, 3)</f>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>1.1739999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1051,14 +1051,14 @@
         <v>45213</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>638225</v>
+        <v>644365</v>
       </c>
       <c r="E12">
-        <v>1140</v>
+        <v>-5000</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -1068,26 +1068,26 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="4">
         <f>ROUND((F12/$D$2-1)*100, 3)</f>
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1219,9 +1219,8 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
-      <c r="M18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1237,12 +1236,12 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.90625" style="3"/>
+    <col min="2" max="2" width="10.9296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>462440</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1258,7 +1257,7 @@
         <v>54753.06</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>81628.56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>12896.82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29863A9-0C8B-42D1-A7BD-039B4CE91E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849A45D2-5515-4D77-99DF-8DABB78CF024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -169,6 +191,9 @@
   </si>
   <si>
     <t>LOUD</t>
+  </si>
+  <si>
+    <t>TIPO</t>
   </si>
 </sst>
 </file>
@@ -222,12 +247,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
@@ -546,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1230,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91972E91-C486-48A1-B1C4-268DB8F8852F}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1241,44 +1267,69 @@
     <col min="2" max="2" width="10.9296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
         <v>462440</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>54753.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="D2" s="3">
         <v>81628.56</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="E2" s="3">
         <v>12896.82</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="F2" s="3">
         <v>25793.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" cm="1">
+        <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+        <v>467536.08880000003</v>
+      </c>
+      <c r="C3" s="5" cm="1">
+        <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+        <v>55356.4387212</v>
+      </c>
+      <c r="D3" s="5" cm="1">
+        <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+        <v>82528.106731199994</v>
+      </c>
+      <c r="E3" s="5" cm="1">
+        <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+        <v>13038.9429564</v>
+      </c>
+      <c r="F3" s="5" cm="1">
+        <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+        <v>26077.8859128</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849A45D2-5515-4D77-99DF-8DABB78CF024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17058EF6-2CCC-45F4-9B97-5BBA492E240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -253,7 +253,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1271,7 +1271,7 @@
       <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
@@ -1311,23 +1311,23 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" cm="1">
+      <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
         <v>467536.08880000003</v>
       </c>
-      <c r="C3" s="5" cm="1">
+      <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
         <v>55356.4387212</v>
       </c>
-      <c r="D3" s="5" cm="1">
+      <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
         <v>82528.106731199994</v>
       </c>
-      <c r="E3" s="5" cm="1">
+      <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
         <v>13038.9429564</v>
       </c>
-      <c r="F3" s="5" cm="1">
+      <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
         <v>26077.8859128</v>
       </c>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17058EF6-2CCC-45F4-9B97-5BBA492E240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21174B88-9B82-49DB-BE86-D68F42A1DA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>TIPO</t>
+  </si>
+  <si>
+    <t>AOE II TITANS LEAGUE PLATINUM</t>
+  </si>
+  <si>
+    <t>THE VIPER</t>
+  </si>
+  <si>
+    <t>QATAR MASTERS</t>
+  </si>
+  <si>
+    <t>MAGNUS CARLSEN</t>
   </si>
 </sst>
 </file>
@@ -572,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -584,7 +596,7 @@
     <col min="5" max="5" width="9.59765625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.06640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -728,14 +740,14 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D15" si="0">F3</f>
+        <f t="shared" ref="D4:D17" si="0">F3</f>
         <v>637690</v>
       </c>
       <c r="E4">
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F15" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F17" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
@@ -889,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" ref="M7:M15" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
+        <f t="shared" ref="M7:M17" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
         <v>0.81699999999999995</v>
       </c>
     </row>
@@ -1245,7 +1257,95 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45215</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>643906</v>
+      </c>
+      <c r="E16">
+        <v>57</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>643963</v>
+      </c>
+      <c r="G16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="2"/>
+        <v>1.111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45216</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>643963</v>
+      </c>
+      <c r="E17">
+        <v>84</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>644047</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="2"/>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
@@ -1258,7 +1358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91972E91-C486-48A1-B1C4-268DB8F8852F}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1313,23 +1413,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>467536.08880000003</v>
+        <v>467642.45</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>55356.4387212</v>
+        <v>55369.031924999996</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>82528.106731199994</v>
+        <v>82546.881299999994</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>13038.9429564</v>
+        <v>13041.909224999999</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>26077.8859128</v>
+        <v>26083.818449999999</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21174B88-9B82-49DB-BE86-D68F42A1DA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42861AA-7FDC-461E-9E1B-C2512A0DD7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -133,9 +133,6 @@
     <t>RSA</t>
   </si>
   <si>
-    <t>ET</t>
-  </si>
-  <si>
     <t>GANA 2-0</t>
   </si>
   <si>
@@ -206,6 +203,39 @@
   </si>
   <si>
     <t>MAGNUS CARLSEN</t>
+  </si>
+  <si>
+    <t>PRIMER INHIBIDOR</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>GANA SERIE BO1</t>
+  </si>
+  <si>
+    <t>VALORANT SAUDI ELEAGUES</t>
+  </si>
+  <si>
+    <t>TEAM FALCONS</t>
+  </si>
+  <si>
+    <t>EVIL TOADS</t>
+  </si>
+  <si>
+    <t>GANA SERIE BO5</t>
+  </si>
+  <si>
+    <t>CS2 ESL CHALLENGERS LEAGUE EU</t>
+  </si>
+  <si>
+    <t>TEAM SPIRIT</t>
+  </si>
+  <si>
+    <t>GANA SERIE BO3</t>
   </si>
 </sst>
 </file>
@@ -213,7 +243,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -257,13 +287,13 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -582,26 +612,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.53125" customWidth="1"/>
-    <col min="3" max="3" width="5.73046875" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -642,7 +672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -666,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -685,7 +715,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -710,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
         <v>21</v>
@@ -729,7 +759,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -740,27 +770,27 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D17" si="0">F3</f>
+        <f t="shared" ref="D4:D22" si="0">F3</f>
         <v>637690</v>
       </c>
       <c r="E4">
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F17" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F22" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -773,7 +803,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -804,7 +834,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -817,7 +847,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -845,10 +875,10 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -861,7 +891,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -883,17 +913,17 @@
         <v>642090</v>
       </c>
       <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K7">
         <v>1</v>
       </c>
@@ -901,11 +931,11 @@
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" ref="M7:M17" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
+        <f t="shared" ref="M7:M22" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -927,16 +957,16 @@
         <v>642130</v>
       </c>
       <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -949,7 +979,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -974,13 +1004,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -993,7 +1023,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1018,13 +1048,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
         <v>41</v>
       </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1037,7 +1067,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1062,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
         <v>39</v>
       </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1081,7 +1111,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1106,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>19</v>
@@ -1125,7 +1155,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1150,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
         <v>37</v>
       </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1169,7 +1199,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1194,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
         <v>37</v>
       </c>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1213,7 +1243,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1238,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
         <v>37</v>
       </c>
-      <c r="I15" t="s">
-        <v>38</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1257,7 +1287,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1282,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
         <v>45</v>
       </c>
-      <c r="I16" t="s">
-        <v>46</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1301,7 +1331,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1323,16 +1353,16 @@
         <v>644047</v>
       </c>
       <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1345,8 +1375,225 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B18" s="2"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45217</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>644047</v>
+      </c>
+      <c r="E18">
+        <v>275</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>644322</v>
+      </c>
+      <c r="G18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1679999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45218</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>644322</v>
+      </c>
+      <c r="E19">
+        <v>-500</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>643822</v>
+      </c>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45218</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>643822</v>
+      </c>
+      <c r="E20">
+        <v>2840</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>646662</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5349999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45218</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>646662</v>
+      </c>
+      <c r="E21">
+        <v>540</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>647202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="2"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45219</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>647202</v>
+      </c>
+      <c r="E22">
+        <v>1050</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>648252</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7849999999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1362,14 +1609,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.9296875" style="3"/>
+    <col min="2" max="2" width="10.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>11</v>
@@ -1387,7 +1634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1407,29 +1654,29 @@
         <v>25793.64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>467642.45</v>
+        <v>470694.554</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>55369.031924999996</v>
+        <v>55730.402120999999</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>82546.881299999994</v>
+        <v>83085.629795999994</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>13041.909224999999</v>
+        <v>13127.028237</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>26083.818449999999</v>
+        <v>26254.056474000001</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42861AA-7FDC-461E-9E1B-C2512A0DD7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C62775-B6B8-4CBE-BF43-68AD70E35516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -236,6 +236,21 @@
   </si>
   <si>
     <t>GANA SERIE BO3</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>KILLS</t>
+  </si>
+  <si>
+    <t>BLG</t>
+  </si>
+  <si>
+    <t>AMBOS TEAMS DRAKE</t>
+  </si>
+  <si>
+    <t>KT</t>
   </si>
 </sst>
 </file>
@@ -243,7 +258,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -287,13 +302,13 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -612,26 +627,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="4.53125" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.06640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -672,7 +687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -715,7 +730,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -759,7 +774,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -770,14 +785,14 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D22" si="0">F3</f>
+        <f t="shared" ref="D4:D25" si="0">F3</f>
         <v>637690</v>
       </c>
       <c r="E4">
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F22" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F25" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
@@ -803,7 +818,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -847,7 +862,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -891,7 +906,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -931,11 +946,11 @@
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" ref="M7:M22" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
+        <f t="shared" ref="M7:M25" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -979,7 +994,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1023,7 +1038,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1067,7 +1082,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1111,7 +1126,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1155,7 +1170,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1199,7 +1214,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1243,7 +1258,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1287,7 +1302,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1331,7 +1346,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1375,7 +1390,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1463,7 +1478,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1551,7 +1566,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1593,6 +1608,138 @@
       <c r="M22" s="4">
         <f t="shared" si="2"/>
         <v>1.7849999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45219</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>648252</v>
+      </c>
+      <c r="E23">
+        <v>-2144</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>646108</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="2"/>
+        <v>1.448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45219</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>646108</v>
+      </c>
+      <c r="E24">
+        <v>-6000</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>640108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="2"/>
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45219</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>640108</v>
+      </c>
+      <c r="E25">
+        <v>10000</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>650108</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0760000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1606,15 +1753,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.90625" style="3"/>
+    <col min="2" max="2" width="10.9296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -1634,7 +1781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1654,29 +1801,29 @@
         <v>25793.64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>470694.554</v>
+        <v>472040.25439999998</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>55730.402120999999</v>
+        <v>55889.733525600001</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>83085.629795999994</v>
+        <v>83323.168905600003</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>13127.028237</v>
+        <v>13164.5579832</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>26254.056474000001</v>
+        <v>26329.115966400001</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C62775-B6B8-4CBE-BF43-68AD70E35516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24315A6-3D76-48CF-817C-4D78FB8F2998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>KT</t>
+  </si>
+  <si>
+    <t>JDG</t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -302,13 +305,13 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -627,26 +630,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.53125" customWidth="1"/>
-    <col min="3" max="3" width="5.73046875" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -687,7 +690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -730,7 +733,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -774,7 +777,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -785,14 +788,14 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D25" si="0">F3</f>
+        <f t="shared" ref="D4:D27" si="0">F3</f>
         <v>637690</v>
       </c>
       <c r="E4">
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F25" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F27" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
@@ -818,7 +821,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -862,7 +865,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -906,7 +909,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -946,11 +949,11 @@
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" ref="M7:M25" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
+        <f t="shared" ref="M7:M27" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -994,7 +997,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1038,7 +1041,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1346,7 +1349,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1610,7 +1613,7 @@
         <v>1.7849999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1740,6 +1743,94 @@
       <c r="M25" s="4">
         <f t="shared" si="2"/>
         <v>2.0760000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45220</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>650108</v>
+      </c>
+      <c r="E26">
+        <v>930</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>651038</v>
+      </c>
+      <c r="G26" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="2"/>
+        <v>2.222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45220</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>651038</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>651042</v>
+      </c>
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2229999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1756,12 +1847,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.9296875" style="3"/>
+    <col min="2" max="2" width="10.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -1781,7 +1872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1801,29 +1892,29 @@
         <v>25793.64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>472040.25439999998</v>
+        <v>472720.04119999998</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>55889.733525600001</v>
+        <v>55970.220523799995</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>83323.168905600003</v>
+        <v>83443.162888799998</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>13164.5579832</v>
+        <v>13183.516308599999</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>26329.115966400001</v>
+        <v>26367.032617199999</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24315A6-3D76-48CF-817C-4D78FB8F2998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88A3FA0-0DC4-4E22-ACF0-C8694B6E369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -630,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -788,14 +788,14 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D27" si="0">F3</f>
+        <f t="shared" ref="D4:D28" si="0">F3</f>
         <v>637690</v>
       </c>
       <c r="E4">
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F27" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F28" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" ref="M7:M27" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
+        <f t="shared" ref="M7:M28" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
         <v>0.81699999999999995</v>
       </c>
     </row>
@@ -1831,6 +1831,50 @@
       <c r="M27" s="4">
         <f t="shared" si="2"/>
         <v>2.2229999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45221</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>651042</v>
+      </c>
+      <c r="E28">
+        <v>2010</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>653052</v>
+      </c>
+      <c r="G28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5379999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1898,23 +1942,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>472720.04119999998</v>
+        <v>474176.72720000002</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>55970.220523799995</v>
+        <v>56142.6926628</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>83443.162888799998</v>
+        <v>83700.29285279999</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>13183.516308599999</v>
+        <v>13224.141291599999</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>26367.032617199999</v>
+        <v>26448.282583199998</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88A3FA0-0DC4-4E22-ACF0-C8694B6E369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BE51B2-4B03-4ACC-9F46-81C351EFE908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>JDG</t>
+  </si>
+  <si>
+    <t>DK</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -305,13 +308,13 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -630,26 +633,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F12" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="4.53125" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.06640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -690,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -733,7 +736,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -777,7 +780,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -788,14 +791,14 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D28" si="0">F3</f>
+        <f t="shared" ref="D4:D29" si="0">F3</f>
         <v>637690</v>
       </c>
       <c r="E4">
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F28" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F29" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
@@ -821,7 +824,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -865,7 +868,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -909,7 +912,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -949,11 +952,11 @@
         <v>0</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" ref="M7:M28" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
+        <f t="shared" ref="M7:M29" si="2">ROUND((F7/$D$2-1)*100, 3)</f>
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1085,7 +1088,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1217,7 +1220,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1261,7 +1264,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1525,7 +1528,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>1.7849999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1701,7 +1704,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1789,7 +1792,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1875,6 +1878,50 @@
       <c r="M28" s="4">
         <f t="shared" si="2"/>
         <v>2.5379999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45222</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>653052</v>
+      </c>
+      <c r="E29">
+        <v>230</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>653282</v>
+      </c>
+      <c r="G29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5750000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1891,12 +1938,12 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.90625" style="3"/>
+    <col min="2" max="2" width="10.9296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -1916,7 +1963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1930,35 +1977,36 @@
         <v>81628.56</v>
       </c>
       <c r="E2" s="3">
-        <v>12896.82</v>
+        <f>12896.82+20000</f>
+        <v>32896.82</v>
       </c>
       <c r="F2" s="3">
         <v>25793.64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>474176.72720000002</v>
+        <v>474347.83</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>56142.6926628</v>
+        <v>56162.951294999999</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>83700.29285279999</v>
+        <v>83730.495419999992</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>13224.141291599999</v>
+        <v>33743.913115000003</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>26448.282583199998</v>
+        <v>26457.826229999999</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BE51B2-4B03-4ACC-9F46-81C351EFE908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D63554F-8108-4320-A5C3-67A8614D11D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
     <sheet name="resumen" sheetId="10" r:id="rId2"/>
+    <sheet name="conv" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -257,14 +258,36 @@
   </si>
   <si>
     <t>DK</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>1U</t>
+  </si>
+  <si>
+    <t>2U</t>
+  </si>
+  <si>
+    <t>3U</t>
+  </si>
+  <si>
+    <t>5U</t>
+  </si>
+  <si>
+    <t>IBERIAN CUP</t>
+  </si>
+  <si>
+    <t>LH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -310,13 +333,16 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
@@ -633,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -798,7 +824,7 @@
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F29" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F30" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
@@ -1922,6 +1948,49 @@
       <c r="M29" s="4">
         <f t="shared" si="2"/>
         <v>2.5750000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45224</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1674443.0160600001</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>1674456.0160600001</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <f>ROUND((F30/$D$30-1)*100, 3)+$M$29</f>
+        <v>2.5760000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1932,15 +2001,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91972E91-C486-48A1-B1C4-268DB8F8852F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.9296875" style="3"/>
+    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1967,6 +2037,122 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="8">
+        <v>462440</v>
+      </c>
+      <c r="C2" s="8">
+        <v>54753.06</v>
+      </c>
+      <c r="D2" s="8">
+        <v>81628.56</v>
+      </c>
+      <c r="E2" s="8">
+        <f>12896.82+20000</f>
+        <v>32896.82</v>
+      </c>
+      <c r="F2" s="8">
+        <v>25793.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" cm="1">
+        <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+        <v>474352.45439999999</v>
+      </c>
+      <c r="C3" s="8" cm="1">
+        <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+        <v>56163.4988256</v>
+      </c>
+      <c r="D3" s="8" cm="1">
+        <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+        <v>83731.311705600005</v>
+      </c>
+      <c r="E3" s="8" cm="1">
+        <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+        <v>33744.242083199999</v>
+      </c>
+      <c r="F3" s="8" cm="1">
+        <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+        <v>26458.0841664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1474347.83</v>
+      </c>
+      <c r="C4" s="6">
+        <v>56162.951294999999</v>
+      </c>
+      <c r="D4" s="6">
+        <v>83730.495419999992</v>
+      </c>
+      <c r="E4" s="6">
+        <v>33743.913115000003</v>
+      </c>
+      <c r="F4" s="6">
+        <v>26457.826229999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB4FCAC-596E-4732-9765-DB795EF02234}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" s="3">
         <v>462440</v>
       </c>
@@ -1983,33 +2169,84 @@
       <c r="F2" s="3">
         <v>25793.64</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="6">
+        <f t="shared" ref="G2:G3" si="0">SUM(B2:F2)</f>
+        <v>657512.07999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+      <c r="B3" s="3">
         <v>474347.83</v>
       </c>
-      <c r="C3" s="3" cm="1">
-        <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+      <c r="C3" s="3">
         <v>56162.951294999999</v>
       </c>
-      <c r="D3" s="3" cm="1">
-        <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+      <c r="D3" s="3">
         <v>83730.495419999992</v>
       </c>
-      <c r="E3" s="3" cm="1">
-        <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+      <c r="E3" s="3">
         <v>33743.913115000003</v>
       </c>
-      <c r="F3" s="3" cm="1">
-        <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
+      <c r="F3" s="3">
         <v>26457.826229999999</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>674443.01605999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <f>B3+1000000</f>
+        <v>1474347.83</v>
+      </c>
+      <c r="C4" s="3">
+        <v>56162.951294999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>83730.495419999992</v>
+      </c>
+      <c r="E4" s="3">
+        <v>33743.913115000003</v>
+      </c>
+      <c r="F4" s="3">
+        <v>26457.826229999999</v>
+      </c>
+      <c r="G4" s="6">
+        <f>SUM(B4:F4)</f>
+        <v>1674443.0160600001</v>
+      </c>
+      <c r="H4" s="7">
+        <f>2.575+100</f>
+        <v>102.575</v>
+      </c>
+      <c r="I4" s="6">
+        <f>G4/100</f>
+        <v>16744.430160600001</v>
+      </c>
+      <c r="J4" s="6">
+        <f>I4*2</f>
+        <v>33488.860321200002</v>
+      </c>
+      <c r="K4" s="6">
+        <f>I4+J4</f>
+        <v>50233.290481800002</v>
+      </c>
+      <c r="L4" s="6">
+        <f>K4+J4</f>
+        <v>83722.150802999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="G3" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D63554F-8108-4320-A5C3-67A8614D11D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6ED82E-57B4-42A8-B502-39202EFE58AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="1" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -333,7 +333,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -342,7 +342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
@@ -659,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -824,7 +823,7 @@
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F30" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F31" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
@@ -1955,41 +1954,50 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
+        <v>45223</v>
+      </c>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
         <v>45224</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>1674443.0160600001</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>13</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <f t="shared" si="1"/>
         <v>1674456.0160600001</v>
       </c>
-      <c r="G30" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
         <v>71</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
-        <f>ROUND((F30/$D$30-1)*100, 3)+$M$29</f>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <f>ROUND((F31/$D$31-1)*100, 3)+$M$29</f>
         <v>2.5760000000000001</v>
       </c>
     </row>
@@ -2003,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91972E91-C486-48A1-B1C4-268DB8F8852F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -2037,20 +2045,20 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="3">
         <v>462440</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="3">
         <v>54753.06</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="3">
         <v>81628.56</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="3">
         <f>12896.82+20000</f>
         <v>32896.82</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="3">
         <v>25793.64</v>
       </c>
     </row>
@@ -2058,32 +2066,32 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="8" cm="1">
+      <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>474352.45439999999</v>
-      </c>
-      <c r="C3" s="8" cm="1">
+        <v>462440</v>
+      </c>
+      <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>56163.4988256</v>
-      </c>
-      <c r="D3" s="8" cm="1">
+        <v>54753.06</v>
+      </c>
+      <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>83731.311705600005</v>
-      </c>
-      <c r="E3" s="8" cm="1">
+        <v>81628.56</v>
+      </c>
+      <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>33744.242083199999</v>
-      </c>
-      <c r="F3" s="8" cm="1">
+        <v>32896.82</v>
+      </c>
+      <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>26458.0841664</v>
+        <v>25793.64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="3">
         <v>1474347.83</v>
       </c>
       <c r="C4" s="6">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6ED82E-57B4-42A8-B502-39202EFE58AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAC0AB8-0A5D-4D07-83D9-4720CAD758B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>LH</t>
+  </si>
+  <si>
+    <t>FNC</t>
+  </si>
+  <si>
+    <t>WBG</t>
   </si>
 </sst>
 </file>
@@ -658,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -823,7 +829,7 @@
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F31" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F33" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
@@ -1999,6 +2005,92 @@
       <c r="M31" s="4">
         <f>ROUND((F31/$D$31-1)*100, 3)+$M$29</f>
         <v>2.5760000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45225</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1674443.0160600001</v>
+      </c>
+      <c r="E32">
+        <v>1390</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>1675833.0160600001</v>
+      </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" ref="M32:M33" si="3">ROUND((F32/$D$31-1)*100, 3)+$M$29</f>
+        <v>2.6580000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45225</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1674443.0160600001</v>
+      </c>
+      <c r="E33">
+        <v>668</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1675111.0160600001</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="3"/>
+        <v>2.6150000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2068,23 +2160,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>462440</v>
+        <v>474731.65519999998</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>54753.06</v>
+        <v>56208.396334799996</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>81628.56</v>
+        <v>83798.247124799993</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>32896.82</v>
+        <v>33771.217475600002</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>25793.64</v>
+        <v>26479.2349512</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAC0AB8-0A5D-4D07-83D9-4720CAD758B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29130967-65C9-41C4-85D3-B7F31CDFBB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -2018,14 +2018,15 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>1674443.0160600001</v>
+        <f>F31</f>
+        <v>1674456.0160600001</v>
       </c>
       <c r="E32">
         <v>1390</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>1675833.0160600001</v>
+        <v>1675846.0160600001</v>
       </c>
       <c r="G32" t="s">
         <v>0</v>
@@ -2047,7 +2048,7 @@
       </c>
       <c r="M32" s="4">
         <f t="shared" ref="M32:M33" si="3">ROUND((F32/$D$31-1)*100, 3)+$M$29</f>
-        <v>2.6580000000000004</v>
+        <v>2.6590000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
@@ -2061,14 +2062,15 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1674443.0160600001</v>
+        <f>F32</f>
+        <v>1675846.0160600001</v>
       </c>
       <c r="E33">
         <v>668</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>1675111.0160600001</v>
+        <v>1676514.0160600001</v>
       </c>
       <c r="G33" t="s">
         <v>0</v>
@@ -2090,7 +2092,7 @@
       </c>
       <c r="M33" s="4">
         <f t="shared" si="3"/>
-        <v>2.6150000000000002</v>
+        <v>2.6990000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2160,23 +2162,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>474731.65519999998</v>
+        <v>474736.27960000001</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>56208.396334799996</v>
+        <v>56208.943865399997</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>83798.247124799993</v>
+        <v>83799.063410399991</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>33771.217475600002</v>
+        <v>33771.546443799998</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>26479.2349512</v>
+        <v>26479.492887600001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29130967-65C9-41C4-85D3-B7F31CDFBB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9021BF07-0FF3-4F7B-9B06-3751F81AA75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>WBG</t>
+  </si>
+  <si>
+    <t>PRIMER BARON MAPA 1</t>
   </si>
 </sst>
 </file>
@@ -292,8 +295,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -337,17 +340,17 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
@@ -664,26 +667,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.53125" customWidth="1"/>
-    <col min="3" max="3" width="5.73046875" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -724,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -767,7 +770,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -811,7 +814,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -829,7 +832,7 @@
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F33" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F35" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
@@ -855,7 +858,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -899,7 +902,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -943,7 +946,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -987,7 +990,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1119,7 +1122,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1207,7 +1210,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1295,7 +1298,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1603,7 +1606,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>1.7849999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1691,7 +1694,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1911,7 +1914,7 @@
         <v>2.5379999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>2.5750000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1964,7 +1967,7 @@
       </c>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2007,7 +2010,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2047,11 +2050,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" ref="M32:M33" si="3">ROUND((F32/$D$31-1)*100, 3)+$M$29</f>
+        <f t="shared" ref="M32:M35" si="3">ROUND((F32/$D$31-1)*100, 3)+$M$29</f>
         <v>2.6590000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2093,6 +2096,94 @@
       <c r="M33" s="4">
         <f t="shared" si="3"/>
         <v>2.6990000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45226</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D35" si="4">F33</f>
+        <v>1676514.0160600001</v>
+      </c>
+      <c r="E34">
+        <v>871</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>1677385.0160600001</v>
+      </c>
+      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="3"/>
+        <v>2.7510000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45226</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>1677385.0160600001</v>
+      </c>
+      <c r="E35">
+        <v>835</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>1678220.0160600001</v>
+      </c>
+      <c r="G35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="3"/>
+        <v>2.8010000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2109,13 +2200,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2135,7 +2226,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2156,32 +2247,32 @@
         <v>25793.64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>474736.27960000001</v>
+        <v>475161.72440000001</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>56208.943865399997</v>
+        <v>56259.316680600001</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>83799.063410399991</v>
+        <v>83874.161685600004</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>33771.546443799998</v>
+        <v>33801.811518199996</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>26479.492887600001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>26503.223036399999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2214,9 +2305,9 @@
       <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2251,7 +2342,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2276,7 +2367,7 @@
         <v>657512.07999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2300,7 +2391,7 @@
         <v>674443.01605999994</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9021BF07-0FF3-4F7B-9B06-3751F81AA75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A197C8A4-BD7A-4B95-A9C8-9BD3371F3AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>PRIMER BARON MAPA 1</t>
+  </si>
+  <si>
+    <t>ACE MAPA 1</t>
+  </si>
+  <si>
+    <t>PRIMER BARON</t>
   </si>
 </sst>
 </file>
@@ -667,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,7 +838,7 @@
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F35" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F43" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
@@ -2050,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" ref="M32:M35" si="3">ROUND((F32/$D$31-1)*100, 3)+$M$29</f>
+        <f t="shared" ref="M32:M43" si="3">ROUND((F32/$D$31-1)*100, 3)+$M$29</f>
         <v>2.6590000000000003</v>
       </c>
     </row>
@@ -2109,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D35" si="4">F33</f>
+        <f t="shared" ref="D34:D43" si="4">F33</f>
         <v>1676514.0160600001</v>
       </c>
       <c r="E34">
@@ -2185,6 +2191,276 @@
         <f t="shared" si="3"/>
         <v>2.8010000000000002</v>
       </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45227</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>1678220.0160600001</v>
+      </c>
+      <c r="E36">
+        <v>-8925</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>1669295.0160600001</v>
+      </c>
+      <c r="G36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2680000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45227</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>1669295.0160600001</v>
+      </c>
+      <c r="E37">
+        <v>1600</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>1670895.0160600001</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="3"/>
+        <v>2.363</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45228</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>1670895.0160600001</v>
+      </c>
+      <c r="E38">
+        <v>1200</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>1672095.0160600001</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="3"/>
+        <v>2.4350000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45228</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>1672095.0160600001</v>
+      </c>
+      <c r="E39">
+        <v>2480</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1674575.0160600001</v>
+      </c>
+      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5830000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45228</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>1674575.0160600001</v>
+      </c>
+      <c r="E40">
+        <v>-3480</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1671095.0160600001</v>
+      </c>
+      <c r="G40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="3"/>
+        <v>2.375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45228</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>1671095.0160600001</v>
+      </c>
+      <c r="E41">
+        <v>12800</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>1683895.0160600001</v>
+      </c>
+      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="3"/>
+        <v>3.1390000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M43" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2253,23 +2529,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>475161.72440000001</v>
+        <v>473422.95</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>56259.316680600001</v>
+        <v>56053.445175000001</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>83874.161685600004</v>
+        <v>83567.238299999997</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>33801.811518199996</v>
+        <v>33678.119475</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>26503.223036399999</v>
+        <v>26406.238949999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A197C8A4-BD7A-4B95-A9C8-9BD3371F3AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDEE517-47B5-495D-902B-AA9EC4B97F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -673,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,7 +838,7 @@
         <v>-5000</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F43" si="1">D4+E4</f>
+        <f t="shared" ref="F4:F41" si="1">D4+E4</f>
         <v>632690</v>
       </c>
       <c r="G4" t="s">
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" ref="M32:M43" si="3">ROUND((F32/$D$31-1)*100, 3)+$M$29</f>
+        <f t="shared" ref="M32:M41" si="3">ROUND((F32/$D$31-1)*100, 3)+$M$29</f>
         <v>2.6590000000000003</v>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D43" si="4">F33</f>
+        <f t="shared" ref="D34:D41" si="4">F33</f>
         <v>1676514.0160600001</v>
       </c>
       <c r="E34">
@@ -2457,10 +2457,38 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45229</v>
+      </c>
       <c r="M42" s="4"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45230</v>
+      </c>
       <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45232</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDEE517-47B5-495D-902B-AA9EC4B97F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2822F40E-96AC-4AB0-AC6E-E524EFE00B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -301,8 +301,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -346,17 +346,17 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
@@ -673,26 +673,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="4.53125" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.06640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -733,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -776,7 +776,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -864,7 +864,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -908,7 +908,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -952,7 +952,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -996,7 +996,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>1.7849999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>2.5379999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>2.5750000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>2.6590000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>2.6990000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>2.7510000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>2.8010000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>2.2680000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>2.363</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>3.1390000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2473,22 +2473,6 @@
         <v>45230</v>
       </c>
       <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45232</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2504,13 +2488,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2530,7 +2514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2551,7 +2535,7 @@
         <v>25793.64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2576,7 +2560,7 @@
         <v>26406.238949999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2609,9 +2593,9 @@
       <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2646,7 +2630,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2671,7 +2655,7 @@
         <v>657512.07999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2695,7 +2679,7 @@
         <v>674443.01605999994</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2822F40E-96AC-4AB0-AC6E-E524EFE00B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99449868-045F-4FA7-9A80-F9025F098B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -673,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2473,6 +2473,22 @@
         <v>45230</v>
       </c>
       <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45232</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99449868-045F-4FA7-9A80-F9025F098B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E36F487-FDCE-4689-B86F-11BB01EBEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -676,7 +676,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2488,6 +2488,41 @@
       </c>
       <c r="B45" s="2">
         <v>45232</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1683895.0160600001</v>
+      </c>
+      <c r="E45">
+        <v>100</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45" si="5">D45+E45</f>
+        <v>1683995.0160600001</v>
+      </c>
+      <c r="G45" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" ref="M45" si="6">ROUND((F45/$D$31-1)*100, 3)+$M$29</f>
+        <v>3.145</v>
       </c>
     </row>
   </sheetData>
@@ -2557,23 +2592,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>473422.95</v>
+        <v>476955.99160000001</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>56053.445175000001</v>
+        <v>56471.758553399995</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>83567.238299999997</v>
+        <v>84190.880498400002</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>33678.119475</v>
+        <v>33929.451179800002</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>26406.238949999999</v>
+        <v>26603.302359599998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E36F487-FDCE-4689-B86F-11BB01EBEC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6381488A-1C43-433B-A107-E2C737BF65AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6381488A-1C43-433B-A107-E2C737BF65AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F0C333-C925-4733-A9CC-2FB5777C3FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -673,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2473,57 +2473,6 @@
         <v>45230</v>
       </c>
       <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2">
-        <v>45231</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2">
-        <v>45232</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1683895.0160600001</v>
-      </c>
-      <c r="E45">
-        <v>100</v>
-      </c>
-      <c r="F45">
-        <f t="shared" ref="F45" si="5">D45+E45</f>
-        <v>1683995.0160600001</v>
-      </c>
-      <c r="G45" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" t="s">
-        <v>61</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
-        <f t="shared" ref="M45" si="6">ROUND((F45/$D$31-1)*100, 3)+$M$29</f>
-        <v>3.145</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2592,23 +2541,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>476955.99160000001</v>
+        <v>473422.95</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>56471.758553399995</v>
+        <v>56053.445175000001</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>84190.880498400002</v>
+        <v>83567.238299999997</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>33929.451179800002</v>
+        <v>33678.119475</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$M:$M,COUNTA(bets!$M:$M))/100</f>
-        <v>26603.302359599998</v>
+        <v>26406.238949999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027A6DA6-77D4-44D9-B7FE-082661C7EA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3089596B-9034-4B92-B70F-56DC84B1852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -297,6 +297,75 @@
   </si>
   <si>
     <t>ex_date</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2023-10-10</t>
+  </si>
+  <si>
+    <t>2023-10-11</t>
+  </si>
+  <si>
+    <t>2023-10-12</t>
+  </si>
+  <si>
+    <t>2023-10-13</t>
+  </si>
+  <si>
+    <t>2023-10-14</t>
+  </si>
+  <si>
+    <t>2023-10-15</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-10-17</t>
+  </si>
+  <si>
+    <t>2023-10-18</t>
+  </si>
+  <si>
+    <t>2023-10-19</t>
+  </si>
+  <si>
+    <t>2023-10-20</t>
+  </si>
+  <si>
+    <t>2023-10-21</t>
+  </si>
+  <si>
+    <t>2023-10-22</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-24</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
+    <t>2023-10-26</t>
+  </si>
+  <si>
+    <t>2023-10-27</t>
+  </si>
+  <si>
+    <t>2023-10-28</t>
+  </si>
+  <si>
+    <t>2023-10-29</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2023-10-31</t>
   </si>
 </sst>
 </file>
@@ -678,13 +747,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.53125" customWidth="1"/>
+    <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.73046875" customWidth="1"/>
     <col min="5" max="5" width="9.73046875" customWidth="1"/>
     <col min="6" max="6" width="9.59765625" customWidth="1"/>
@@ -746,9 +816,8 @@
       <c r="B2" s="2">
         <v>45208</v>
       </c>
-      <c r="C2" s="2" t="str">
-        <f>TEXT(B2,"YYYY-MM-DD")</f>
-        <v>2023-10-09</v>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -793,9 +862,8 @@
       <c r="B3" s="2">
         <v>45209</v>
       </c>
-      <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C43" si="0">TEXT(B3,"YYYY-MM-DD")</f>
-        <v>2023-10-10</v>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -841,22 +909,21 @@
       <c r="B4" s="2">
         <v>45210</v>
       </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-11</v>
+      <c r="C4" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E29" si="1">G3</f>
+        <f t="shared" ref="E4:E29" si="0">G3</f>
         <v>637690</v>
       </c>
       <c r="F4">
         <v>-5000</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G41" si="2">E4+F4</f>
+        <f t="shared" ref="G4:G41" si="1">E4+F4</f>
         <v>632690</v>
       </c>
       <c r="H4" t="s">
@@ -889,22 +956,21 @@
       <c r="B5" s="2">
         <v>45210</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>2023-10-11</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
         <v>632690</v>
       </c>
       <c r="F5">
         <v>-7000</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>625690</v>
       </c>
       <c r="H5" t="s">
@@ -937,22 +1003,21 @@
       <c r="B6" s="2">
         <v>45210</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>2023-10-11</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
         <v>625690</v>
       </c>
       <c r="F6">
         <v>15250</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>640940</v>
       </c>
       <c r="H6" t="s">
@@ -985,22 +1050,21 @@
       <c r="B7" s="2">
         <v>45211</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>2023-10-12</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
         <v>640940</v>
       </c>
       <c r="F7">
         <v>1150</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>642090</v>
       </c>
       <c r="H7" t="s">
@@ -1022,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" ref="N7:N29" si="3">ROUND((G7/$E$2-1)*100, 3)</f>
+        <f t="shared" ref="N7:N29" si="2">ROUND((G7/$E$2-1)*100, 3)</f>
         <v>0.81699999999999995</v>
       </c>
     </row>
@@ -1033,22 +1097,21 @@
       <c r="B8" s="2">
         <v>45211</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>2023-10-12</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
         <v>642090</v>
       </c>
       <c r="F8">
         <v>40</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>642130</v>
       </c>
       <c r="H8" t="s">
@@ -1070,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.82399999999999995</v>
       </c>
     </row>
@@ -1081,22 +1144,21 @@
       <c r="B9" s="2">
         <v>45212</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>2023-10-13</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
         <v>642130</v>
       </c>
       <c r="F9">
         <v>405</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>642535</v>
       </c>
       <c r="H9" t="s">
@@ -1118,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.88700000000000001</v>
       </c>
     </row>
@@ -1129,22 +1191,21 @@
       <c r="B10" s="2">
         <v>45213</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>2023-10-14</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
         <v>642535</v>
       </c>
       <c r="F10">
         <v>1140</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>643675</v>
       </c>
       <c r="H10" t="s">
@@ -1177,22 +1238,21 @@
       <c r="B11" s="2">
         <v>45213</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>2023-10-14</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
         <v>643675</v>
       </c>
       <c r="F11">
         <v>690</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>644365</v>
       </c>
       <c r="H11" t="s">
@@ -1225,22 +1285,21 @@
       <c r="B12" s="2">
         <v>45213</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>2023-10-14</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
         <v>644365</v>
       </c>
       <c r="F12">
         <v>-5000</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>639365</v>
       </c>
       <c r="H12" t="s">
@@ -1273,22 +1332,21 @@
       <c r="B13" s="2">
         <v>45214</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>2023-10-15</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
         <v>639365</v>
       </c>
       <c r="F13">
         <v>64</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>639429</v>
       </c>
       <c r="H13" t="s">
@@ -1310,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.39900000000000002</v>
       </c>
     </row>
@@ -1321,22 +1379,21 @@
       <c r="B14" s="2">
         <v>45214</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>2023-10-15</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
         <v>639429</v>
       </c>
       <c r="F14">
         <v>605</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>640034</v>
       </c>
       <c r="H14" t="s">
@@ -1358,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.49399999999999999</v>
       </c>
     </row>
@@ -1369,22 +1426,21 @@
       <c r="B15" s="2">
         <v>45214</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>2023-10-15</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
         <v>640034</v>
       </c>
       <c r="F15">
         <v>3872</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>643906</v>
       </c>
       <c r="H15" t="s">
@@ -1406,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1020000000000001</v>
       </c>
     </row>
@@ -1417,22 +1473,21 @@
       <c r="B16" s="2">
         <v>45215</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>2023-10-16</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
         <v>643906</v>
       </c>
       <c r="F16">
         <v>57</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>643963</v>
       </c>
       <c r="H16" t="s">
@@ -1454,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.111</v>
       </c>
     </row>
@@ -1465,22 +1520,21 @@
       <c r="B17" s="2">
         <v>45216</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>2023-10-17</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
         <v>643963</v>
       </c>
       <c r="F17">
         <v>84</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>644047</v>
       </c>
       <c r="H17" t="s">
@@ -1502,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.125</v>
       </c>
     </row>
@@ -1513,22 +1567,21 @@
       <c r="B18" s="2">
         <v>45217</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>2023-10-18</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
         <v>644047</v>
       </c>
       <c r="F18">
         <v>275</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>644322</v>
       </c>
       <c r="H18" t="s">
@@ -1550,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.1679999999999999</v>
       </c>
     </row>
@@ -1561,22 +1614,21 @@
       <c r="B19" s="2">
         <v>45218</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>2023-10-19</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
         <v>644322</v>
       </c>
       <c r="F19">
         <v>-500</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>643822</v>
       </c>
       <c r="H19" t="s">
@@ -1598,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.089</v>
       </c>
     </row>
@@ -1609,22 +1661,21 @@
       <c r="B20" s="2">
         <v>45218</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
-        <v>2023-10-19</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
         <v>643822</v>
       </c>
       <c r="F20">
         <v>2840</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>646662</v>
       </c>
       <c r="H20" t="s">
@@ -1646,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.5349999999999999</v>
       </c>
     </row>
@@ -1657,22 +1708,21 @@
       <c r="B21" s="2">
         <v>45218</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
-        <v>2023-10-19</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
         <v>646662</v>
       </c>
       <c r="F21">
         <v>540</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>647202</v>
       </c>
       <c r="H21" t="s">
@@ -1694,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.62</v>
       </c>
     </row>
@@ -1705,22 +1755,21 @@
       <c r="B22" s="2">
         <v>45219</v>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="C22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="0"/>
-        <v>2023-10-20</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
         <v>647202</v>
       </c>
       <c r="F22">
         <v>1050</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>648252</v>
       </c>
       <c r="H22" t="s">
@@ -1742,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.7849999999999999</v>
       </c>
     </row>
@@ -1753,22 +1802,21 @@
       <c r="B23" s="2">
         <v>45219</v>
       </c>
-      <c r="C23" s="2" t="str">
+      <c r="C23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="0"/>
-        <v>2023-10-20</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
         <v>648252</v>
       </c>
       <c r="F23">
         <v>-2144</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>646108</v>
       </c>
       <c r="H23" t="s">
@@ -1790,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.448</v>
       </c>
     </row>
@@ -1801,22 +1849,21 @@
       <c r="B24" s="2">
         <v>45219</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="0"/>
-        <v>2023-10-20</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
         <v>646108</v>
       </c>
       <c r="F24">
         <v>-6000</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>640108</v>
       </c>
       <c r="H24" t="s">
@@ -1838,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.50600000000000001</v>
       </c>
     </row>
@@ -1849,22 +1896,21 @@
       <c r="B25" s="2">
         <v>45219</v>
       </c>
-      <c r="C25" s="2" t="str">
+      <c r="C25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="0"/>
-        <v>2023-10-20</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
         <v>640108</v>
       </c>
       <c r="F25">
         <v>10000</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>650108</v>
       </c>
       <c r="H25" t="s">
@@ -1886,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.0760000000000001</v>
       </c>
     </row>
@@ -1897,22 +1943,21 @@
       <c r="B26" s="2">
         <v>45220</v>
       </c>
-      <c r="C26" s="2" t="str">
+      <c r="C26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="0"/>
-        <v>2023-10-21</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
         <v>650108</v>
       </c>
       <c r="F26">
         <v>930</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>651038</v>
       </c>
       <c r="H26" t="s">
@@ -1934,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.222</v>
       </c>
     </row>
@@ -1945,22 +1990,21 @@
       <c r="B27" s="2">
         <v>45220</v>
       </c>
-      <c r="C27" s="2" t="str">
+      <c r="C27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
-        <v>2023-10-21</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
         <v>651038</v>
       </c>
       <c r="F27">
         <v>4</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>651042</v>
       </c>
       <c r="H27" t="s">
@@ -1982,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.2229999999999999</v>
       </c>
     </row>
@@ -1993,22 +2037,21 @@
       <c r="B28" s="2">
         <v>45221</v>
       </c>
-      <c r="C28" s="2" t="str">
+      <c r="C28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="0"/>
-        <v>2023-10-22</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
         <v>651042</v>
       </c>
       <c r="F28">
         <v>2010</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>653052</v>
       </c>
       <c r="H28" t="s">
@@ -2030,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5379999999999998</v>
       </c>
     </row>
@@ -2041,22 +2084,21 @@
       <c r="B29" s="2">
         <v>45222</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
-        <v>2023-10-23</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
         <v>653052</v>
       </c>
       <c r="F29">
         <v>230</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>653282</v>
       </c>
       <c r="H29" t="s">
@@ -2078,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.5750000000000002</v>
       </c>
     </row>
@@ -2089,9 +2131,8 @@
       <c r="B30" s="2">
         <v>45223</v>
       </c>
-      <c r="C30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-24</v>
+      <c r="C30" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="N30" s="4"/>
     </row>
@@ -2102,9 +2143,8 @@
       <c r="B31" s="2">
         <v>45224</v>
       </c>
-      <c r="C31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-25</v>
+      <c r="C31" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2116,7 +2156,7 @@
         <v>13</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1674456.0160600001</v>
       </c>
       <c r="H31" t="s">
@@ -2149,9 +2189,8 @@
       <c r="B32" s="2">
         <v>45225</v>
       </c>
-      <c r="C32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-26</v>
+      <c r="C32" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2164,7 +2203,7 @@
         <v>1390</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1675846.0160600001</v>
       </c>
       <c r="H32" t="s">
@@ -2186,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" ref="N32:N41" si="4">ROUND((G32/$E$31-1)*100, 3)+$N$29</f>
+        <f t="shared" ref="N32:N41" si="3">ROUND((G32/$E$31-1)*100, 3)+$N$29</f>
         <v>2.6590000000000003</v>
       </c>
     </row>
@@ -2197,9 +2236,8 @@
       <c r="B33" s="2">
         <v>45225</v>
       </c>
-      <c r="C33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-26</v>
+      <c r="C33" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2212,7 +2250,7 @@
         <v>668</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1676514.0160600001</v>
       </c>
       <c r="H33" t="s">
@@ -2234,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.6990000000000003</v>
       </c>
     </row>
@@ -2245,22 +2283,21 @@
       <c r="B34" s="2">
         <v>45226</v>
       </c>
-      <c r="C34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-27</v>
+      <c r="C34" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E41" si="5">G33</f>
+        <f t="shared" ref="E34:E41" si="4">G33</f>
         <v>1676514.0160600001</v>
       </c>
       <c r="F34">
         <v>871</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1677385.0160600001</v>
       </c>
       <c r="H34" t="s">
@@ -2282,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.7510000000000003</v>
       </c>
     </row>
@@ -2293,22 +2330,21 @@
       <c r="B35" s="2">
         <v>45226</v>
       </c>
-      <c r="C35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-27</v>
+      <c r="C35" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1677385.0160600001</v>
       </c>
       <c r="F35">
         <v>835</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1678220.0160600001</v>
       </c>
       <c r="H35" t="s">
@@ -2330,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.8010000000000002</v>
       </c>
     </row>
@@ -2341,22 +2377,21 @@
       <c r="B36" s="2">
         <v>45227</v>
       </c>
-      <c r="C36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-28</v>
+      <c r="C36" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1678220.0160600001</v>
       </c>
       <c r="F36">
         <v>-8925</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1669295.0160600001</v>
       </c>
       <c r="H36" t="s">
@@ -2378,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.2680000000000002</v>
       </c>
     </row>
@@ -2389,22 +2424,21 @@
       <c r="B37" s="2">
         <v>45227</v>
       </c>
-      <c r="C37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-28</v>
+      <c r="C37" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1669295.0160600001</v>
       </c>
       <c r="F37">
         <v>1600</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1670895.0160600001</v>
       </c>
       <c r="H37" t="s">
@@ -2426,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.363</v>
       </c>
     </row>
@@ -2437,22 +2471,21 @@
       <c r="B38" s="2">
         <v>45228</v>
       </c>
-      <c r="C38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-29</v>
+      <c r="C38" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1670895.0160600001</v>
       </c>
       <c r="F38">
         <v>1200</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1672095.0160600001</v>
       </c>
       <c r="H38" t="s">
@@ -2474,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.4350000000000001</v>
       </c>
     </row>
@@ -2485,22 +2518,21 @@
       <c r="B39" s="2">
         <v>45228</v>
       </c>
-      <c r="C39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-29</v>
+      <c r="C39" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1672095.0160600001</v>
       </c>
       <c r="F39">
         <v>2480</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1674575.0160600001</v>
       </c>
       <c r="H39" t="s">
@@ -2522,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.5830000000000002</v>
       </c>
     </row>
@@ -2533,22 +2565,21 @@
       <c r="B40" s="2">
         <v>45228</v>
       </c>
-      <c r="C40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-29</v>
+      <c r="C40" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1674575.0160600001</v>
       </c>
       <c r="F40">
         <v>-3480</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1671095.0160600001</v>
       </c>
       <c r="H40" t="s">
@@ -2570,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.375</v>
       </c>
     </row>
@@ -2581,22 +2612,21 @@
       <c r="B41" s="2">
         <v>45228</v>
       </c>
-      <c r="C41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-29</v>
+      <c r="C41" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1671095.0160600001</v>
       </c>
       <c r="F41">
         <v>12800</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1683895.0160600001</v>
       </c>
       <c r="H41" t="s">
@@ -2618,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.1390000000000002</v>
       </c>
     </row>
@@ -2629,9 +2659,8 @@
       <c r="B42" s="2">
         <v>45229</v>
       </c>
-      <c r="C42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-30</v>
+      <c r="C42" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="N42" s="4"/>
     </row>
@@ -2642,9 +2671,8 @@
       <c r="B43" s="2">
         <v>45230</v>
       </c>
-      <c r="C43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2023-10-31</v>
+      <c r="C43" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="N43" s="4"/>
     </row>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3089596B-9034-4B92-B70F-56DC84B1852B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7415E74F-27B0-471C-B7C7-C22FBD457A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="103">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>2023-10-31</t>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -745,16 +748,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.53125" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.73046875" customWidth="1"/>
     <col min="5" max="5" width="9.73046875" customWidth="1"/>
     <col min="6" max="6" width="9.59765625" customWidth="1"/>
@@ -772,7 +775,7 @@
       <c r="B1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
@@ -816,7 +819,7 @@
       <c r="B2" s="2">
         <v>45208</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D2">
@@ -862,7 +865,7 @@
       <c r="B3" s="2">
         <v>45209</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D3">
@@ -909,7 +912,7 @@
       <c r="B4" s="2">
         <v>45210</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D4">
@@ -956,7 +959,7 @@
       <c r="B5" s="2">
         <v>45210</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D5">
@@ -1003,7 +1006,7 @@
       <c r="B6" s="2">
         <v>45210</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D6">
@@ -1050,7 +1053,7 @@
       <c r="B7" s="2">
         <v>45211</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D7">
@@ -1097,7 +1100,7 @@
       <c r="B8" s="2">
         <v>45211</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D8">
@@ -1144,7 +1147,7 @@
       <c r="B9" s="2">
         <v>45212</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D9">
@@ -1191,7 +1194,7 @@
       <c r="B10" s="2">
         <v>45213</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D10">
@@ -1238,7 +1241,7 @@
       <c r="B11" s="2">
         <v>45213</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D11">
@@ -1285,7 +1288,7 @@
       <c r="B12" s="2">
         <v>45213</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D12">
@@ -1332,7 +1335,7 @@
       <c r="B13" s="2">
         <v>45214</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D13">
@@ -1379,7 +1382,7 @@
       <c r="B14" s="2">
         <v>45214</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D14">
@@ -1426,7 +1429,7 @@
       <c r="B15" s="2">
         <v>45214</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D15">
@@ -1473,7 +1476,7 @@
       <c r="B16" s="2">
         <v>45215</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D16">
@@ -1520,7 +1523,7 @@
       <c r="B17" s="2">
         <v>45216</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D17">
@@ -1567,7 +1570,7 @@
       <c r="B18" s="2">
         <v>45217</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D18">
@@ -1614,7 +1617,7 @@
       <c r="B19" s="2">
         <v>45218</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D19">
@@ -1661,7 +1664,7 @@
       <c r="B20" s="2">
         <v>45218</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D20">
@@ -1708,7 +1711,7 @@
       <c r="B21" s="2">
         <v>45218</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D21">
@@ -1755,7 +1758,7 @@
       <c r="B22" s="2">
         <v>45219</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D22">
@@ -1802,7 +1805,7 @@
       <c r="B23" s="2">
         <v>45219</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D23">
@@ -1849,7 +1852,7 @@
       <c r="B24" s="2">
         <v>45219</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D24">
@@ -1896,7 +1899,7 @@
       <c r="B25" s="2">
         <v>45219</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D25">
@@ -1943,7 +1946,7 @@
       <c r="B26" s="2">
         <v>45220</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D26">
@@ -1990,7 +1993,7 @@
       <c r="B27" s="2">
         <v>45220</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D27">
@@ -2037,7 +2040,7 @@
       <c r="B28" s="2">
         <v>45221</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D28">
@@ -2084,7 +2087,7 @@
       <c r="B29" s="2">
         <v>45222</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D29">
@@ -2131,7 +2134,7 @@
       <c r="B30" s="2">
         <v>45223</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>94</v>
       </c>
       <c r="N30" s="4"/>
@@ -2143,7 +2146,7 @@
       <c r="B31" s="2">
         <v>45224</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D31">
@@ -2189,7 +2192,7 @@
       <c r="B32" s="2">
         <v>45225</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D32">
@@ -2236,7 +2239,7 @@
       <c r="B33" s="2">
         <v>45225</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D33">
@@ -2283,7 +2286,7 @@
       <c r="B34" s="2">
         <v>45226</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D34">
@@ -2330,7 +2333,7 @@
       <c r="B35" s="2">
         <v>45226</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D35">
@@ -2377,7 +2380,7 @@
       <c r="B36" s="2">
         <v>45227</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D36">
@@ -2424,7 +2427,7 @@
       <c r="B37" s="2">
         <v>45227</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D37">
@@ -2471,7 +2474,7 @@
       <c r="B38" s="2">
         <v>45228</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D38">
@@ -2518,7 +2521,7 @@
       <c r="B39" s="2">
         <v>45228</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D39">
@@ -2565,7 +2568,7 @@
       <c r="B40" s="2">
         <v>45228</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D40">
@@ -2612,7 +2615,7 @@
       <c r="B41" s="2">
         <v>45228</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D41">
@@ -2659,7 +2662,7 @@
       <c r="B42" s="2">
         <v>45229</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>100</v>
       </c>
       <c r="N42" s="4"/>
@@ -2671,10 +2674,21 @@
       <c r="B43" s="2">
         <v>45230</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>101</v>
       </c>
       <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45231</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7415E74F-27B0-471C-B7C7-C22FBD457A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1377EF-6DC0-43B6-8254-C5ADEF26ACAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -369,6 +369,18 @@
   </si>
   <si>
     <t>2023-11-01</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>CS2 ICELANDIC ESPORTS LEAGUE</t>
+  </si>
+  <si>
+    <t>DUSTY</t>
   </si>
 </sst>
 </file>
@@ -748,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2688,6 +2700,100 @@
       </c>
       <c r="C44" s="1" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45232</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f>G41</f>
+        <v>1683895.0160600001</v>
+      </c>
+      <c r="F45">
+        <v>250</v>
+      </c>
+      <c r="G45">
+        <f>E45+F45</f>
+        <v>1684145.0160600001</v>
+      </c>
+      <c r="H45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>105</v>
+      </c>
+      <c r="J45" t="s">
+        <v>106</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" ref="N45:N46" si="5">ROUND((G45/$E$31-1)*100, 3)+$N$29</f>
+        <v>3.1539999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45233</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>G45</f>
+        <v>1684145.0160600001</v>
+      </c>
+      <c r="F46">
+        <v>-17883</v>
+      </c>
+      <c r="G46">
+        <f>E46+F46</f>
+        <v>1666262.0160600001</v>
+      </c>
+      <c r="H46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="5"/>
+        <v>2.0860000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2757,23 +2863,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>473422.95</v>
+        <v>462440</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>56053.445175000001</v>
+        <v>54753.06</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>83567.238299999997</v>
+        <v>81628.56</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>33678.119475</v>
+        <v>32896.82</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>26406.238949999999</v>
+        <v>25793.64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1377EF-6DC0-43B6-8254-C5ADEF26ACAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD38FDC3-65A2-4A5C-A66C-F4C5C038C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="108">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>DUSTY</t>
+  </si>
+  <si>
+    <t>GANA MAPA 2</t>
   </si>
 </sst>
 </file>
@@ -760,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2745,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" ref="N45:N46" si="5">ROUND((G45/$E$31-1)*100, 3)+$N$29</f>
+        <f t="shared" ref="N45:N47" si="5">ROUND((G45/$E$31-1)*100, 3)+$N$29</f>
         <v>3.1539999999999999</v>
       </c>
     </row>
@@ -2794,6 +2797,53 @@
       <c r="N46" s="4">
         <f t="shared" si="5"/>
         <v>2.0860000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45233</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f>G46</f>
+        <v>1666262.0160600001</v>
+      </c>
+      <c r="F47">
+        <v>5840</v>
+      </c>
+      <c r="G47">
+        <f>E47+F47</f>
+        <v>1672102.0160600001</v>
+      </c>
+      <c r="H47" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="5"/>
+        <v>2.4350000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD38FDC3-65A2-4A5C-A66C-F4C5C038C7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E916BD-E509-4393-9614-99F327C12B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="110">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -384,6 +384,12 @@
   </si>
   <si>
     <t>GANA MAPA 2</t>
+  </si>
+  <si>
+    <t>SC2 ESL MASTERS EUROPE</t>
+  </si>
+  <si>
+    <t>ELAZER</t>
   </si>
 </sst>
 </file>
@@ -763,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2748,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" ref="N45:N47" si="5">ROUND((G45/$E$31-1)*100, 3)+$N$29</f>
+        <f t="shared" ref="N45:N48" si="5">ROUND((G45/$E$31-1)*100, 3)+$N$29</f>
         <v>3.1539999999999999</v>
       </c>
     </row>
@@ -2844,6 +2850,53 @@
       <c r="N47" s="4">
         <f t="shared" si="5"/>
         <v>2.4350000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45233</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f>G47</f>
+        <v>1672102.0160600001</v>
+      </c>
+      <c r="F48">
+        <v>2830</v>
+      </c>
+      <c r="G48">
+        <f>E48+F48</f>
+        <v>1674932.0160600001</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>108</v>
+      </c>
+      <c r="J48" t="s">
+        <v>109</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
+        <f t="shared" si="5"/>
+        <v>2.6040000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E916BD-E509-4393-9614-99F327C12B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC0823-BCD3-4991-ACDF-DEEED888D015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="112">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -390,6 +390,12 @@
   </si>
   <si>
     <t>ELAZER</t>
+  </si>
+  <si>
+    <t>2023-11-04</t>
+  </si>
+  <si>
+    <t>GANA 3 MAPAS</t>
   </si>
 </sst>
 </file>
@@ -397,8 +403,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -442,17 +448,17 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
@@ -769,27 +775,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.53125" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.73046875" customWidth="1"/>
-    <col min="5" max="5" width="9.73046875" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.06640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -833,7 +839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -879,7 +885,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -926,7 +932,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -973,7 +979,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1020,7 +1026,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1114,7 +1120,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1302,7 +1308,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1349,7 +1355,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1490,7 +1496,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1772,7 +1778,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1819,7 +1825,7 @@
         <v>1.7849999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1866,7 +1872,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1913,7 +1919,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>2.5379999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>2.5750000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2160,7 +2166,7 @@
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>2.6590000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>2.6990000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>2.7510000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2394,7 +2400,7 @@
         <v>2.8010000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>2.2680000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>2.363</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2582,7 +2588,7 @@
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2676,7 +2682,7 @@
         <v>3.1390000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2688,7 +2694,7 @@
       </c>
       <c r="N42" s="4"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2700,7 +2706,7 @@
       </c>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2711,7 +2717,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2754,11 +2760,11 @@
         <v>0</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" ref="N45:N48" si="5">ROUND((G45/$E$31-1)*100, 3)+$N$29</f>
+        <f t="shared" ref="N45:N49" si="5">ROUND((G45/$E$31-1)*100, 3)+$N$29</f>
         <v>3.1539999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2805,7 +2811,7 @@
         <v>2.0860000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2897,6 +2903,50 @@
       <c r="N48" s="4">
         <f t="shared" si="5"/>
         <v>2.6040000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45234</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49">
+        <f>G48</f>
+        <v>1674932.0160600001</v>
+      </c>
+      <c r="F49">
+        <v>7800</v>
+      </c>
+      <c r="G49">
+        <f>E49+F49</f>
+        <v>1682732.0160600001</v>
+      </c>
+      <c r="H49" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <f t="shared" si="5"/>
+        <v>3.0700000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -2913,13 +2963,13 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2939,7 +2989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2960,32 +3010,32 @@
         <v>25793.64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>462440</v>
+        <v>477025.35759999999</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>54753.06</v>
+        <v>56479.971512399999</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>81628.56</v>
+        <v>84203.124782400002</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>32896.82</v>
+        <v>33934.385702799998</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>25793.64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>26607.171405599998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3018,9 +3068,9 @@
       <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -3055,7 +3105,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3080,7 +3130,7 @@
         <v>657512.07999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3104,7 +3154,7 @@
         <v>674443.01605999994</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC0823-BCD3-4991-ACDF-DEEED888D015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A71B8E9-B679-40EE-A5EB-2584E8FBE2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="92">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -71,21 +71,9 @@
     <t>TYPE_1</t>
   </si>
   <si>
-    <t>TEAM</t>
-  </si>
-  <si>
-    <t>TYPE_2</t>
-  </si>
-  <si>
     <t>WL</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -116,150 +104,51 @@
     <t>GP</t>
   </si>
   <si>
-    <t>BDS</t>
-  </si>
-  <si>
-    <t>GANA 1 MAPA EN LA SERIE</t>
-  </si>
-  <si>
     <t>POZOACTUAL</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
     <t>EUROPEAN CIRCUIT</t>
   </si>
   <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>GANA 2-0</t>
-  </si>
-  <si>
-    <t>GANA SERIE</t>
-  </si>
-  <si>
     <t>FUTBOL</t>
   </si>
   <si>
     <t>CLASIFICATORIAS 2026</t>
   </si>
   <si>
-    <t>ARGENTINA</t>
-  </si>
-  <si>
-    <t>GANA</t>
-  </si>
-  <si>
     <t>AJEDREZ</t>
   </si>
   <si>
-    <t>GANA O EMPATA</t>
-  </si>
-  <si>
-    <t>WESLEY SO</t>
-  </si>
-  <si>
     <t>CAMPEONATO EEEUU 2023</t>
   </si>
   <si>
     <t>WORLDS 2023</t>
   </si>
   <si>
-    <t>GANA MAPA 1</t>
-  </si>
-  <si>
     <t>DOTA 2 THE INTERNATIONAL</t>
   </si>
   <si>
-    <t>LGD</t>
-  </si>
-  <si>
     <t>VALORANT CHAMPIONS LATAM</t>
   </si>
   <si>
-    <t>KRU</t>
-  </si>
-  <si>
     <t>HALO WORLDS 2023</t>
   </si>
   <si>
-    <t>OPTIC</t>
-  </si>
-  <si>
-    <t>LOUD</t>
-  </si>
-  <si>
     <t>TIPO</t>
   </si>
   <si>
     <t>AOE II TITANS LEAGUE PLATINUM</t>
   </si>
   <si>
-    <t>THE VIPER</t>
-  </si>
-  <si>
     <t>QATAR MASTERS</t>
   </si>
   <si>
-    <t>MAGNUS CARLSEN</t>
-  </si>
-  <si>
-    <t>PRIMER INHIBIDOR</t>
-  </si>
-  <si>
-    <t>GEN</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>GANA SERIE BO1</t>
-  </si>
-  <si>
     <t>VALORANT SAUDI ELEAGUES</t>
   </si>
   <si>
-    <t>TEAM FALCONS</t>
-  </si>
-  <si>
-    <t>EVIL TOADS</t>
-  </si>
-  <si>
-    <t>GANA SERIE BO5</t>
-  </si>
-  <si>
     <t>CS2 ESL CHALLENGERS LEAGUE EU</t>
   </si>
   <si>
-    <t>TEAM SPIRIT</t>
-  </si>
-  <si>
-    <t>GANA SERIE BO3</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>KILLS</t>
-  </si>
-  <si>
-    <t>BLG</t>
-  </si>
-  <si>
-    <t>AMBOS TEAMS DRAKE</t>
-  </si>
-  <si>
-    <t>KT</t>
-  </si>
-  <si>
-    <t>JDG</t>
-  </si>
-  <si>
-    <t>DK</t>
-  </si>
-  <si>
     <t>BASE</t>
   </si>
   <si>
@@ -278,24 +167,6 @@
     <t>IBERIAN CUP</t>
   </si>
   <si>
-    <t>LH</t>
-  </si>
-  <si>
-    <t>FNC</t>
-  </si>
-  <si>
-    <t>WBG</t>
-  </si>
-  <si>
-    <t>PRIMER BARON MAPA 1</t>
-  </si>
-  <si>
-    <t>ACE MAPA 1</t>
-  </si>
-  <si>
-    <t>PRIMER BARON</t>
-  </si>
-  <si>
     <t>ex_date</t>
   </si>
   <si>
@@ -380,22 +251,91 @@
     <t>CS2 ICELANDIC ESPORTS LEAGUE</t>
   </si>
   <si>
-    <t>DUSTY</t>
-  </si>
-  <si>
-    <t>GANA MAPA 2</t>
-  </si>
-  <si>
     <t>SC2 ESL MASTERS EUROPE</t>
   </si>
   <si>
-    <t>ELAZER</t>
-  </si>
-  <si>
     <t>2023-11-04</t>
   </si>
   <si>
-    <t>GANA 3 MAPAS</t>
+    <t>2023-11-05</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>TENIS DE MESA</t>
+  </si>
+  <si>
+    <t>MASTERS</t>
+  </si>
+  <si>
+    <t>CUOTA</t>
+  </si>
+  <si>
+    <t>PRO SPIN SERIES</t>
+  </si>
+  <si>
+    <t>LIGA PRO</t>
+  </si>
+  <si>
+    <t>TSC PRO</t>
+  </si>
+  <si>
+    <t>SETKA CUP</t>
+  </si>
+  <si>
+    <t>2023-11-07</t>
+  </si>
+  <si>
+    <t>2023-11-08</t>
+  </si>
+  <si>
+    <t>2023-11-09</t>
+  </si>
+  <si>
+    <t>CS2 CCT EAST EUROPE</t>
+  </si>
+  <si>
+    <t>CC2 CCT EAST EUROPE</t>
+  </si>
+  <si>
+    <t>MASTERS WOMAN</t>
+  </si>
+  <si>
+    <t>CTT 21</t>
+  </si>
+  <si>
+    <t>2023-11-10</t>
+  </si>
+  <si>
+    <t>COPA TT ESTONIA</t>
+  </si>
+  <si>
+    <t>2023-11-11</t>
+  </si>
+  <si>
+    <t>2023-11-12</t>
+  </si>
+  <si>
+    <t>TT CUP</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>CS2 ETERNITY LEAGUE</t>
+  </si>
+  <si>
+    <t>DOTA 2 ESL</t>
+  </si>
+  <si>
+    <t>WTA COLINA</t>
+  </si>
+  <si>
+    <t>LEAGUE PRO</t>
+  </si>
+  <si>
+    <t>TENIS</t>
   </si>
 </sst>
 </file>
@@ -403,10 +343,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +366,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,17 +394,19 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares [0]" xfId="2" builtinId="6"/>
@@ -775,71 +723,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.53125" customWidth="1"/>
+    <col min="3" max="3" width="9.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.73046875" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" customWidth="1"/>
+    <col min="7" max="7" width="9.59765625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1328125" customWidth="1"/>
+    <col min="10" max="10" width="28.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -847,45 +784,33 @@
         <v>45208</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>636885</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>555</v>
       </c>
-      <c r="G2">
-        <f>E2+F2</f>
+      <c r="H2">
+        <f>F2+G2</f>
         <v>637440</v>
       </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4">
-        <f>ROUND((G2/$E$2-1)*100, 3)</f>
+        <v>20</v>
+      </c>
+      <c r="K2" s="4">
+        <f>ROUND((H2/$F$2-1)*100, 3)</f>
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -893,46 +818,34 @@
         <v>45209</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f>G2</f>
+      <c r="F3">
+        <f>H2</f>
         <v>637440</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>250</v>
       </c>
-      <c r="G3">
-        <f>E3+F3</f>
+      <c r="H3">
+        <f>F3+G3</f>
         <v>637690</v>
       </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
-        <f>ROUND((G3/$E$2-1)*100, 3)</f>
+        <v>20</v>
+      </c>
+      <c r="K3" s="4">
+        <f>ROUND((H3/$F$2-1)*100, 3)</f>
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -940,46 +853,34 @@
         <v>45210</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E29" si="0">G3</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F29" si="0">H3</f>
         <v>637690</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-5000</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G41" si="1">E4+F4</f>
+      <c r="H4">
+        <f t="shared" ref="H4:H41" si="1">F4+G4</f>
         <v>632690</v>
       </c>
-      <c r="H4" t="s">
-        <v>0</v>
-      </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="4">
-        <f>ROUND((G4/$E$2-1)*100, 3)</f>
+        <v>20</v>
+      </c>
+      <c r="K4" s="4">
+        <f>ROUND((H4/$F$2-1)*100, 3)</f>
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -987,46 +888,34 @@
         <v>45210</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>632690</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-7000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="1"/>
         <v>625690</v>
       </c>
-      <c r="H5" t="s">
-        <v>0</v>
-      </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5" s="4">
-        <f>ROUND((G5/$E$2-1)*100, 3)</f>
+        <v>15</v>
+      </c>
+      <c r="K5" s="4">
+        <f>ROUND((H5/$F$2-1)*100, 3)</f>
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1034,46 +923,34 @@
         <v>45210</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>625690</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>15250</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="1"/>
         <v>640940</v>
       </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4">
-        <f>ROUND((G6/$E$2-1)*100, 3)</f>
+        <v>15</v>
+      </c>
+      <c r="K6" s="4">
+        <f>ROUND((H6/$F$2-1)*100, 3)</f>
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1081,46 +958,34 @@
         <v>45211</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>640940</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1150</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>642090</v>
       </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4">
-        <f t="shared" ref="N7:N29" si="2">ROUND((G7/$E$2-1)*100, 3)</f>
+        <v>17</v>
+      </c>
+      <c r="K7" s="4">
+        <f>ROUND((H7/$F$2-1)*100, 3)</f>
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1128,46 +993,34 @@
         <v>45211</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>642090</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>40</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>642130</v>
       </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="K8" s="4">
+        <f>ROUND((H8/$F$2-1)*100, 3)</f>
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1175,46 +1028,34 @@
         <v>45212</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>642130</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>405</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>642535</v>
       </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="4">
-        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K9" s="4">
+        <f>ROUND((H9/$F$2-1)*100, 3)</f>
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1222,46 +1063,34 @@
         <v>45213</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>642535</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1140</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>643675</v>
       </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <f>ROUND((G10/$E$2-1)*100, 3)</f>
+        <v>23</v>
+      </c>
+      <c r="K10" s="4">
+        <f>ROUND((H10/$F$2-1)*100, 3)</f>
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1269,46 +1098,34 @@
         <v>45213</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>643675</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>690</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>644365</v>
       </c>
-      <c r="H11" t="s">
-        <v>0</v>
-      </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <f>ROUND((G11/$E$2-1)*100, 3)</f>
+        <v>22</v>
+      </c>
+      <c r="K11" s="4">
+        <f>ROUND((H11/$F$2-1)*100, 3)</f>
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1316,46 +1133,34 @@
         <v>45213</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>644365</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-5000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="1"/>
         <v>639365</v>
       </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
-        <f>ROUND((G12/$E$2-1)*100, 3)</f>
+        <v>20</v>
+      </c>
+      <c r="K12" s="4">
+        <f>ROUND((H12/$F$2-1)*100, 3)</f>
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1363,46 +1168,34 @@
         <v>45214</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>639365</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>64</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="1"/>
         <v>639429</v>
       </c>
-      <c r="H13" t="s">
-        <v>0</v>
-      </c>
       <c r="I13" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="4">
-        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="K13" s="4">
+        <f>ROUND((H13/$F$2-1)*100, 3)</f>
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1410,46 +1203,34 @@
         <v>45214</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>639429</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>605</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="1"/>
         <v>640034</v>
       </c>
-      <c r="H14" t="s">
-        <v>0</v>
-      </c>
       <c r="I14" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="K14" s="4">
+        <f>ROUND((H14/$F$2-1)*100, 3)</f>
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1457,46 +1238,34 @@
         <v>45214</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>640034</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3872</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>643906</v>
       </c>
-      <c r="H15" t="s">
-        <v>0</v>
-      </c>
       <c r="I15" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="K15" s="4">
+        <f>ROUND((H15/$F$2-1)*100, 3)</f>
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1504,46 +1273,34 @@
         <v>45215</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>643906</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>57</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="1"/>
         <v>643963</v>
       </c>
-      <c r="H16" t="s">
-        <v>0</v>
-      </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <f t="shared" si="2"/>
+      <c r="K16" s="4">
+        <f>ROUND((H16/$F$2-1)*100, 3)</f>
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1551,46 +1308,34 @@
         <v>45216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>643963</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>84</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="1"/>
         <v>644047</v>
       </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="K17" s="4">
+        <f>ROUND((H17/$F$2-1)*100, 3)</f>
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1598,46 +1343,34 @@
         <v>45217</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>644047</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>275</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="1"/>
         <v>644322</v>
       </c>
-      <c r="H18" t="s">
-        <v>0</v>
-      </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="K18" s="4">
+        <f>ROUND((H18/$F$2-1)*100, 3)</f>
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1645,46 +1378,34 @@
         <v>45218</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>644322</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-500</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>643822</v>
       </c>
-      <c r="H19" t="s">
-        <v>0</v>
-      </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="K19" s="4">
+        <f>ROUND((H19/$F$2-1)*100, 3)</f>
         <v>1.089</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1692,46 +1413,34 @@
         <v>45218</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>643822</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2840</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="1"/>
         <v>646662</v>
       </c>
-      <c r="H20" t="s">
-        <v>0</v>
-      </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20" s="4">
-        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K20" s="4">
+        <f>ROUND((H20/$F$2-1)*100, 3)</f>
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1739,46 +1448,34 @@
         <v>45218</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>646662</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>540</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="1"/>
         <v>647202</v>
       </c>
-      <c r="H21" t="s">
-        <v>0</v>
-      </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K21" s="4">
+        <f>ROUND((H21/$F$2-1)*100, 3)</f>
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1786,46 +1483,34 @@
         <v>45219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>647202</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1050</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="1"/>
         <v>648252</v>
       </c>
-      <c r="H22" t="s">
-        <v>0</v>
-      </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="4">
+        <f>ROUND((H22/$F$2-1)*100, 3)</f>
         <v>1.7849999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1833,46 +1518,34 @@
         <v>45219</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>648252</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-2144</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f t="shared" si="1"/>
         <v>646108</v>
       </c>
-      <c r="H23" t="s">
-        <v>0</v>
-      </c>
       <c r="I23" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K23" s="4">
+        <f>ROUND((H23/$F$2-1)*100, 3)</f>
         <v>1.448</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1880,46 +1553,34 @@
         <v>45219</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>646108</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-6000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="1"/>
         <v>640108</v>
       </c>
-      <c r="H24" t="s">
-        <v>0</v>
-      </c>
       <c r="I24" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K24" s="4">
+        <f>ROUND((H24/$F$2-1)*100, 3)</f>
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1927,46 +1588,34 @@
         <v>45219</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>640108</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>10000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>650108</v>
       </c>
-      <c r="H25" t="s">
-        <v>0</v>
-      </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25" s="4">
-        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K25" s="4">
+        <f>ROUND((H25/$F$2-1)*100, 3)</f>
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1974,46 +1623,34 @@
         <v>45220</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>650108</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>930</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="1"/>
         <v>651038</v>
       </c>
-      <c r="H26" t="s">
-        <v>0</v>
-      </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K26" s="4">
+        <f>ROUND((H26/$F$2-1)*100, 3)</f>
         <v>2.222</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2021,46 +1658,34 @@
         <v>45220</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>651038</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>4</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>651042</v>
       </c>
-      <c r="H27" t="s">
-        <v>0</v>
-      </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27" s="4">
-        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K27" s="4">
+        <f>ROUND((H27/$F$2-1)*100, 3)</f>
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2068,46 +1693,34 @@
         <v>45221</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>651042</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2010</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="1"/>
         <v>653052</v>
       </c>
-      <c r="H28" t="s">
-        <v>0</v>
-      </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4">
-        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K28" s="4">
+        <f>ROUND((H28/$F$2-1)*100, 3)</f>
         <v>2.5379999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2115,46 +1728,34 @@
         <v>45222</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>653052</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>230</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="1"/>
         <v>653282</v>
       </c>
-      <c r="H29" t="s">
-        <v>0</v>
-      </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29" s="4">
-        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K29" s="4">
+        <f>ROUND((H29/$F$2-1)*100, 3)</f>
         <v>2.5750000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2162,11 +1763,11 @@
         <v>45223</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2174,45 +1775,33 @@
         <v>45224</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1674443.0160600001</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>13</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>1674456.0160600001</v>
       </c>
-      <c r="H31" t="s">
-        <v>0</v>
-      </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>72</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4">
-        <f>ROUND((G31/$E$31-1)*100, 3)+$N$29</f>
+        <v>34</v>
+      </c>
+      <c r="K31" s="4">
+        <f>ROUND((H31/$F$31-1)*100, 3)+$K$29</f>
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2220,46 +1809,34 @@
         <v>45225</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32">
-        <f>G31</f>
+      <c r="F32">
+        <f>H31</f>
         <v>1674456.0160600001</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1390</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>1675846.0160600001</v>
       </c>
-      <c r="H32" t="s">
-        <v>0</v>
-      </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4">
-        <f t="shared" ref="N32:N41" si="3">ROUND((G32/$E$31-1)*100, 3)+$N$29</f>
+        <v>20</v>
+      </c>
+      <c r="K32" s="4">
+        <f>ROUND((H32/$F$31-1)*100, 3)+$K$29</f>
         <v>2.6590000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2267,46 +1844,34 @@
         <v>45225</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33">
-        <f>G32</f>
+      <c r="F33">
+        <f>H32</f>
         <v>1675846.0160600001</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>668</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>1676514.0160600001</v>
       </c>
-      <c r="H33" t="s">
-        <v>0</v>
-      </c>
       <c r="I33" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33" s="4">
-        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K33" s="4">
+        <f>ROUND((H33/$F$31-1)*100, 3)+$K$29</f>
         <v>2.6990000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2314,46 +1879,34 @@
         <v>45226</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34">
-        <f t="shared" ref="E34:E41" si="4">G33</f>
+      <c r="F34">
+        <f t="shared" ref="F34:F41" si="2">H33</f>
         <v>1676514.0160600001</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>871</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f t="shared" si="1"/>
         <v>1677385.0160600001</v>
       </c>
-      <c r="H34" t="s">
-        <v>0</v>
-      </c>
       <c r="I34" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34" s="4">
-        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K34" s="4">
+        <f>ROUND((H34/$F$31-1)*100, 3)+$K$29</f>
         <v>2.7510000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2361,46 +1914,34 @@
         <v>45226</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="4"/>
+      <c r="F35">
+        <f t="shared" si="2"/>
         <v>1677385.0160600001</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>835</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f t="shared" si="1"/>
         <v>1678220.0160600001</v>
       </c>
-      <c r="H35" t="s">
-        <v>0</v>
-      </c>
       <c r="I35" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35" s="4">
-        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K35" s="4">
+        <f>ROUND((H35/$F$31-1)*100, 3)+$K$29</f>
         <v>2.8010000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2408,46 +1949,34 @@
         <v>45227</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="4"/>
+      <c r="F36">
+        <f t="shared" si="2"/>
         <v>1678220.0160600001</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-8925</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f t="shared" si="1"/>
         <v>1669295.0160600001</v>
       </c>
-      <c r="H36" t="s">
-        <v>0</v>
-      </c>
       <c r="I36" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>59</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36" s="4">
-        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K36" s="4">
+        <f>ROUND((H36/$F$31-1)*100, 3)+$K$29</f>
         <v>2.2680000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2455,46 +1984,34 @@
         <v>45227</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="4"/>
+      <c r="F37">
+        <f t="shared" si="2"/>
         <v>1669295.0160600001</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>1600</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f t="shared" si="1"/>
         <v>1670895.0160600001</v>
       </c>
-      <c r="H37" t="s">
-        <v>0</v>
-      </c>
       <c r="I37" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37" s="4">
-        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K37" s="4">
+        <f>ROUND((H37/$F$31-1)*100, 3)+$K$29</f>
         <v>2.363</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2502,46 +2019,34 @@
         <v>45228</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="4"/>
+      <c r="F38">
+        <f t="shared" si="2"/>
         <v>1670895.0160600001</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1200</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f t="shared" si="1"/>
         <v>1672095.0160600001</v>
       </c>
-      <c r="H38" t="s">
-        <v>0</v>
-      </c>
       <c r="I38" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" s="4">
-        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K38" s="4">
+        <f>ROUND((H38/$F$31-1)*100, 3)+$K$29</f>
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2549,46 +2054,34 @@
         <v>45228</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="4"/>
+      <c r="F39">
+        <f t="shared" si="2"/>
         <v>1672095.0160600001</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>2480</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f t="shared" si="1"/>
         <v>1674575.0160600001</v>
       </c>
-      <c r="H39" t="s">
-        <v>0</v>
-      </c>
       <c r="I39" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>63</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39" s="4">
-        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K39" s="4">
+        <f>ROUND((H39/$F$31-1)*100, 3)+$K$29</f>
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2596,46 +2089,34 @@
         <v>45228</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="4"/>
+      <c r="F40">
+        <f t="shared" si="2"/>
         <v>1674575.0160600001</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>-3480</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <f t="shared" si="1"/>
         <v>1671095.0160600001</v>
       </c>
-      <c r="H40" t="s">
-        <v>0</v>
-      </c>
       <c r="I40" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>74</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="N40" s="4">
-        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K40" s="4">
+        <f>ROUND((H40/$F$31-1)*100, 3)+$K$29</f>
         <v>2.375</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2643,46 +2124,34 @@
         <v>45228</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="4"/>
+      <c r="F41">
+        <f t="shared" si="2"/>
         <v>1671095.0160600001</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>12800</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <f t="shared" si="1"/>
         <v>1683895.0160600001</v>
       </c>
-      <c r="H41" t="s">
-        <v>0</v>
-      </c>
       <c r="I41" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>61</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" s="4">
-        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="K41" s="4">
+        <f>ROUND((H41/$F$31-1)*100, 3)+$K$29</f>
         <v>3.1390000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2690,11 +2159,11 @@
         <v>45229</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2702,11 +2171,11 @@
         <v>45230</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2714,10 +2183,10 @@
         <v>45231</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2725,46 +2194,34 @@
         <v>45232</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45">
-        <f>G41</f>
+      <c r="F45">
+        <f>H41</f>
         <v>1683895.0160600001</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>250</v>
       </c>
-      <c r="G45">
-        <f>E45+F45</f>
+      <c r="H45">
+        <f t="shared" ref="H45:H109" si="3">F45+G45</f>
         <v>1684145.0160600001</v>
       </c>
-      <c r="H45" t="s">
-        <v>0</v>
-      </c>
       <c r="I45" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45" s="4">
-        <f t="shared" ref="N45:N49" si="5">ROUND((G45/$E$31-1)*100, 3)+$N$29</f>
+        <v>62</v>
+      </c>
+      <c r="K45" s="4">
+        <f>ROUND((H45/$F$31-1)*100, 3)+$K$29</f>
         <v>3.1539999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2772,46 +2229,34 @@
         <v>45233</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46">
-        <f>G45</f>
+      <c r="F46">
+        <f>H45</f>
         <v>1684145.0160600001</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>-17883</v>
       </c>
-      <c r="G46">
-        <f>E46+F46</f>
+      <c r="H46">
+        <f t="shared" si="3"/>
         <v>1666262.0160600001</v>
       </c>
-      <c r="H46" t="s">
-        <v>0</v>
-      </c>
       <c r="I46" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46" s="4">
-        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="K46" s="4">
+        <f>ROUND((H46/$F$31-1)*100, 3)+$K$29</f>
         <v>2.0860000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2819,46 +2264,34 @@
         <v>45233</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47">
-        <f>G46</f>
+      <c r="F47">
+        <f>H46</f>
         <v>1666262.0160600001</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>5840</v>
       </c>
-      <c r="G47">
-        <f>E47+F47</f>
+      <c r="H47">
+        <f t="shared" si="3"/>
         <v>1672102.0160600001</v>
       </c>
-      <c r="H47" t="s">
-        <v>0</v>
-      </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47" s="4">
-        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="K47" s="4">
+        <f>ROUND((H47/$F$31-1)*100, 3)+$K$29</f>
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2866,46 +2299,34 @@
         <v>45233</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48">
-        <f>G47</f>
+      <c r="F48">
+        <f>H47</f>
         <v>1672102.0160600001</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>2830</v>
       </c>
-      <c r="G48">
-        <f>E48+F48</f>
+      <c r="H48">
+        <f t="shared" si="3"/>
         <v>1674932.0160600001</v>
       </c>
-      <c r="H48" t="s">
-        <v>0</v>
-      </c>
       <c r="I48" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>109</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48" s="4">
-        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="K48" s="4">
+        <f>ROUND((H48/$F$31-1)*100, 3)+$K$29</f>
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2913,40 +2334,3068 @@
         <v>45234</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f>H48</f>
+        <v>1674932.0160600001</v>
+      </c>
+      <c r="G49">
+        <v>7800</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="3"/>
+        <v>1682732.0160600001</v>
+      </c>
+      <c r="I49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="4">
+        <f>ROUND((H49/$F$31-1)*100, 3)+$K$29</f>
+        <v>3.0700000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45235</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50:F115" si="4">H49</f>
+        <v>1682732.0160600001</v>
+      </c>
+      <c r="G50">
+        <v>-16000</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="3"/>
+        <v>1666732.0160600001</v>
+      </c>
+      <c r="I50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="4">
+        <f>ROUND((H50/$F$31-1)*100, 3)+$K$29</f>
+        <v>2.1140000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45235</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>1666732.0160600001</v>
+      </c>
+      <c r="G51">
+        <v>8200</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="3"/>
+        <v>1674932.0160600001</v>
+      </c>
+      <c r="I51" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K51" s="4">
+        <f>ROUND((H51/$F$31-1)*100, 3)+$K$29</f>
+        <v>2.6040000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45235</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>1674932.0160600001</v>
+      </c>
+      <c r="G52">
+        <v>-16000</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="3"/>
+        <v>1658932.0160600001</v>
+      </c>
+      <c r="I52" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="4">
+        <f>ROUND((H52/$F$31-1)*100, 3)+$K$29</f>
+        <v>1.649</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>1658932.0160600001</v>
+      </c>
+      <c r="G53">
+        <v>-21000</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="3"/>
+        <v>1637932.0160600001</v>
+      </c>
+      <c r="I53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="4">
+        <f>ROUND((H53/$F$31-1)*100, 3)+$K$29</f>
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>1637932.0160600001</v>
+      </c>
+      <c r="G54">
+        <v>-20000</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="3"/>
+        <v>1617932.0160600001</v>
+      </c>
+      <c r="I54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="4">
+        <f>ROUND((H54/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.79999999999999982</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1.05</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>1617932.0160600001</v>
+      </c>
+      <c r="G55">
+        <v>250</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="3"/>
+        <v>1618182.0160600001</v>
+      </c>
+      <c r="I55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" t="s">
+        <v>68</v>
+      </c>
+      <c r="K55" s="4">
+        <f>ROUND((H55/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.7849999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1.645</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>1618182.0160600001</v>
+      </c>
+      <c r="G56">
+        <v>-854</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="3"/>
+        <v>1617328.0160600001</v>
+      </c>
+      <c r="I56" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="4">
+        <f>ROUND((H56/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.83599999999999985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1.2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>1617328.0160600001</v>
+      </c>
+      <c r="G57">
+        <v>2200</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="3"/>
+        <v>1619528.0160600001</v>
+      </c>
+      <c r="I57" t="s">
+        <v>67</v>
+      </c>
+      <c r="J57" t="s">
+        <v>68</v>
+      </c>
+      <c r="K57" s="4">
+        <f>ROUND((H57/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.70499999999999963</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>1619528.0160600001</v>
+      </c>
+      <c r="G58">
+        <v>792</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="3"/>
+        <v>1620320.0160600001</v>
+      </c>
+      <c r="I58" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" t="s">
+        <v>70</v>
+      </c>
+      <c r="K58" s="4">
+        <f>ROUND((H58/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1.085</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>1620320.0160600001</v>
+      </c>
+      <c r="G59">
+        <v>765</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="3"/>
+        <v>1621085.0160600001</v>
+      </c>
+      <c r="I59" t="s">
+        <v>67</v>
+      </c>
+      <c r="J59" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="4">
+        <f>ROUND((H59/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.61199999999999966</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>1621085.0160600001</v>
+      </c>
+      <c r="G60">
+        <v>968</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="3"/>
+        <v>1622053.0160600001</v>
+      </c>
+      <c r="I60" t="s">
+        <v>67</v>
+      </c>
+      <c r="J60" t="s">
+        <v>72</v>
+      </c>
+      <c r="K60" s="4">
+        <f>ROUND((H60/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.55399999999999983</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1.05</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>1622053.0160600001</v>
+      </c>
+      <c r="G61">
+        <v>550</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="3"/>
+        <v>1622603.0160600001</v>
+      </c>
+      <c r="I61" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" t="s">
+        <v>68</v>
+      </c>
+      <c r="K61" s="4">
+        <f>ROUND((H61/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.52099999999999991</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1.08</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>1622603.0160600001</v>
+      </c>
+      <c r="G62">
+        <v>720</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="3"/>
+        <v>1623323.0160600001</v>
+      </c>
+      <c r="I62" t="s">
+        <v>67</v>
+      </c>
+      <c r="J62" t="s">
+        <v>68</v>
+      </c>
+      <c r="K62" s="4">
+        <f>ROUND((H62/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.47799999999999976</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1.07</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>1623323.0160600001</v>
+      </c>
+      <c r="G63">
+        <v>720</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="3"/>
+        <v>1624043.0160600001</v>
+      </c>
+      <c r="I63" t="s">
+        <v>67</v>
+      </c>
+      <c r="J63" t="s">
+        <v>70</v>
+      </c>
+      <c r="K63" s="4">
+        <f>ROUND((H63/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.43499999999999961</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1.21</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>1624043.0160600001</v>
+      </c>
+      <c r="G64">
+        <v>1890</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="3"/>
+        <v>1625933.0160600001</v>
+      </c>
+      <c r="I64" t="s">
+        <v>67</v>
+      </c>
+      <c r="J64" t="s">
+        <v>73</v>
+      </c>
+      <c r="K64" s="4">
+        <f>ROUND((H64/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.32199999999999962</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45236</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1.105</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>1625933.0160600001</v>
+      </c>
+      <c r="G65">
+        <v>945</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="3"/>
+        <v>1626878.0160600001</v>
+      </c>
+      <c r="I65" t="s">
+        <v>67</v>
+      </c>
+      <c r="J65" t="s">
+        <v>68</v>
+      </c>
+      <c r="K65" s="4">
+        <f>ROUND((H65/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45237</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66" s="4"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1.056</v>
+      </c>
+      <c r="F67">
+        <f>H65</f>
+        <v>1626878.0160600001</v>
+      </c>
+      <c r="G67">
+        <v>280</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="3"/>
+        <v>1627158.0160600001</v>
+      </c>
+      <c r="I67" t="s">
+        <v>67</v>
+      </c>
+      <c r="J67" t="s">
+        <v>71</v>
+      </c>
+      <c r="K67" s="4">
+        <f>ROUND((H67/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.24899999999999967</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>1627158.0160600001</v>
+      </c>
+      <c r="G68">
+        <v>315</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="3"/>
+        <v>1627473.0160600001</v>
+      </c>
+      <c r="I68" t="s">
+        <v>67</v>
+      </c>
+      <c r="J68" t="s">
+        <v>73</v>
+      </c>
+      <c r="K68" s="4">
+        <f>ROUND((H68/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1.07</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>1627473.0160600001</v>
+      </c>
+      <c r="G69">
+        <v>-5000</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="3"/>
+        <v>1622473.0160600001</v>
+      </c>
+      <c r="I69" t="s">
+        <v>67</v>
+      </c>
+      <c r="J69" t="s">
+        <v>79</v>
+      </c>
+      <c r="K69" s="4">
+        <f>ROUND((H69/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.52899999999999991</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1.05</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>1622473.0160600001</v>
+      </c>
+      <c r="G70">
+        <v>450</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="3"/>
+        <v>1622923.0160600001</v>
+      </c>
+      <c r="I70" t="s">
+        <v>67</v>
+      </c>
+      <c r="J70" t="s">
+        <v>80</v>
+      </c>
+      <c r="K70" s="4">
+        <f>ROUND((H70/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.50199999999999978</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>1622923.0160600001</v>
+      </c>
+      <c r="G71">
+        <v>1700</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="3"/>
+        <v>1624623.0160600001</v>
+      </c>
+      <c r="I71" t="s">
+        <v>67</v>
+      </c>
+      <c r="J71" t="s">
+        <v>68</v>
+      </c>
+      <c r="K71" s="4">
+        <f>ROUND((H71/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
+        <v>1624623.0160600001</v>
+      </c>
+      <c r="G72">
+        <v>960</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>1625583.0160600001</v>
+      </c>
+      <c r="I72" t="s">
+        <v>67</v>
+      </c>
+      <c r="J72" t="s">
+        <v>78</v>
+      </c>
+      <c r="K72" s="4">
+        <f>ROUND((H72/$F$31-1)*100, 3)+$K$29</f>
+        <v>-0.34299999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
+        <v>1625583.0160600001</v>
+      </c>
+      <c r="G73">
+        <v>-19000</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="3"/>
+        <v>1606583.0160600001</v>
+      </c>
+      <c r="I73" t="s">
+        <v>67</v>
+      </c>
+      <c r="J73" t="s">
+        <v>68</v>
+      </c>
+      <c r="K73" s="4">
+        <f>ROUND((H73/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.4779999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="4"/>
+        <v>1606583.0160600001</v>
+      </c>
+      <c r="G74">
+        <v>1500</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="3"/>
+        <v>1608083.0160600001</v>
+      </c>
+      <c r="I74" t="s">
+        <v>67</v>
+      </c>
+      <c r="J74" t="s">
+        <v>68</v>
+      </c>
+      <c r="K74" s="4">
+        <f>ROUND((H74/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.3879999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>2.33</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="4"/>
+        <v>1608083.0160600001</v>
+      </c>
+      <c r="G75">
+        <v>-5000</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="3"/>
+        <v>1603083.0160600001</v>
+      </c>
+      <c r="I75" t="s">
+        <v>67</v>
+      </c>
+      <c r="J75" t="s">
+        <v>68</v>
+      </c>
+      <c r="K75" s="4">
+        <f>ROUND((H75/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6869999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1.02</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="4"/>
+        <v>1603083.0160600001</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="3"/>
+        <v>1603183.0160600001</v>
+      </c>
+      <c r="I76" t="s">
+        <v>67</v>
+      </c>
+      <c r="J76" t="s">
+        <v>68</v>
+      </c>
+      <c r="K76" s="4">
+        <f>ROUND((H76/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.681</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1.21</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="4"/>
+        <v>1603183.0160600001</v>
+      </c>
+      <c r="G77">
+        <v>357</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="3"/>
+        <v>1603540.0160600001</v>
+      </c>
+      <c r="I77" t="s">
+        <v>67</v>
+      </c>
+      <c r="J77" t="s">
+        <v>73</v>
+      </c>
+      <c r="K77" s="4">
+        <f>ROUND((H77/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6589999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1.23</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="4"/>
+        <v>1603540.0160600001</v>
+      </c>
+      <c r="G78">
+        <v>1150</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="3"/>
+        <v>1604690.0160600001</v>
+      </c>
+      <c r="I78" t="s">
+        <v>67</v>
+      </c>
+      <c r="J78" t="s">
+        <v>68</v>
+      </c>
+      <c r="K78" s="4">
+        <f>ROUND((H78/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5910000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="4"/>
+        <v>1604690.0160600001</v>
+      </c>
+      <c r="G79">
+        <v>-2000</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="3"/>
+        <v>1602690.0160600001</v>
+      </c>
+      <c r="I79" t="s">
+        <v>67</v>
+      </c>
+      <c r="J79" t="s">
+        <v>68</v>
+      </c>
+      <c r="K79" s="4">
+        <f>ROUND((H79/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1.22</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="4"/>
+        <v>1602690.0160600001</v>
+      </c>
+      <c r="G80">
+        <v>660</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="3"/>
+        <v>1603350.0160600001</v>
+      </c>
+      <c r="I80" t="s">
+        <v>67</v>
+      </c>
+      <c r="J80" t="s">
+        <v>68</v>
+      </c>
+      <c r="K80" s="4">
+        <f>ROUND((H80/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6710000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>1603350.0160600001</v>
+      </c>
+      <c r="G81">
+        <v>288</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="3"/>
+        <v>1603638.0160600001</v>
+      </c>
+      <c r="I81" t="s">
+        <v>67</v>
+      </c>
+      <c r="J81" t="s">
+        <v>68</v>
+      </c>
+      <c r="K81" s="4">
+        <f>ROUND((H81/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6539999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="4"/>
+        <v>1603638.0160600001</v>
+      </c>
+      <c r="G82">
+        <v>114</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="3"/>
+        <v>1603752.0160600001</v>
+      </c>
+      <c r="I82" t="s">
+        <v>67</v>
+      </c>
+      <c r="J82" t="s">
+        <v>68</v>
+      </c>
+      <c r="K82" s="4">
+        <f>ROUND((H82/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6470000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1.032</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="4"/>
+        <v>1603752.0160600001</v>
+      </c>
+      <c r="G83">
+        <v>44</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="3"/>
+        <v>1603796.0160600001</v>
+      </c>
+      <c r="I83" t="s">
+        <v>67</v>
+      </c>
+      <c r="J83" t="s">
+        <v>68</v>
+      </c>
+      <c r="K83" s="4">
+        <f>ROUND((H83/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6440000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>1603796.0160600001</v>
+      </c>
+      <c r="G84">
+        <v>320</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="3"/>
+        <v>1604116.0160600001</v>
+      </c>
+      <c r="I84" t="s">
+        <v>67</v>
+      </c>
+      <c r="J84" t="s">
+        <v>77</v>
+      </c>
+      <c r="K84" s="4">
+        <f>ROUND((H84/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45238</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1.155</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="4"/>
+        <v>1604116.0160600001</v>
+      </c>
+      <c r="G85">
+        <v>275</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>1604391.0160600001</v>
+      </c>
+      <c r="I85" t="s">
+        <v>67</v>
+      </c>
+      <c r="J85" t="s">
+        <v>71</v>
+      </c>
+      <c r="K85" s="4">
+        <f>ROUND((H85/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.609</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45239</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="4"/>
+        <v>1604391.0160600001</v>
+      </c>
+      <c r="G86">
+        <v>340</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="3"/>
+        <v>1604731.0160600001</v>
+      </c>
+      <c r="I86" t="s">
+        <v>67</v>
+      </c>
+      <c r="J86" t="s">
+        <v>68</v>
+      </c>
+      <c r="K86" s="4">
+        <f>ROUND((H86/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5880000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1.135</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>1604731.0160600001</v>
+      </c>
+      <c r="G87">
+        <v>-821</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>1603910.0160600001</v>
+      </c>
+      <c r="I87" t="s">
+        <v>67</v>
+      </c>
+      <c r="J87" t="s">
+        <v>68</v>
+      </c>
+      <c r="K87" s="4">
+        <f>ROUND((H87/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6369999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1.07</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>1603910.0160600001</v>
+      </c>
+      <c r="G88">
+        <v>252</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="3"/>
+        <v>1604162.0160600001</v>
+      </c>
+      <c r="I88" t="s">
+        <v>67</v>
+      </c>
+      <c r="J88" t="s">
+        <v>68</v>
+      </c>
+      <c r="K88" s="4">
+        <f>ROUND((H88/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6219999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1.296</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="4"/>
+        <v>1604162.0160600001</v>
+      </c>
+      <c r="G89">
+        <v>296</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="3"/>
+        <v>1604458.0160600001</v>
+      </c>
+      <c r="I89" t="s">
+        <v>67</v>
+      </c>
+      <c r="J89" t="s">
+        <v>71</v>
+      </c>
+      <c r="K89" s="4">
+        <f>ROUND((H89/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6049999999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1.37</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="4"/>
+        <v>1604458.0160600001</v>
+      </c>
+      <c r="G90">
+        <v>1110</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="3"/>
+        <v>1605568.0160600001</v>
+      </c>
+      <c r="I90" t="s">
+        <v>67</v>
+      </c>
+      <c r="J90" t="s">
+        <v>71</v>
+      </c>
+      <c r="K90" s="4">
+        <f>ROUND((H90/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5380000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1.165</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="4"/>
+        <v>1605568.0160600001</v>
+      </c>
+      <c r="G91">
+        <v>140</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="3"/>
+        <v>1605708.0160600001</v>
+      </c>
+      <c r="I91" t="s">
+        <v>67</v>
+      </c>
+      <c r="J91" t="s">
+        <v>68</v>
+      </c>
+      <c r="K91" s="4">
+        <f>ROUND((H91/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5300000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>1605708.0160600001</v>
+      </c>
+      <c r="G92">
+        <v>170</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="3"/>
+        <v>1605878.0160600001</v>
+      </c>
+      <c r="I92" t="s">
+        <v>67</v>
+      </c>
+      <c r="J92" t="s">
+        <v>73</v>
+      </c>
+      <c r="K92" s="4">
+        <f>ROUND((H92/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5199999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1.31</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="4"/>
+        <v>1605878.0160600001</v>
+      </c>
+      <c r="G93">
+        <v>310</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="3"/>
+        <v>1606188.0160600001</v>
+      </c>
+      <c r="I93" t="s">
+        <v>67</v>
+      </c>
+      <c r="J93" t="s">
+        <v>73</v>
+      </c>
+      <c r="K93" s="4">
+        <f>ROUND((H93/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5009999999999994</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="4"/>
+        <v>1606188.0160600001</v>
+      </c>
+      <c r="G94">
+        <v>-1000</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="3"/>
+        <v>1605188.0160600001</v>
+      </c>
+      <c r="I94" t="s">
+        <v>67</v>
+      </c>
+      <c r="J94" t="s">
+        <v>73</v>
+      </c>
+      <c r="K94" s="4">
+        <f>ROUND((H94/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5609999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1.63</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="4"/>
+        <v>1605188.0160600001</v>
+      </c>
+      <c r="G95">
+        <v>-5000</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="3"/>
+        <v>1600188.0160600001</v>
+      </c>
+      <c r="I95" t="s">
+        <v>67</v>
+      </c>
+      <c r="J95" t="s">
+        <v>68</v>
+      </c>
+      <c r="K95" s="4">
+        <f>ROUND((H95/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.8599999999999994</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1.27</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>1600188.0160600001</v>
+      </c>
+      <c r="G96">
+        <v>1100</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="3"/>
+        <v>1601288.0160600001</v>
+      </c>
+      <c r="I96" t="s">
+        <v>67</v>
+      </c>
+      <c r="J96" t="s">
+        <v>68</v>
+      </c>
+      <c r="K96" s="4">
+        <f>ROUND((H96/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.7939999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="4"/>
+        <v>1601288.0160600001</v>
+      </c>
+      <c r="G97">
+        <v>820</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="3"/>
+        <v>1602108.0160600001</v>
+      </c>
+      <c r="I97" t="s">
+        <v>67</v>
+      </c>
+      <c r="J97" t="s">
+        <v>68</v>
+      </c>
+      <c r="K97" s="4">
+        <f>ROUND((H97/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.7450000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1.288</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>1602108.0160600001</v>
+      </c>
+      <c r="G98">
+        <v>576</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="3"/>
+        <v>1602684.0160600001</v>
+      </c>
+      <c r="I98" t="s">
+        <v>67</v>
+      </c>
+      <c r="J98" t="s">
+        <v>68</v>
+      </c>
+      <c r="K98" s="4">
+        <f>ROUND((H98/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.7109999999999994</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1.085</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="4"/>
+        <v>1602684.0160600001</v>
+      </c>
+      <c r="G99">
+        <v>340</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="3"/>
+        <v>1603024.0160600001</v>
+      </c>
+      <c r="I99" t="s">
+        <v>67</v>
+      </c>
+      <c r="J99" t="s">
+        <v>71</v>
+      </c>
+      <c r="K99" s="4">
+        <f>ROUND((H99/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6899999999999995</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="4"/>
+        <v>1603024.0160600001</v>
+      </c>
+      <c r="G100">
+        <v>450</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="3"/>
+        <v>1603474.0160600001</v>
+      </c>
+      <c r="I100" t="s">
+        <v>67</v>
+      </c>
+      <c r="J100" t="s">
+        <v>82</v>
+      </c>
+      <c r="K100" s="4">
+        <f>ROUND((H100/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6630000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="4"/>
+        <v>1603474.0160600001</v>
+      </c>
+      <c r="G101">
+        <v>260</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="3"/>
+        <v>1603734.0160600001</v>
+      </c>
+      <c r="I101" t="s">
+        <v>67</v>
+      </c>
+      <c r="J101" t="s">
+        <v>68</v>
+      </c>
+      <c r="K101" s="4">
+        <f>ROUND((H101/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6479999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1.07</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="4"/>
+        <v>1603734.0160600001</v>
+      </c>
+      <c r="G102">
+        <v>30</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="3"/>
+        <v>1603764.0160600001</v>
+      </c>
+      <c r="I102" t="s">
+        <v>67</v>
+      </c>
+      <c r="J102" t="s">
+        <v>68</v>
+      </c>
+      <c r="K102" s="4">
+        <f>ROUND((H102/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6459999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="4"/>
+        <v>1603764.0160600001</v>
+      </c>
+      <c r="G103">
+        <v>272</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="3"/>
+        <v>1604036.0160600001</v>
+      </c>
+      <c r="I103" t="s">
+        <v>67</v>
+      </c>
+      <c r="J103" t="s">
+        <v>70</v>
+      </c>
+      <c r="K103" s="4">
+        <f>ROUND((H103/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="4"/>
+        <v>1604036.0160600001</v>
+      </c>
+      <c r="G104">
+        <v>361</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="3"/>
+        <v>1604397.0160600001</v>
+      </c>
+      <c r="I104" t="s">
+        <v>67</v>
+      </c>
+      <c r="J104" t="s">
+        <v>72</v>
+      </c>
+      <c r="K104" s="4">
+        <f>ROUND((H104/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6079999999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="4"/>
+        <v>1604397.0160600001</v>
+      </c>
+      <c r="G105">
+        <v>193</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="3"/>
+        <v>1604590.0160600001</v>
+      </c>
+      <c r="I105" t="s">
+        <v>67</v>
+      </c>
+      <c r="J105" t="s">
+        <v>85</v>
+      </c>
+      <c r="K105" s="4">
+        <f>ROUND((H105/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5969999999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="4"/>
+        <v>1604590.0160600001</v>
+      </c>
+      <c r="G106">
+        <v>96</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="3"/>
+        <v>1604686.0160600001</v>
+      </c>
+      <c r="I106" t="s">
+        <v>67</v>
+      </c>
+      <c r="J106" t="s">
+        <v>68</v>
+      </c>
+      <c r="K106" s="4">
+        <f>ROUND((H106/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5910000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1.07</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="4"/>
+        <v>1604686.0160600001</v>
+      </c>
+      <c r="G107">
+        <v>15</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="3"/>
+        <v>1604701.0160600001</v>
+      </c>
+      <c r="I107" t="s">
+        <v>67</v>
+      </c>
+      <c r="J107" t="s">
+        <v>73</v>
+      </c>
+      <c r="K107" s="4">
+        <f>ROUND((H107/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5899999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="4"/>
+        <v>1604701.0160600001</v>
+      </c>
+      <c r="G108">
+        <v>184</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="3"/>
+        <v>1604885.0160600001</v>
+      </c>
+      <c r="I108" t="s">
+        <v>67</v>
+      </c>
+      <c r="J108" t="s">
+        <v>68</v>
+      </c>
+      <c r="K108" s="4">
+        <f>ROUND((H108/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5789999999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45240</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>1.21</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="4"/>
+        <v>1604885.0160600001</v>
+      </c>
+      <c r="G109">
+        <v>-1000</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="3"/>
+        <v>1603885.0160600001</v>
+      </c>
+      <c r="I109" t="s">
+        <v>67</v>
+      </c>
+      <c r="J109" t="s">
+        <v>68</v>
+      </c>
+      <c r="K109" s="4">
+        <f>ROUND((H109/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6390000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45241</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1.167</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="4"/>
+        <v>1603885.0160600001</v>
+      </c>
+      <c r="G110">
+        <v>1169</v>
+      </c>
+      <c r="H110">
+        <f t="shared" ref="H110:H130" si="5">F110+G110</f>
+        <v>1605054.0160600001</v>
+      </c>
+      <c r="I110" t="s">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" s="4">
+        <f>ROUND((H110/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.569</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="E49">
-        <f>G48</f>
-        <v>1674932.0160600001</v>
-      </c>
-      <c r="F49">
-        <v>7800</v>
-      </c>
-      <c r="G49">
-        <f>E49+F49</f>
-        <v>1682732.0160600001</v>
-      </c>
-      <c r="H49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" t="s">
-        <v>64</v>
-      </c>
-      <c r="K49" s="1" t="s">
+      <c r="B111" s="2">
+        <v>45242</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1.07</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="4"/>
+        <v>1605054.0160600001</v>
+      </c>
+      <c r="G111">
+        <v>-396</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="5"/>
+        <v>1604658.0160600001</v>
+      </c>
+      <c r="I111" t="s">
+        <v>67</v>
+      </c>
+      <c r="J111" t="s">
+        <v>73</v>
+      </c>
+      <c r="K111" s="4">
+        <f>ROUND((H111/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.593</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" s="4">
+      <c r="B112" s="2">
+        <v>45242</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="4"/>
+        <v>1604658.0160600001</v>
+      </c>
+      <c r="G112">
+        <v>90</v>
+      </c>
+      <c r="H112">
         <f t="shared" si="5"/>
-        <v>3.0700000000000003</v>
+        <v>1604748.0160600001</v>
+      </c>
+      <c r="I112" t="s">
+        <v>67</v>
+      </c>
+      <c r="J112" t="s">
+        <v>68</v>
+      </c>
+      <c r="K112" s="4">
+        <f>ROUND((H112/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5869999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45242</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="4"/>
+        <v>1604748.0160600001</v>
+      </c>
+      <c r="G113">
+        <v>450</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="5"/>
+        <v>1605198.0160600001</v>
+      </c>
+      <c r="I113" t="s">
+        <v>67</v>
+      </c>
+      <c r="J113" t="s">
+        <v>68</v>
+      </c>
+      <c r="K113" s="4">
+        <f>ROUND((H113/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5599999999999996</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="4"/>
+        <v>1605198.0160600001</v>
+      </c>
+      <c r="G114">
+        <v>70</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="5"/>
+        <v>1605268.0160600001</v>
+      </c>
+      <c r="I114" t="s">
+        <v>67</v>
+      </c>
+      <c r="J114" t="s">
+        <v>68</v>
+      </c>
+      <c r="K114" s="4">
+        <f>ROUND((H114/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.556</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1.115</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="4"/>
+        <v>1605268.0160600001</v>
+      </c>
+      <c r="G115">
+        <v>95</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="5"/>
+        <v>1605363.0160600001</v>
+      </c>
+      <c r="I115" t="s">
+        <v>67</v>
+      </c>
+      <c r="J115" t="s">
+        <v>68</v>
+      </c>
+      <c r="K115" s="4">
+        <f>ROUND((H115/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5510000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="F116">
+        <f t="shared" ref="F116:F130" si="6">H115</f>
+        <v>1605363.0160600001</v>
+      </c>
+      <c r="G116">
+        <v>92</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="5"/>
+        <v>1605455.0160600001</v>
+      </c>
+      <c r="I116" t="s">
+        <v>67</v>
+      </c>
+      <c r="J116" t="s">
+        <v>85</v>
+      </c>
+      <c r="K116" s="4">
+        <f>ROUND((H116/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5449999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="6"/>
+        <v>1605455.0160600001</v>
+      </c>
+      <c r="G117">
+        <v>-600</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="5"/>
+        <v>1604855.0160600001</v>
+      </c>
+      <c r="I117" t="s">
+        <v>67</v>
+      </c>
+      <c r="J117" t="s">
+        <v>85</v>
+      </c>
+      <c r="K117" s="4">
+        <f>ROUND((H117/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.5809999999999995</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="6"/>
+        <v>1604855.0160600001</v>
+      </c>
+      <c r="G118">
+        <v>-400</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="5"/>
+        <v>1604455.0160600001</v>
+      </c>
+      <c r="I118" t="s">
+        <v>67</v>
+      </c>
+      <c r="J118" t="s">
+        <v>68</v>
+      </c>
+      <c r="K118" s="4">
+        <f t="shared" ref="K118:K130" si="7">ROUND((H118/$F$31-1)*100, 3)+$K$29</f>
+        <v>-1.6049999999999995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="6"/>
+        <v>1604455.0160600001</v>
+      </c>
+      <c r="G119">
+        <v>100</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="5"/>
+        <v>1604555.0160600001</v>
+      </c>
+      <c r="I119" t="s">
+        <v>67</v>
+      </c>
+      <c r="J119" t="s">
+        <v>79</v>
+      </c>
+      <c r="K119" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.5990000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="6"/>
+        <v>1604555.0160600001</v>
+      </c>
+      <c r="G120">
+        <v>20</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="5"/>
+        <v>1604575.0160600001</v>
+      </c>
+      <c r="I120" t="s">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>87</v>
+      </c>
+      <c r="K120" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.5979999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="6"/>
+        <v>1604575.0160600001</v>
+      </c>
+      <c r="G121">
+        <v>-500</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="5"/>
+        <v>1604075.0160600001</v>
+      </c>
+      <c r="I121" t="s">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>88</v>
+      </c>
+      <c r="K121" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.6269999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="6"/>
+        <v>1604075.0160600001</v>
+      </c>
+      <c r="G122">
+        <v>360</v>
+      </c>
+      <c r="H122">
+        <f t="shared" si="5"/>
+        <v>1604435.0160600001</v>
+      </c>
+      <c r="I122" t="s">
+        <v>67</v>
+      </c>
+      <c r="J122" t="s">
+        <v>70</v>
+      </c>
+      <c r="K122" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.6059999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1.18</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="6"/>
+        <v>1604435.0160600001</v>
+      </c>
+      <c r="G123">
+        <v>100</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="5"/>
+        <v>1604535.0160600001</v>
+      </c>
+      <c r="I123" t="s">
+        <v>67</v>
+      </c>
+      <c r="J123" t="s">
+        <v>68</v>
+      </c>
+      <c r="K123" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.5999999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>1.155</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="6"/>
+        <v>1604535.0160600001</v>
+      </c>
+      <c r="G124">
+        <v>-500</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="5"/>
+        <v>1604035.0160600001</v>
+      </c>
+      <c r="I124" t="s">
+        <v>67</v>
+      </c>
+      <c r="J124" t="s">
+        <v>71</v>
+      </c>
+      <c r="K124" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.63</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>1.085</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="6"/>
+        <v>1604035.0160600001</v>
+      </c>
+      <c r="G125">
+        <v>595</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="5"/>
+        <v>1604630.0160600001</v>
+      </c>
+      <c r="I125" t="s">
+        <v>91</v>
+      </c>
+      <c r="J125" t="s">
+        <v>89</v>
+      </c>
+      <c r="K125" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.5939999999999994</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>1.45</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="6"/>
+        <v>1604630.0160600001</v>
+      </c>
+      <c r="G126">
+        <v>-7266</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="5"/>
+        <v>1597364.0160600001</v>
+      </c>
+      <c r="I126" t="s">
+        <v>67</v>
+      </c>
+      <c r="J126" t="s">
+        <v>90</v>
+      </c>
+      <c r="K126" s="4">
+        <f t="shared" si="7"/>
+        <v>-2.0279999999999996</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>1.0549999999999999</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="6"/>
+        <v>1597364.0160600001</v>
+      </c>
+      <c r="G127">
+        <v>78</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="5"/>
+        <v>1597442.0160600001</v>
+      </c>
+      <c r="I127" t="s">
+        <v>67</v>
+      </c>
+      <c r="J127" t="s">
+        <v>73</v>
+      </c>
+      <c r="K127" s="4">
+        <f t="shared" si="7"/>
+        <v>-2.024</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1.048</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="6"/>
+        <v>1597442.0160600001</v>
+      </c>
+      <c r="G128">
+        <v>50</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="5"/>
+        <v>1597492.0160600001</v>
+      </c>
+      <c r="I128" t="s">
+        <v>91</v>
+      </c>
+      <c r="J128" t="s">
+        <v>89</v>
+      </c>
+      <c r="K128" s="4">
+        <f t="shared" si="7"/>
+        <v>-2.0209999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="6"/>
+        <v>1597492.0160600001</v>
+      </c>
+      <c r="G129">
+        <v>277</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="5"/>
+        <v>1597769.0160600001</v>
+      </c>
+      <c r="I129" t="s">
+        <v>91</v>
+      </c>
+      <c r="J129" t="s">
+        <v>89</v>
+      </c>
+      <c r="K129" s="4">
+        <f t="shared" si="7"/>
+        <v>-2.0039999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="6"/>
+        <v>1597769.0160600001</v>
+      </c>
+      <c r="G130">
+        <v>99</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="5"/>
+        <v>1597868.0160600001</v>
+      </c>
+      <c r="I130" t="s">
+        <v>67</v>
+      </c>
+      <c r="J130" t="s">
+        <v>70</v>
+      </c>
+      <c r="K130" s="4">
+        <f t="shared" si="7"/>
+        <v>-1.9980000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2957,39 +5406,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91972E91-C486-48A1-B1C4-268DB8F8852F}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3010,32 +5460,32 @@
         <v>25793.64</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3">B2+B2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>477025.35759999999</v>
+        <f t="array" ref="B3">B2+B2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
+        <v>455068.70640000002</v>
       </c>
       <c r="C3" s="3" cm="1">
-        <f t="array" ref="C3">C2+C2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>56479.971512399999</v>
+        <f t="array" ref="C3">C2+C2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
+        <v>53880.296223599995</v>
       </c>
       <c r="D3" s="3" cm="1">
-        <f t="array" ref="D3">D2+D2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>84203.124782400002</v>
+        <f t="array" ref="D3">D2+D2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
+        <v>80327.400753599999</v>
       </c>
       <c r="E3" s="3" cm="1">
-        <f t="array" ref="E3">E2+E2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>33934.385702799998</v>
+        <f t="array" ref="E3">E2+E2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
+        <v>32372.444689200001</v>
       </c>
       <c r="F3" s="3" cm="1">
-        <f t="array" ref="F3">F2+F2*INDEX(bets!$N:$N,COUNTA(bets!$N:$N))/100</f>
-        <v>26607.171405599998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <f t="array" ref="F3">F2+F2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
+        <v>25382.489378399998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3054,6 +5504,37 @@
       <c r="F4" s="6">
         <v>26457.826229999999</v>
       </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" cm="1">
+        <f t="array" ref="B5">B4+B4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
+        <v>1444890.3603566</v>
+      </c>
+      <c r="C5" s="3" cm="1">
+        <f t="array" ref="C5">C4+C4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
+        <v>55040.815528125902</v>
+      </c>
+      <c r="D5" s="3" cm="1">
+        <f t="array" ref="D5">D4+D4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
+        <v>82057.560121508388</v>
+      </c>
+      <c r="E5" s="3" cm="1">
+        <f t="array" ref="E5">E4+E4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
+        <v>33069.709730962306</v>
+      </c>
+      <c r="F5" s="3" cm="1">
+        <f t="array" ref="F5">F4+F4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
+        <v>25929.1988619246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3065,47 +5546,47 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3130,7 +5611,7 @@
         <v>657512.07999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3154,7 +5635,7 @@
         <v>674443.01605999994</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A71B8E9-B679-40EE-A5EB-2584E8FBE2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD13735-88A8-4458-BF00-FC8BE09C21F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="101">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -336,6 +336,33 @@
   </si>
   <si>
     <t>TENIS</t>
+  </si>
+  <si>
+    <t>BASKET</t>
+  </si>
+  <si>
+    <t>NBA</t>
+  </si>
+  <si>
+    <t>2023-11-14</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>LOL EUROPEAN CIRCUIT</t>
+  </si>
+  <si>
+    <t>VOLLEY</t>
+  </si>
+  <si>
+    <t>RUSIA SUPERLEAGUE</t>
+  </si>
+  <si>
+    <t>ATP TURIN</t>
+  </si>
+  <si>
+    <t>DOTA 2: ULTRAS DOTA 2</t>
   </si>
 </sst>
 </file>
@@ -723,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:K130"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="M136" sqref="M136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -806,7 +833,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="4">
-        <f>ROUND((H2/$F$2-1)*100, 3)</f>
+        <f t="shared" ref="K2:K29" si="0">ROUND((H2/$F$2-1)*100, 3)</f>
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
@@ -841,7 +868,7 @@
         <v>20</v>
       </c>
       <c r="K3" s="4">
-        <f>ROUND((H3/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
     </row>
@@ -859,14 +886,14 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F29" si="0">H3</f>
+        <f t="shared" ref="F4:F29" si="1">H3</f>
         <v>637690</v>
       </c>
       <c r="G4">
         <v>-5000</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H41" si="1">F4+G4</f>
+        <f t="shared" ref="H4:H41" si="2">F4+G4</f>
         <v>632690</v>
       </c>
       <c r="I4" t="s">
@@ -876,7 +903,7 @@
         <v>20</v>
       </c>
       <c r="K4" s="4">
-        <f>ROUND((H4/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>-0.65900000000000003</v>
       </c>
     </row>
@@ -894,14 +921,14 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>632690</v>
       </c>
       <c r="G5">
         <v>-7000</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>625690</v>
       </c>
       <c r="I5" t="s">
@@ -911,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="K5" s="4">
-        <f>ROUND((H5/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>-1.758</v>
       </c>
     </row>
@@ -929,14 +956,14 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>625690</v>
       </c>
       <c r="G6">
         <v>15250</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>640940</v>
       </c>
       <c r="I6" t="s">
@@ -946,7 +973,7 @@
         <v>15</v>
       </c>
       <c r="K6" s="4">
-        <f>ROUND((H6/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>0.63700000000000001</v>
       </c>
     </row>
@@ -964,14 +991,14 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>640940</v>
       </c>
       <c r="G7">
         <v>1150</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>642090</v>
       </c>
       <c r="I7" t="s">
@@ -981,7 +1008,7 @@
         <v>17</v>
       </c>
       <c r="K7" s="4">
-        <f>ROUND((H7/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>0.81699999999999995</v>
       </c>
     </row>
@@ -999,14 +1026,14 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>642090</v>
       </c>
       <c r="G8">
         <v>40</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>642130</v>
       </c>
       <c r="I8" t="s">
@@ -1016,7 +1043,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="4">
-        <f>ROUND((H8/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>0.82399999999999995</v>
       </c>
     </row>
@@ -1034,14 +1061,14 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>642130</v>
       </c>
       <c r="G9">
         <v>405</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>642535</v>
       </c>
       <c r="I9" t="s">
@@ -1051,7 +1078,7 @@
         <v>20</v>
       </c>
       <c r="K9" s="4">
-        <f>ROUND((H9/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>0.88700000000000001</v>
       </c>
     </row>
@@ -1069,14 +1096,14 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>642535</v>
       </c>
       <c r="G10">
         <v>1140</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>643675</v>
       </c>
       <c r="I10" t="s">
@@ -1086,7 +1113,7 @@
         <v>23</v>
       </c>
       <c r="K10" s="4">
-        <f>ROUND((H10/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>1.0660000000000001</v>
       </c>
     </row>
@@ -1104,14 +1131,14 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>643675</v>
       </c>
       <c r="G11">
         <v>690</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>644365</v>
       </c>
       <c r="I11" t="s">
@@ -1121,7 +1148,7 @@
         <v>22</v>
       </c>
       <c r="K11" s="4">
-        <f>ROUND((H11/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>1.1739999999999999</v>
       </c>
     </row>
@@ -1139,14 +1166,14 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>644365</v>
       </c>
       <c r="G12">
         <v>-5000</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>639365</v>
       </c>
       <c r="I12" t="s">
@@ -1156,7 +1183,7 @@
         <v>20</v>
       </c>
       <c r="K12" s="4">
-        <f>ROUND((H12/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>0.38900000000000001</v>
       </c>
     </row>
@@ -1174,14 +1201,14 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>639365</v>
       </c>
       <c r="G13">
         <v>64</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>639429</v>
       </c>
       <c r="I13" t="s">
@@ -1191,7 +1218,7 @@
         <v>21</v>
       </c>
       <c r="K13" s="4">
-        <f>ROUND((H13/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>0.39900000000000002</v>
       </c>
     </row>
@@ -1209,14 +1236,14 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>639429</v>
       </c>
       <c r="G14">
         <v>605</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>640034</v>
       </c>
       <c r="I14" t="s">
@@ -1226,7 +1253,7 @@
         <v>21</v>
       </c>
       <c r="K14" s="4">
-        <f>ROUND((H14/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>0.49399999999999999</v>
       </c>
     </row>
@@ -1244,14 +1271,14 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>640034</v>
       </c>
       <c r="G15">
         <v>3872</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>643906</v>
       </c>
       <c r="I15" t="s">
@@ -1261,7 +1288,7 @@
         <v>21</v>
       </c>
       <c r="K15" s="4">
-        <f>ROUND((H15/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>1.1020000000000001</v>
       </c>
     </row>
@@ -1279,14 +1306,14 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>643906</v>
       </c>
       <c r="G16">
         <v>57</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>643963</v>
       </c>
       <c r="I16" t="s">
@@ -1296,7 +1323,7 @@
         <v>25</v>
       </c>
       <c r="K16" s="4">
-        <f>ROUND((H16/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>1.111</v>
       </c>
     </row>
@@ -1314,14 +1341,14 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>643963</v>
       </c>
       <c r="G17">
         <v>84</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>644047</v>
       </c>
       <c r="I17" t="s">
@@ -1331,7 +1358,7 @@
         <v>26</v>
       </c>
       <c r="K17" s="4">
-        <f>ROUND((H17/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
     </row>
@@ -1349,14 +1376,14 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>644047</v>
       </c>
       <c r="G18">
         <v>275</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>644322</v>
       </c>
       <c r="I18" t="s">
@@ -1366,7 +1393,7 @@
         <v>28</v>
       </c>
       <c r="K18" s="4">
-        <f>ROUND((H18/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>1.1679999999999999</v>
       </c>
     </row>
@@ -1384,14 +1411,14 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>644322</v>
       </c>
       <c r="G19">
         <v>-500</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>643822</v>
       </c>
       <c r="I19" t="s">
@@ -1401,7 +1428,7 @@
         <v>27</v>
       </c>
       <c r="K19" s="4">
-        <f>ROUND((H19/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>1.089</v>
       </c>
     </row>
@@ -1419,14 +1446,14 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>643822</v>
       </c>
       <c r="G20">
         <v>2840</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>646662</v>
       </c>
       <c r="I20" t="s">
@@ -1436,7 +1463,7 @@
         <v>20</v>
       </c>
       <c r="K20" s="4">
-        <f>ROUND((H20/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>1.5349999999999999</v>
       </c>
     </row>
@@ -1454,14 +1481,14 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>646662</v>
       </c>
       <c r="G21">
         <v>540</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>647202</v>
       </c>
       <c r="I21" t="s">
@@ -1471,7 +1498,7 @@
         <v>20</v>
       </c>
       <c r="K21" s="4">
-        <f>ROUND((H21/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>1.62</v>
       </c>
     </row>
@@ -1489,14 +1516,14 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>647202</v>
       </c>
       <c r="G22">
         <v>1050</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>648252</v>
       </c>
       <c r="I22" t="s">
@@ -1506,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="4">
-        <f>ROUND((H22/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>1.7849999999999999</v>
       </c>
     </row>
@@ -1524,14 +1551,14 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>648252</v>
       </c>
       <c r="G23">
         <v>-2144</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>646108</v>
       </c>
       <c r="I23" t="s">
@@ -1541,7 +1568,7 @@
         <v>20</v>
       </c>
       <c r="K23" s="4">
-        <f>ROUND((H23/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>1.448</v>
       </c>
     </row>
@@ -1559,14 +1586,14 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>646108</v>
       </c>
       <c r="G24">
         <v>-6000</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>640108</v>
       </c>
       <c r="I24" t="s">
@@ -1576,7 +1603,7 @@
         <v>20</v>
       </c>
       <c r="K24" s="4">
-        <f>ROUND((H24/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>0.50600000000000001</v>
       </c>
     </row>
@@ -1594,14 +1621,14 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>640108</v>
       </c>
       <c r="G25">
         <v>10000</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650108</v>
       </c>
       <c r="I25" t="s">
@@ -1611,7 +1638,7 @@
         <v>20</v>
       </c>
       <c r="K25" s="4">
-        <f>ROUND((H25/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>2.0760000000000001</v>
       </c>
     </row>
@@ -1629,14 +1656,14 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>650108</v>
       </c>
       <c r="G26">
         <v>930</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>651038</v>
       </c>
       <c r="I26" t="s">
@@ -1646,7 +1673,7 @@
         <v>20</v>
       </c>
       <c r="K26" s="4">
-        <f>ROUND((H26/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>2.222</v>
       </c>
     </row>
@@ -1664,14 +1691,14 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>651038</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>651042</v>
       </c>
       <c r="I27" t="s">
@@ -1681,7 +1708,7 @@
         <v>20</v>
       </c>
       <c r="K27" s="4">
-        <f>ROUND((H27/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>2.2229999999999999</v>
       </c>
     </row>
@@ -1699,14 +1726,14 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>651042</v>
       </c>
       <c r="G28">
         <v>2010</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>653052</v>
       </c>
       <c r="I28" t="s">
@@ -1716,7 +1743,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="4">
-        <f>ROUND((H28/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>2.5379999999999998</v>
       </c>
     </row>
@@ -1734,14 +1761,14 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>653052</v>
       </c>
       <c r="G29">
         <v>230</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>653282</v>
       </c>
       <c r="I29" t="s">
@@ -1751,7 +1778,7 @@
         <v>20</v>
       </c>
       <c r="K29" s="4">
-        <f>ROUND((H29/$F$2-1)*100, 3)</f>
+        <f t="shared" si="0"/>
         <v>2.5750000000000002</v>
       </c>
     </row>
@@ -1787,7 +1814,7 @@
         <v>13</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1674456.0160600001</v>
       </c>
       <c r="I31" t="s">
@@ -1797,7 +1824,7 @@
         <v>34</v>
       </c>
       <c r="K31" s="4">
-        <f>ROUND((H31/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" ref="K31:K41" si="3">ROUND((H31/$F$31-1)*100, 3)+$K$29</f>
         <v>2.5760000000000001</v>
       </c>
     </row>
@@ -1822,7 +1849,7 @@
         <v>1390</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1675846.0160600001</v>
       </c>
       <c r="I32" t="s">
@@ -1832,7 +1859,7 @@
         <v>20</v>
       </c>
       <c r="K32" s="4">
-        <f>ROUND((H32/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="3"/>
         <v>2.6590000000000003</v>
       </c>
     </row>
@@ -1857,7 +1884,7 @@
         <v>668</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1676514.0160600001</v>
       </c>
       <c r="I33" t="s">
@@ -1867,7 +1894,7 @@
         <v>20</v>
       </c>
       <c r="K33" s="4">
-        <f>ROUND((H33/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="3"/>
         <v>2.6990000000000003</v>
       </c>
     </row>
@@ -1885,14 +1912,14 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F41" si="2">H33</f>
+        <f t="shared" ref="F34:F41" si="4">H33</f>
         <v>1676514.0160600001</v>
       </c>
       <c r="G34">
         <v>871</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1677385.0160600001</v>
       </c>
       <c r="I34" t="s">
@@ -1902,7 +1929,7 @@
         <v>20</v>
       </c>
       <c r="K34" s="4">
-        <f>ROUND((H34/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="3"/>
         <v>2.7510000000000003</v>
       </c>
     </row>
@@ -1920,14 +1947,14 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1677385.0160600001</v>
       </c>
       <c r="G35">
         <v>835</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1678220.0160600001</v>
       </c>
       <c r="I35" t="s">
@@ -1937,7 +1964,7 @@
         <v>20</v>
       </c>
       <c r="K35" s="4">
-        <f>ROUND((H35/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="3"/>
         <v>2.8010000000000002</v>
       </c>
     </row>
@@ -1955,14 +1982,14 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1678220.0160600001</v>
       </c>
       <c r="G36">
         <v>-8925</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1669295.0160600001</v>
       </c>
       <c r="I36" t="s">
@@ -1972,7 +1999,7 @@
         <v>20</v>
       </c>
       <c r="K36" s="4">
-        <f>ROUND((H36/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="3"/>
         <v>2.2680000000000002</v>
       </c>
     </row>
@@ -1990,14 +2017,14 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1669295.0160600001</v>
       </c>
       <c r="G37">
         <v>1600</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1670895.0160600001</v>
       </c>
       <c r="I37" t="s">
@@ -2007,7 +2034,7 @@
         <v>20</v>
       </c>
       <c r="K37" s="4">
-        <f>ROUND((H37/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="3"/>
         <v>2.363</v>
       </c>
     </row>
@@ -2025,14 +2052,14 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1670895.0160600001</v>
       </c>
       <c r="G38">
         <v>1200</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1672095.0160600001</v>
       </c>
       <c r="I38" t="s">
@@ -2042,7 +2069,7 @@
         <v>20</v>
       </c>
       <c r="K38" s="4">
-        <f>ROUND((H38/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="3"/>
         <v>2.4350000000000001</v>
       </c>
     </row>
@@ -2060,14 +2087,14 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1672095.0160600001</v>
       </c>
       <c r="G39">
         <v>2480</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1674575.0160600001</v>
       </c>
       <c r="I39" t="s">
@@ -2077,7 +2104,7 @@
         <v>20</v>
       </c>
       <c r="K39" s="4">
-        <f>ROUND((H39/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="3"/>
         <v>2.5830000000000002</v>
       </c>
     </row>
@@ -2095,14 +2122,14 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1674575.0160600001</v>
       </c>
       <c r="G40">
         <v>-3480</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1671095.0160600001</v>
       </c>
       <c r="I40" t="s">
@@ -2112,7 +2139,7 @@
         <v>20</v>
       </c>
       <c r="K40" s="4">
-        <f>ROUND((H40/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="3"/>
         <v>2.375</v>
       </c>
     </row>
@@ -2130,14 +2157,14 @@
         <v>1</v>
       </c>
       <c r="F41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1671095.0160600001</v>
       </c>
       <c r="G41">
         <v>12800</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1683895.0160600001</v>
       </c>
       <c r="I41" t="s">
@@ -2147,7 +2174,7 @@
         <v>20</v>
       </c>
       <c r="K41" s="4">
-        <f>ROUND((H41/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="3"/>
         <v>3.1390000000000002</v>
       </c>
     </row>
@@ -2207,7 +2234,7 @@
         <v>250</v>
       </c>
       <c r="H45">
-        <f t="shared" ref="H45:H109" si="3">F45+G45</f>
+        <f t="shared" ref="H45:H109" si="5">F45+G45</f>
         <v>1684145.0160600001</v>
       </c>
       <c r="I45" t="s">
@@ -2217,7 +2244,7 @@
         <v>62</v>
       </c>
       <c r="K45" s="4">
-        <f>ROUND((H45/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" ref="K45:K65" si="6">ROUND((H45/$F$31-1)*100, 3)+$K$29</f>
         <v>3.1539999999999999</v>
       </c>
     </row>
@@ -2242,7 +2269,7 @@
         <v>-17883</v>
       </c>
       <c r="H46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1666262.0160600001</v>
       </c>
       <c r="I46" t="s">
@@ -2252,7 +2279,7 @@
         <v>20</v>
       </c>
       <c r="K46" s="4">
-        <f>ROUND((H46/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>2.0860000000000003</v>
       </c>
     </row>
@@ -2277,7 +2304,7 @@
         <v>5840</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1672102.0160600001</v>
       </c>
       <c r="I47" t="s">
@@ -2287,7 +2314,7 @@
         <v>15</v>
       </c>
       <c r="K47" s="4">
-        <f>ROUND((H47/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>2.4350000000000001</v>
       </c>
     </row>
@@ -2312,7 +2339,7 @@
         <v>2830</v>
       </c>
       <c r="H48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1674932.0160600001</v>
       </c>
       <c r="I48" t="s">
@@ -2322,7 +2349,7 @@
         <v>63</v>
       </c>
       <c r="K48" s="4">
-        <f>ROUND((H48/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>2.6040000000000001</v>
       </c>
     </row>
@@ -2347,7 +2374,7 @@
         <v>7800</v>
       </c>
       <c r="H49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1682732.0160600001</v>
       </c>
       <c r="I49" t="s">
@@ -2357,7 +2384,7 @@
         <v>20</v>
       </c>
       <c r="K49" s="4">
-        <f>ROUND((H49/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>3.0700000000000003</v>
       </c>
     </row>
@@ -2375,14 +2402,14 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <f t="shared" ref="F50:F115" si="4">H49</f>
+        <f t="shared" ref="F50:F115" si="7">H49</f>
         <v>1682732.0160600001</v>
       </c>
       <c r="G50">
         <v>-16000</v>
       </c>
       <c r="H50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1666732.0160600001</v>
       </c>
       <c r="I50" t="s">
@@ -2392,7 +2419,7 @@
         <v>20</v>
       </c>
       <c r="K50" s="4">
-        <f>ROUND((H50/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>2.1140000000000003</v>
       </c>
     </row>
@@ -2410,14 +2437,14 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1666732.0160600001</v>
       </c>
       <c r="G51">
         <v>8200</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1674932.0160600001</v>
       </c>
       <c r="I51" t="s">
@@ -2427,7 +2454,7 @@
         <v>20</v>
       </c>
       <c r="K51" s="4">
-        <f>ROUND((H51/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>2.6040000000000001</v>
       </c>
     </row>
@@ -2445,14 +2472,14 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1674932.0160600001</v>
       </c>
       <c r="G52">
         <v>-16000</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1658932.0160600001</v>
       </c>
       <c r="I52" t="s">
@@ -2462,7 +2489,7 @@
         <v>20</v>
       </c>
       <c r="K52" s="4">
-        <f>ROUND((H52/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>1.649</v>
       </c>
     </row>
@@ -2480,14 +2507,14 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1658932.0160600001</v>
       </c>
       <c r="G53">
         <v>-21000</v>
       </c>
       <c r="H53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1637932.0160600001</v>
       </c>
       <c r="I53" t="s">
@@ -2497,7 +2524,7 @@
         <v>15</v>
       </c>
       <c r="K53" s="4">
-        <f>ROUND((H53/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>0.39500000000000002</v>
       </c>
     </row>
@@ -2515,14 +2542,14 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1637932.0160600001</v>
       </c>
       <c r="G54">
         <v>-20000</v>
       </c>
       <c r="H54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1617932.0160600001</v>
       </c>
       <c r="I54" t="s">
@@ -2532,7 +2559,7 @@
         <v>15</v>
       </c>
       <c r="K54" s="4">
-        <f>ROUND((H54/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>-0.79999999999999982</v>
       </c>
     </row>
@@ -2553,14 +2580,14 @@
         <v>1.05</v>
       </c>
       <c r="F55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1617932.0160600001</v>
       </c>
       <c r="G55">
         <v>250</v>
       </c>
       <c r="H55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1618182.0160600001</v>
       </c>
       <c r="I55" t="s">
@@ -2570,7 +2597,7 @@
         <v>68</v>
       </c>
       <c r="K55" s="4">
-        <f>ROUND((H55/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>-0.7849999999999997</v>
       </c>
     </row>
@@ -2591,14 +2618,14 @@
         <v>1.645</v>
       </c>
       <c r="F56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1618182.0160600001</v>
       </c>
       <c r="G56">
         <v>-854</v>
       </c>
       <c r="H56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1617328.0160600001</v>
       </c>
       <c r="I56" t="s">
@@ -2608,7 +2635,7 @@
         <v>15</v>
       </c>
       <c r="K56" s="4">
-        <f>ROUND((H56/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>-0.83599999999999985</v>
       </c>
     </row>
@@ -2629,14 +2656,14 @@
         <v>1.2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1617328.0160600001</v>
       </c>
       <c r="G57">
         <v>2200</v>
       </c>
       <c r="H57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1619528.0160600001</v>
       </c>
       <c r="I57" t="s">
@@ -2646,7 +2673,7 @@
         <v>68</v>
       </c>
       <c r="K57" s="4">
-        <f>ROUND((H57/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>-0.70499999999999963</v>
       </c>
     </row>
@@ -2667,14 +2694,14 @@
         <v>1.0880000000000001</v>
       </c>
       <c r="F58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1619528.0160600001</v>
       </c>
       <c r="G58">
         <v>792</v>
       </c>
       <c r="H58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1620320.0160600001</v>
       </c>
       <c r="I58" t="s">
@@ -2684,7 +2711,7 @@
         <v>70</v>
       </c>
       <c r="K58" s="4">
-        <f>ROUND((H58/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>-0.65700000000000003</v>
       </c>
     </row>
@@ -2705,14 +2732,14 @@
         <v>1.085</v>
       </c>
       <c r="F59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1620320.0160600001</v>
       </c>
       <c r="G59">
         <v>765</v>
       </c>
       <c r="H59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1621085.0160600001</v>
       </c>
       <c r="I59" t="s">
@@ -2722,7 +2749,7 @@
         <v>71</v>
       </c>
       <c r="K59" s="4">
-        <f>ROUND((H59/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>-0.61199999999999966</v>
       </c>
     </row>
@@ -2743,14 +2770,14 @@
         <v>1.0880000000000001</v>
       </c>
       <c r="F60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1621085.0160600001</v>
       </c>
       <c r="G60">
         <v>968</v>
       </c>
       <c r="H60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1622053.0160600001</v>
       </c>
       <c r="I60" t="s">
@@ -2760,7 +2787,7 @@
         <v>72</v>
       </c>
       <c r="K60" s="4">
-        <f>ROUND((H60/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>-0.55399999999999983</v>
       </c>
     </row>
@@ -2781,14 +2808,14 @@
         <v>1.05</v>
       </c>
       <c r="F61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1622053.0160600001</v>
       </c>
       <c r="G61">
         <v>550</v>
       </c>
       <c r="H61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1622603.0160600001</v>
       </c>
       <c r="I61" t="s">
@@ -2798,7 +2825,7 @@
         <v>68</v>
       </c>
       <c r="K61" s="4">
-        <f>ROUND((H61/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>-0.52099999999999991</v>
       </c>
     </row>
@@ -2819,14 +2846,14 @@
         <v>1.08</v>
       </c>
       <c r="F62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1622603.0160600001</v>
       </c>
       <c r="G62">
         <v>720</v>
       </c>
       <c r="H62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1623323.0160600001</v>
       </c>
       <c r="I62" t="s">
@@ -2836,7 +2863,7 @@
         <v>68</v>
       </c>
       <c r="K62" s="4">
-        <f>ROUND((H62/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>-0.47799999999999976</v>
       </c>
     </row>
@@ -2857,14 +2884,14 @@
         <v>1.07</v>
       </c>
       <c r="F63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1623323.0160600001</v>
       </c>
       <c r="G63">
         <v>720</v>
       </c>
       <c r="H63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1624043.0160600001</v>
       </c>
       <c r="I63" t="s">
@@ -2874,7 +2901,7 @@
         <v>70</v>
       </c>
       <c r="K63" s="4">
-        <f>ROUND((H63/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>-0.43499999999999961</v>
       </c>
     </row>
@@ -2895,14 +2922,14 @@
         <v>1.21</v>
       </c>
       <c r="F64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1624043.0160600001</v>
       </c>
       <c r="G64">
         <v>1890</v>
       </c>
       <c r="H64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1625933.0160600001</v>
       </c>
       <c r="I64" t="s">
@@ -2912,7 +2939,7 @@
         <v>73</v>
       </c>
       <c r="K64" s="4">
-        <f>ROUND((H64/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>-0.32199999999999962</v>
       </c>
     </row>
@@ -2933,14 +2960,14 @@
         <v>1.105</v>
       </c>
       <c r="F65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1625933.0160600001</v>
       </c>
       <c r="G65">
         <v>945</v>
       </c>
       <c r="H65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1626878.0160600001</v>
       </c>
       <c r="I65" t="s">
@@ -2950,7 +2977,7 @@
         <v>68</v>
       </c>
       <c r="K65" s="4">
-        <f>ROUND((H65/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="6"/>
         <v>-0.26600000000000001</v>
       </c>
     </row>
@@ -2990,7 +3017,7 @@
         <v>280</v>
       </c>
       <c r="H67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1627158.0160600001</v>
       </c>
       <c r="I67" t="s">
@@ -3000,7 +3027,7 @@
         <v>71</v>
       </c>
       <c r="K67" s="4">
-        <f>ROUND((H67/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" ref="K67:K98" si="8">ROUND((H67/$F$31-1)*100, 3)+$K$29</f>
         <v>-0.24899999999999967</v>
       </c>
     </row>
@@ -3021,14 +3048,14 @@
         <v>1.0449999999999999</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1627158.0160600001</v>
       </c>
       <c r="G68">
         <v>315</v>
       </c>
       <c r="H68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1627473.0160600001</v>
       </c>
       <c r="I68" t="s">
@@ -3038,7 +3065,7 @@
         <v>73</v>
       </c>
       <c r="K68" s="4">
-        <f>ROUND((H68/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-0.22999999999999998</v>
       </c>
     </row>
@@ -3059,14 +3086,14 @@
         <v>1.07</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1627473.0160600001</v>
       </c>
       <c r="G69">
         <v>-5000</v>
       </c>
       <c r="H69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1622473.0160600001</v>
       </c>
       <c r="I69" t="s">
@@ -3076,7 +3103,7 @@
         <v>79</v>
       </c>
       <c r="K69" s="4">
-        <f>ROUND((H69/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-0.52899999999999991</v>
       </c>
     </row>
@@ -3097,14 +3124,14 @@
         <v>1.05</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1622473.0160600001</v>
       </c>
       <c r="G70">
         <v>450</v>
       </c>
       <c r="H70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1622923.0160600001</v>
       </c>
       <c r="I70" t="s">
@@ -3114,7 +3141,7 @@
         <v>80</v>
       </c>
       <c r="K70" s="4">
-        <f>ROUND((H70/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-0.50199999999999978</v>
       </c>
     </row>
@@ -3135,14 +3162,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1622923.0160600001</v>
       </c>
       <c r="G71">
         <v>1700</v>
       </c>
       <c r="H71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1624623.0160600001</v>
       </c>
       <c r="I71" t="s">
@@ -3152,7 +3179,7 @@
         <v>68</v>
       </c>
       <c r="K71" s="4">
-        <f>ROUND((H71/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-0.39999999999999991</v>
       </c>
     </row>
@@ -3173,14 +3200,14 @@
         <v>1.1919999999999999</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1624623.0160600001</v>
       </c>
       <c r="G72">
         <v>960</v>
       </c>
       <c r="H72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1625583.0160600001</v>
       </c>
       <c r="I72" t="s">
@@ -3190,7 +3217,7 @@
         <v>78</v>
       </c>
       <c r="K72" s="4">
-        <f>ROUND((H72/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-0.34299999999999997</v>
       </c>
     </row>
@@ -3211,14 +3238,14 @@
         <v>1.0960000000000001</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1625583.0160600001</v>
       </c>
       <c r="G73">
         <v>-19000</v>
       </c>
       <c r="H73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1606583.0160600001</v>
       </c>
       <c r="I73" t="s">
@@ -3228,7 +3255,7 @@
         <v>68</v>
       </c>
       <c r="K73" s="4">
-        <f>ROUND((H73/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.4779999999999998</v>
       </c>
     </row>
@@ -3249,14 +3276,14 @@
         <v>1.3680000000000001</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1606583.0160600001</v>
       </c>
       <c r="G74">
         <v>1500</v>
       </c>
       <c r="H74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1608083.0160600001</v>
       </c>
       <c r="I74" t="s">
@@ -3266,7 +3293,7 @@
         <v>68</v>
       </c>
       <c r="K74" s="4">
-        <f>ROUND((H74/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.3879999999999999</v>
       </c>
     </row>
@@ -3287,14 +3314,14 @@
         <v>2.33</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1608083.0160600001</v>
       </c>
       <c r="G75">
         <v>-5000</v>
       </c>
       <c r="H75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603083.0160600001</v>
       </c>
       <c r="I75" t="s">
@@ -3304,7 +3331,7 @@
         <v>68</v>
       </c>
       <c r="K75" s="4">
-        <f>ROUND((H75/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.6869999999999994</v>
       </c>
     </row>
@@ -3325,14 +3352,14 @@
         <v>1.02</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603083.0160600001</v>
       </c>
       <c r="G76">
         <v>100</v>
       </c>
       <c r="H76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603183.0160600001</v>
       </c>
       <c r="I76" t="s">
@@ -3342,7 +3369,7 @@
         <v>68</v>
       </c>
       <c r="K76" s="4">
-        <f>ROUND((H76/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.681</v>
       </c>
     </row>
@@ -3363,14 +3390,14 @@
         <v>1.21</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603183.0160600001</v>
       </c>
       <c r="G77">
         <v>357</v>
       </c>
       <c r="H77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603540.0160600001</v>
       </c>
       <c r="I77" t="s">
@@ -3380,7 +3407,7 @@
         <v>73</v>
       </c>
       <c r="K77" s="4">
-        <f>ROUND((H77/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.6589999999999998</v>
       </c>
     </row>
@@ -3401,14 +3428,14 @@
         <v>1.23</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603540.0160600001</v>
       </c>
       <c r="G78">
         <v>1150</v>
       </c>
       <c r="H78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1604690.0160600001</v>
       </c>
       <c r="I78" t="s">
@@ -3418,7 +3445,7 @@
         <v>68</v>
       </c>
       <c r="K78" s="4">
-        <f>ROUND((H78/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.5910000000000002</v>
       </c>
     </row>
@@ -3439,14 +3466,14 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604690.0160600001</v>
       </c>
       <c r="G79">
         <v>-2000</v>
       </c>
       <c r="H79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1602690.0160600001</v>
       </c>
       <c r="I79" t="s">
@@ -3456,7 +3483,7 @@
         <v>68</v>
       </c>
       <c r="K79" s="4">
-        <f>ROUND((H79/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.71</v>
       </c>
     </row>
@@ -3477,14 +3504,14 @@
         <v>1.22</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1602690.0160600001</v>
       </c>
       <c r="G80">
         <v>660</v>
       </c>
       <c r="H80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603350.0160600001</v>
       </c>
       <c r="I80" t="s">
@@ -3494,7 +3521,7 @@
         <v>68</v>
       </c>
       <c r="K80" s="4">
-        <f>ROUND((H80/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.6710000000000003</v>
       </c>
     </row>
@@ -3515,14 +3542,14 @@
         <v>1.0960000000000001</v>
       </c>
       <c r="F81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603350.0160600001</v>
       </c>
       <c r="G81">
         <v>288</v>
       </c>
       <c r="H81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603638.0160600001</v>
       </c>
       <c r="I81" t="s">
@@ -3532,7 +3559,7 @@
         <v>68</v>
       </c>
       <c r="K81" s="4">
-        <f>ROUND((H81/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.6539999999999999</v>
       </c>
     </row>
@@ -3553,14 +3580,14 @@
         <v>1.3049999999999999</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603638.0160600001</v>
       </c>
       <c r="G82">
         <v>114</v>
       </c>
       <c r="H82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603752.0160600001</v>
       </c>
       <c r="I82" t="s">
@@ -3570,7 +3597,7 @@
         <v>68</v>
       </c>
       <c r="K82" s="4">
-        <f>ROUND((H82/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.6470000000000002</v>
       </c>
     </row>
@@ -3591,14 +3618,14 @@
         <v>1.032</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603752.0160600001</v>
       </c>
       <c r="G83">
         <v>44</v>
       </c>
       <c r="H83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603796.0160600001</v>
       </c>
       <c r="I83" t="s">
@@ -3608,7 +3635,7 @@
         <v>68</v>
       </c>
       <c r="K83" s="4">
-        <f>ROUND((H83/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.6440000000000001</v>
       </c>
     </row>
@@ -3629,14 +3656,14 @@
         <v>1.0640000000000001</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603796.0160600001</v>
       </c>
       <c r="G84">
         <v>320</v>
       </c>
       <c r="H84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1604116.0160600001</v>
       </c>
       <c r="I84" t="s">
@@ -3646,7 +3673,7 @@
         <v>77</v>
       </c>
       <c r="K84" s="4">
-        <f>ROUND((H84/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.625</v>
       </c>
     </row>
@@ -3667,14 +3694,14 @@
         <v>1.155</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604116.0160600001</v>
       </c>
       <c r="G85">
         <v>275</v>
       </c>
       <c r="H85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1604391.0160600001</v>
       </c>
       <c r="I85" t="s">
@@ -3684,7 +3711,7 @@
         <v>71</v>
       </c>
       <c r="K85" s="4">
-        <f>ROUND((H85/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.609</v>
       </c>
     </row>
@@ -3705,14 +3732,14 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604391.0160600001</v>
       </c>
       <c r="G86">
         <v>340</v>
       </c>
       <c r="H86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1604731.0160600001</v>
       </c>
       <c r="I86" t="s">
@@ -3722,7 +3749,7 @@
         <v>68</v>
       </c>
       <c r="K86" s="4">
-        <f>ROUND((H86/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.5880000000000001</v>
       </c>
     </row>
@@ -3743,14 +3770,14 @@
         <v>1.135</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604731.0160600001</v>
       </c>
       <c r="G87">
         <v>-821</v>
       </c>
       <c r="H87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603910.0160600001</v>
       </c>
       <c r="I87" t="s">
@@ -3760,7 +3787,7 @@
         <v>68</v>
       </c>
       <c r="K87" s="4">
-        <f>ROUND((H87/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.6369999999999996</v>
       </c>
     </row>
@@ -3781,14 +3808,14 @@
         <v>1.07</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603910.0160600001</v>
       </c>
       <c r="G88">
         <v>252</v>
       </c>
       <c r="H88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1604162.0160600001</v>
       </c>
       <c r="I88" t="s">
@@ -3798,7 +3825,7 @@
         <v>68</v>
       </c>
       <c r="K88" s="4">
-        <f>ROUND((H88/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.6219999999999999</v>
       </c>
     </row>
@@ -3819,14 +3846,14 @@
         <v>1.296</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604162.0160600001</v>
       </c>
       <c r="G89">
         <v>296</v>
       </c>
       <c r="H89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1604458.0160600001</v>
       </c>
       <c r="I89" t="s">
@@ -3836,7 +3863,7 @@
         <v>71</v>
       </c>
       <c r="K89" s="4">
-        <f>ROUND((H89/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.6049999999999995</v>
       </c>
     </row>
@@ -3857,14 +3884,14 @@
         <v>1.37</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604458.0160600001</v>
       </c>
       <c r="G90">
         <v>1110</v>
       </c>
       <c r="H90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1605568.0160600001</v>
       </c>
       <c r="I90" t="s">
@@ -3874,7 +3901,7 @@
         <v>71</v>
       </c>
       <c r="K90" s="4">
-        <f>ROUND((H90/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.5380000000000003</v>
       </c>
     </row>
@@ -3895,14 +3922,14 @@
         <v>1.165</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1605568.0160600001</v>
       </c>
       <c r="G91">
         <v>140</v>
       </c>
       <c r="H91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1605708.0160600001</v>
       </c>
       <c r="I91" t="s">
@@ -3912,7 +3939,7 @@
         <v>68</v>
       </c>
       <c r="K91" s="4">
-        <f>ROUND((H91/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.5300000000000002</v>
       </c>
     </row>
@@ -3933,14 +3960,14 @@
         <v>1.2150000000000001</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1605708.0160600001</v>
       </c>
       <c r="G92">
         <v>170</v>
       </c>
       <c r="H92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1605878.0160600001</v>
       </c>
       <c r="I92" t="s">
@@ -3950,7 +3977,7 @@
         <v>73</v>
       </c>
       <c r="K92" s="4">
-        <f>ROUND((H92/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.5199999999999996</v>
       </c>
     </row>
@@ -3971,14 +3998,14 @@
         <v>1.31</v>
       </c>
       <c r="F93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1605878.0160600001</v>
       </c>
       <c r="G93">
         <v>310</v>
       </c>
       <c r="H93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1606188.0160600001</v>
       </c>
       <c r="I93" t="s">
@@ -3988,7 +4015,7 @@
         <v>73</v>
       </c>
       <c r="K93" s="4">
-        <f>ROUND((H93/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.5009999999999994</v>
       </c>
     </row>
@@ -4009,14 +4036,14 @@
         <v>1.2549999999999999</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1606188.0160600001</v>
       </c>
       <c r="G94">
         <v>-1000</v>
       </c>
       <c r="H94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1605188.0160600001</v>
       </c>
       <c r="I94" t="s">
@@ -4026,7 +4053,7 @@
         <v>73</v>
       </c>
       <c r="K94" s="4">
-        <f>ROUND((H94/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.5609999999999999</v>
       </c>
     </row>
@@ -4047,14 +4074,14 @@
         <v>1.63</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1605188.0160600001</v>
       </c>
       <c r="G95">
         <v>-5000</v>
       </c>
       <c r="H95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1600188.0160600001</v>
       </c>
       <c r="I95" t="s">
@@ -4064,7 +4091,7 @@
         <v>68</v>
       </c>
       <c r="K95" s="4">
-        <f>ROUND((H95/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.8599999999999994</v>
       </c>
     </row>
@@ -4085,14 +4112,14 @@
         <v>1.27</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1600188.0160600001</v>
       </c>
       <c r="G96">
         <v>1100</v>
       </c>
       <c r="H96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1601288.0160600001</v>
       </c>
       <c r="I96" t="s">
@@ -4102,7 +4129,7 @@
         <v>68</v>
       </c>
       <c r="K96" s="4">
-        <f>ROUND((H96/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.7939999999999996</v>
       </c>
     </row>
@@ -4123,14 +4150,14 @@
         <v>1.2050000000000001</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1601288.0160600001</v>
       </c>
       <c r="G97">
         <v>820</v>
       </c>
       <c r="H97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1602108.0160600001</v>
       </c>
       <c r="I97" t="s">
@@ -4140,7 +4167,7 @@
         <v>68</v>
       </c>
       <c r="K97" s="4">
-        <f>ROUND((H97/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.7450000000000001</v>
       </c>
     </row>
@@ -4161,14 +4188,14 @@
         <v>1.288</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1602108.0160600001</v>
       </c>
       <c r="G98">
         <v>576</v>
       </c>
       <c r="H98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1602684.0160600001</v>
       </c>
       <c r="I98" t="s">
@@ -4178,7 +4205,7 @@
         <v>68</v>
       </c>
       <c r="K98" s="4">
-        <f>ROUND((H98/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="8"/>
         <v>-1.7109999999999994</v>
       </c>
     </row>
@@ -4199,14 +4226,14 @@
         <v>1.085</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1602684.0160600001</v>
       </c>
       <c r="G99">
         <v>340</v>
       </c>
       <c r="H99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603024.0160600001</v>
       </c>
       <c r="I99" t="s">
@@ -4216,7 +4243,7 @@
         <v>71</v>
       </c>
       <c r="K99" s="4">
-        <f>ROUND((H99/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" ref="K99:K117" si="9">ROUND((H99/$F$31-1)*100, 3)+$K$29</f>
         <v>-1.6899999999999995</v>
       </c>
     </row>
@@ -4237,14 +4264,14 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603024.0160600001</v>
       </c>
       <c r="G100">
         <v>450</v>
       </c>
       <c r="H100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603474.0160600001</v>
       </c>
       <c r="I100" t="s">
@@ -4254,7 +4281,7 @@
         <v>82</v>
       </c>
       <c r="K100" s="4">
-        <f>ROUND((H100/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.6630000000000003</v>
       </c>
     </row>
@@ -4275,14 +4302,14 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="F101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603474.0160600001</v>
       </c>
       <c r="G101">
         <v>260</v>
       </c>
       <c r="H101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603734.0160600001</v>
       </c>
       <c r="I101" t="s">
@@ -4292,7 +4319,7 @@
         <v>68</v>
       </c>
       <c r="K101" s="4">
-        <f>ROUND((H101/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.6479999999999997</v>
       </c>
     </row>
@@ -4313,14 +4340,14 @@
         <v>1.07</v>
       </c>
       <c r="F102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603734.0160600001</v>
       </c>
       <c r="G102">
         <v>30</v>
       </c>
       <c r="H102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603764.0160600001</v>
       </c>
       <c r="I102" t="s">
@@ -4330,7 +4357,7 @@
         <v>68</v>
       </c>
       <c r="K102" s="4">
-        <f>ROUND((H102/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.6459999999999999</v>
       </c>
     </row>
@@ -4351,14 +4378,14 @@
         <v>1.1359999999999999</v>
       </c>
       <c r="F103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603764.0160600001</v>
       </c>
       <c r="G103">
         <v>272</v>
       </c>
       <c r="H103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1604036.0160600001</v>
       </c>
       <c r="I103" t="s">
@@ -4368,7 +4395,7 @@
         <v>70</v>
       </c>
       <c r="K103" s="4">
-        <f>ROUND((H103/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.63</v>
       </c>
     </row>
@@ -4389,14 +4416,14 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="F104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604036.0160600001</v>
       </c>
       <c r="G104">
         <v>361</v>
       </c>
       <c r="H104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1604397.0160600001</v>
       </c>
       <c r="I104" t="s">
@@ -4406,7 +4433,7 @@
         <v>72</v>
       </c>
       <c r="K104" s="4">
-        <f>ROUND((H104/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.6079999999999997</v>
       </c>
     </row>
@@ -4427,14 +4454,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604397.0160600001</v>
       </c>
       <c r="G105">
         <v>193</v>
       </c>
       <c r="H105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1604590.0160600001</v>
       </c>
       <c r="I105" t="s">
@@ -4444,7 +4471,7 @@
         <v>85</v>
       </c>
       <c r="K105" s="4">
-        <f>ROUND((H105/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.5969999999999995</v>
       </c>
     </row>
@@ -4465,14 +4492,14 @@
         <v>1.0960000000000001</v>
       </c>
       <c r="F106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604590.0160600001</v>
       </c>
       <c r="G106">
         <v>96</v>
       </c>
       <c r="H106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1604686.0160600001</v>
       </c>
       <c r="I106" t="s">
@@ -4482,7 +4509,7 @@
         <v>68</v>
       </c>
       <c r="K106" s="4">
-        <f>ROUND((H106/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.5910000000000002</v>
       </c>
     </row>
@@ -4503,14 +4530,14 @@
         <v>1.07</v>
       </c>
       <c r="F107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604686.0160600001</v>
       </c>
       <c r="G107">
         <v>15</v>
       </c>
       <c r="H107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1604701.0160600001</v>
       </c>
       <c r="I107" t="s">
@@ -4520,7 +4547,7 @@
         <v>73</v>
       </c>
       <c r="K107" s="4">
-        <f>ROUND((H107/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.5899999999999999</v>
       </c>
     </row>
@@ -4541,14 +4568,14 @@
         <v>1.1839999999999999</v>
       </c>
       <c r="F108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604701.0160600001</v>
       </c>
       <c r="G108">
         <v>184</v>
       </c>
       <c r="H108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1604885.0160600001</v>
       </c>
       <c r="I108" t="s">
@@ -4558,7 +4585,7 @@
         <v>68</v>
       </c>
       <c r="K108" s="4">
-        <f>ROUND((H108/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.5789999999999997</v>
       </c>
     </row>
@@ -4579,14 +4606,14 @@
         <v>1.21</v>
       </c>
       <c r="F109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604885.0160600001</v>
       </c>
       <c r="G109">
         <v>-1000</v>
       </c>
       <c r="H109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1603885.0160600001</v>
       </c>
       <c r="I109" t="s">
@@ -4596,7 +4623,7 @@
         <v>68</v>
       </c>
       <c r="K109" s="4">
-        <f>ROUND((H109/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.6390000000000002</v>
       </c>
     </row>
@@ -4617,14 +4644,14 @@
         <v>1.167</v>
       </c>
       <c r="F110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1603885.0160600001</v>
       </c>
       <c r="G110">
         <v>1169</v>
       </c>
       <c r="H110">
-        <f t="shared" ref="H110:H130" si="5">F110+G110</f>
+        <f t="shared" ref="H110:H140" si="10">F110+G110</f>
         <v>1605054.0160600001</v>
       </c>
       <c r="I110" t="s">
@@ -4634,7 +4661,7 @@
         <v>20</v>
       </c>
       <c r="K110" s="4">
-        <f>ROUND((H110/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.569</v>
       </c>
     </row>
@@ -4655,14 +4682,14 @@
         <v>1.07</v>
       </c>
       <c r="F111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1605054.0160600001</v>
       </c>
       <c r="G111">
         <v>-396</v>
       </c>
       <c r="H111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1604658.0160600001</v>
       </c>
       <c r="I111" t="s">
@@ -4672,7 +4699,7 @@
         <v>73</v>
       </c>
       <c r="K111" s="4">
-        <f>ROUND((H111/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.593</v>
       </c>
     </row>
@@ -4693,14 +4720,14 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="F112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604658.0160600001</v>
       </c>
       <c r="G112">
         <v>90</v>
       </c>
       <c r="H112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1604748.0160600001</v>
       </c>
       <c r="I112" t="s">
@@ -4710,7 +4737,7 @@
         <v>68</v>
       </c>
       <c r="K112" s="4">
-        <f>ROUND((H112/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.5869999999999997</v>
       </c>
     </row>
@@ -4731,14 +4758,14 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="F113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1604748.0160600001</v>
       </c>
       <c r="G113">
         <v>450</v>
       </c>
       <c r="H113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1605198.0160600001</v>
       </c>
       <c r="I113" t="s">
@@ -4748,7 +4775,7 @@
         <v>68</v>
       </c>
       <c r="K113" s="4">
-        <f>ROUND((H113/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.5599999999999996</v>
       </c>
     </row>
@@ -4769,14 +4796,14 @@
         <v>1.0960000000000001</v>
       </c>
       <c r="F114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1605198.0160600001</v>
       </c>
       <c r="G114">
         <v>70</v>
       </c>
       <c r="H114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1605268.0160600001</v>
       </c>
       <c r="I114" t="s">
@@ -4786,7 +4813,7 @@
         <v>68</v>
       </c>
       <c r="K114" s="4">
-        <f>ROUND((H114/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.556</v>
       </c>
     </row>
@@ -4807,14 +4834,14 @@
         <v>1.115</v>
       </c>
       <c r="F115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1605268.0160600001</v>
       </c>
       <c r="G115">
         <v>95</v>
       </c>
       <c r="H115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1605363.0160600001</v>
       </c>
       <c r="I115" t="s">
@@ -4824,7 +4851,7 @@
         <v>68</v>
       </c>
       <c r="K115" s="4">
-        <f>ROUND((H115/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.5510000000000002</v>
       </c>
     </row>
@@ -4845,14 +4872,14 @@
         <v>1.1850000000000001</v>
       </c>
       <c r="F116">
-        <f t="shared" ref="F116:F130" si="6">H115</f>
+        <f t="shared" ref="F116:F140" si="11">H115</f>
         <v>1605363.0160600001</v>
       </c>
       <c r="G116">
         <v>92</v>
       </c>
       <c r="H116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1605455.0160600001</v>
       </c>
       <c r="I116" t="s">
@@ -4862,7 +4889,7 @@
         <v>85</v>
       </c>
       <c r="K116" s="4">
-        <f>ROUND((H116/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.5449999999999999</v>
       </c>
     </row>
@@ -4883,14 +4910,14 @@
         <v>1.1439999999999999</v>
       </c>
       <c r="F117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1605455.0160600001</v>
       </c>
       <c r="G117">
         <v>-600</v>
       </c>
       <c r="H117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1604855.0160600001</v>
       </c>
       <c r="I117" t="s">
@@ -4900,7 +4927,7 @@
         <v>85</v>
       </c>
       <c r="K117" s="4">
-        <f>ROUND((H117/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" si="9"/>
         <v>-1.5809999999999995</v>
       </c>
     </row>
@@ -4921,14 +4948,14 @@
         <v>1.2050000000000001</v>
       </c>
       <c r="F118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1604855.0160600001</v>
       </c>
       <c r="G118">
         <v>-400</v>
       </c>
       <c r="H118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1604455.0160600001</v>
       </c>
       <c r="I118" t="s">
@@ -4938,7 +4965,7 @@
         <v>68</v>
       </c>
       <c r="K118" s="4">
-        <f t="shared" ref="K118:K130" si="7">ROUND((H118/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" ref="K118:K140" si="12">ROUND((H118/$F$31-1)*100, 3)+$K$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
@@ -4959,14 +4986,14 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="F119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1604455.0160600001</v>
       </c>
       <c r="G119">
         <v>100</v>
       </c>
       <c r="H119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1604555.0160600001</v>
       </c>
       <c r="I119" t="s">
@@ -4976,7 +5003,7 @@
         <v>79</v>
       </c>
       <c r="K119" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1.5990000000000002</v>
       </c>
     </row>
@@ -4997,14 +5024,14 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="F120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1604555.0160600001</v>
       </c>
       <c r="G120">
         <v>20</v>
       </c>
       <c r="H120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1604575.0160600001</v>
       </c>
       <c r="I120" t="s">
@@ -5014,7 +5041,7 @@
         <v>87</v>
       </c>
       <c r="K120" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1.5979999999999999</v>
       </c>
     </row>
@@ -5035,14 +5062,14 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="F121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1604575.0160600001</v>
       </c>
       <c r="G121">
         <v>-500</v>
       </c>
       <c r="H121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1604075.0160600001</v>
       </c>
       <c r="I121" t="s">
@@ -5052,7 +5079,7 @@
         <v>88</v>
       </c>
       <c r="K121" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1.6269999999999998</v>
       </c>
     </row>
@@ -5073,14 +5100,14 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="F122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1604075.0160600001</v>
       </c>
       <c r="G122">
         <v>360</v>
       </c>
       <c r="H122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1604435.0160600001</v>
       </c>
       <c r="I122" t="s">
@@ -5090,7 +5117,7 @@
         <v>70</v>
       </c>
       <c r="K122" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1.6059999999999999</v>
       </c>
     </row>
@@ -5111,14 +5138,14 @@
         <v>1.18</v>
       </c>
       <c r="F123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1604435.0160600001</v>
       </c>
       <c r="G123">
         <v>100</v>
       </c>
       <c r="H123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1604535.0160600001</v>
       </c>
       <c r="I123" t="s">
@@ -5128,7 +5155,7 @@
         <v>68</v>
       </c>
       <c r="K123" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1.5999999999999996</v>
       </c>
     </row>
@@ -5149,14 +5176,14 @@
         <v>1.155</v>
       </c>
       <c r="F124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1604535.0160600001</v>
       </c>
       <c r="G124">
         <v>-500</v>
       </c>
       <c r="H124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1604035.0160600001</v>
       </c>
       <c r="I124" t="s">
@@ -5166,7 +5193,7 @@
         <v>71</v>
       </c>
       <c r="K124" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1.63</v>
       </c>
     </row>
@@ -5187,14 +5214,14 @@
         <v>1.085</v>
       </c>
       <c r="F125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1604035.0160600001</v>
       </c>
       <c r="G125">
         <v>595</v>
       </c>
       <c r="H125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1604630.0160600001</v>
       </c>
       <c r="I125" t="s">
@@ -5204,7 +5231,7 @@
         <v>89</v>
       </c>
       <c r="K125" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1.5939999999999994</v>
       </c>
     </row>
@@ -5225,14 +5252,14 @@
         <v>1.45</v>
       </c>
       <c r="F126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1604630.0160600001</v>
       </c>
       <c r="G126">
         <v>-7266</v>
       </c>
       <c r="H126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1597364.0160600001</v>
       </c>
       <c r="I126" t="s">
@@ -5242,7 +5269,7 @@
         <v>90</v>
       </c>
       <c r="K126" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-2.0279999999999996</v>
       </c>
     </row>
@@ -5263,14 +5290,14 @@
         <v>1.0549999999999999</v>
       </c>
       <c r="F127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1597364.0160600001</v>
       </c>
       <c r="G127">
         <v>78</v>
       </c>
       <c r="H127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1597442.0160600001</v>
       </c>
       <c r="I127" t="s">
@@ -5280,7 +5307,7 @@
         <v>73</v>
       </c>
       <c r="K127" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-2.024</v>
       </c>
     </row>
@@ -5301,14 +5328,14 @@
         <v>1.048</v>
       </c>
       <c r="F128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1597442.0160600001</v>
       </c>
       <c r="G128">
         <v>50</v>
       </c>
       <c r="H128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1597492.0160600001</v>
       </c>
       <c r="I128" t="s">
@@ -5318,7 +5345,7 @@
         <v>89</v>
       </c>
       <c r="K128" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-2.0209999999999999</v>
       </c>
     </row>
@@ -5339,14 +5366,14 @@
         <v>1.2450000000000001</v>
       </c>
       <c r="F129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1597492.0160600001</v>
       </c>
       <c r="G129">
         <v>277</v>
       </c>
       <c r="H129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1597769.0160600001</v>
       </c>
       <c r="I129" t="s">
@@ -5356,7 +5383,7 @@
         <v>89</v>
       </c>
       <c r="K129" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-2.0039999999999996</v>
       </c>
     </row>
@@ -5377,14 +5404,14 @@
         <v>1.1120000000000001</v>
       </c>
       <c r="F130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1597769.0160600001</v>
       </c>
       <c r="G130">
         <v>99</v>
       </c>
       <c r="H130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1597868.0160600001</v>
       </c>
       <c r="I130" t="s">
@@ -5394,8 +5421,362 @@
         <v>70</v>
       </c>
       <c r="K130" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1.9980000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2">
+        <v>45243</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>1.17</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="11"/>
+        <v>1597868.0160600001</v>
+      </c>
+      <c r="G131">
+        <v>240</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="10"/>
+        <v>1598108.0160600001</v>
+      </c>
+      <c r="I131" t="s">
+        <v>92</v>
+      </c>
+      <c r="J131" t="s">
+        <v>93</v>
+      </c>
+      <c r="K131" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.984</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2">
+        <v>45244</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>1.095</v>
+      </c>
+      <c r="F133">
+        <f>H131</f>
+        <v>1598108.0160600001</v>
+      </c>
+      <c r="G133">
+        <v>10</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="10"/>
+        <v>1598118.0160600001</v>
+      </c>
+      <c r="I133" t="s">
+        <v>67</v>
+      </c>
+      <c r="J133" t="s">
+        <v>68</v>
+      </c>
+      <c r="K133" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.9829999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>1.91</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="11"/>
+        <v>1598118.0160600001</v>
+      </c>
+      <c r="G134">
+        <v>910</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="10"/>
+        <v>1599028.0160600001</v>
+      </c>
+      <c r="I134" t="s">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>96</v>
+      </c>
+      <c r="K134" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.9289999999999994</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="11"/>
+        <v>1599028.0160600001</v>
+      </c>
+      <c r="G135">
+        <v>61</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="10"/>
+        <v>1599089.0160600001</v>
+      </c>
+      <c r="I135" t="s">
+        <v>97</v>
+      </c>
+      <c r="J135" t="s">
+        <v>98</v>
+      </c>
+      <c r="K135" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.9249999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="11"/>
+        <v>1599089.0160600001</v>
+      </c>
+      <c r="G136">
+        <v>140</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="10"/>
+        <v>1599229.0160600001</v>
+      </c>
+      <c r="I136" t="s">
+        <v>67</v>
+      </c>
+      <c r="J136" t="s">
+        <v>71</v>
+      </c>
+      <c r="K136" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.9169999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>1.17</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="11"/>
+        <v>1599229.0160600001</v>
+      </c>
+      <c r="G137">
+        <v>110</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="10"/>
+        <v>1599339.0160600001</v>
+      </c>
+      <c r="I137" t="s">
+        <v>91</v>
+      </c>
+      <c r="J137" t="s">
+        <v>99</v>
+      </c>
+      <c r="K137" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.9100000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>1.05</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="11"/>
+        <v>1599339.0160600001</v>
+      </c>
+      <c r="G138">
+        <v>5</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="10"/>
+        <v>1599344.0160600001</v>
+      </c>
+      <c r="I138" t="s">
+        <v>67</v>
+      </c>
+      <c r="J138" t="s">
+        <v>68</v>
+      </c>
+      <c r="K138" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.9100000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="11"/>
+        <v>1599344.0160600001</v>
+      </c>
+      <c r="G139">
+        <v>163</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="10"/>
+        <v>1599507.0160600001</v>
+      </c>
+      <c r="I139" t="s">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>100</v>
+      </c>
+      <c r="K139" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.8999999999999995</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2">
+        <v>45245</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>1.19</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="11"/>
+        <v>1599507.0160600001</v>
+      </c>
+      <c r="G140">
+        <v>380</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="10"/>
+        <v>1599887.0160600001</v>
+      </c>
+      <c r="I140" t="s">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>100</v>
+      </c>
+      <c r="K140" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.8780000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5466,23 +5847,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>455068.70640000002</v>
+        <v>453519.53240000003</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>53880.296223599995</v>
+        <v>53696.873472599997</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>80327.400753599999</v>
+        <v>80053.945077600001</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>32372.444689200001</v>
+        <v>32262.240342199999</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>25382.489378399998</v>
+        <v>25296.0806844</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5511,23 +5892,23 @@
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>1444890.3603566</v>
+        <v>1446659.5777526</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>55040.815528125902</v>
+        <v>55108.211069679899</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>82057.560121508388</v>
+        <v>82158.036716012386</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>33069.709730962306</v>
+        <v>33110.2024267003</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>25929.1988619246</v>
+        <v>25960.948253400598</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD13735-88A8-4458-BF00-FC8BE09C21F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70956AAF-298E-4541-BF5A-528AE4DA42BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="104">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -363,6 +363,15 @@
   </si>
   <si>
     <t>DOTA 2: ULTRAS DOTA 2</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>DOTA 2 ESL CHINA</t>
   </si>
 </sst>
 </file>
@@ -750,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:K140"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="M136" sqref="M136"/>
+      <selection activeCell="L142" sqref="L142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4651,7 +4660,7 @@
         <v>1169</v>
       </c>
       <c r="H110">
-        <f t="shared" ref="H110:H140" si="10">F110+G110</f>
+        <f t="shared" ref="H110:H144" si="10">F110+G110</f>
         <v>1605054.0160600001</v>
       </c>
       <c r="I110" t="s">
@@ -4965,7 +4974,7 @@
         <v>68</v>
       </c>
       <c r="K118" s="4">
-        <f t="shared" ref="K118:K140" si="12">ROUND((H118/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" ref="K118:K144" si="12">ROUND((H118/$F$31-1)*100, 3)+$K$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
@@ -5777,6 +5786,132 @@
       <c r="K140" s="4">
         <f t="shared" si="12"/>
         <v>-1.8780000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2">
+        <v>45246</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K141" s="4"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2">
+        <v>45247</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F142">
+        <f>H140</f>
+        <v>1599887.0160600001</v>
+      </c>
+      <c r="G142">
+        <v>55</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="10"/>
+        <v>1599942.0160600001</v>
+      </c>
+      <c r="I142" t="s">
+        <v>67</v>
+      </c>
+      <c r="J142" t="s">
+        <v>73</v>
+      </c>
+      <c r="K142" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.8739999999999997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2">
+        <v>45247</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>1.155</v>
+      </c>
+      <c r="F143">
+        <f>H142</f>
+        <v>1599942.0160600001</v>
+      </c>
+      <c r="G143">
+        <v>40</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="10"/>
+        <v>1599982.0160600001</v>
+      </c>
+      <c r="I143" t="s">
+        <v>67</v>
+      </c>
+      <c r="J143" t="s">
+        <v>71</v>
+      </c>
+      <c r="K143" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.8719999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2">
+        <v>45247</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>1.07</v>
+      </c>
+      <c r="F144">
+        <f>H143</f>
+        <v>1599982.0160600001</v>
+      </c>
+      <c r="G144">
+        <v>21</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="10"/>
+        <v>1600003.0160600001</v>
+      </c>
+      <c r="I144" t="s">
+        <v>0</v>
+      </c>
+      <c r="J144" t="s">
+        <v>103</v>
+      </c>
+      <c r="K144" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.8709999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -5847,23 +5982,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>453519.53240000003</v>
+        <v>453607.39600000001</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>53696.873472599997</v>
+        <v>53707.276553999996</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>80053.945077600001</v>
+        <v>80069.454503999994</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>32262.240342199999</v>
+        <v>32268.490738</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>25296.0806844</v>
+        <v>25300.981476000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -5892,23 +6027,23 @@
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>1446659.5777526</v>
+        <v>1446762.7821007001</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>55108.211069679899</v>
+        <v>55112.14247627055</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>82158.036716012386</v>
+        <v>82163.897850691792</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>33110.2024267003</v>
+        <v>33112.564500618355</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>25960.948253400598</v>
+        <v>25962.800301236697</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70956AAF-298E-4541-BF5A-528AE4DA42BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B577D6C7-79E9-4DD6-9B0F-DE9E1878F2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="105">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>DOTA 2 ESL CHINA</t>
+  </si>
+  <si>
+    <t>CS2 CCT ONLINE FINALS</t>
   </si>
 </sst>
 </file>
@@ -759,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:K144"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="L142" sqref="L142"/>
+      <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4660,7 +4663,7 @@
         <v>1169</v>
       </c>
       <c r="H110">
-        <f t="shared" ref="H110:H144" si="10">F110+G110</f>
+        <f t="shared" ref="H110:H146" si="10">F110+G110</f>
         <v>1605054.0160600001</v>
       </c>
       <c r="I110" t="s">
@@ -4974,7 +4977,7 @@
         <v>68</v>
       </c>
       <c r="K118" s="4">
-        <f t="shared" ref="K118:K144" si="12">ROUND((H118/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" ref="K118:K146" si="12">ROUND((H118/$F$31-1)*100, 3)+$K$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
@@ -5912,6 +5915,82 @@
       <c r="K144" s="4">
         <f t="shared" si="12"/>
         <v>-1.8709999999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2">
+        <v>45247</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>1.07</v>
+      </c>
+      <c r="F145">
+        <f t="shared" ref="F145:F146" si="13">H144</f>
+        <v>1600003.0160600001</v>
+      </c>
+      <c r="G145">
+        <v>66</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="10"/>
+        <v>1600069.0160600001</v>
+      </c>
+      <c r="I145" t="s">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>104</v>
+      </c>
+      <c r="K145" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.867</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2">
+        <v>45247</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>1.08</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="13"/>
+        <v>1600069.0160600001</v>
+      </c>
+      <c r="G146">
+        <v>40</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="10"/>
+        <v>1600109.0160600001</v>
+      </c>
+      <c r="I146" t="s">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>63</v>
+      </c>
+      <c r="K146" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.8639999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5982,23 +6061,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>453607.39600000001</v>
+        <v>453653.64</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>53707.276553999996</v>
+        <v>53712.751859999997</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>80069.454503999994</v>
+        <v>80077.617360000004</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>32268.490738</v>
+        <v>32271.780419999999</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>25300.981476000001</v>
+        <v>25303.560839999998</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6027,23 +6106,23 @@
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>1446762.7821007001</v>
+        <v>1446865.9864488002</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>55112.14247627055</v>
+        <v>55116.073882861201</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>82163.897850691792</v>
+        <v>82169.758985371198</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>33112.564500618355</v>
+        <v>33114.926574536403</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>25962.800301236697</v>
+        <v>25964.6523490728</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B577D6C7-79E9-4DD6-9B0F-DE9E1878F2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B21653E-78AC-4BC0-8AD9-89E1CC1C989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="108">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -375,6 +375,15 @@
   </si>
   <si>
     <t>CS2 CCT ONLINE FINALS</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
+  </si>
+  <si>
+    <t>2023-11-19</t>
+  </si>
+  <si>
+    <t>DOTA 2 ULTRAS DOTA PRO</t>
   </si>
 </sst>
 </file>
@@ -382,8 +391,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -433,17 +442,17 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -762,25 +771,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="J147" sqref="J147"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="M148" sqref="M148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.53125" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.73046875" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1328125" customWidth="1"/>
-    <col min="10" max="10" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" customWidth="1"/>
+    <col min="10" max="10" width="28.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -815,7 +824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -849,7 +858,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -884,7 +893,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -919,7 +928,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -954,7 +963,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -989,7 +998,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1024,7 +1033,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1059,7 +1068,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1164,7 +1173,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1199,7 +1208,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1234,7 +1243,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1339,7 +1348,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1374,7 +1383,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1409,7 +1418,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1444,7 +1453,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1479,7 +1488,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1514,7 +1523,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1549,7 +1558,7 @@
         <v>1.7849999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1584,7 +1593,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1619,7 +1628,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1654,7 +1663,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1724,7 +1733,7 @@
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1759,7 +1768,7 @@
         <v>2.5379999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1794,7 +1803,7 @@
         <v>2.5750000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1806,7 +1815,7 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1840,7 +1849,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1875,7 +1884,7 @@
         <v>2.6590000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1910,7 +1919,7 @@
         <v>2.6990000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1945,7 +1954,7 @@
         <v>2.7510000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1980,7 +1989,7 @@
         <v>2.8010000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2015,7 +2024,7 @@
         <v>2.2680000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2050,7 +2059,7 @@
         <v>2.363</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2155,7 +2164,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2190,7 +2199,7 @@
         <v>3.1390000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2202,7 +2211,7 @@
       </c>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2214,7 +2223,7 @@
       </c>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2225,7 +2234,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2260,7 +2269,7 @@
         <v>3.1539999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2295,7 +2304,7 @@
         <v>2.0860000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2330,7 +2339,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2365,7 +2374,7 @@
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2400,7 +2409,7 @@
         <v>3.0700000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2435,7 +2444,7 @@
         <v>2.1140000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2470,7 +2479,7 @@
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2505,7 +2514,7 @@
         <v>1.649</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2540,7 +2549,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>-0.79999999999999982</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2613,7 +2622,7 @@
         <v>-0.7849999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2651,7 +2660,7 @@
         <v>-0.83599999999999985</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2689,7 +2698,7 @@
         <v>-0.70499999999999963</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2727,7 +2736,7 @@
         <v>-0.65700000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2765,7 +2774,7 @@
         <v>-0.61199999999999966</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2803,7 +2812,7 @@
         <v>-0.55399999999999983</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2841,7 +2850,7 @@
         <v>-0.52099999999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2879,7 +2888,7 @@
         <v>-0.47799999999999976</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2917,7 +2926,7 @@
         <v>-0.43499999999999961</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2955,7 +2964,7 @@
         <v>-0.32199999999999962</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2993,7 +3002,7 @@
         <v>-0.26600000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3005,7 +3014,7 @@
       </c>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3043,7 +3052,7 @@
         <v>-0.24899999999999967</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3081,7 +3090,7 @@
         <v>-0.22999999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3119,7 +3128,7 @@
         <v>-0.52899999999999991</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3157,7 +3166,7 @@
         <v>-0.50199999999999978</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3195,7 +3204,7 @@
         <v>-0.39999999999999991</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3233,7 +3242,7 @@
         <v>-0.34299999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3271,7 +3280,7 @@
         <v>-1.4779999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3309,7 +3318,7 @@
         <v>-1.3879999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3347,7 +3356,7 @@
         <v>-1.6869999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3385,7 +3394,7 @@
         <v>-1.681</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>-1.6589999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3461,7 +3470,7 @@
         <v>-1.5910000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3499,7 +3508,7 @@
         <v>-1.71</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3537,7 +3546,7 @@
         <v>-1.6710000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3575,7 +3584,7 @@
         <v>-1.6539999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>-1.6470000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3651,7 +3660,7 @@
         <v>-1.6440000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3689,7 +3698,7 @@
         <v>-1.625</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3727,7 +3736,7 @@
         <v>-1.609</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3765,7 +3774,7 @@
         <v>-1.5880000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3803,7 +3812,7 @@
         <v>-1.6369999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3841,7 +3850,7 @@
         <v>-1.6219999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3879,7 +3888,7 @@
         <v>-1.6049999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3917,7 +3926,7 @@
         <v>-1.5380000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3955,7 +3964,7 @@
         <v>-1.5300000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3993,7 +4002,7 @@
         <v>-1.5199999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4031,7 +4040,7 @@
         <v>-1.5009999999999994</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4069,7 +4078,7 @@
         <v>-1.5609999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4107,7 +4116,7 @@
         <v>-1.8599999999999994</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4145,7 +4154,7 @@
         <v>-1.7939999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4183,7 +4192,7 @@
         <v>-1.7450000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4221,7 +4230,7 @@
         <v>-1.7109999999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4259,7 +4268,7 @@
         <v>-1.6899999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4297,7 +4306,7 @@
         <v>-1.6630000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4335,7 +4344,7 @@
         <v>-1.6479999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4373,7 +4382,7 @@
         <v>-1.6459999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4411,7 +4420,7 @@
         <v>-1.63</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4449,7 +4458,7 @@
         <v>-1.6079999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4487,7 +4496,7 @@
         <v>-1.5969999999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4525,7 +4534,7 @@
         <v>-1.5910000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4563,7 +4572,7 @@
         <v>-1.5899999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4601,7 +4610,7 @@
         <v>-1.5789999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4639,7 +4648,7 @@
         <v>-1.6390000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4663,7 +4672,7 @@
         <v>1169</v>
       </c>
       <c r="H110">
-        <f t="shared" ref="H110:H146" si="10">F110+G110</f>
+        <f t="shared" ref="H110:H150" si="10">F110+G110</f>
         <v>1605054.0160600001</v>
       </c>
       <c r="I110" t="s">
@@ -4677,7 +4686,7 @@
         <v>-1.569</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -4715,7 +4724,7 @@
         <v>-1.593</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -4753,7 +4762,7 @@
         <v>-1.5869999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -4791,7 +4800,7 @@
         <v>-1.5599999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -4829,7 +4838,7 @@
         <v>-1.556</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -4867,7 +4876,7 @@
         <v>-1.5510000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -4905,7 +4914,7 @@
         <v>-1.5449999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -4943,7 +4952,7 @@
         <v>-1.5809999999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -4977,11 +4986,11 @@
         <v>68</v>
       </c>
       <c r="K118" s="4">
-        <f t="shared" ref="K118:K146" si="12">ROUND((H118/$F$31-1)*100, 3)+$K$29</f>
+        <f t="shared" ref="K118:K150" si="12">ROUND((H118/$F$31-1)*100, 3)+$K$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5019,7 +5028,7 @@
         <v>-1.5990000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5057,7 +5066,7 @@
         <v>-1.5979999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5095,7 +5104,7 @@
         <v>-1.6269999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5133,7 +5142,7 @@
         <v>-1.6059999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5171,7 +5180,7 @@
         <v>-1.5999999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5209,7 +5218,7 @@
         <v>-1.63</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5247,7 +5256,7 @@
         <v>-1.5939999999999994</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5285,7 +5294,7 @@
         <v>-2.0279999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5323,7 +5332,7 @@
         <v>-2.024</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5361,7 +5370,7 @@
         <v>-2.0209999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5399,7 +5408,7 @@
         <v>-2.0039999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5437,7 +5446,7 @@
         <v>-1.9980000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5475,7 +5484,7 @@
         <v>-1.984</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5487,7 +5496,7 @@
       </c>
       <c r="K132" s="4"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5525,7 +5534,7 @@
         <v>-1.9829999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5563,7 +5572,7 @@
         <v>-1.9289999999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -5601,7 +5610,7 @@
         <v>-1.9249999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -5639,7 +5648,7 @@
         <v>-1.9169999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -5677,7 +5686,7 @@
         <v>-1.9100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>-1.9100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -5753,7 +5762,7 @@
         <v>-1.8999999999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -5791,7 +5800,7 @@
         <v>-1.8780000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -5803,7 +5812,7 @@
       </c>
       <c r="K141" s="4"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -5841,7 +5850,7 @@
         <v>-1.8739999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -5879,7 +5888,7 @@
         <v>-1.8719999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -5917,7 +5926,7 @@
         <v>-1.8709999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -5934,7 +5943,7 @@
         <v>1.07</v>
       </c>
       <c r="F145">
-        <f t="shared" ref="F145:F146" si="13">H144</f>
+        <f t="shared" ref="F145:F150" si="13">H144</f>
         <v>1600003.0160600001</v>
       </c>
       <c r="G145">
@@ -5955,7 +5964,7 @@
         <v>-1.867</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -5991,6 +6000,158 @@
       <c r="K146" s="4">
         <f t="shared" si="12"/>
         <v>-1.8639999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2">
+        <v>45247</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="13"/>
+        <v>1600109.0160600001</v>
+      </c>
+      <c r="G147">
+        <v>-810</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="10"/>
+        <v>1599299.0160600001</v>
+      </c>
+      <c r="I147" t="s">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>107</v>
+      </c>
+      <c r="K147" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.9130000000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2">
+        <v>45247</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="13"/>
+        <v>1599299.0160600001</v>
+      </c>
+      <c r="G148">
+        <v>-200</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="10"/>
+        <v>1599099.0160600001</v>
+      </c>
+      <c r="I148" t="s">
+        <v>0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>107</v>
+      </c>
+      <c r="K148" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.9249999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2">
+        <v>45248</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>1.304</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="13"/>
+        <v>1599099.0160600001</v>
+      </c>
+      <c r="G149">
+        <v>790</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="10"/>
+        <v>1599889.0160600001</v>
+      </c>
+      <c r="I149" t="s">
+        <v>92</v>
+      </c>
+      <c r="J149" t="s">
+        <v>93</v>
+      </c>
+      <c r="K149" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.8769999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2">
+        <v>45249</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="13"/>
+        <v>1599889.0160600001</v>
+      </c>
+      <c r="G150">
+        <v>13860</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="10"/>
+        <v>1613749.0160600001</v>
+      </c>
+      <c r="I150" t="s">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>20</v>
+      </c>
+      <c r="K150" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.0499999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -6007,14 +6168,14 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -6034,7 +6195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6055,32 +6216,32 @@
         <v>25793.64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>453653.64</v>
+        <v>453783.12319999997</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>53712.751859999997</v>
+        <v>53728.082716799996</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>80077.617360000004</v>
+        <v>80100.473356799994</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>32271.780419999999</v>
+        <v>32280.9915296</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
-        <v>25303.560839999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>25310.783059199999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6100,35 +6261,35 @@
         <v>26457.826229999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>1446865.9864488002</v>
+        <v>1458867.1777850001</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>55116.073882861201</v>
+        <v>55573.240306402498</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>82169.758985371198</v>
+        <v>82851.325218089987</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>33114.926574536403</v>
+        <v>33389.602027292502</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
-        <v>25964.6523490728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>26180.019054584998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F10" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G15" s="8"/>
     </row>
   </sheetData>
@@ -6144,9 +6305,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -6181,7 +6342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6206,7 +6367,7 @@
         <v>657512.07999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6230,7 +6391,7 @@
         <v>674443.01605999994</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B21653E-78AC-4BC0-8AD9-89E1CC1C989B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE08304-D9EC-4DA1-9CB5-E24E87F5AE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="109">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>DOTA 2 ULTRAS DOTA PRO</t>
+  </si>
+  <si>
+    <t>NRO</t>
   </si>
 </sst>
 </file>
@@ -771,5385 +774,5814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:K150"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="M148" sqref="M148"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" customWidth="1"/>
-    <col min="10" max="10" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" customWidth="1"/>
+    <col min="11" max="11" width="28.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
       <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
         <v>45208</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>636885</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>555</v>
       </c>
-      <c r="H2">
-        <f>F2+G2</f>
+      <c r="I2">
+        <f>G2+H2</f>
         <v>637440</v>
       </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
       <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4">
-        <f t="shared" ref="K2:K29" si="0">ROUND((H2/$F$2-1)*100, 3)</f>
+      <c r="L2" s="4">
+        <f t="shared" ref="L2:L29" si="0">ROUND((I2/$G$2-1)*100, 3)</f>
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
         <v>45209</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f>H2</f>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>I2</f>
         <v>637440</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>250</v>
       </c>
-      <c r="H3">
-        <f>F3+G3</f>
+      <c r="I3">
+        <f>G3+H3</f>
         <v>637690</v>
       </c>
-      <c r="I3" t="s">
-        <v>0</v>
-      </c>
       <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
         <v>45210</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F29" si="1">H3</f>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G29" si="1">I3</f>
         <v>637690</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-5000</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H41" si="2">F4+G4</f>
+      <c r="I4">
+        <f t="shared" ref="I4:I41" si="2">G4+H4</f>
         <v>632690</v>
       </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
       <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <f t="shared" si="0"/>
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
         <v>45210</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>632690</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-7000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="2"/>
         <v>625690</v>
       </c>
-      <c r="I5" t="s">
-        <v>0</v>
-      </c>
       <c r="J5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <f t="shared" si="0"/>
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
         <v>45210</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>625690</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>15250</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="2"/>
         <v>640940</v>
       </c>
-      <c r="I6" t="s">
-        <v>0</v>
-      </c>
       <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <f t="shared" si="0"/>
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
         <v>45211</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>640940</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1150</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="2"/>
         <v>642090</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <f t="shared" si="0"/>
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
         <v>45211</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>642090</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>40</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="2"/>
         <v>642130</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <f t="shared" si="0"/>
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
         <v>45212</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>642130</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>405</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="2"/>
         <v>642535</v>
       </c>
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
       <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <f t="shared" si="0"/>
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
         <v>45213</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>642535</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1140</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="2"/>
         <v>643675</v>
       </c>
-      <c r="I10" t="s">
-        <v>0</v>
-      </c>
       <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <f t="shared" si="0"/>
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
         <v>45213</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>643675</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>690</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="2"/>
         <v>644365</v>
       </c>
-      <c r="I11" t="s">
-        <v>0</v>
-      </c>
       <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <f t="shared" si="0"/>
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
         <v>45213</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
         <v>644365</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-5000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="2"/>
         <v>639365</v>
       </c>
-      <c r="I12" t="s">
-        <v>0</v>
-      </c>
       <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <f t="shared" si="0"/>
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
         <v>45214</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>639365</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>64</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="2"/>
         <v>639429</v>
       </c>
-      <c r="I13" t="s">
-        <v>0</v>
-      </c>
       <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <f t="shared" si="0"/>
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
         <v>45214</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>639429</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>605</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="2"/>
         <v>640034</v>
       </c>
-      <c r="I14" t="s">
-        <v>0</v>
-      </c>
       <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <f t="shared" si="0"/>
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
         <v>45214</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>640034</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3872</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="2"/>
         <v>643906</v>
       </c>
-      <c r="I15" t="s">
-        <v>0</v>
-      </c>
       <c r="J15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <f t="shared" si="0"/>
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
         <v>45215</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>643906</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>57</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="2"/>
         <v>643963</v>
       </c>
-      <c r="I16" t="s">
-        <v>0</v>
-      </c>
       <c r="J16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <f t="shared" si="0"/>
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
         <v>45216</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>643963</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>84</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="2"/>
         <v>644047</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>18</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
         <v>45217</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>644047</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>275</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="2"/>
         <v>644322</v>
       </c>
-      <c r="I18" t="s">
-        <v>0</v>
-      </c>
       <c r="J18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <f t="shared" si="0"/>
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
         <v>45218</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>644322</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-500</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="2"/>
         <v>643822</v>
       </c>
-      <c r="I19" t="s">
-        <v>0</v>
-      </c>
       <c r="J19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <f t="shared" si="0"/>
         <v>1.089</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2">
         <v>45218</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>643822</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>2840</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="2"/>
         <v>646662</v>
       </c>
-      <c r="I20" t="s">
-        <v>0</v>
-      </c>
       <c r="J20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <f t="shared" si="0"/>
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2">
         <v>45218</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>646662</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>540</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="2"/>
         <v>647202</v>
       </c>
-      <c r="I21" t="s">
-        <v>0</v>
-      </c>
       <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <f t="shared" si="0"/>
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
         <v>45219</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="F22">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>647202</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1050</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="2"/>
         <v>648252</v>
       </c>
-      <c r="I22" t="s">
-        <v>0</v>
-      </c>
       <c r="J22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="4">
+      <c r="L22" s="4">
         <f t="shared" si="0"/>
         <v>1.7849999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2">
         <v>45219</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>648252</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-2144</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f t="shared" si="2"/>
         <v>646108</v>
       </c>
-      <c r="I23" t="s">
-        <v>0</v>
-      </c>
       <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="4">
+      <c r="L23" s="4">
         <f t="shared" si="0"/>
         <v>1.448</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
         <v>45219</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>646108</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-6000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <f t="shared" si="2"/>
         <v>640108</v>
       </c>
-      <c r="I24" t="s">
-        <v>0</v>
-      </c>
       <c r="J24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <f t="shared" si="0"/>
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2">
         <v>45219</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>640108</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>10000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="2"/>
         <v>650108</v>
       </c>
-      <c r="I25" t="s">
-        <v>0</v>
-      </c>
       <c r="J25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="4">
         <f t="shared" si="0"/>
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
         <v>45220</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="F26">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="1"/>
         <v>650108</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>930</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="2"/>
         <v>651038</v>
       </c>
-      <c r="I26" t="s">
-        <v>0</v>
-      </c>
       <c r="J26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
         <f t="shared" si="0"/>
         <v>2.222</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2">
         <v>45220</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="F27">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>651038</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>4</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="2"/>
         <v>651042</v>
       </c>
-      <c r="I27" t="s">
-        <v>0</v>
-      </c>
       <c r="J27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="4">
         <f t="shared" si="0"/>
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
         <v>45221</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="F28">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <f t="shared" si="1"/>
         <v>651042</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2010</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="2"/>
         <v>653052</v>
       </c>
-      <c r="I28" t="s">
-        <v>0</v>
-      </c>
       <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <f t="shared" si="0"/>
         <v>2.5379999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2">
         <v>45222</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="F29">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="1"/>
         <v>653052</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>230</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="2"/>
         <v>653282</v>
       </c>
-      <c r="I29" t="s">
-        <v>0</v>
-      </c>
       <c r="J29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <f t="shared" si="0"/>
         <v>2.5750000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="C30" s="2">
         <v>45223</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2">
         <v>45224</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="F31">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>1674443.0160600001</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>13</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="2"/>
         <v>1674456.0160600001</v>
       </c>
-      <c r="I31" t="s">
-        <v>0</v>
-      </c>
       <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
         <v>34</v>
       </c>
-      <c r="K31" s="4">
-        <f t="shared" ref="K31:K41" si="3">ROUND((H31/$F$31-1)*100, 3)+$K$29</f>
+      <c r="L31" s="4">
+        <f t="shared" ref="L31:L41" si="3">ROUND((I31/$G$31-1)*100, 3)+$L$29</f>
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2">
         <v>45225</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <f>H31</f>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f>I31</f>
         <v>1674456.0160600001</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1390</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="2"/>
         <v>1675846.0160600001</v>
       </c>
-      <c r="I32" t="s">
-        <v>0</v>
-      </c>
       <c r="J32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <f t="shared" si="3"/>
         <v>2.6590000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2">
         <v>45225</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <f>H32</f>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f>I32</f>
         <v>1675846.0160600001</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>668</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="2"/>
         <v>1676514.0160600001</v>
       </c>
-      <c r="I33" t="s">
-        <v>0</v>
-      </c>
       <c r="J33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <f t="shared" si="3"/>
         <v>2.6990000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2">
         <v>45226</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ref="F34:F41" si="4">H33</f>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G41" si="4">I33</f>
         <v>1676514.0160600001</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>871</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="2"/>
         <v>1677385.0160600001</v>
       </c>
-      <c r="I34" t="s">
-        <v>0</v>
-      </c>
       <c r="J34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <f t="shared" si="3"/>
         <v>2.7510000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2">
         <v>45226</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="F35">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="4"/>
         <v>1677385.0160600001</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>835</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f t="shared" si="2"/>
         <v>1678220.0160600001</v>
       </c>
-      <c r="I35" t="s">
-        <v>0</v>
-      </c>
       <c r="J35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <f t="shared" si="3"/>
         <v>2.8010000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2">
         <v>45227</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="4"/>
         <v>1678220.0160600001</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-8925</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f t="shared" si="2"/>
         <v>1669295.0160600001</v>
       </c>
-      <c r="I36" t="s">
-        <v>0</v>
-      </c>
       <c r="J36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
         <f t="shared" si="3"/>
         <v>2.2680000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2">
         <v>45227</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="F37">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="4"/>
         <v>1669295.0160600001</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>1600</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f t="shared" si="2"/>
         <v>1670895.0160600001</v>
       </c>
-      <c r="I37" t="s">
-        <v>0</v>
-      </c>
       <c r="J37" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <f t="shared" si="3"/>
         <v>2.363</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2">
         <v>45228</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="F38">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="4"/>
         <v>1670895.0160600001</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>1200</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f t="shared" si="2"/>
         <v>1672095.0160600001</v>
       </c>
-      <c r="I38" t="s">
-        <v>0</v>
-      </c>
       <c r="J38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <f t="shared" si="3"/>
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2">
         <v>45228</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="F39">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="4"/>
         <v>1672095.0160600001</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>2480</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <f t="shared" si="2"/>
         <v>1674575.0160600001</v>
       </c>
-      <c r="I39" t="s">
-        <v>0</v>
-      </c>
       <c r="J39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <f t="shared" si="3"/>
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2">
         <v>45228</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="F40">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="4"/>
         <v>1674575.0160600001</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>-3480</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <f t="shared" si="2"/>
         <v>1671095.0160600001</v>
       </c>
-      <c r="I40" t="s">
-        <v>0</v>
-      </c>
       <c r="J40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <f t="shared" si="3"/>
         <v>2.375</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2">
         <v>45228</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="F41">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="4"/>
         <v>1671095.0160600001</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>12800</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <f t="shared" si="2"/>
         <v>1683895.0160600001</v>
       </c>
-      <c r="I41" t="s">
-        <v>0</v>
-      </c>
       <c r="J41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <f t="shared" si="3"/>
         <v>3.1390000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2">
+      <c r="C42" s="2">
         <v>45229</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="2">
+      <c r="C43" s="2">
         <v>45230</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2">
+      <c r="C44" s="2">
         <v>45231</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
+        <v>40</v>
+      </c>
+      <c r="C45" s="2">
         <v>45232</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <f>H41</f>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f>I41</f>
         <v>1683895.0160600001</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>250</v>
       </c>
-      <c r="H45">
-        <f t="shared" ref="H45:H109" si="5">F45+G45</f>
+      <c r="I45">
+        <f t="shared" ref="I45:I109" si="5">G45+H45</f>
         <v>1684145.0160600001</v>
       </c>
-      <c r="I45" t="s">
-        <v>0</v>
-      </c>
       <c r="J45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
         <v>62</v>
       </c>
-      <c r="K45" s="4">
-        <f t="shared" ref="K45:K65" si="6">ROUND((H45/$F$31-1)*100, 3)+$K$29</f>
+      <c r="L45" s="4">
+        <f t="shared" ref="L45:L65" si="6">ROUND((I45/$G$31-1)*100, 3)+$L$29</f>
         <v>3.1539999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
+        <v>41</v>
+      </c>
+      <c r="C46" s="2">
         <v>45233</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f>H45</f>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>I45</f>
         <v>1684145.0160600001</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>-17883</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <f t="shared" si="5"/>
         <v>1666262.0160600001</v>
       </c>
-      <c r="I46" t="s">
-        <v>0</v>
-      </c>
       <c r="J46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <f t="shared" si="6"/>
         <v>2.0860000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
+        <v>42</v>
+      </c>
+      <c r="C47" s="2">
         <v>45233</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <f>H46</f>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f>I46</f>
         <v>1666262.0160600001</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>5840</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <f t="shared" si="5"/>
         <v>1672102.0160600001</v>
       </c>
-      <c r="I47" t="s">
-        <v>0</v>
-      </c>
       <c r="J47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <f t="shared" si="6"/>
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
+        <v>43</v>
+      </c>
+      <c r="C48" s="2">
         <v>45233</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <f>H47</f>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f>I47</f>
         <v>1672102.0160600001</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>2830</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <f t="shared" si="5"/>
         <v>1674932.0160600001</v>
       </c>
-      <c r="I48" t="s">
-        <v>0</v>
-      </c>
       <c r="J48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
         <v>63</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <f t="shared" si="6"/>
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
+        <v>44</v>
+      </c>
+      <c r="C49" s="2">
         <v>45234</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <f>H48</f>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f>I48</f>
         <v>1674932.0160600001</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>7800</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <f t="shared" si="5"/>
         <v>1682732.0160600001</v>
       </c>
-      <c r="I49" t="s">
-        <v>0</v>
-      </c>
       <c r="J49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
         <v>20</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <f t="shared" si="6"/>
         <v>3.0700000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
+        <v>45</v>
+      </c>
+      <c r="C50" s="2">
         <v>45235</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <f t="shared" ref="F50:F115" si="7">H49</f>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ref="G50:G115" si="7">I49</f>
         <v>1682732.0160600001</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>-16000</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <f t="shared" si="5"/>
         <v>1666732.0160600001</v>
       </c>
-      <c r="I50" t="s">
-        <v>0</v>
-      </c>
       <c r="J50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <f t="shared" si="6"/>
         <v>2.1140000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
+        <v>46</v>
+      </c>
+      <c r="C51" s="2">
         <v>45235</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="F51">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="7"/>
         <v>1666732.0160600001</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>8200</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <f t="shared" si="5"/>
         <v>1674932.0160600001</v>
       </c>
-      <c r="I51" t="s">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <f t="shared" si="6"/>
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
+        <v>47</v>
+      </c>
+      <c r="C52" s="2">
         <v>45235</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="F52">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="7"/>
         <v>1674932.0160600001</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>-16000</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <f t="shared" si="5"/>
         <v>1658932.0160600001</v>
       </c>
-      <c r="I52" t="s">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
         <v>20</v>
       </c>
-      <c r="K52" s="4">
+      <c r="L52" s="4">
         <f t="shared" si="6"/>
         <v>1.649</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
+        <v>48</v>
+      </c>
+      <c r="C53" s="2">
         <v>45236</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="F53">
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="7"/>
         <v>1658932.0160600001</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>-21000</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <f t="shared" si="5"/>
         <v>1637932.0160600001</v>
       </c>
-      <c r="I53" t="s">
-        <v>0</v>
-      </c>
       <c r="J53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="4">
+      <c r="L53" s="4">
         <f t="shared" si="6"/>
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
+        <v>49</v>
+      </c>
+      <c r="C54" s="2">
         <v>45236</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="F54">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="7"/>
         <v>1637932.0160600001</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>-20000</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <f t="shared" si="5"/>
         <v>1617932.0160600001</v>
       </c>
-      <c r="I54" t="s">
-        <v>0</v>
-      </c>
       <c r="J54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
         <v>15</v>
       </c>
-      <c r="K54" s="4">
+      <c r="L54" s="4">
         <f t="shared" si="6"/>
         <v>-0.79999999999999982</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
+        <v>50</v>
+      </c>
+      <c r="C55" s="2">
         <v>45236</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
       <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
         <v>1.05</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <f t="shared" si="7"/>
         <v>1617932.0160600001</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>250</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <f t="shared" si="5"/>
         <v>1618182.0160600001</v>
       </c>
-      <c r="I55" t="s">
-        <v>67</v>
-      </c>
       <c r="J55" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55" t="s">
         <v>68</v>
       </c>
-      <c r="K55" s="4">
+      <c r="L55" s="4">
         <f t="shared" si="6"/>
         <v>-0.7849999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
+        <v>51</v>
+      </c>
+      <c r="C56" s="2">
         <v>45236</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
       <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
         <v>1.645</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <f t="shared" si="7"/>
         <v>1618182.0160600001</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>-854</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <f t="shared" si="5"/>
         <v>1617328.0160600001</v>
       </c>
-      <c r="I56" t="s">
-        <v>0</v>
-      </c>
       <c r="J56" t="s">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
         <v>15</v>
       </c>
-      <c r="K56" s="4">
+      <c r="L56" s="4">
         <f t="shared" si="6"/>
         <v>-0.83599999999999985</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
+        <v>52</v>
+      </c>
+      <c r="C57" s="2">
         <v>45236</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
       <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
         <v>1.2</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <f t="shared" si="7"/>
         <v>1617328.0160600001</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>2200</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <f t="shared" si="5"/>
         <v>1619528.0160600001</v>
       </c>
-      <c r="I57" t="s">
-        <v>67</v>
-      </c>
       <c r="J57" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" t="s">
         <v>68</v>
       </c>
-      <c r="K57" s="4">
+      <c r="L57" s="4">
         <f t="shared" si="6"/>
         <v>-0.70499999999999963</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
+        <v>53</v>
+      </c>
+      <c r="C58" s="2">
         <v>45236</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
       <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>1.0880000000000001</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <f t="shared" si="7"/>
         <v>1619528.0160600001</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>792</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <f t="shared" si="5"/>
         <v>1620320.0160600001</v>
       </c>
-      <c r="I58" t="s">
-        <v>67</v>
-      </c>
       <c r="J58" t="s">
+        <v>67</v>
+      </c>
+      <c r="K58" t="s">
         <v>70</v>
       </c>
-      <c r="K58" s="4">
+      <c r="L58" s="4">
         <f t="shared" si="6"/>
         <v>-0.65700000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
+        <v>54</v>
+      </c>
+      <c r="C59" s="2">
         <v>45236</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
       <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
         <v>1.085</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <f t="shared" si="7"/>
         <v>1620320.0160600001</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>765</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <f t="shared" si="5"/>
         <v>1621085.0160600001</v>
       </c>
-      <c r="I59" t="s">
-        <v>67</v>
-      </c>
       <c r="J59" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59" t="s">
         <v>71</v>
       </c>
-      <c r="K59" s="4">
+      <c r="L59" s="4">
         <f t="shared" si="6"/>
         <v>-0.61199999999999966</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
+        <v>55</v>
+      </c>
+      <c r="C60" s="2">
         <v>45236</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
       <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
         <v>1.0880000000000001</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <f t="shared" si="7"/>
         <v>1621085.0160600001</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>968</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <f t="shared" si="5"/>
         <v>1622053.0160600001</v>
       </c>
-      <c r="I60" t="s">
-        <v>67</v>
-      </c>
       <c r="J60" t="s">
+        <v>67</v>
+      </c>
+      <c r="K60" t="s">
         <v>72</v>
       </c>
-      <c r="K60" s="4">
+      <c r="L60" s="4">
         <f t="shared" si="6"/>
         <v>-0.55399999999999983</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
+        <v>56</v>
+      </c>
+      <c r="C61" s="2">
         <v>45236</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
       <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
         <v>1.05</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <f t="shared" si="7"/>
         <v>1622053.0160600001</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>550</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <f t="shared" si="5"/>
         <v>1622603.0160600001</v>
       </c>
-      <c r="I61" t="s">
-        <v>67</v>
-      </c>
       <c r="J61" t="s">
+        <v>67</v>
+      </c>
+      <c r="K61" t="s">
         <v>68</v>
       </c>
-      <c r="K61" s="4">
+      <c r="L61" s="4">
         <f t="shared" si="6"/>
         <v>-0.52099999999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
+        <v>57</v>
+      </c>
+      <c r="C62" s="2">
         <v>45236</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
       <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
         <v>1.08</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <f t="shared" si="7"/>
         <v>1622603.0160600001</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>720</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <f t="shared" si="5"/>
         <v>1623323.0160600001</v>
       </c>
-      <c r="I62" t="s">
-        <v>67</v>
-      </c>
       <c r="J62" t="s">
+        <v>67</v>
+      </c>
+      <c r="K62" t="s">
         <v>68</v>
       </c>
-      <c r="K62" s="4">
+      <c r="L62" s="4">
         <f t="shared" si="6"/>
         <v>-0.47799999999999976</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
+        <v>58</v>
+      </c>
+      <c r="C63" s="2">
         <v>45236</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
       <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
         <v>1.07</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <f t="shared" si="7"/>
         <v>1623323.0160600001</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>720</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <f t="shared" si="5"/>
         <v>1624043.0160600001</v>
       </c>
-      <c r="I63" t="s">
-        <v>67</v>
-      </c>
       <c r="J63" t="s">
+        <v>67</v>
+      </c>
+      <c r="K63" t="s">
         <v>70</v>
       </c>
-      <c r="K63" s="4">
+      <c r="L63" s="4">
         <f t="shared" si="6"/>
         <v>-0.43499999999999961</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
+        <v>59</v>
+      </c>
+      <c r="C64" s="2">
         <v>45236</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
       <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
         <v>1.21</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <f t="shared" si="7"/>
         <v>1624043.0160600001</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>1890</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <f t="shared" si="5"/>
         <v>1625933.0160600001</v>
       </c>
-      <c r="I64" t="s">
-        <v>67</v>
-      </c>
       <c r="J64" t="s">
+        <v>67</v>
+      </c>
+      <c r="K64" t="s">
         <v>73</v>
       </c>
-      <c r="K64" s="4">
+      <c r="L64" s="4">
         <f t="shared" si="6"/>
         <v>-0.32199999999999962</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
+        <v>60</v>
+      </c>
+      <c r="C65" s="2">
         <v>45236</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
       <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
         <v>1.105</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <f t="shared" si="7"/>
         <v>1625933.0160600001</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>945</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <f t="shared" si="5"/>
         <v>1626878.0160600001</v>
       </c>
-      <c r="I65" t="s">
-        <v>67</v>
-      </c>
       <c r="J65" t="s">
+        <v>67</v>
+      </c>
+      <c r="K65" t="s">
         <v>68</v>
       </c>
-      <c r="K65" s="4">
+      <c r="L65" s="4">
         <f t="shared" si="6"/>
         <v>-0.26600000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="2">
+      <c r="C66" s="2">
         <v>45237</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
+        <v>61</v>
+      </c>
+      <c r="C67" s="2">
         <v>45238</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
       <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
         <v>1.056</v>
       </c>
-      <c r="F67">
-        <f>H65</f>
+      <c r="G67">
+        <f>I65</f>
         <v>1626878.0160600001</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>280</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <f t="shared" si="5"/>
         <v>1627158.0160600001</v>
       </c>
-      <c r="I67" t="s">
-        <v>67</v>
-      </c>
       <c r="J67" t="s">
+        <v>67</v>
+      </c>
+      <c r="K67" t="s">
         <v>71</v>
       </c>
-      <c r="K67" s="4">
-        <f t="shared" ref="K67:K98" si="8">ROUND((H67/$F$31-1)*100, 3)+$K$29</f>
+      <c r="L67" s="4">
+        <f t="shared" ref="L67:L98" si="8">ROUND((I67/$G$31-1)*100, 3)+$L$29</f>
         <v>-0.24899999999999967</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
+        <v>62</v>
+      </c>
+      <c r="C68" s="2">
         <v>45238</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
       <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
         <v>1.0449999999999999</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <f t="shared" si="7"/>
         <v>1627158.0160600001</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>315</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <f t="shared" si="5"/>
         <v>1627473.0160600001</v>
       </c>
-      <c r="I68" t="s">
-        <v>67</v>
-      </c>
       <c r="J68" t="s">
+        <v>67</v>
+      </c>
+      <c r="K68" t="s">
         <v>73</v>
       </c>
-      <c r="K68" s="4">
+      <c r="L68" s="4">
         <f t="shared" si="8"/>
         <v>-0.22999999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
+        <v>63</v>
+      </c>
+      <c r="C69" s="2">
         <v>45238</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
       <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>1.07</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <f t="shared" si="7"/>
         <v>1627473.0160600001</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>-5000</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <f t="shared" si="5"/>
         <v>1622473.0160600001</v>
       </c>
-      <c r="I69" t="s">
-        <v>67</v>
-      </c>
       <c r="J69" t="s">
+        <v>67</v>
+      </c>
+      <c r="K69" t="s">
         <v>79</v>
       </c>
-      <c r="K69" s="4">
+      <c r="L69" s="4">
         <f t="shared" si="8"/>
         <v>-0.52899999999999991</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
+        <v>64</v>
+      </c>
+      <c r="C70" s="2">
         <v>45238</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
       <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
         <v>1.05</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <f t="shared" si="7"/>
         <v>1622473.0160600001</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>450</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <f t="shared" si="5"/>
         <v>1622923.0160600001</v>
       </c>
-      <c r="I70" t="s">
-        <v>67</v>
-      </c>
       <c r="J70" t="s">
+        <v>67</v>
+      </c>
+      <c r="K70" t="s">
         <v>80</v>
       </c>
-      <c r="K70" s="4">
+      <c r="L70" s="4">
         <f t="shared" si="8"/>
         <v>-0.50199999999999978</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
+        <v>65</v>
+      </c>
+      <c r="C71" s="2">
         <v>45238</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
       <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <f t="shared" si="7"/>
         <v>1622923.0160600001</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>1700</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <f t="shared" si="5"/>
         <v>1624623.0160600001</v>
       </c>
-      <c r="I71" t="s">
-        <v>67</v>
-      </c>
       <c r="J71" t="s">
+        <v>67</v>
+      </c>
+      <c r="K71" t="s">
         <v>68</v>
       </c>
-      <c r="K71" s="4">
+      <c r="L71" s="4">
         <f t="shared" si="8"/>
         <v>-0.39999999999999991</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
+        <v>66</v>
+      </c>
+      <c r="C72" s="2">
         <v>45238</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
       <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
         <v>1.1919999999999999</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <f t="shared" si="7"/>
         <v>1624623.0160600001</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>960</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <f t="shared" si="5"/>
         <v>1625583.0160600001</v>
       </c>
-      <c r="I72" t="s">
-        <v>67</v>
-      </c>
       <c r="J72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K72" t="s">
         <v>78</v>
       </c>
-      <c r="K72" s="4">
+      <c r="L72" s="4">
         <f t="shared" si="8"/>
         <v>-0.34299999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
+        <v>67</v>
+      </c>
+      <c r="C73" s="2">
         <v>45238</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
       <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>1.0960000000000001</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <f t="shared" si="7"/>
         <v>1625583.0160600001</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>-19000</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <f t="shared" si="5"/>
         <v>1606583.0160600001</v>
       </c>
-      <c r="I73" t="s">
-        <v>67</v>
-      </c>
       <c r="J73" t="s">
+        <v>67</v>
+      </c>
+      <c r="K73" t="s">
         <v>68</v>
       </c>
-      <c r="K73" s="4">
+      <c r="L73" s="4">
         <f t="shared" si="8"/>
         <v>-1.4779999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
+        <v>68</v>
+      </c>
+      <c r="C74" s="2">
         <v>45238</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
       <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
         <v>1.3680000000000001</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <f t="shared" si="7"/>
         <v>1606583.0160600001</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>1500</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <f t="shared" si="5"/>
         <v>1608083.0160600001</v>
       </c>
-      <c r="I74" t="s">
-        <v>67</v>
-      </c>
       <c r="J74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K74" t="s">
         <v>68</v>
       </c>
-      <c r="K74" s="4">
+      <c r="L74" s="4">
         <f t="shared" si="8"/>
         <v>-1.3879999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
+        <v>69</v>
+      </c>
+      <c r="C75" s="2">
         <v>45238</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
       <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
         <v>2.33</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <f t="shared" si="7"/>
         <v>1608083.0160600001</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>-5000</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <f t="shared" si="5"/>
         <v>1603083.0160600001</v>
       </c>
-      <c r="I75" t="s">
-        <v>67</v>
-      </c>
       <c r="J75" t="s">
+        <v>67</v>
+      </c>
+      <c r="K75" t="s">
         <v>68</v>
       </c>
-      <c r="K75" s="4">
+      <c r="L75" s="4">
         <f t="shared" si="8"/>
         <v>-1.6869999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
+        <v>70</v>
+      </c>
+      <c r="C76" s="2">
         <v>45238</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
       <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
         <v>1.02</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <f t="shared" si="7"/>
         <v>1603083.0160600001</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>100</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <f t="shared" si="5"/>
         <v>1603183.0160600001</v>
       </c>
-      <c r="I76" t="s">
-        <v>67</v>
-      </c>
       <c r="J76" t="s">
+        <v>67</v>
+      </c>
+      <c r="K76" t="s">
         <v>68</v>
       </c>
-      <c r="K76" s="4">
+      <c r="L76" s="4">
         <f t="shared" si="8"/>
         <v>-1.681</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
+        <v>71</v>
+      </c>
+      <c r="C77" s="2">
         <v>45238</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
       <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
         <v>1.21</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <f t="shared" si="7"/>
         <v>1603183.0160600001</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>357</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <f t="shared" si="5"/>
         <v>1603540.0160600001</v>
       </c>
-      <c r="I77" t="s">
-        <v>67</v>
-      </c>
       <c r="J77" t="s">
+        <v>67</v>
+      </c>
+      <c r="K77" t="s">
         <v>73</v>
       </c>
-      <c r="K77" s="4">
+      <c r="L77" s="4">
         <f t="shared" si="8"/>
         <v>-1.6589999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
+        <v>72</v>
+      </c>
+      <c r="C78" s="2">
         <v>45238</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
       <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
         <v>1.23</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <f t="shared" si="7"/>
         <v>1603540.0160600001</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>1150</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <f t="shared" si="5"/>
         <v>1604690.0160600001</v>
       </c>
-      <c r="I78" t="s">
-        <v>67</v>
-      </c>
       <c r="J78" t="s">
+        <v>67</v>
+      </c>
+      <c r="K78" t="s">
         <v>68</v>
       </c>
-      <c r="K78" s="4">
+      <c r="L78" s="4">
         <f t="shared" si="8"/>
         <v>-1.5910000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
+        <v>73</v>
+      </c>
+      <c r="C79" s="2">
         <v>45238</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
       <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <f t="shared" si="7"/>
         <v>1604690.0160600001</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>-2000</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <f t="shared" si="5"/>
         <v>1602690.0160600001</v>
       </c>
-      <c r="I79" t="s">
-        <v>67</v>
-      </c>
       <c r="J79" t="s">
+        <v>67</v>
+      </c>
+      <c r="K79" t="s">
         <v>68</v>
       </c>
-      <c r="K79" s="4">
+      <c r="L79" s="4">
         <f t="shared" si="8"/>
         <v>-1.71</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
+        <v>74</v>
+      </c>
+      <c r="C80" s="2">
         <v>45238</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
       <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
         <v>1.22</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <f t="shared" si="7"/>
         <v>1602690.0160600001</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>660</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <f t="shared" si="5"/>
         <v>1603350.0160600001</v>
       </c>
-      <c r="I80" t="s">
-        <v>67</v>
-      </c>
       <c r="J80" t="s">
+        <v>67</v>
+      </c>
+      <c r="K80" t="s">
         <v>68</v>
       </c>
-      <c r="K80" s="4">
+      <c r="L80" s="4">
         <f t="shared" si="8"/>
         <v>-1.6710000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
+        <v>75</v>
+      </c>
+      <c r="C81" s="2">
         <v>45238</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
       <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
         <v>1.0960000000000001</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <f t="shared" si="7"/>
         <v>1603350.0160600001</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>288</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <f t="shared" si="5"/>
         <v>1603638.0160600001</v>
       </c>
-      <c r="I81" t="s">
-        <v>67</v>
-      </c>
       <c r="J81" t="s">
+        <v>67</v>
+      </c>
+      <c r="K81" t="s">
         <v>68</v>
       </c>
-      <c r="K81" s="4">
+      <c r="L81" s="4">
         <f t="shared" si="8"/>
         <v>-1.6539999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
+        <v>76</v>
+      </c>
+      <c r="C82" s="2">
         <v>45238</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
       <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
         <v>1.3049999999999999</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <f t="shared" si="7"/>
         <v>1603638.0160600001</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>114</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <f t="shared" si="5"/>
         <v>1603752.0160600001</v>
       </c>
-      <c r="I82" t="s">
-        <v>67</v>
-      </c>
       <c r="J82" t="s">
+        <v>67</v>
+      </c>
+      <c r="K82" t="s">
         <v>68</v>
       </c>
-      <c r="K82" s="4">
+      <c r="L82" s="4">
         <f t="shared" si="8"/>
         <v>-1.6470000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
+        <v>77</v>
+      </c>
+      <c r="C83" s="2">
         <v>45238</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
       <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
         <v>1.032</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <f t="shared" si="7"/>
         <v>1603752.0160600001</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>44</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <f t="shared" si="5"/>
         <v>1603796.0160600001</v>
       </c>
-      <c r="I83" t="s">
-        <v>67</v>
-      </c>
       <c r="J83" t="s">
+        <v>67</v>
+      </c>
+      <c r="K83" t="s">
         <v>68</v>
       </c>
-      <c r="K83" s="4">
+      <c r="L83" s="4">
         <f t="shared" si="8"/>
         <v>-1.6440000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
+        <v>78</v>
+      </c>
+      <c r="C84" s="2">
         <v>45238</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
       <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
         <v>1.0640000000000001</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <f t="shared" si="7"/>
         <v>1603796.0160600001</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>320</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <f t="shared" si="5"/>
         <v>1604116.0160600001</v>
       </c>
-      <c r="I84" t="s">
-        <v>67</v>
-      </c>
       <c r="J84" t="s">
+        <v>67</v>
+      </c>
+      <c r="K84" t="s">
         <v>77</v>
       </c>
-      <c r="K84" s="4">
+      <c r="L84" s="4">
         <f t="shared" si="8"/>
         <v>-1.625</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
+        <v>79</v>
+      </c>
+      <c r="C85" s="2">
         <v>45238</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
       <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
         <v>1.155</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <f t="shared" si="7"/>
         <v>1604116.0160600001</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>275</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <f t="shared" si="5"/>
         <v>1604391.0160600001</v>
       </c>
-      <c r="I85" t="s">
-        <v>67</v>
-      </c>
       <c r="J85" t="s">
+        <v>67</v>
+      </c>
+      <c r="K85" t="s">
         <v>71</v>
       </c>
-      <c r="K85" s="4">
+      <c r="L85" s="4">
         <f t="shared" si="8"/>
         <v>-1.609</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
+        <v>80</v>
+      </c>
+      <c r="C86" s="2">
         <v>45239</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
       <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <f t="shared" si="7"/>
         <v>1604391.0160600001</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>340</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <f t="shared" si="5"/>
         <v>1604731.0160600001</v>
       </c>
-      <c r="I86" t="s">
-        <v>67</v>
-      </c>
       <c r="J86" t="s">
+        <v>67</v>
+      </c>
+      <c r="K86" t="s">
         <v>68</v>
       </c>
-      <c r="K86" s="4">
+      <c r="L86" s="4">
         <f t="shared" si="8"/>
         <v>-1.5880000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
+        <v>81</v>
+      </c>
+      <c r="C87" s="2">
         <v>45240</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
       <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
         <v>1.135</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <f t="shared" si="7"/>
         <v>1604731.0160600001</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>-821</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <f t="shared" si="5"/>
         <v>1603910.0160600001</v>
       </c>
-      <c r="I87" t="s">
-        <v>67</v>
-      </c>
       <c r="J87" t="s">
+        <v>67</v>
+      </c>
+      <c r="K87" t="s">
         <v>68</v>
       </c>
-      <c r="K87" s="4">
+      <c r="L87" s="4">
         <f t="shared" si="8"/>
         <v>-1.6369999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
+        <v>82</v>
+      </c>
+      <c r="C88" s="2">
         <v>45240</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
       <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
         <v>1.07</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <f t="shared" si="7"/>
         <v>1603910.0160600001</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>252</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <f t="shared" si="5"/>
         <v>1604162.0160600001</v>
       </c>
-      <c r="I88" t="s">
-        <v>67</v>
-      </c>
       <c r="J88" t="s">
+        <v>67</v>
+      </c>
+      <c r="K88" t="s">
         <v>68</v>
       </c>
-      <c r="K88" s="4">
+      <c r="L88" s="4">
         <f t="shared" si="8"/>
         <v>-1.6219999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
+        <v>83</v>
+      </c>
+      <c r="C89" s="2">
         <v>45240</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
       <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
         <v>1.296</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <f t="shared" si="7"/>
         <v>1604162.0160600001</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>296</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <f t="shared" si="5"/>
         <v>1604458.0160600001</v>
       </c>
-      <c r="I89" t="s">
-        <v>67</v>
-      </c>
       <c r="J89" t="s">
+        <v>67</v>
+      </c>
+      <c r="K89" t="s">
         <v>71</v>
       </c>
-      <c r="K89" s="4">
+      <c r="L89" s="4">
         <f t="shared" si="8"/>
         <v>-1.6049999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
+        <v>84</v>
+      </c>
+      <c r="C90" s="2">
         <v>45240</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
       <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
         <v>1.37</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <f t="shared" si="7"/>
         <v>1604458.0160600001</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>1110</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <f t="shared" si="5"/>
         <v>1605568.0160600001</v>
       </c>
-      <c r="I90" t="s">
-        <v>67</v>
-      </c>
       <c r="J90" t="s">
+        <v>67</v>
+      </c>
+      <c r="K90" t="s">
         <v>71</v>
       </c>
-      <c r="K90" s="4">
+      <c r="L90" s="4">
         <f t="shared" si="8"/>
         <v>-1.5380000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
+        <v>85</v>
+      </c>
+      <c r="C91" s="2">
         <v>45240</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
       <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
         <v>1.165</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <f t="shared" si="7"/>
         <v>1605568.0160600001</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>140</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <f t="shared" si="5"/>
         <v>1605708.0160600001</v>
       </c>
-      <c r="I91" t="s">
-        <v>67</v>
-      </c>
       <c r="J91" t="s">
+        <v>67</v>
+      </c>
+      <c r="K91" t="s">
         <v>68</v>
       </c>
-      <c r="K91" s="4">
+      <c r="L91" s="4">
         <f t="shared" si="8"/>
         <v>-1.5300000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
+        <v>86</v>
+      </c>
+      <c r="C92" s="2">
         <v>45240</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
       <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
         <v>1.2150000000000001</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <f t="shared" si="7"/>
         <v>1605708.0160600001</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>170</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <f t="shared" si="5"/>
         <v>1605878.0160600001</v>
       </c>
-      <c r="I92" t="s">
-        <v>67</v>
-      </c>
       <c r="J92" t="s">
+        <v>67</v>
+      </c>
+      <c r="K92" t="s">
         <v>73</v>
       </c>
-      <c r="K92" s="4">
+      <c r="L92" s="4">
         <f t="shared" si="8"/>
         <v>-1.5199999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
+        <v>87</v>
+      </c>
+      <c r="C93" s="2">
         <v>45240</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
       <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
         <v>1.31</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <f t="shared" si="7"/>
         <v>1605878.0160600001</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>310</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <f t="shared" si="5"/>
         <v>1606188.0160600001</v>
       </c>
-      <c r="I93" t="s">
-        <v>67</v>
-      </c>
       <c r="J93" t="s">
+        <v>67</v>
+      </c>
+      <c r="K93" t="s">
         <v>73</v>
       </c>
-      <c r="K93" s="4">
+      <c r="L93" s="4">
         <f t="shared" si="8"/>
         <v>-1.5009999999999994</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
+        <v>88</v>
+      </c>
+      <c r="C94" s="2">
         <v>45240</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
       <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
         <v>1.2549999999999999</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <f t="shared" si="7"/>
         <v>1606188.0160600001</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>-1000</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <f t="shared" si="5"/>
         <v>1605188.0160600001</v>
       </c>
-      <c r="I94" t="s">
-        <v>67</v>
-      </c>
       <c r="J94" t="s">
+        <v>67</v>
+      </c>
+      <c r="K94" t="s">
         <v>73</v>
       </c>
-      <c r="K94" s="4">
+      <c r="L94" s="4">
         <f t="shared" si="8"/>
         <v>-1.5609999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
+        <v>89</v>
+      </c>
+      <c r="C95" s="2">
         <v>45240</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
       <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
         <v>1.63</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <f t="shared" si="7"/>
         <v>1605188.0160600001</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>-5000</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <f t="shared" si="5"/>
         <v>1600188.0160600001</v>
       </c>
-      <c r="I95" t="s">
-        <v>67</v>
-      </c>
       <c r="J95" t="s">
+        <v>67</v>
+      </c>
+      <c r="K95" t="s">
         <v>68</v>
       </c>
-      <c r="K95" s="4">
+      <c r="L95" s="4">
         <f t="shared" si="8"/>
         <v>-1.8599999999999994</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
+        <v>90</v>
+      </c>
+      <c r="C96" s="2">
         <v>45240</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
       <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
         <v>1.27</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <f t="shared" si="7"/>
         <v>1600188.0160600001</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>1100</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <f t="shared" si="5"/>
         <v>1601288.0160600001</v>
       </c>
-      <c r="I96" t="s">
-        <v>67</v>
-      </c>
       <c r="J96" t="s">
+        <v>67</v>
+      </c>
+      <c r="K96" t="s">
         <v>68</v>
       </c>
-      <c r="K96" s="4">
+      <c r="L96" s="4">
         <f t="shared" si="8"/>
         <v>-1.7939999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
+        <v>91</v>
+      </c>
+      <c r="C97" s="2">
         <v>45240</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
       <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
         <v>1.2050000000000001</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <f t="shared" si="7"/>
         <v>1601288.0160600001</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>820</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <f t="shared" si="5"/>
         <v>1602108.0160600001</v>
       </c>
-      <c r="I97" t="s">
-        <v>67</v>
-      </c>
       <c r="J97" t="s">
+        <v>67</v>
+      </c>
+      <c r="K97" t="s">
         <v>68</v>
       </c>
-      <c r="K97" s="4">
+      <c r="L97" s="4">
         <f t="shared" si="8"/>
         <v>-1.7450000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
+        <v>92</v>
+      </c>
+      <c r="C98" s="2">
         <v>45240</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
       <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
         <v>1.288</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <f t="shared" si="7"/>
         <v>1602108.0160600001</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>576</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <f t="shared" si="5"/>
         <v>1602684.0160600001</v>
       </c>
-      <c r="I98" t="s">
-        <v>67</v>
-      </c>
       <c r="J98" t="s">
+        <v>67</v>
+      </c>
+      <c r="K98" t="s">
         <v>68</v>
       </c>
-      <c r="K98" s="4">
+      <c r="L98" s="4">
         <f t="shared" si="8"/>
         <v>-1.7109999999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
+        <v>93</v>
+      </c>
+      <c r="C99" s="2">
         <v>45240</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
       <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
         <v>1.085</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <f t="shared" si="7"/>
         <v>1602684.0160600001</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>340</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <f t="shared" si="5"/>
         <v>1603024.0160600001</v>
       </c>
-      <c r="I99" t="s">
-        <v>67</v>
-      </c>
       <c r="J99" t="s">
+        <v>67</v>
+      </c>
+      <c r="K99" t="s">
         <v>71</v>
       </c>
-      <c r="K99" s="4">
-        <f t="shared" ref="K99:K117" si="9">ROUND((H99/$F$31-1)*100, 3)+$K$29</f>
+      <c r="L99" s="4">
+        <f t="shared" ref="L99:L117" si="9">ROUND((I99/$G$31-1)*100, 3)+$L$29</f>
         <v>-1.6899999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
+        <v>94</v>
+      </c>
+      <c r="C100" s="2">
         <v>45240</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
       <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <f t="shared" si="7"/>
         <v>1603024.0160600001</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>450</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <f t="shared" si="5"/>
         <v>1603474.0160600001</v>
       </c>
-      <c r="I100" t="s">
-        <v>67</v>
-      </c>
       <c r="J100" t="s">
+        <v>67</v>
+      </c>
+      <c r="K100" t="s">
         <v>82</v>
       </c>
-      <c r="K100" s="4">
+      <c r="L100" s="4">
         <f t="shared" si="9"/>
         <v>-1.6630000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
+        <v>95</v>
+      </c>
+      <c r="C101" s="2">
         <v>45240</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
       <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <f t="shared" si="7"/>
         <v>1603474.0160600001</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>260</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <f t="shared" si="5"/>
         <v>1603734.0160600001</v>
       </c>
-      <c r="I101" t="s">
-        <v>67</v>
-      </c>
       <c r="J101" t="s">
+        <v>67</v>
+      </c>
+      <c r="K101" t="s">
         <v>68</v>
       </c>
-      <c r="K101" s="4">
+      <c r="L101" s="4">
         <f t="shared" si="9"/>
         <v>-1.6479999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
+        <v>96</v>
+      </c>
+      <c r="C102" s="2">
         <v>45240</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
       <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
         <v>1.07</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <f t="shared" si="7"/>
         <v>1603734.0160600001</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>30</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <f t="shared" si="5"/>
         <v>1603764.0160600001</v>
       </c>
-      <c r="I102" t="s">
-        <v>67</v>
-      </c>
       <c r="J102" t="s">
+        <v>67</v>
+      </c>
+      <c r="K102" t="s">
         <v>68</v>
       </c>
-      <c r="K102" s="4">
+      <c r="L102" s="4">
         <f t="shared" si="9"/>
         <v>-1.6459999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
+        <v>97</v>
+      </c>
+      <c r="C103" s="2">
         <v>45240</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
       <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
         <v>1.1359999999999999</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <f t="shared" si="7"/>
         <v>1603764.0160600001</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>272</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <f t="shared" si="5"/>
         <v>1604036.0160600001</v>
       </c>
-      <c r="I103" t="s">
-        <v>67</v>
-      </c>
       <c r="J103" t="s">
+        <v>67</v>
+      </c>
+      <c r="K103" t="s">
         <v>70</v>
       </c>
-      <c r="K103" s="4">
+      <c r="L103" s="4">
         <f t="shared" si="9"/>
         <v>-1.63</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
+        <v>98</v>
+      </c>
+      <c r="C104" s="2">
         <v>45240</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
       <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <f t="shared" si="7"/>
         <v>1604036.0160600001</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>361</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <f t="shared" si="5"/>
         <v>1604397.0160600001</v>
       </c>
-      <c r="I104" t="s">
-        <v>67</v>
-      </c>
       <c r="J104" t="s">
+        <v>67</v>
+      </c>
+      <c r="K104" t="s">
         <v>72</v>
       </c>
-      <c r="K104" s="4">
+      <c r="L104" s="4">
         <f t="shared" si="9"/>
         <v>-1.6079999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105">
+        <v>99</v>
+      </c>
+      <c r="C105" s="2">
         <v>45240</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
       <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <f t="shared" si="7"/>
         <v>1604397.0160600001</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>193</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <f t="shared" si="5"/>
         <v>1604590.0160600001</v>
       </c>
-      <c r="I105" t="s">
-        <v>67</v>
-      </c>
       <c r="J105" t="s">
+        <v>67</v>
+      </c>
+      <c r="K105" t="s">
         <v>85</v>
       </c>
-      <c r="K105" s="4">
+      <c r="L105" s="4">
         <f t="shared" si="9"/>
         <v>-1.5969999999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
+        <v>100</v>
+      </c>
+      <c r="C106" s="2">
         <v>45240</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
       <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
         <v>1.0960000000000001</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <f t="shared" si="7"/>
         <v>1604590.0160600001</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>96</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <f t="shared" si="5"/>
         <v>1604686.0160600001</v>
       </c>
-      <c r="I106" t="s">
-        <v>67</v>
-      </c>
       <c r="J106" t="s">
+        <v>67</v>
+      </c>
+      <c r="K106" t="s">
         <v>68</v>
       </c>
-      <c r="K106" s="4">
+      <c r="L106" s="4">
         <f t="shared" si="9"/>
         <v>-1.5910000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107">
+        <v>101</v>
+      </c>
+      <c r="C107" s="2">
         <v>45240</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
       <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
         <v>1.07</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <f t="shared" si="7"/>
         <v>1604686.0160600001</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>15</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <f t="shared" si="5"/>
         <v>1604701.0160600001</v>
       </c>
-      <c r="I107" t="s">
-        <v>67</v>
-      </c>
       <c r="J107" t="s">
+        <v>67</v>
+      </c>
+      <c r="K107" t="s">
         <v>73</v>
       </c>
-      <c r="K107" s="4">
+      <c r="L107" s="4">
         <f t="shared" si="9"/>
         <v>-1.5899999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108">
+        <v>102</v>
+      </c>
+      <c r="C108" s="2">
         <v>45240</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
       <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
         <v>1.1839999999999999</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <f t="shared" si="7"/>
         <v>1604701.0160600001</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>184</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <f t="shared" si="5"/>
         <v>1604885.0160600001</v>
       </c>
-      <c r="I108" t="s">
-        <v>67</v>
-      </c>
       <c r="J108" t="s">
+        <v>67</v>
+      </c>
+      <c r="K108" t="s">
         <v>68</v>
       </c>
-      <c r="K108" s="4">
+      <c r="L108" s="4">
         <f t="shared" si="9"/>
         <v>-1.5789999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109">
+        <v>103</v>
+      </c>
+      <c r="C109" s="2">
         <v>45240</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
       <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
         <v>1.21</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <f t="shared" si="7"/>
         <v>1604885.0160600001</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>-1000</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <f t="shared" si="5"/>
         <v>1603885.0160600001</v>
       </c>
-      <c r="I109" t="s">
-        <v>67</v>
-      </c>
       <c r="J109" t="s">
+        <v>67</v>
+      </c>
+      <c r="K109" t="s">
         <v>68</v>
       </c>
-      <c r="K109" s="4">
+      <c r="L109" s="4">
         <f t="shared" si="9"/>
         <v>-1.6390000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110">
+        <v>104</v>
+      </c>
+      <c r="C110" s="2">
         <v>45241</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
       <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
         <v>1.167</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <f t="shared" si="7"/>
         <v>1603885.0160600001</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>1169</v>
       </c>
-      <c r="H110">
-        <f t="shared" ref="H110:H150" si="10">F110+G110</f>
+      <c r="I110">
+        <f t="shared" ref="I110:I150" si="10">G110+H110</f>
         <v>1605054.0160600001</v>
       </c>
-      <c r="I110" t="s">
-        <v>0</v>
-      </c>
       <c r="J110" t="s">
+        <v>0</v>
+      </c>
+      <c r="K110" t="s">
         <v>20</v>
       </c>
-      <c r="K110" s="4">
+      <c r="L110" s="4">
         <f t="shared" si="9"/>
         <v>-1.569</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111">
+        <v>105</v>
+      </c>
+      <c r="C111" s="2">
         <v>45242</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
       <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
         <v>1.07</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <f t="shared" si="7"/>
         <v>1605054.0160600001</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>-396</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <f t="shared" si="10"/>
         <v>1604658.0160600001</v>
       </c>
-      <c r="I111" t="s">
-        <v>67</v>
-      </c>
       <c r="J111" t="s">
+        <v>67</v>
+      </c>
+      <c r="K111" t="s">
         <v>73</v>
       </c>
-      <c r="K111" s="4">
+      <c r="L111" s="4">
         <f t="shared" si="9"/>
         <v>-1.593</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
+        <v>106</v>
+      </c>
+      <c r="C112" s="2">
         <v>45242</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
       <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <f t="shared" si="7"/>
         <v>1604658.0160600001</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>90</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <f t="shared" si="10"/>
         <v>1604748.0160600001</v>
       </c>
-      <c r="I112" t="s">
-        <v>67</v>
-      </c>
       <c r="J112" t="s">
+        <v>67</v>
+      </c>
+      <c r="K112" t="s">
         <v>68</v>
       </c>
-      <c r="K112" s="4">
+      <c r="L112" s="4">
         <f t="shared" si="9"/>
         <v>-1.5869999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113">
+        <v>107</v>
+      </c>
+      <c r="C113" s="2">
         <v>45242</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
       <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
         <v>1.0900000000000001</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <f t="shared" si="7"/>
         <v>1604748.0160600001</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>450</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <f t="shared" si="10"/>
         <v>1605198.0160600001</v>
       </c>
-      <c r="I113" t="s">
-        <v>67</v>
-      </c>
       <c r="J113" t="s">
+        <v>67</v>
+      </c>
+      <c r="K113" t="s">
         <v>68</v>
       </c>
-      <c r="K113" s="4">
+      <c r="L113" s="4">
         <f t="shared" si="9"/>
         <v>-1.5599999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114">
+        <v>108</v>
+      </c>
+      <c r="C114" s="2">
         <v>45243</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
       <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
         <v>1.0960000000000001</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <f t="shared" si="7"/>
         <v>1605198.0160600001</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>70</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <f t="shared" si="10"/>
         <v>1605268.0160600001</v>
       </c>
-      <c r="I114" t="s">
-        <v>67</v>
-      </c>
       <c r="J114" t="s">
+        <v>67</v>
+      </c>
+      <c r="K114" t="s">
         <v>68</v>
       </c>
-      <c r="K114" s="4">
+      <c r="L114" s="4">
         <f t="shared" si="9"/>
         <v>-1.556</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115">
+        <v>109</v>
+      </c>
+      <c r="C115" s="2">
         <v>45243</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
       <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
         <v>1.115</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <f t="shared" si="7"/>
         <v>1605268.0160600001</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>95</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <f t="shared" si="10"/>
         <v>1605363.0160600001</v>
       </c>
-      <c r="I115" t="s">
-        <v>67</v>
-      </c>
       <c r="J115" t="s">
+        <v>67</v>
+      </c>
+      <c r="K115" t="s">
         <v>68</v>
       </c>
-      <c r="K115" s="4">
+      <c r="L115" s="4">
         <f t="shared" si="9"/>
         <v>-1.5510000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116">
+        <v>110</v>
+      </c>
+      <c r="C116" s="2">
         <v>45243</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
       <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
         <v>1.1850000000000001</v>
       </c>
-      <c r="F116">
-        <f t="shared" ref="F116:F140" si="11">H115</f>
+      <c r="G116">
+        <f t="shared" ref="G116:G140" si="11">I115</f>
         <v>1605363.0160600001</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>92</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <f t="shared" si="10"/>
         <v>1605455.0160600001</v>
       </c>
-      <c r="I116" t="s">
-        <v>67</v>
-      </c>
       <c r="J116" t="s">
+        <v>67</v>
+      </c>
+      <c r="K116" t="s">
         <v>85</v>
       </c>
-      <c r="K116" s="4">
+      <c r="L116" s="4">
         <f t="shared" si="9"/>
         <v>-1.5449999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
+        <v>111</v>
+      </c>
+      <c r="C117" s="2">
         <v>45243</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
       <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
         <v>1.1439999999999999</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <f t="shared" si="11"/>
         <v>1605455.0160600001</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>-600</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <f t="shared" si="10"/>
         <v>1604855.0160600001</v>
       </c>
-      <c r="I117" t="s">
-        <v>67</v>
-      </c>
       <c r="J117" t="s">
+        <v>67</v>
+      </c>
+      <c r="K117" t="s">
         <v>85</v>
       </c>
-      <c r="K117" s="4">
+      <c r="L117" s="4">
         <f t="shared" si="9"/>
         <v>-1.5809999999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118">
+        <v>112</v>
+      </c>
+      <c r="C118" s="2">
         <v>45243</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
       <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
         <v>1.2050000000000001</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <f t="shared" si="11"/>
         <v>1604855.0160600001</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>-400</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <f t="shared" si="10"/>
         <v>1604455.0160600001</v>
       </c>
-      <c r="I118" t="s">
-        <v>67</v>
-      </c>
       <c r="J118" t="s">
+        <v>67</v>
+      </c>
+      <c r="K118" t="s">
         <v>68</v>
       </c>
-      <c r="K118" s="4">
-        <f t="shared" ref="K118:K150" si="12">ROUND((H118/$F$31-1)*100, 3)+$K$29</f>
+      <c r="L118" s="4">
+        <f t="shared" ref="L118:L150" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
+        <v>113</v>
+      </c>
+      <c r="C119" s="2">
         <v>45243</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
       <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <f t="shared" si="11"/>
         <v>1604455.0160600001</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>100</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <f t="shared" si="10"/>
         <v>1604555.0160600001</v>
       </c>
-      <c r="I119" t="s">
-        <v>67</v>
-      </c>
       <c r="J119" t="s">
+        <v>67</v>
+      </c>
+      <c r="K119" t="s">
         <v>79</v>
       </c>
-      <c r="K119" s="4">
+      <c r="L119" s="4">
         <f t="shared" si="12"/>
         <v>-1.5990000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
+        <v>114</v>
+      </c>
+      <c r="C120" s="2">
         <v>45243</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
       <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
         <v>1.0249999999999999</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <f t="shared" si="11"/>
         <v>1604555.0160600001</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>20</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <f t="shared" si="10"/>
         <v>1604575.0160600001</v>
       </c>
-      <c r="I120" t="s">
-        <v>0</v>
-      </c>
       <c r="J120" t="s">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
         <v>87</v>
       </c>
-      <c r="K120" s="4">
+      <c r="L120" s="4">
         <f t="shared" si="12"/>
         <v>-1.5979999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121">
+        <v>115</v>
+      </c>
+      <c r="C121" s="2">
         <v>45243</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
       <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <f t="shared" si="11"/>
         <v>1604575.0160600001</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>-500</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <f t="shared" si="10"/>
         <v>1604075.0160600001</v>
       </c>
-      <c r="I121" t="s">
-        <v>0</v>
-      </c>
       <c r="J121" t="s">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
         <v>88</v>
       </c>
-      <c r="K121" s="4">
+      <c r="L121" s="4">
         <f t="shared" si="12"/>
         <v>-1.6269999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122">
+        <v>116</v>
+      </c>
+      <c r="C122" s="2">
         <v>45243</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
       <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <f t="shared" si="11"/>
         <v>1604075.0160600001</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>360</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <f t="shared" si="10"/>
         <v>1604435.0160600001</v>
       </c>
-      <c r="I122" t="s">
-        <v>67</v>
-      </c>
       <c r="J122" t="s">
+        <v>67</v>
+      </c>
+      <c r="K122" t="s">
         <v>70</v>
       </c>
-      <c r="K122" s="4">
+      <c r="L122" s="4">
         <f t="shared" si="12"/>
         <v>-1.6059999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
+        <v>117</v>
+      </c>
+      <c r="C123" s="2">
         <v>45243</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
       <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
         <v>1.18</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <f t="shared" si="11"/>
         <v>1604435.0160600001</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>100</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <f t="shared" si="10"/>
         <v>1604535.0160600001</v>
       </c>
-      <c r="I123" t="s">
-        <v>67</v>
-      </c>
       <c r="J123" t="s">
+        <v>67</v>
+      </c>
+      <c r="K123" t="s">
         <v>68</v>
       </c>
-      <c r="K123" s="4">
+      <c r="L123" s="4">
         <f t="shared" si="12"/>
         <v>-1.5999999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124">
+        <v>118</v>
+      </c>
+      <c r="C124" s="2">
         <v>45243</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
       <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
         <v>1.155</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <f t="shared" si="11"/>
         <v>1604535.0160600001</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>-500</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <f t="shared" si="10"/>
         <v>1604035.0160600001</v>
       </c>
-      <c r="I124" t="s">
-        <v>67</v>
-      </c>
       <c r="J124" t="s">
+        <v>67</v>
+      </c>
+      <c r="K124" t="s">
         <v>71</v>
       </c>
-      <c r="K124" s="4">
+      <c r="L124" s="4">
         <f t="shared" si="12"/>
         <v>-1.63</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125">
+        <v>119</v>
+      </c>
+      <c r="C125" s="2">
         <v>45243</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
       <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
         <v>1.085</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <f t="shared" si="11"/>
         <v>1604035.0160600001</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>595</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <f t="shared" si="10"/>
         <v>1604630.0160600001</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>91</v>
       </c>
-      <c r="J125" t="s">
+      <c r="K125" t="s">
         <v>89</v>
       </c>
-      <c r="K125" s="4">
+      <c r="L125" s="4">
         <f t="shared" si="12"/>
         <v>-1.5939999999999994</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126">
+        <v>120</v>
+      </c>
+      <c r="C126" s="2">
         <v>45243</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
       <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
         <v>1.45</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <f t="shared" si="11"/>
         <v>1604630.0160600001</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>-7266</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <f t="shared" si="10"/>
         <v>1597364.0160600001</v>
       </c>
-      <c r="I126" t="s">
-        <v>67</v>
-      </c>
       <c r="J126" t="s">
+        <v>67</v>
+      </c>
+      <c r="K126" t="s">
         <v>90</v>
       </c>
-      <c r="K126" s="4">
+      <c r="L126" s="4">
         <f t="shared" si="12"/>
         <v>-2.0279999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127">
+        <v>121</v>
+      </c>
+      <c r="C127" s="2">
         <v>45243</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
       <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
         <v>1.0549999999999999</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <f t="shared" si="11"/>
         <v>1597364.0160600001</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>78</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <f t="shared" si="10"/>
         <v>1597442.0160600001</v>
       </c>
-      <c r="I127" t="s">
-        <v>67</v>
-      </c>
       <c r="J127" t="s">
+        <v>67</v>
+      </c>
+      <c r="K127" t="s">
         <v>73</v>
       </c>
-      <c r="K127" s="4">
+      <c r="L127" s="4">
         <f t="shared" si="12"/>
         <v>-2.024</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128">
+        <v>122</v>
+      </c>
+      <c r="C128" s="2">
         <v>45243</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
       <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
         <v>1.048</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <f t="shared" si="11"/>
         <v>1597442.0160600001</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>50</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <f t="shared" si="10"/>
         <v>1597492.0160600001</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>91</v>
       </c>
-      <c r="J128" t="s">
+      <c r="K128" t="s">
         <v>89</v>
       </c>
-      <c r="K128" s="4">
+      <c r="L128" s="4">
         <f t="shared" si="12"/>
         <v>-2.0209999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129">
+        <v>123</v>
+      </c>
+      <c r="C129" s="2">
         <v>45243</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
       <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
         <v>1.2450000000000001</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <f t="shared" si="11"/>
         <v>1597492.0160600001</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>277</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <f t="shared" si="10"/>
         <v>1597769.0160600001</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>91</v>
       </c>
-      <c r="J129" t="s">
+      <c r="K129" t="s">
         <v>89</v>
       </c>
-      <c r="K129" s="4">
+      <c r="L129" s="4">
         <f t="shared" si="12"/>
         <v>-2.0039999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
+        <v>124</v>
+      </c>
+      <c r="C130" s="2">
         <v>45243</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
       <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
         <v>1.1120000000000001</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <f t="shared" si="11"/>
         <v>1597769.0160600001</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>99</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <f t="shared" si="10"/>
         <v>1597868.0160600001</v>
       </c>
-      <c r="I130" t="s">
-        <v>67</v>
-      </c>
       <c r="J130" t="s">
+        <v>67</v>
+      </c>
+      <c r="K130" t="s">
         <v>70</v>
       </c>
-      <c r="K130" s="4">
+      <c r="L130" s="4">
         <f t="shared" si="12"/>
         <v>-1.9980000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
+        <v>125</v>
+      </c>
+      <c r="C131" s="2">
         <v>45243</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
       <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
         <v>1.17</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <f t="shared" si="11"/>
         <v>1597868.0160600001</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>240</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <f t="shared" si="10"/>
         <v>1598108.0160600001</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
         <v>92</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>93</v>
       </c>
-      <c r="K131" s="4">
+      <c r="L131" s="4">
         <f t="shared" si="12"/>
         <v>-1.984</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="2">
+      <c r="C132" s="2">
         <v>45244</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K132" s="4"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L132" s="4"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133">
+        <v>126</v>
+      </c>
+      <c r="C133" s="2">
         <v>45245</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
       <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
         <v>1.095</v>
       </c>
-      <c r="F133">
-        <f>H131</f>
+      <c r="G133">
+        <f>I131</f>
         <v>1598108.0160600001</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>10</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <f t="shared" si="10"/>
         <v>1598118.0160600001</v>
       </c>
-      <c r="I133" t="s">
-        <v>67</v>
-      </c>
       <c r="J133" t="s">
+        <v>67</v>
+      </c>
+      <c r="K133" t="s">
         <v>68</v>
       </c>
-      <c r="K133" s="4">
+      <c r="L133" s="4">
         <f t="shared" si="12"/>
         <v>-1.9829999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134">
+        <v>127</v>
+      </c>
+      <c r="C134" s="2">
         <v>45245</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
       <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
         <v>1.91</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <f t="shared" si="11"/>
         <v>1598118.0160600001</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>910</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <f t="shared" si="10"/>
         <v>1599028.0160600001</v>
       </c>
-      <c r="I134" t="s">
-        <v>0</v>
-      </c>
       <c r="J134" t="s">
+        <v>0</v>
+      </c>
+      <c r="K134" t="s">
         <v>96</v>
       </c>
-      <c r="K134" s="4">
+      <c r="L134" s="4">
         <f t="shared" si="12"/>
         <v>-1.9289999999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135">
+        <v>128</v>
+      </c>
+      <c r="C135" s="2">
         <v>45245</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
       <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <f t="shared" si="11"/>
         <v>1599028.0160600001</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>61</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <f t="shared" si="10"/>
         <v>1599089.0160600001</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>97</v>
       </c>
-      <c r="J135" t="s">
+      <c r="K135" t="s">
         <v>98</v>
       </c>
-      <c r="K135" s="4">
+      <c r="L135" s="4">
         <f t="shared" si="12"/>
         <v>-1.9249999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136">
+        <v>129</v>
+      </c>
+      <c r="C136" s="2">
         <v>45245</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
       <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
         <v>1.3049999999999999</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <f t="shared" si="11"/>
         <v>1599089.0160600001</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>140</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <f t="shared" si="10"/>
         <v>1599229.0160600001</v>
       </c>
-      <c r="I136" t="s">
-        <v>67</v>
-      </c>
       <c r="J136" t="s">
+        <v>67</v>
+      </c>
+      <c r="K136" t="s">
         <v>71</v>
       </c>
-      <c r="K136" s="4">
+      <c r="L136" s="4">
         <f t="shared" si="12"/>
         <v>-1.9169999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137">
+        <v>130</v>
+      </c>
+      <c r="C137" s="2">
         <v>45245</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
       <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
         <v>1.17</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <f t="shared" si="11"/>
         <v>1599229.0160600001</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>110</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <f t="shared" si="10"/>
         <v>1599339.0160600001</v>
       </c>
-      <c r="I137" t="s">
+      <c r="J137" t="s">
         <v>91</v>
       </c>
-      <c r="J137" t="s">
+      <c r="K137" t="s">
         <v>99</v>
       </c>
-      <c r="K137" s="4">
+      <c r="L137" s="4">
         <f t="shared" si="12"/>
         <v>-1.9100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138">
+        <v>131</v>
+      </c>
+      <c r="C138" s="2">
         <v>45245</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
       <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138">
         <v>1.05</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <f t="shared" si="11"/>
         <v>1599339.0160600001</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>5</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <f t="shared" si="10"/>
         <v>1599344.0160600001</v>
       </c>
-      <c r="I138" t="s">
-        <v>67</v>
-      </c>
       <c r="J138" t="s">
+        <v>67</v>
+      </c>
+      <c r="K138" t="s">
         <v>68</v>
       </c>
-      <c r="K138" s="4">
+      <c r="L138" s="4">
         <f t="shared" si="12"/>
         <v>-1.9100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139">
+        <v>132</v>
+      </c>
+      <c r="C139" s="2">
         <v>45245</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
       <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
         <v>1.2050000000000001</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <f t="shared" si="11"/>
         <v>1599344.0160600001</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>163</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <f t="shared" si="10"/>
         <v>1599507.0160600001</v>
       </c>
-      <c r="I139" t="s">
-        <v>0</v>
-      </c>
       <c r="J139" t="s">
+        <v>0</v>
+      </c>
+      <c r="K139" t="s">
         <v>100</v>
       </c>
-      <c r="K139" s="4">
+      <c r="L139" s="4">
         <f t="shared" si="12"/>
         <v>-1.8999999999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140">
+        <v>133</v>
+      </c>
+      <c r="C140" s="2">
         <v>45245</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
       <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
         <v>1.19</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <f t="shared" si="11"/>
         <v>1599507.0160600001</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>380</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <f t="shared" si="10"/>
         <v>1599887.0160600001</v>
       </c>
-      <c r="I140" t="s">
-        <v>0</v>
-      </c>
       <c r="J140" t="s">
+        <v>0</v>
+      </c>
+      <c r="K140" t="s">
         <v>100</v>
       </c>
-      <c r="K140" s="4">
+      <c r="L140" s="4">
         <f t="shared" si="12"/>
         <v>-1.8780000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="2">
+      <c r="C141" s="2">
         <v>45246</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K141" s="4"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L141" s="4"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142">
+        <v>134</v>
+      </c>
+      <c r="C142" s="2">
         <v>45247</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
       <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F142">
-        <f>H140</f>
+      <c r="G142">
+        <f>I140</f>
         <v>1599887.0160600001</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>55</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <f t="shared" si="10"/>
         <v>1599942.0160600001</v>
       </c>
-      <c r="I142" t="s">
-        <v>67</v>
-      </c>
       <c r="J142" t="s">
+        <v>67</v>
+      </c>
+      <c r="K142" t="s">
         <v>73</v>
       </c>
-      <c r="K142" s="4">
+      <c r="L142" s="4">
         <f t="shared" si="12"/>
         <v>-1.8739999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143">
+        <v>135</v>
+      </c>
+      <c r="C143" s="2">
         <v>45247</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
       <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
         <v>1.155</v>
       </c>
-      <c r="F143">
-        <f>H142</f>
+      <c r="G143">
+        <f>I142</f>
         <v>1599942.0160600001</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>40</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <f t="shared" si="10"/>
         <v>1599982.0160600001</v>
       </c>
-      <c r="I143" t="s">
-        <v>67</v>
-      </c>
       <c r="J143" t="s">
+        <v>67</v>
+      </c>
+      <c r="K143" t="s">
         <v>71</v>
       </c>
-      <c r="K143" s="4">
+      <c r="L143" s="4">
         <f t="shared" si="12"/>
         <v>-1.8719999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144">
+        <v>136</v>
+      </c>
+      <c r="C144" s="2">
         <v>45247</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
       <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144">
         <v>1.07</v>
       </c>
-      <c r="F144">
-        <f>H143</f>
+      <c r="G144">
+        <f>I143</f>
         <v>1599982.0160600001</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>21</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <f t="shared" si="10"/>
         <v>1600003.0160600001</v>
       </c>
-      <c r="I144" t="s">
-        <v>0</v>
-      </c>
       <c r="J144" t="s">
+        <v>0</v>
+      </c>
+      <c r="K144" t="s">
         <v>103</v>
       </c>
-      <c r="K144" s="4">
+      <c r="L144" s="4">
         <f t="shared" si="12"/>
         <v>-1.8709999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145">
+        <v>137</v>
+      </c>
+      <c r="C145" s="2">
         <v>45247</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
       <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
         <v>1.07</v>
       </c>
-      <c r="F145">
-        <f t="shared" ref="F145:F150" si="13">H144</f>
+      <c r="G145">
+        <f t="shared" ref="G145:G150" si="13">I144</f>
         <v>1600003.0160600001</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>66</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <f t="shared" si="10"/>
         <v>1600069.0160600001</v>
       </c>
-      <c r="I145" t="s">
-        <v>0</v>
-      </c>
       <c r="J145" t="s">
+        <v>0</v>
+      </c>
+      <c r="K145" t="s">
         <v>104</v>
       </c>
-      <c r="K145" s="4">
+      <c r="L145" s="4">
         <f t="shared" si="12"/>
         <v>-1.867</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146">
+        <v>138</v>
+      </c>
+      <c r="C146" s="2">
         <v>45247</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
       <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
         <v>1.08</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <f t="shared" si="13"/>
         <v>1600069.0160600001</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>40</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <f t="shared" si="10"/>
         <v>1600109.0160600001</v>
       </c>
-      <c r="I146" t="s">
-        <v>0</v>
-      </c>
       <c r="J146" t="s">
+        <v>0</v>
+      </c>
+      <c r="K146" t="s">
         <v>63</v>
       </c>
-      <c r="K146" s="4">
+      <c r="L146" s="4">
         <f t="shared" si="12"/>
         <v>-1.8639999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147">
+        <v>139</v>
+      </c>
+      <c r="C147" s="2">
         <v>45247</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
       <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <f t="shared" si="13"/>
         <v>1600109.0160600001</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>-810</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <f t="shared" si="10"/>
         <v>1599299.0160600001</v>
       </c>
-      <c r="I147" t="s">
-        <v>0</v>
-      </c>
       <c r="J147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K147" t="s">
         <v>107</v>
       </c>
-      <c r="K147" s="4">
+      <c r="L147" s="4">
         <f t="shared" si="12"/>
         <v>-1.9130000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148">
+        <v>140</v>
+      </c>
+      <c r="C148" s="2">
         <v>45247</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
       <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <f t="shared" si="13"/>
         <v>1599299.0160600001</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>-200</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <f t="shared" si="10"/>
         <v>1599099.0160600001</v>
       </c>
-      <c r="I148" t="s">
-        <v>0</v>
-      </c>
       <c r="J148" t="s">
+        <v>0</v>
+      </c>
+      <c r="K148" t="s">
         <v>107</v>
       </c>
-      <c r="K148" s="4">
+      <c r="L148" s="4">
         <f t="shared" si="12"/>
         <v>-1.9249999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149">
+        <v>141</v>
+      </c>
+      <c r="C149" s="2">
         <v>45248</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
       <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
         <v>1.304</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <f t="shared" si="13"/>
         <v>1599099.0160600001</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>790</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <f t="shared" si="10"/>
         <v>1599889.0160600001</v>
       </c>
-      <c r="I149" t="s">
+      <c r="J149" t="s">
         <v>92</v>
       </c>
-      <c r="J149" t="s">
+      <c r="K149" t="s">
         <v>93</v>
       </c>
-      <c r="K149" s="4">
+      <c r="L149" s="4">
         <f t="shared" si="12"/>
         <v>-1.8769999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150">
+        <v>142</v>
+      </c>
+      <c r="C150" s="2">
         <v>45249</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
       <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <f t="shared" si="13"/>
         <v>1599889.0160600001</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>13860</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <f t="shared" si="10"/>
         <v>1613749.0160600001</v>
       </c>
-      <c r="I150" t="s">
-        <v>0</v>
-      </c>
       <c r="J150" t="s">
+        <v>0</v>
+      </c>
+      <c r="K150" t="s">
         <v>20</v>
       </c>
-      <c r="K150" s="4">
+      <c r="L150" s="4">
         <f t="shared" si="12"/>
         <v>-1.0499999999999998</v>
       </c>
@@ -6221,23 +6653,23 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" cm="1">
-        <f t="array" ref="B3">B2+B2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
+        <f t="array" ref="B3">B2+B2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
         <v>453783.12319999997</v>
       </c>
       <c r="C3" s="3" cm="1">
-        <f t="array" ref="C3">C2+C2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
+        <f t="array" ref="C3">C2+C2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
         <v>53728.082716799996</v>
       </c>
       <c r="D3" s="3" cm="1">
-        <f t="array" ref="D3">D2+D2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
+        <f t="array" ref="D3">D2+D2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
         <v>80100.473356799994</v>
       </c>
       <c r="E3" s="3" cm="1">
-        <f t="array" ref="E3">E2+E2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
+        <f t="array" ref="E3">E2+E2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
         <v>32280.9915296</v>
       </c>
       <c r="F3" s="3" cm="1">
-        <f t="array" ref="F3">F2+F2*INDEX(bets!$K:$K,COUNTA(bets!$K:$K))/100</f>
+        <f t="array" ref="F3">F2+F2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
         <v>25310.783059199999</v>
       </c>
     </row>
@@ -6266,23 +6698,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" cm="1">
-        <f t="array" ref="B5">B4+B4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
+        <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
         <v>1458867.1777850001</v>
       </c>
       <c r="C5" s="3" cm="1">
-        <f t="array" ref="C5">C4+C4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
+        <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
         <v>55573.240306402498</v>
       </c>
       <c r="D5" s="3" cm="1">
-        <f t="array" ref="D5">D4+D4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
+        <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
         <v>82851.325218089987</v>
       </c>
       <c r="E5" s="3" cm="1">
-        <f t="array" ref="E5">E4+E4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
+        <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
         <v>33389.602027292502</v>
       </c>
       <c r="F5" s="3" cm="1">
-        <f t="array" ref="F5">F4+F4*INDEX(bets!$K:$K,MAX((bets!$K:$K&lt;&gt;"")*ROW(bets!$K:$K)))/100</f>
+        <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
         <v>26180.019054584998</v>
       </c>
     </row>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE08304-D9EC-4DA1-9CB5-E24E87F5AE4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372FC8B3-972D-4378-AC78-E2837F8C871C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="111">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <t>NRO</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2023-11-21</t>
   </si>
 </sst>
 </file>
@@ -394,8 +400,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -445,17 +451,17 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -774,25 +780,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:L152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="N152" sqref="N152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="4.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+    <col min="1" max="2" width="4.53125" customWidth="1"/>
+    <col min="4" max="4" width="9.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.73046875" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" customWidth="1"/>
-    <col min="11" max="11" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.06640625" customWidth="1"/>
+    <col min="11" max="11" width="28.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -830,7 +836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -867,7 +873,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -905,7 +911,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -943,7 +949,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -981,7 +987,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1057,7 +1063,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1247,7 +1253,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1285,7 +1291,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1475,7 +1481,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1513,7 +1519,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>1.7849999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1665,7 +1671,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1779,7 +1785,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>2.5379999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1893,7 +1899,7 @@
         <v>2.5750000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1905,7 +1911,7 @@
       </c>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1942,7 +1948,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>2.6590000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>2.6990000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2056,7 +2062,7 @@
         <v>2.7510000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2094,7 +2100,7 @@
         <v>2.8010000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>2.2680000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>2.363</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2208,7 +2214,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2246,7 +2252,7 @@
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2322,7 +2328,7 @@
         <v>3.1390000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2334,7 +2340,7 @@
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2346,7 +2352,7 @@
       </c>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2357,7 +2363,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>3.1539999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2433,7 +2439,7 @@
         <v>2.0860000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>3.0700000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2585,7 +2591,7 @@
         <v>2.1140000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2661,7 +2667,7 @@
         <v>1.649</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2699,7 +2705,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2737,7 +2743,7 @@
         <v>-0.79999999999999982</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>-0.7849999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2819,7 +2825,7 @@
         <v>-0.83599999999999985</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>-0.70499999999999963</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>-0.65700000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2942,7 +2948,7 @@
         <v>-0.61199999999999966</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>-0.55399999999999983</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3024,7 +3030,7 @@
         <v>-0.52099999999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3065,7 +3071,7 @@
         <v>-0.47799999999999976</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>-0.43499999999999961</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>-0.32199999999999962</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3188,7 +3194,7 @@
         <v>-0.26600000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3200,7 +3206,7 @@
       </c>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>-0.24899999999999967</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3282,7 +3288,7 @@
         <v>-0.22999999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3323,7 +3329,7 @@
         <v>-0.52899999999999991</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3364,7 +3370,7 @@
         <v>-0.50199999999999978</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3405,7 +3411,7 @@
         <v>-0.39999999999999991</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>-0.34299999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3487,7 +3493,7 @@
         <v>-1.4779999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>-1.3879999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3569,7 +3575,7 @@
         <v>-1.6869999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3610,7 +3616,7 @@
         <v>-1.681</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>-1.6589999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3692,7 +3698,7 @@
         <v>-1.5910000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>-1.71</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3774,7 +3780,7 @@
         <v>-1.6710000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3815,7 +3821,7 @@
         <v>-1.6539999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3856,7 +3862,7 @@
         <v>-1.6470000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3897,7 +3903,7 @@
         <v>-1.6440000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3938,7 +3944,7 @@
         <v>-1.625</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3979,7 +3985,7 @@
         <v>-1.609</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4020,7 +4026,7 @@
         <v>-1.5880000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4061,7 +4067,7 @@
         <v>-1.6369999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4102,7 +4108,7 @@
         <v>-1.6219999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4143,7 +4149,7 @@
         <v>-1.6049999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4184,7 +4190,7 @@
         <v>-1.5380000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4225,7 +4231,7 @@
         <v>-1.5300000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4266,7 +4272,7 @@
         <v>-1.5199999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4307,7 +4313,7 @@
         <v>-1.5009999999999994</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4348,7 +4354,7 @@
         <v>-1.5609999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4389,7 +4395,7 @@
         <v>-1.8599999999999994</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4430,7 +4436,7 @@
         <v>-1.7939999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4471,7 +4477,7 @@
         <v>-1.7450000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4512,7 +4518,7 @@
         <v>-1.7109999999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4553,7 +4559,7 @@
         <v>-1.6899999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4594,7 +4600,7 @@
         <v>-1.6630000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4635,7 +4641,7 @@
         <v>-1.6479999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4676,7 +4682,7 @@
         <v>-1.6459999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>-1.63</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4758,7 +4764,7 @@
         <v>-1.6079999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4799,7 +4805,7 @@
         <v>-1.5969999999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4840,7 +4846,7 @@
         <v>-1.5910000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4881,7 +4887,7 @@
         <v>-1.5899999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -4922,7 +4928,7 @@
         <v>-1.5789999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -4963,7 +4969,7 @@
         <v>-1.6390000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -4990,7 +4996,7 @@
         <v>1169</v>
       </c>
       <c r="I110">
-        <f t="shared" ref="I110:I150" si="10">G110+H110</f>
+        <f t="shared" ref="I110:I152" si="10">G110+H110</f>
         <v>1605054.0160600001</v>
       </c>
       <c r="J110" t="s">
@@ -5004,7 +5010,7 @@
         <v>-1.569</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5045,7 +5051,7 @@
         <v>-1.593</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5086,7 +5092,7 @@
         <v>-1.5869999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5127,7 +5133,7 @@
         <v>-1.5599999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5168,7 +5174,7 @@
         <v>-1.556</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>-1.5510000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5250,7 +5256,7 @@
         <v>-1.5449999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5291,7 +5297,7 @@
         <v>-1.5809999999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5328,11 +5334,11 @@
         <v>68</v>
       </c>
       <c r="L118" s="4">
-        <f t="shared" ref="L118:L150" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
+        <f t="shared" ref="L118:L152" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5373,7 +5379,7 @@
         <v>-1.5990000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5414,7 +5420,7 @@
         <v>-1.5979999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5455,7 +5461,7 @@
         <v>-1.6269999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5496,7 +5502,7 @@
         <v>-1.6059999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5537,7 +5543,7 @@
         <v>-1.5999999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5578,7 +5584,7 @@
         <v>-1.63</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5619,7 +5625,7 @@
         <v>-1.5939999999999994</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5660,7 +5666,7 @@
         <v>-2.0279999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5701,7 +5707,7 @@
         <v>-2.024</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5742,7 +5748,7 @@
         <v>-2.0209999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5783,7 +5789,7 @@
         <v>-2.0039999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>-1.9980000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5865,7 +5871,7 @@
         <v>-1.984</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5877,7 +5883,7 @@
       </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5918,7 +5924,7 @@
         <v>-1.9829999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -5959,7 +5965,7 @@
         <v>-1.9289999999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6000,7 +6006,7 @@
         <v>-1.9249999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6041,7 +6047,7 @@
         <v>-1.9169999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6082,7 +6088,7 @@
         <v>-1.9100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6123,7 +6129,7 @@
         <v>-1.9100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6164,7 +6170,7 @@
         <v>-1.8999999999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6205,7 +6211,7 @@
         <v>-1.8780000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6217,7 +6223,7 @@
       </c>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6258,7 +6264,7 @@
         <v>-1.8739999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6299,7 +6305,7 @@
         <v>-1.8719999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6340,7 +6346,7 @@
         <v>-1.8709999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6381,7 +6387,7 @@
         <v>-1.867</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6422,7 +6428,7 @@
         <v>-1.8639999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6463,7 +6469,7 @@
         <v>-1.9130000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6504,7 +6510,7 @@
         <v>-1.9249999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6545,7 +6551,7 @@
         <v>-1.8769999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6584,6 +6590,59 @@
       <c r="L150" s="4">
         <f t="shared" si="12"/>
         <v>-1.0499999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45250</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L151" s="4"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>143</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45251</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G152">
+        <f>I150</f>
+        <v>1613749.0160600001</v>
+      </c>
+      <c r="H152">
+        <v>500</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="10"/>
+        <v>1614249.0160600001</v>
+      </c>
+      <c r="J152" t="s">
+        <v>16</v>
+      </c>
+      <c r="K152" t="s">
+        <v>17</v>
+      </c>
+      <c r="L152" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.02</v>
       </c>
     </row>
   </sheetData>
@@ -6600,14 +6659,14 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -6627,7 +6686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6648,32 +6707,32 @@
         <v>25793.64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>453783.12319999997</v>
+        <v>453787.7476</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>53728.082716799996</v>
+        <v>53728.630247399997</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>80100.473356799994</v>
+        <v>80101.289642399992</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>32280.9915296</v>
+        <v>32281.320497799999</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>25310.783059199999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>25311.0409956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6693,35 +6752,35 @@
         <v>26457.826229999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>1458867.1777850001</v>
+        <v>1459309.4821340002</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>55573.240306402498</v>
+        <v>55590.089191790998</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>82851.325218089987</v>
+        <v>82876.444366715994</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>33389.602027292502</v>
+        <v>33399.725201227004</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>26180.019054584998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>26187.956402453998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="F10" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
   </sheetData>
@@ -6737,9 +6796,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -6774,7 +6833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6799,7 +6858,7 @@
         <v>657512.07999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6823,7 +6882,7 @@
         <v>674443.01605999994</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372FC8B3-972D-4378-AC78-E2837F8C871C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378ED154-306D-4034-A2AD-A0ED01AF4491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="114">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>2023-11-21</t>
+  </si>
+  <si>
+    <t>2023-11-24</t>
+  </si>
+  <si>
+    <t>2023-11-26</t>
+  </si>
+  <si>
+    <t>CS2 ESPORTS BATTLE</t>
   </si>
 </sst>
 </file>
@@ -780,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="N152" sqref="N152"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="M164" sqref="M164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4996,7 +5005,7 @@
         <v>1169</v>
       </c>
       <c r="I110">
-        <f t="shared" ref="I110:I152" si="10">G110+H110</f>
+        <f t="shared" ref="I110:I155" si="10">G110+H110</f>
         <v>1605054.0160600001</v>
       </c>
       <c r="J110" t="s">
@@ -5334,7 +5343,7 @@
         <v>68</v>
       </c>
       <c r="L118" s="4">
-        <f t="shared" ref="L118:L152" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
+        <f t="shared" ref="L118:L155" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
@@ -6628,11 +6637,11 @@
         <v>1613749.0160600001</v>
       </c>
       <c r="H152">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="I152">
         <f t="shared" si="10"/>
-        <v>1614249.0160600001</v>
+        <v>1614254.0160600001</v>
       </c>
       <c r="J152" t="s">
         <v>16</v>
@@ -6643,6 +6652,129 @@
       <c r="L152" s="4">
         <f t="shared" si="12"/>
         <v>-1.02</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>144</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45254</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1.07</v>
+      </c>
+      <c r="G153">
+        <f>I152</f>
+        <v>1614254.0160600001</v>
+      </c>
+      <c r="H153">
+        <v>330</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="10"/>
+        <v>1614584.0160600001</v>
+      </c>
+      <c r="J153" t="s">
+        <v>0</v>
+      </c>
+      <c r="K153" t="s">
+        <v>113</v>
+      </c>
+      <c r="L153" s="4">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>145</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45254</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1.05</v>
+      </c>
+      <c r="G154">
+        <f t="shared" ref="G154:G155" si="14">I153</f>
+        <v>1614584.0160600001</v>
+      </c>
+      <c r="H154">
+        <v>250</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="10"/>
+        <v>1614834.0160600001</v>
+      </c>
+      <c r="J154" t="s">
+        <v>0</v>
+      </c>
+      <c r="K154" t="s">
+        <v>107</v>
+      </c>
+      <c r="L154" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.98499999999999988</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>146</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45256</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="14"/>
+        <v>1614834.0160600001</v>
+      </c>
+      <c r="H155">
+        <v>880</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="10"/>
+        <v>1615714.0160600001</v>
+      </c>
+      <c r="J155" t="s">
+        <v>92</v>
+      </c>
+      <c r="K155" t="s">
+        <v>93</v>
+      </c>
+      <c r="L155" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.93199999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -6713,23 +6845,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>453787.7476</v>
+        <v>453593.52279999998</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>53728.630247399997</v>
+        <v>53705.633962199994</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>80101.289642399992</v>
+        <v>80067.0056472</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>32281.320497799999</v>
+        <v>32267.503833399998</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>25311.0409956</v>
+        <v>25300.207666800001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6758,23 +6890,23 @@
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>1459309.4821340002</v>
+        <v>1460606.9082244001</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>55590.089191790998</v>
+        <v>55639.5125889306</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>82876.444366715994</v>
+        <v>82950.127202685588</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>33399.725201227004</v>
+        <v>33429.419844768207</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>26187.956402453998</v>
+        <v>26211.239289536399</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378ED154-306D-4034-A2AD-A0ED01AF4491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5066C482-D149-4EB3-906B-9770EE533128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="127">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -402,6 +402,45 @@
   </si>
   <si>
     <t>CS2 ESPORTS BATTLE</t>
+  </si>
+  <si>
+    <t>2023-11-25</t>
+  </si>
+  <si>
+    <t>2023-11-22</t>
+  </si>
+  <si>
+    <t>2023-11-23</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2023-11-28</t>
+  </si>
+  <si>
+    <t>2023-11-29</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>2023-12-01</t>
+  </si>
+  <si>
+    <t>2023-12-02</t>
+  </si>
+  <si>
+    <t>2023-12-03</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>MASTERS WOMEN</t>
+  </si>
+  <si>
+    <t>COPA TT POLONIA</t>
   </si>
 </sst>
 </file>
@@ -789,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="M164" sqref="M164"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="L173" sqref="L173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5005,7 +5044,7 @@
         <v>1169</v>
       </c>
       <c r="I110">
-        <f t="shared" ref="I110:I155" si="10">G110+H110</f>
+        <f t="shared" ref="I110:I171" si="10">G110+H110</f>
         <v>1605054.0160600001</v>
       </c>
       <c r="J110" t="s">
@@ -5343,7 +5382,7 @@
         <v>68</v>
       </c>
       <c r="L118" s="4">
-        <f t="shared" ref="L118:L155" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
+        <f t="shared" ref="L118:L171" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
@@ -6658,123 +6697,518 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153">
-        <v>144</v>
-      </c>
       <c r="C153" s="2">
-        <v>45254</v>
+        <v>45252</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-      <c r="F153">
-        <v>1.07</v>
-      </c>
-      <c r="G153">
-        <f>I152</f>
-        <v>1614254.0160600001</v>
-      </c>
-      <c r="H153">
-        <v>330</v>
-      </c>
-      <c r="I153">
-        <f t="shared" si="10"/>
-        <v>1614584.0160600001</v>
-      </c>
-      <c r="J153" t="s">
-        <v>0</v>
-      </c>
-      <c r="K153" t="s">
-        <v>113</v>
-      </c>
-      <c r="L153" s="4">
-        <f t="shared" si="12"/>
-        <v>-1</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="L153" s="4"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154">
-        <v>145</v>
-      </c>
       <c r="C154" s="2">
-        <v>45254</v>
+        <v>45253</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154">
-        <v>1.05</v>
-      </c>
-      <c r="G154">
-        <f t="shared" ref="G154:G155" si="14">I153</f>
-        <v>1614584.0160600001</v>
-      </c>
-      <c r="H154">
-        <v>250</v>
-      </c>
-      <c r="I154">
-        <f t="shared" si="10"/>
-        <v>1614834.0160600001</v>
-      </c>
-      <c r="J154" t="s">
-        <v>0</v>
-      </c>
-      <c r="K154" t="s">
-        <v>107</v>
-      </c>
-      <c r="L154" s="4">
-        <f t="shared" si="12"/>
-        <v>-0.98499999999999988</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="L154" s="4"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C155" s="2">
-        <v>45256</v>
+        <v>45254</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E155">
         <v>1</v>
       </c>
       <c r="F155">
-        <v>1.1679999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="G155">
-        <f t="shared" si="14"/>
-        <v>1614834.0160600001</v>
+        <f>I152</f>
+        <v>1614254.0160600001</v>
       </c>
       <c r="H155">
-        <v>880</v>
+        <v>330</v>
       </c>
       <c r="I155">
         <f t="shared" si="10"/>
-        <v>1615714.0160600001</v>
+        <v>1614584.0160600001</v>
       </c>
       <c r="J155" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="L155" s="4">
         <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>145</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45254</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1.05</v>
+      </c>
+      <c r="G156">
+        <f t="shared" ref="G156:G171" si="14">I155</f>
+        <v>1614584.0160600001</v>
+      </c>
+      <c r="H156">
+        <v>250</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="10"/>
+        <v>1614834.0160600001</v>
+      </c>
+      <c r="J156" t="s">
+        <v>0</v>
+      </c>
+      <c r="K156" t="s">
+        <v>107</v>
+      </c>
+      <c r="L156" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.98499999999999988</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45255</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L157" s="4"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>146</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45256</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="G158">
+        <f>I156</f>
+        <v>1614834.0160600001</v>
+      </c>
+      <c r="H158">
+        <v>880</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="10"/>
+        <v>1615714.0160600001</v>
+      </c>
+      <c r="J158" t="s">
+        <v>92</v>
+      </c>
+      <c r="K158" t="s">
+        <v>93</v>
+      </c>
+      <c r="L158" s="4">
+        <f t="shared" si="12"/>
         <v>-0.93199999999999994</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45257</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L159" s="4"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45258</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L160" s="4"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>147</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45259</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="G161">
+        <f>I158</f>
+        <v>1615714.0160600001</v>
+      </c>
+      <c r="H161">
+        <v>180</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="10"/>
+        <v>1615894.0160600001</v>
+      </c>
+      <c r="J161" t="s">
+        <v>67</v>
+      </c>
+      <c r="K161" t="s">
+        <v>68</v>
+      </c>
+      <c r="L161" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.92199999999999971</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>148</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45259</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>1.165</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="14"/>
+        <v>1615894.0160600001</v>
+      </c>
+      <c r="H162">
+        <v>495</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="10"/>
+        <v>1616389.0160600001</v>
+      </c>
+      <c r="J162" t="s">
+        <v>67</v>
+      </c>
+      <c r="K162" t="s">
+        <v>68</v>
+      </c>
+      <c r="L162" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.8919999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45260</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L163" s="4"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45261</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L164" s="4"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45262</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L165" s="4"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45263</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L166" s="4"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>149</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45264</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="G167">
+        <f>I162</f>
+        <v>1616389.0160600001</v>
+      </c>
+      <c r="H167">
+        <v>-1887</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="10"/>
+        <v>1614502.0160600001</v>
+      </c>
+      <c r="J167" t="s">
+        <v>0</v>
+      </c>
+      <c r="K167" t="s">
+        <v>104</v>
+      </c>
+      <c r="L167" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>150</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45264</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="14"/>
+        <v>1614502.0160600001</v>
+      </c>
+      <c r="H168">
+        <v>800</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="10"/>
+        <v>1615302.0160600001</v>
+      </c>
+      <c r="J168" t="s">
+        <v>67</v>
+      </c>
+      <c r="K168" t="s">
+        <v>125</v>
+      </c>
+      <c r="L168" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.95699999999999985</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>151</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45264</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>1.165</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="14"/>
+        <v>1615302.0160600001</v>
+      </c>
+      <c r="H169">
+        <v>297</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="10"/>
+        <v>1615599.0160600001</v>
+      </c>
+      <c r="J169" t="s">
+        <v>67</v>
+      </c>
+      <c r="K169" t="s">
+        <v>126</v>
+      </c>
+      <c r="L169" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.93899999999999961</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>152</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45264</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="14"/>
+        <v>1615599.0160600001</v>
+      </c>
+      <c r="H170">
+        <v>-6097</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="10"/>
+        <v>1609502.0160600001</v>
+      </c>
+      <c r="J170" t="s">
+        <v>0</v>
+      </c>
+      <c r="K170" t="s">
+        <v>96</v>
+      </c>
+      <c r="L170" s="4">
+        <f t="shared" si="12"/>
+        <v>-1.3029999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>153</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45264</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>1.7</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="14"/>
+        <v>1609502.0160600001</v>
+      </c>
+      <c r="H171">
+        <v>7000</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="10"/>
+        <v>1616502.0160600001</v>
+      </c>
+      <c r="J171" t="s">
+        <v>0</v>
+      </c>
+      <c r="K171" t="s">
+        <v>96</v>
+      </c>
+      <c r="L171" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.88499999999999979</v>
       </c>
     </row>
   </sheetData>
@@ -6845,23 +7279,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>453593.52279999998</v>
+        <v>462440</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>53705.633962199994</v>
+        <v>54753.06</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>80067.0056472</v>
+        <v>81628.56</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>32267.503833399998</v>
+        <v>32896.82</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>25300.207666800001</v>
+        <v>25793.64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -6890,23 +7324,23 @@
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>1460606.9082244001</v>
+        <v>1461299.8517045001</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>55639.5125889306</v>
+        <v>55665.909176039248</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>82950.127202685588</v>
+        <v>82989.480535532988</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>33429.419844768207</v>
+        <v>33445.279483932252</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>26211.239289536399</v>
+        <v>26223.674467864497</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5066C482-D149-4EB3-906B-9770EE533128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AD00E9-E687-4C7E-AB47-9B7A2C945502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="127">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -828,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="L173" sqref="L173"/>
+      <selection activeCell="I165" sqref="I165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5044,7 +5044,7 @@
         <v>1169</v>
       </c>
       <c r="I110">
-        <f t="shared" ref="I110:I171" si="10">G110+H110</f>
+        <f t="shared" ref="I110:I172" si="10">G110+H110</f>
         <v>1605054.0160600001</v>
       </c>
       <c r="J110" t="s">
@@ -5382,7 +5382,7 @@
         <v>68</v>
       </c>
       <c r="L118" s="4">
-        <f t="shared" ref="L118:L171" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
+        <f t="shared" ref="L118:L172" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
@@ -6778,7 +6778,7 @@
         <v>1.05</v>
       </c>
       <c r="G156">
-        <f t="shared" ref="G156:G171" si="14">I155</f>
+        <f t="shared" ref="G156:G172" si="14">I155</f>
         <v>1614584.0160600001</v>
       </c>
       <c r="H156">
@@ -7209,6 +7209,47 @@
       <c r="L171" s="4">
         <f t="shared" si="12"/>
         <v>-0.88499999999999979</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>154</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45264</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="14"/>
+        <v>1616502.0160600001</v>
+      </c>
+      <c r="H172">
+        <v>1720</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="10"/>
+        <v>1618222.0160600001</v>
+      </c>
+      <c r="J172" t="s">
+        <v>67</v>
+      </c>
+      <c r="K172" t="s">
+        <v>68</v>
+      </c>
+      <c r="L172" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.78299999999999992</v>
       </c>
     </row>
   </sheetData>
@@ -7279,23 +7320,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>462440</v>
+        <v>457815.6</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>54753.06</v>
+        <v>54205.529399999999</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>81628.56</v>
+        <v>80812.274399999995</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>32896.82</v>
+        <v>32567.8518</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>25793.64</v>
+        <v>25535.703600000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7324,23 +7365,23 @@
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>1461299.8517045001</v>
+        <v>1462803.6864911001</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>55665.909176039248</v>
+        <v>55723.195386360152</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>82989.480535532988</v>
+        <v>83074.885640861394</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>33445.279483932252</v>
+        <v>33479.698275309551</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>26223.674467864497</v>
+        <v>26250.6614506191</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AD00E9-E687-4C7E-AB47-9B7A2C945502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8DA55E-222F-4FF6-8054-E822980350E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="128">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -441,6 +441,9 @@
   </si>
   <si>
     <t>COPA TT POLONIA</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
   </si>
 </sst>
 </file>
@@ -828,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:L172"/>
+  <dimension ref="A1:L176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="I165" sqref="I165"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="K174" sqref="K174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5044,7 +5047,7 @@
         <v>1169</v>
       </c>
       <c r="I110">
-        <f t="shared" ref="I110:I172" si="10">G110+H110</f>
+        <f t="shared" ref="I110:I173" si="10">G110+H110</f>
         <v>1605054.0160600001</v>
       </c>
       <c r="J110" t="s">
@@ -5382,7 +5385,7 @@
         <v>68</v>
       </c>
       <c r="L118" s="4">
-        <f t="shared" ref="L118:L172" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
+        <f t="shared" ref="L118:L176" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
@@ -6778,7 +6781,7 @@
         <v>1.05</v>
       </c>
       <c r="G156">
-        <f t="shared" ref="G156:G172" si="14">I155</f>
+        <f t="shared" ref="G156:G176" si="14">I155</f>
         <v>1614584.0160600001</v>
       </c>
       <c r="H156">
@@ -7250,6 +7253,170 @@
       <c r="L172" s="4">
         <f t="shared" si="12"/>
         <v>-0.78299999999999992</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>155</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45264</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>1.085</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="14"/>
+        <v>1618222.0160600001</v>
+      </c>
+      <c r="H173">
+        <v>88</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="10"/>
+        <v>1618310.0160600001</v>
+      </c>
+      <c r="J173" t="s">
+        <v>67</v>
+      </c>
+      <c r="K173" t="s">
+        <v>68</v>
+      </c>
+      <c r="L173" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.77699999999999969</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>156</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45264</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="14"/>
+        <v>1618310.0160600001</v>
+      </c>
+      <c r="H174">
+        <v>51</v>
+      </c>
+      <c r="I174">
+        <f t="shared" ref="I174:I176" si="15">G174+H174</f>
+        <v>1618361.0160600001</v>
+      </c>
+      <c r="J174" t="s">
+        <v>67</v>
+      </c>
+      <c r="K174" t="s">
+        <v>68</v>
+      </c>
+      <c r="L174" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>157</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45265</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>1.32</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="14"/>
+        <v>1618361.0160600001</v>
+      </c>
+      <c r="H175">
+        <v>272</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="15"/>
+        <v>1618633.0160600001</v>
+      </c>
+      <c r="J175" t="s">
+        <v>67</v>
+      </c>
+      <c r="K175" t="s">
+        <v>68</v>
+      </c>
+      <c r="L175" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>158</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45265</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="14"/>
+        <v>1618633.0160600001</v>
+      </c>
+      <c r="H176">
+        <v>79</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="15"/>
+        <v>1618712.0160600001</v>
+      </c>
+      <c r="J176" t="s">
+        <v>67</v>
+      </c>
+      <c r="K176" t="s">
+        <v>71</v>
+      </c>
+      <c r="L176" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.75299999999999967</v>
       </c>
     </row>
   </sheetData>
@@ -7320,23 +7487,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>457815.6</v>
+        <v>462440</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>54205.529399999999</v>
+        <v>54753.06</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>80812.274399999995</v>
+        <v>81628.56</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>32567.8518</v>
+        <v>32896.82</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>25535.703600000001</v>
+        <v>25793.64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7365,23 +7532,23 @@
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>1462803.6864911001</v>
+        <v>1463245.9908401</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>55723.195386360152</v>
+        <v>55740.044271748651</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>83074.885640861394</v>
+        <v>83100.004789487386</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>33479.698275309551</v>
+        <v>33489.821449244053</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>26250.6614506191</v>
+        <v>26258.598798488099</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8DA55E-222F-4FF6-8054-E822980350E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F13FD-E9F8-4236-92F6-A7089A6729B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="129">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>ITT CAP WOMAN</t>
   </si>
 </sst>
 </file>
@@ -831,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="K174" sqref="K174"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="N174" sqref="N174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5385,7 +5388,7 @@
         <v>68</v>
       </c>
       <c r="L118" s="4">
-        <f t="shared" ref="L118:L176" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
+        <f t="shared" ref="L118:L181" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
@@ -6781,7 +6784,7 @@
         <v>1.05</v>
       </c>
       <c r="G156">
-        <f t="shared" ref="G156:G176" si="14">I155</f>
+        <f t="shared" ref="G156:G181" si="14">I155</f>
         <v>1614584.0160600001</v>
       </c>
       <c r="H156">
@@ -7323,7 +7326,7 @@
         <v>51</v>
       </c>
       <c r="I174">
-        <f t="shared" ref="I174:I176" si="15">G174+H174</f>
+        <f t="shared" ref="I174:I181" si="15">G174+H174</f>
         <v>1618361.0160600001</v>
       </c>
       <c r="J174" t="s">
@@ -7417,6 +7420,211 @@
       <c r="L176" s="4">
         <f t="shared" si="12"/>
         <v>-0.75299999999999967</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>159</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45265</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>1.28</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="14"/>
+        <v>1618712.0160600001</v>
+      </c>
+      <c r="H177">
+        <v>-700</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="15"/>
+        <v>1618012.0160600001</v>
+      </c>
+      <c r="J177" t="s">
+        <v>67</v>
+      </c>
+      <c r="K177" t="s">
+        <v>68</v>
+      </c>
+      <c r="L177" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.79499999999999993</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>160</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45265</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>1.575</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="14"/>
+        <v>1618012.0160600001</v>
+      </c>
+      <c r="H178">
+        <v>1150</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="15"/>
+        <v>1619162.0160600001</v>
+      </c>
+      <c r="J178" t="s">
+        <v>67</v>
+      </c>
+      <c r="K178" t="s">
+        <v>128</v>
+      </c>
+      <c r="L178" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>161</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45265</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="14"/>
+        <v>1619162.0160600001</v>
+      </c>
+      <c r="H179">
+        <v>49</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="15"/>
+        <v>1619211.0160600001</v>
+      </c>
+      <c r="J179" t="s">
+        <v>67</v>
+      </c>
+      <c r="K179" t="s">
+        <v>71</v>
+      </c>
+      <c r="L179" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.72399999999999975</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>162</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45265</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>1.34</v>
+      </c>
+      <c r="G180">
+        <f t="shared" si="14"/>
+        <v>1619211.0160600001</v>
+      </c>
+      <c r="H180">
+        <v>340</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="15"/>
+        <v>1619551.0160600001</v>
+      </c>
+      <c r="J180" t="s">
+        <v>67</v>
+      </c>
+      <c r="K180" t="s">
+        <v>71</v>
+      </c>
+      <c r="L180" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.70299999999999985</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>163</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45265</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>1.22</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="14"/>
+        <v>1619551.0160600001</v>
+      </c>
+      <c r="H181">
+        <v>440</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="15"/>
+        <v>1619991.0160600001</v>
+      </c>
+      <c r="J181" t="s">
+        <v>0</v>
+      </c>
+      <c r="K181" t="s">
+        <v>96</v>
+      </c>
+      <c r="L181" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.6769999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -7430,7 +7638,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F5" sqref="B5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7532,23 +7740,23 @@
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>1463245.9908401</v>
+        <v>1464366.4951909001</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>55740.044271748651</v>
+        <v>55782.728114732847</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>83100.004789487386</v>
+        <v>83163.639966006594</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>33489.821449244053</v>
+        <v>33515.466823211456</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>26258.598798488099</v>
+        <v>26278.7067464229</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6F13FD-E9F8-4236-92F6-A7089A6729B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047237D3-3FAA-4667-8640-E4E9A75BF341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="131">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -447,6 +447,12 @@
   </si>
   <si>
     <t>ITT CAP WOMAN</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>2023-12-07</t>
   </si>
 </sst>
 </file>
@@ -834,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="N174" sqref="N174"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="K185" sqref="K185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5388,7 +5394,7 @@
         <v>68</v>
       </c>
       <c r="L118" s="4">
-        <f t="shared" ref="L118:L181" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
+        <f t="shared" ref="L118:L182" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
@@ -6784,7 +6790,7 @@
         <v>1.05</v>
       </c>
       <c r="G156">
-        <f t="shared" ref="G156:G181" si="14">I155</f>
+        <f t="shared" ref="G156:G187" si="14">I155</f>
         <v>1614584.0160600001</v>
       </c>
       <c r="H156">
@@ -7326,7 +7332,7 @@
         <v>51</v>
       </c>
       <c r="I174">
-        <f t="shared" ref="I174:I181" si="15">G174+H174</f>
+        <f t="shared" ref="I174:I191" si="15">G174+H174</f>
         <v>1618361.0160600001</v>
       </c>
       <c r="J174" t="s">
@@ -7625,6 +7631,387 @@
       <c r="L181" s="4">
         <f t="shared" si="12"/>
         <v>-0.6769999999999996</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>164</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45265</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>1.07</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="14"/>
+        <v>1619991.0160600001</v>
+      </c>
+      <c r="H182">
+        <v>24</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="15"/>
+        <v>1620015.0160600001</v>
+      </c>
+      <c r="J182" t="s">
+        <v>67</v>
+      </c>
+      <c r="K182" t="s">
+        <v>71</v>
+      </c>
+      <c r="L182" s="4">
+        <f t="shared" si="12"/>
+        <v>-0.67599999999999971</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>165</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45265</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>1.07</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="14"/>
+        <v>1620015.0160600001</v>
+      </c>
+      <c r="H183">
+        <v>36</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="15"/>
+        <v>1620051.0160600001</v>
+      </c>
+      <c r="J183" t="s">
+        <v>67</v>
+      </c>
+      <c r="K183" t="s">
+        <v>71</v>
+      </c>
+      <c r="L183" s="4">
+        <f t="shared" ref="L183:L191" si="16">ROUND((I183/$G$31-1)*100, 3)+$L$29</f>
+        <v>-0.67300000000000004</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>166</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45265</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>1.07</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="14"/>
+        <v>1620051.0160600001</v>
+      </c>
+      <c r="H184">
+        <v>38</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="15"/>
+        <v>1620089.0160600001</v>
+      </c>
+      <c r="J184" t="s">
+        <v>67</v>
+      </c>
+      <c r="K184" t="s">
+        <v>71</v>
+      </c>
+      <c r="L184" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.67099999999999982</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45266</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L185" s="4"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>167</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45267</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G186">
+        <f>I184</f>
+        <v>1620089.0160600001</v>
+      </c>
+      <c r="H186">
+        <v>76</v>
+      </c>
+      <c r="I186">
+        <f>G186+H186</f>
+        <v>1620165.0160600001</v>
+      </c>
+      <c r="J186" t="s">
+        <v>67</v>
+      </c>
+      <c r="K186" t="s">
+        <v>68</v>
+      </c>
+      <c r="L186" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.66699999999999982</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>168</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45267</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>1.355</v>
+      </c>
+      <c r="G187">
+        <f>I186</f>
+        <v>1620165.0160600001</v>
+      </c>
+      <c r="H187">
+        <v>235</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="15"/>
+        <v>1620400.0160600001</v>
+      </c>
+      <c r="J187" t="s">
+        <v>67</v>
+      </c>
+      <c r="K187" t="s">
+        <v>68</v>
+      </c>
+      <c r="L187" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>169</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45267</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>1.07</v>
+      </c>
+      <c r="G188">
+        <f>I187</f>
+        <v>1620400.0160600001</v>
+      </c>
+      <c r="H188">
+        <v>56</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="15"/>
+        <v>1620456.0160600001</v>
+      </c>
+      <c r="J188" t="s">
+        <v>67</v>
+      </c>
+      <c r="K188" t="s">
+        <v>70</v>
+      </c>
+      <c r="L188" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.64900000000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>170</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45267</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="G189">
+        <f t="shared" ref="G189:G190" si="17">I188</f>
+        <v>1620456.0160600001</v>
+      </c>
+      <c r="H189">
+        <v>14</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="15"/>
+        <v>1620470.0160600001</v>
+      </c>
+      <c r="J189" t="s">
+        <v>67</v>
+      </c>
+      <c r="K189" t="s">
+        <v>68</v>
+      </c>
+      <c r="L189" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.64799999999999969</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>171</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45267</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="17"/>
+        <v>1620470.0160600001</v>
+      </c>
+      <c r="H190">
+        <v>125</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="15"/>
+        <v>1620595.0160600001</v>
+      </c>
+      <c r="J190" t="s">
+        <v>67</v>
+      </c>
+      <c r="K190" t="s">
+        <v>73</v>
+      </c>
+      <c r="L190" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>172</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45267</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>1.155</v>
+      </c>
+      <c r="G191">
+        <f>I190</f>
+        <v>1620595.0160600001</v>
+      </c>
+      <c r="H191">
+        <v>155</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="15"/>
+        <v>1620750.0160600001</v>
+      </c>
+      <c r="J191" t="s">
+        <v>67</v>
+      </c>
+      <c r="K191" t="s">
+        <v>68</v>
+      </c>
+      <c r="L191" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.63199999999999967</v>
       </c>
     </row>
   </sheetData>
@@ -7695,23 +8082,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>462440</v>
+        <v>458846.84120000002</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>54753.06</v>
+        <v>54327.6287238</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>81628.56</v>
+        <v>80994.306088800004</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>32896.82</v>
+        <v>32641.2117086</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>25793.64</v>
+        <v>25593.223417199999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -7740,23 +8127,23 @@
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>1464366.4951909001</v>
+        <v>1465029.9517144</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>55782.728114732847</v>
+        <v>55808.001442815599</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>83163.639966006594</v>
+        <v>83201.318688945597</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>33515.466823211456</v>
+        <v>33530.651584113206</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>26278.7067464229</v>
+        <v>26290.612768226398</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047237D3-3FAA-4667-8640-E4E9A75BF341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089E3D8A-DBC1-430E-87BF-516824A1E6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="136">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -446,13 +446,28 @@
     <t>2023-12-05</t>
   </si>
   <si>
-    <t>ITT CAP WOMAN</t>
-  </si>
-  <si>
     <t>2023-12-06</t>
   </si>
   <si>
     <t>2023-12-07</t>
+  </si>
+  <si>
+    <t>2023-12-08</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>2023-12-10</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>PRO SPIN SERIES WOMEN</t>
+  </si>
+  <si>
+    <t>ITT CAP WOMEN</t>
   </si>
 </sst>
 </file>
@@ -840,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:L191"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="K185" sqref="K185"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="M205" sqref="M205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6790,7 +6805,7 @@
         <v>1.05</v>
       </c>
       <c r="G156">
-        <f t="shared" ref="G156:G187" si="14">I155</f>
+        <f t="shared" ref="G156:G184" si="14">I155</f>
         <v>1614584.0160600001</v>
       </c>
       <c r="H156">
@@ -7332,7 +7347,7 @@
         <v>51</v>
       </c>
       <c r="I174">
-        <f t="shared" ref="I174:I191" si="15">G174+H174</f>
+        <f t="shared" ref="I174:I206" si="15">G174+H174</f>
         <v>1618361.0160600001</v>
       </c>
       <c r="J174" t="s">
@@ -7503,7 +7518,7 @@
         <v>67</v>
       </c>
       <c r="K178" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L178" s="4">
         <f t="shared" si="12"/>
@@ -7711,7 +7726,7 @@
         <v>71</v>
       </c>
       <c r="L183" s="4">
-        <f t="shared" ref="L183:L191" si="16">ROUND((I183/$G$31-1)*100, 3)+$L$29</f>
+        <f t="shared" ref="L183:L206" si="16">ROUND((I183/$G$31-1)*100, 3)+$L$29</f>
         <v>-0.67300000000000004</v>
       </c>
     </row>
@@ -7764,7 +7779,7 @@
         <v>45266</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L185" s="4"/>
     </row>
@@ -7779,7 +7794,7 @@
         <v>45267</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -7820,7 +7835,7 @@
         <v>45267</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -7861,7 +7876,7 @@
         <v>45267</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7902,7 +7917,7 @@
         <v>45267</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -7943,7 +7958,7 @@
         <v>45267</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -7984,7 +7999,7 @@
         <v>45267</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -8012,6 +8027,534 @@
       <c r="L191" s="4">
         <f t="shared" si="16"/>
         <v>-0.63199999999999967</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>173</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45267</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>1.07</v>
+      </c>
+      <c r="G192">
+        <f t="shared" ref="G192:G206" si="18">I191</f>
+        <v>1620750.0160600001</v>
+      </c>
+      <c r="H192">
+        <v>60</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="15"/>
+        <v>1620810.0160600001</v>
+      </c>
+      <c r="J192" t="s">
+        <v>67</v>
+      </c>
+      <c r="K192" t="s">
+        <v>71</v>
+      </c>
+      <c r="L192" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.62799999999999967</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>174</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45267</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>1.175</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="18"/>
+        <v>1620810.0160600001</v>
+      </c>
+      <c r="H193">
+        <v>56</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="15"/>
+        <v>1620866.0160600001</v>
+      </c>
+      <c r="J193" t="s">
+        <v>67</v>
+      </c>
+      <c r="K193" t="s">
+        <v>68</v>
+      </c>
+      <c r="L193" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>175</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45267</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="18"/>
+        <v>1620866.0160600001</v>
+      </c>
+      <c r="H194">
+        <v>96</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="15"/>
+        <v>1620962.0160600001</v>
+      </c>
+      <c r="J194" t="s">
+        <v>67</v>
+      </c>
+      <c r="K194" t="s">
+        <v>70</v>
+      </c>
+      <c r="L194" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.61899999999999977</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>176</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45267</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="18"/>
+        <v>1620962.0160600001</v>
+      </c>
+      <c r="H195">
+        <v>150</v>
+      </c>
+      <c r="I195">
+        <f t="shared" si="15"/>
+        <v>1621112.0160600001</v>
+      </c>
+      <c r="J195" t="s">
+        <v>67</v>
+      </c>
+      <c r="K195" t="s">
+        <v>68</v>
+      </c>
+      <c r="L195" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.60999999999999988</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45268</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L196" s="4"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45269</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L197" s="4"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45270</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L198" s="4"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>177</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45271</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G199">
+        <f>I195</f>
+        <v>1621112.0160600001</v>
+      </c>
+      <c r="H199">
+        <v>190</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="15"/>
+        <v>1621302.0160600001</v>
+      </c>
+      <c r="J199" t="s">
+        <v>67</v>
+      </c>
+      <c r="K199" t="s">
+        <v>68</v>
+      </c>
+      <c r="L199" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.59899999999999975</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>178</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45271</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>1.345</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="18"/>
+        <v>1621302.0160600001</v>
+      </c>
+      <c r="H200">
+        <v>345</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="15"/>
+        <v>1621647.0160600001</v>
+      </c>
+      <c r="J200" t="s">
+        <v>67</v>
+      </c>
+      <c r="K200" t="s">
+        <v>135</v>
+      </c>
+      <c r="L200" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.57799999999999985</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>179</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45271</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="18"/>
+        <v>1621647.0160600001</v>
+      </c>
+      <c r="H201">
+        <v>50</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="15"/>
+        <v>1621697.0160600001</v>
+      </c>
+      <c r="J201" t="s">
+        <v>67</v>
+      </c>
+      <c r="K201" t="s">
+        <v>134</v>
+      </c>
+      <c r="L201" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.57499999999999973</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>180</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45271</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1.125</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="18"/>
+        <v>1621697.0160600001</v>
+      </c>
+      <c r="H202">
+        <v>125</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="15"/>
+        <v>1621822.0160600001</v>
+      </c>
+      <c r="J202" t="s">
+        <v>67</v>
+      </c>
+      <c r="K202" t="s">
+        <v>68</v>
+      </c>
+      <c r="L202" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.56799999999999962</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>181</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45271</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>1.155</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="18"/>
+        <v>1621822.0160600001</v>
+      </c>
+      <c r="H203">
+        <v>50</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="15"/>
+        <v>1621872.0160600001</v>
+      </c>
+      <c r="J203" t="s">
+        <v>67</v>
+      </c>
+      <c r="K203" t="s">
+        <v>68</v>
+      </c>
+      <c r="L203" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>182</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45271</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="18"/>
+        <v>1621872.0160600001</v>
+      </c>
+      <c r="H204">
+        <v>-5000</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="15"/>
+        <v>1616872.0160600001</v>
+      </c>
+      <c r="J204" t="s">
+        <v>67</v>
+      </c>
+      <c r="K204" t="s">
+        <v>68</v>
+      </c>
+      <c r="L204" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>183</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45271</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>1.08</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="18"/>
+        <v>1616872.0160600001</v>
+      </c>
+      <c r="H205">
+        <v>-18373</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="15"/>
+        <v>1598499.0160600001</v>
+      </c>
+      <c r="J205" t="s">
+        <v>67</v>
+      </c>
+      <c r="K205" t="s">
+        <v>68</v>
+      </c>
+      <c r="L205" s="4">
+        <f t="shared" si="16"/>
+        <v>-1.96</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>184</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45271</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="18"/>
+        <v>1598499.0160600001</v>
+      </c>
+      <c r="H206">
+        <v>30600</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="15"/>
+        <v>1629099.0160600001</v>
+      </c>
+      <c r="J206" t="s">
+        <v>0</v>
+      </c>
+      <c r="K206" t="s">
+        <v>96</v>
+      </c>
+      <c r="L206" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.13300000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8082,23 +8625,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>458846.84120000002</v>
+        <v>462440</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>54327.6287238</v>
+        <v>54753.06</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>80994.306088800004</v>
+        <v>81628.56</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>32641.2117086</v>
+        <v>32896.82</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>25593.223417199999</v>
+        <v>25793.64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -8127,23 +8670,23 @@
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>1465029.9517144</v>
+        <v>1472386.9473861002</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>55808.001442815599</v>
+        <v>56088.254569777651</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>83201.318688945597</v>
+        <v>83619.133861091395</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>33530.651584113206</v>
+        <v>33699.033710557051</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>26290.612768226398</v>
+        <v>26422.6373211141</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089E3D8A-DBC1-430E-87BF-516824A1E6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1EAD61-5CA2-4F90-8087-EF25FA132E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-18525" yWindow="7305" windowWidth="14400" windowHeight="8280" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="145">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -468,6 +468,33 @@
   </si>
   <si>
     <t>ITT CAP WOMEN</t>
+  </si>
+  <si>
+    <t>2023-12-12</t>
+  </si>
+  <si>
+    <t>2023-12-13</t>
+  </si>
+  <si>
+    <t>DOTA 2 EUROPEAN PRO LEAGUE</t>
+  </si>
+  <si>
+    <t>MASTERS RUSIA</t>
+  </si>
+  <si>
+    <t>ITT CUP WOMEN</t>
+  </si>
+  <si>
+    <t>2023-12-14</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>2023-12-16</t>
+  </si>
+  <si>
+    <t>2023-12-17</t>
   </si>
 </sst>
 </file>
@@ -855,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:L206"/>
+  <dimension ref="A1:L220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="M205" sqref="M205"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7347,7 +7374,7 @@
         <v>51</v>
       </c>
       <c r="I174">
-        <f t="shared" ref="I174:I206" si="15">G174+H174</f>
+        <f t="shared" ref="I174:I220" si="15">G174+H174</f>
         <v>1618361.0160600001</v>
       </c>
       <c r="J174" t="s">
@@ -7726,7 +7753,7 @@
         <v>71</v>
       </c>
       <c r="L183" s="4">
-        <f t="shared" ref="L183:L206" si="16">ROUND((I183/$G$31-1)*100, 3)+$L$29</f>
+        <f t="shared" ref="L183:L220" si="16">ROUND((I183/$G$31-1)*100, 3)+$L$29</f>
         <v>-0.67300000000000004</v>
       </c>
     </row>
@@ -8555,6 +8582,493 @@
       <c r="L206" s="4">
         <f t="shared" si="16"/>
         <v>-0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L207" s="4"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>185</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45273</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>1.08</v>
+      </c>
+      <c r="G208">
+        <f>I206</f>
+        <v>1629099.0160600001</v>
+      </c>
+      <c r="H208">
+        <v>448</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="15"/>
+        <v>1629547.0160600001</v>
+      </c>
+      <c r="J208" t="s">
+        <v>0</v>
+      </c>
+      <c r="K208" t="s">
+        <v>138</v>
+      </c>
+      <c r="L208" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.10599999999999987</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>186</v>
+      </c>
+      <c r="C209" s="2">
+        <v>45273</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>1.175</v>
+      </c>
+      <c r="G209">
+        <f>I208</f>
+        <v>1629547.0160600001</v>
+      </c>
+      <c r="H209">
+        <v>480</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="15"/>
+        <v>1630027.0160600001</v>
+      </c>
+      <c r="J209" t="s">
+        <v>67</v>
+      </c>
+      <c r="K209" t="s">
+        <v>68</v>
+      </c>
+      <c r="L209" s="4">
+        <f t="shared" si="16"/>
+        <v>-7.7999999999999847E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>187</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45273</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G210">
+        <f>I209</f>
+        <v>1630027.0160600001</v>
+      </c>
+      <c r="H210">
+        <v>220</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="15"/>
+        <v>1630247.0160600001</v>
+      </c>
+      <c r="J210" t="s">
+        <v>67</v>
+      </c>
+      <c r="K210" t="s">
+        <v>140</v>
+      </c>
+      <c r="L210" s="4">
+        <f t="shared" si="16"/>
+        <v>-6.3999999999999613E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>188</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45273</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G211">
+        <f t="shared" ref="G211:G217" si="19">I210</f>
+        <v>1630247.0160600001</v>
+      </c>
+      <c r="H211">
+        <v>-4500</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="15"/>
+        <v>1625747.0160600001</v>
+      </c>
+      <c r="J211" t="s">
+        <v>67</v>
+      </c>
+      <c r="K211" t="s">
+        <v>68</v>
+      </c>
+      <c r="L211" s="4">
+        <f t="shared" si="16"/>
+        <v>-0.33299999999999974</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>189</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45273</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="19"/>
+        <v>1625747.0160600001</v>
+      </c>
+      <c r="H212">
+        <v>-22200</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="15"/>
+        <v>1603547.0160600001</v>
+      </c>
+      <c r="J212" t="s">
+        <v>0</v>
+      </c>
+      <c r="K212" t="s">
+        <v>107</v>
+      </c>
+      <c r="L212" s="4">
+        <f t="shared" si="16"/>
+        <v>-1.6589999999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>190</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45273</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>1.45</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="19"/>
+        <v>1603547.0160600001</v>
+      </c>
+      <c r="H213">
+        <v>-9000</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="15"/>
+        <v>1594547.0160600001</v>
+      </c>
+      <c r="J213" t="s">
+        <v>0</v>
+      </c>
+      <c r="K213" t="s">
+        <v>107</v>
+      </c>
+      <c r="L213" s="4">
+        <f t="shared" si="16"/>
+        <v>-2.1959999999999997</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>191</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45273</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>1.115</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="19"/>
+        <v>1594547.0160600001</v>
+      </c>
+      <c r="H214">
+        <v>10350</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="15"/>
+        <v>1604897.0160600001</v>
+      </c>
+      <c r="J214" t="s">
+        <v>0</v>
+      </c>
+      <c r="K214" t="s">
+        <v>138</v>
+      </c>
+      <c r="L214" s="4">
+        <f t="shared" si="16"/>
+        <v>-1.5779999999999994</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>192</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45273</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>1.33</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="19"/>
+        <v>1604897.0160600001</v>
+      </c>
+      <c r="H215">
+        <v>33000</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="15"/>
+        <v>1637897.0160600001</v>
+      </c>
+      <c r="J215" t="s">
+        <v>92</v>
+      </c>
+      <c r="K215" t="s">
+        <v>93</v>
+      </c>
+      <c r="L215" s="4">
+        <f t="shared" si="16"/>
+        <v>0.39200000000000035</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>193</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45273</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>1.105</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="19"/>
+        <v>1637897.0160600001</v>
+      </c>
+      <c r="H216">
+        <v>680</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="15"/>
+        <v>1638577.0160600001</v>
+      </c>
+      <c r="J216" t="s">
+        <v>67</v>
+      </c>
+      <c r="K216" t="s">
+        <v>139</v>
+      </c>
+      <c r="L216" s="4">
+        <f t="shared" si="16"/>
+        <v>0.43300000000000027</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>194</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45274</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="19"/>
+        <v>1638577.0160600001</v>
+      </c>
+      <c r="H217">
+        <v>840</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="15"/>
+        <v>1639417.0160600001</v>
+      </c>
+      <c r="J217" t="s">
+        <v>92</v>
+      </c>
+      <c r="K217" t="s">
+        <v>93</v>
+      </c>
+      <c r="L217" s="4">
+        <f t="shared" si="16"/>
+        <v>0.4830000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="C218" s="2">
+        <v>45275</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L218" s="4"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="C219" s="2">
+        <v>45276</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L219" s="4"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>195</v>
+      </c>
+      <c r="C220" s="2">
+        <v>45277</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G220">
+        <f>I217</f>
+        <v>1639417.0160600001</v>
+      </c>
+      <c r="H220">
+        <v>1050</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="15"/>
+        <v>1640467.0160600001</v>
+      </c>
+      <c r="J220" t="s">
+        <v>92</v>
+      </c>
+      <c r="K220" t="s">
+        <v>93</v>
+      </c>
+      <c r="L220" s="4">
+        <f t="shared" si="16"/>
+        <v>0.54600000000000026</v>
       </c>
     </row>
   </sheetData>
@@ -8670,23 +9184,23 @@
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>1472386.9473861002</v>
+        <v>1482397.7691518001</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>56088.254569777651</v>
+        <v>56469.601009070699</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>83619.133861091395</v>
+        <v>84187.66392499319</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>33699.033710557051</v>
+        <v>33928.154880607901</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>26422.6373211141</v>
+        <v>26602.285961215799</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1EAD61-5CA2-4F90-8087-EF25FA132E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633F020C-DA10-44C9-A21A-7D02B2E5482F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18525" yWindow="7305" windowWidth="14400" windowHeight="8280" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="152">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -152,18 +152,6 @@
     <t>BASE</t>
   </si>
   <si>
-    <t>1U</t>
-  </si>
-  <si>
-    <t>2U</t>
-  </si>
-  <si>
-    <t>3U</t>
-  </si>
-  <si>
-    <t>5U</t>
-  </si>
-  <si>
     <t>IBERIAN CUP</t>
   </si>
   <si>
@@ -495,6 +483,39 @@
   </si>
   <si>
     <t>2023-12-17</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>DAP</t>
+  </si>
+  <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>2023-12-20</t>
+  </si>
+  <si>
+    <t>2023-12-21</t>
+  </si>
+  <si>
+    <t>2023-12-22</t>
+  </si>
+  <si>
+    <t>2023-12-23</t>
+  </si>
+  <si>
+    <t>2023-12-24</t>
+  </si>
+  <si>
+    <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>2023-12-26</t>
   </si>
 </sst>
 </file>
@@ -502,8 +523,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -553,17 +574,17 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -882,33 +903,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:L220"/>
+  <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="N227" sqref="N227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="4.53125" customWidth="1"/>
-    <col min="4" max="4" width="9.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.73046875" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" customWidth="1"/>
-    <col min="8" max="8" width="9.59765625" customWidth="1"/>
+    <col min="1" max="2" width="4.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.06640625" customWidth="1"/>
-    <col min="11" max="11" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" customWidth="1"/>
+    <col min="11" max="11" width="28.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -917,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
@@ -938,7 +959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -949,7 +970,7 @@
         <v>45208</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -975,7 +996,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -986,7 +1007,7 @@
         <v>45209</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1013,7 +1034,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1024,7 +1045,7 @@
         <v>45210</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1051,7 +1072,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1062,7 +1083,7 @@
         <v>45210</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1089,7 +1110,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1100,7 +1121,7 @@
         <v>45210</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1127,7 +1148,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1138,7 +1159,7 @@
         <v>45211</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1165,7 +1186,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1176,7 +1197,7 @@
         <v>45211</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1203,7 +1224,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1214,7 +1235,7 @@
         <v>45212</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1241,7 +1262,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1252,7 +1273,7 @@
         <v>45213</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1279,7 +1300,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1290,7 +1311,7 @@
         <v>45213</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1317,7 +1338,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1328,7 +1349,7 @@
         <v>45213</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1355,7 +1376,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1366,7 +1387,7 @@
         <v>45214</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1393,7 +1414,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1404,7 +1425,7 @@
         <v>45214</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1431,7 +1452,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1442,7 +1463,7 @@
         <v>45214</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1469,7 +1490,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1480,7 +1501,7 @@
         <v>45215</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1507,7 +1528,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1518,7 +1539,7 @@
         <v>45216</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1545,7 +1566,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1556,7 +1577,7 @@
         <v>45217</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1583,7 +1604,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1594,7 +1615,7 @@
         <v>45218</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1621,7 +1642,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1632,7 +1653,7 @@
         <v>45218</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1659,7 +1680,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1670,7 +1691,7 @@
         <v>45218</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1697,7 +1718,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1708,7 +1729,7 @@
         <v>45219</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1735,7 +1756,7 @@
         <v>1.7849999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1746,7 +1767,7 @@
         <v>45219</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1773,7 +1794,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1784,7 +1805,7 @@
         <v>45219</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1811,7 +1832,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1822,7 +1843,7 @@
         <v>45219</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1849,7 +1870,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1860,7 +1881,7 @@
         <v>45220</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1887,7 +1908,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1898,7 +1919,7 @@
         <v>45220</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1925,7 +1946,7 @@
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1936,7 +1957,7 @@
         <v>45221</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1963,7 +1984,7 @@
         <v>2.5379999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1974,7 +1995,7 @@
         <v>45222</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2001,7 +2022,7 @@
         <v>2.5750000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2009,11 +2030,11 @@
         <v>45223</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2024,7 +2045,7 @@
         <v>45224</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2043,14 +2064,14 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" ref="L31:L41" si="3">ROUND((I31/$G$31-1)*100, 3)+$L$29</f>
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2061,7 +2082,7 @@
         <v>45225</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2088,7 +2109,7 @@
         <v>2.6590000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2099,7 +2120,7 @@
         <v>45225</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2126,7 +2147,7 @@
         <v>2.6990000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2137,7 +2158,7 @@
         <v>45226</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2164,7 +2185,7 @@
         <v>2.7510000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2175,7 +2196,7 @@
         <v>45226</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2202,7 +2223,7 @@
         <v>2.8010000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2213,7 +2234,7 @@
         <v>45227</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2240,7 +2261,7 @@
         <v>2.2680000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2251,7 +2272,7 @@
         <v>45227</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2278,7 +2299,7 @@
         <v>2.363</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2289,7 +2310,7 @@
         <v>45228</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2316,7 +2337,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2327,7 +2348,7 @@
         <v>45228</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2354,7 +2375,7 @@
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2365,7 +2386,7 @@
         <v>45228</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2392,7 +2413,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2403,7 +2424,7 @@
         <v>45228</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2430,7 +2451,7 @@
         <v>3.1390000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2438,11 +2459,11 @@
         <v>45229</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2450,11 +2471,11 @@
         <v>45230</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2462,10 +2483,10 @@
         <v>45231</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2476,7 +2497,7 @@
         <v>45232</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2496,14 +2517,14 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" ref="L45:L65" si="6">ROUND((I45/$G$31-1)*100, 3)+$L$29</f>
         <v>3.1539999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2514,7 +2535,7 @@
         <v>45233</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2541,7 +2562,7 @@
         <v>2.0860000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2552,7 +2573,7 @@
         <v>45233</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2579,7 +2600,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2590,7 +2611,7 @@
         <v>45233</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2610,14 +2631,14 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" si="6"/>
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2628,7 +2649,7 @@
         <v>45234</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2655,7 +2676,7 @@
         <v>3.0700000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2666,7 +2687,7 @@
         <v>45235</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2693,7 +2714,7 @@
         <v>2.1140000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2704,7 +2725,7 @@
         <v>45235</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2731,7 +2752,7 @@
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2742,7 +2763,7 @@
         <v>45235</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2769,7 +2790,7 @@
         <v>1.649</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2780,7 +2801,7 @@
         <v>45236</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2807,7 +2828,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2818,7 +2839,7 @@
         <v>45236</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2845,7 +2866,7 @@
         <v>-0.79999999999999982</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2856,7 +2877,7 @@
         <v>45236</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2876,17 +2897,17 @@
         <v>1618182.0160600001</v>
       </c>
       <c r="J55" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L55" s="4">
         <f t="shared" si="6"/>
         <v>-0.7849999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2897,7 +2918,7 @@
         <v>45236</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2927,7 +2948,7 @@
         <v>-0.83599999999999985</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2938,7 +2959,7 @@
         <v>45236</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2958,17 +2979,17 @@
         <v>1619528.0160600001</v>
       </c>
       <c r="J57" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L57" s="4">
         <f t="shared" si="6"/>
         <v>-0.70499999999999963</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2979,7 +3000,7 @@
         <v>45236</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2999,17 +3020,17 @@
         <v>1620320.0160600001</v>
       </c>
       <c r="J58" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K58" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L58" s="4">
         <f t="shared" si="6"/>
         <v>-0.65700000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3020,7 +3041,7 @@
         <v>45236</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3040,17 +3061,17 @@
         <v>1621085.0160600001</v>
       </c>
       <c r="J59" t="s">
+        <v>63</v>
+      </c>
+      <c r="K59" t="s">
         <v>67</v>
-      </c>
-      <c r="K59" t="s">
-        <v>71</v>
       </c>
       <c r="L59" s="4">
         <f t="shared" si="6"/>
         <v>-0.61199999999999966</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3061,7 +3082,7 @@
         <v>45236</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3081,17 +3102,17 @@
         <v>1622053.0160600001</v>
       </c>
       <c r="J60" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K60" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L60" s="4">
         <f t="shared" si="6"/>
         <v>-0.55399999999999983</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3102,7 +3123,7 @@
         <v>45236</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3122,17 +3143,17 @@
         <v>1622603.0160600001</v>
       </c>
       <c r="J61" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K61" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L61" s="4">
         <f t="shared" si="6"/>
         <v>-0.52099999999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3143,7 +3164,7 @@
         <v>45236</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3163,17 +3184,17 @@
         <v>1623323.0160600001</v>
       </c>
       <c r="J62" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K62" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L62" s="4">
         <f t="shared" si="6"/>
         <v>-0.47799999999999976</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3184,7 +3205,7 @@
         <v>45236</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3204,17 +3225,17 @@
         <v>1624043.0160600001</v>
       </c>
       <c r="J63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K63" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L63" s="4">
         <f t="shared" si="6"/>
         <v>-0.43499999999999961</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3225,7 +3246,7 @@
         <v>45236</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3245,17 +3266,17 @@
         <v>1625933.0160600001</v>
       </c>
       <c r="J64" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K64" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L64" s="4">
         <f t="shared" si="6"/>
         <v>-0.32199999999999962</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3266,7 +3287,7 @@
         <v>45236</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3286,17 +3307,17 @@
         <v>1626878.0160600001</v>
       </c>
       <c r="J65" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K65" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L65" s="4">
         <f t="shared" si="6"/>
         <v>-0.26600000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3304,11 +3325,11 @@
         <v>45237</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3319,7 +3340,7 @@
         <v>45238</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -3339,17 +3360,17 @@
         <v>1627158.0160600001</v>
       </c>
       <c r="J67" t="s">
+        <v>63</v>
+      </c>
+      <c r="K67" t="s">
         <v>67</v>
-      </c>
-      <c r="K67" t="s">
-        <v>71</v>
       </c>
       <c r="L67" s="4">
         <f t="shared" ref="L67:L98" si="8">ROUND((I67/$G$31-1)*100, 3)+$L$29</f>
         <v>-0.24899999999999967</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3360,7 +3381,7 @@
         <v>45238</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -3380,17 +3401,17 @@
         <v>1627473.0160600001</v>
       </c>
       <c r="J68" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K68" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L68" s="4">
         <f t="shared" si="8"/>
         <v>-0.22999999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3401,7 +3422,7 @@
         <v>45238</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3421,17 +3442,17 @@
         <v>1622473.0160600001</v>
       </c>
       <c r="J69" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K69" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L69" s="4">
         <f t="shared" si="8"/>
         <v>-0.52899999999999991</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3442,7 +3463,7 @@
         <v>45238</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3462,17 +3483,17 @@
         <v>1622923.0160600001</v>
       </c>
       <c r="J70" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K70" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L70" s="4">
         <f t="shared" si="8"/>
         <v>-0.50199999999999978</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3483,7 +3504,7 @@
         <v>45238</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3503,17 +3524,17 @@
         <v>1624623.0160600001</v>
       </c>
       <c r="J71" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K71" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L71" s="4">
         <f t="shared" si="8"/>
         <v>-0.39999999999999991</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3524,7 +3545,7 @@
         <v>45238</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3544,17 +3565,17 @@
         <v>1625583.0160600001</v>
       </c>
       <c r="J72" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K72" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="L72" s="4">
         <f t="shared" si="8"/>
         <v>-0.34299999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3565,7 +3586,7 @@
         <v>45238</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3585,17 +3606,17 @@
         <v>1606583.0160600001</v>
       </c>
       <c r="J73" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K73" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L73" s="4">
         <f t="shared" si="8"/>
         <v>-1.4779999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3606,7 +3627,7 @@
         <v>45238</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3626,17 +3647,17 @@
         <v>1608083.0160600001</v>
       </c>
       <c r="J74" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K74" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L74" s="4">
         <f t="shared" si="8"/>
         <v>-1.3879999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3647,7 +3668,7 @@
         <v>45238</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3667,17 +3688,17 @@
         <v>1603083.0160600001</v>
       </c>
       <c r="J75" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K75" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L75" s="4">
         <f t="shared" si="8"/>
         <v>-1.6869999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3688,7 +3709,7 @@
         <v>45238</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3708,17 +3729,17 @@
         <v>1603183.0160600001</v>
       </c>
       <c r="J76" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K76" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L76" s="4">
         <f t="shared" si="8"/>
         <v>-1.681</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3729,7 +3750,7 @@
         <v>45238</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3749,17 +3770,17 @@
         <v>1603540.0160600001</v>
       </c>
       <c r="J77" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K77" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L77" s="4">
         <f t="shared" si="8"/>
         <v>-1.6589999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3770,7 +3791,7 @@
         <v>45238</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3790,17 +3811,17 @@
         <v>1604690.0160600001</v>
       </c>
       <c r="J78" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K78" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L78" s="4">
         <f t="shared" si="8"/>
         <v>-1.5910000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3811,7 +3832,7 @@
         <v>45238</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3831,17 +3852,17 @@
         <v>1602690.0160600001</v>
       </c>
       <c r="J79" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K79" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L79" s="4">
         <f t="shared" si="8"/>
         <v>-1.71</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3852,7 +3873,7 @@
         <v>45238</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3872,17 +3893,17 @@
         <v>1603350.0160600001</v>
       </c>
       <c r="J80" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K80" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L80" s="4">
         <f t="shared" si="8"/>
         <v>-1.6710000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3893,7 +3914,7 @@
         <v>45238</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3913,17 +3934,17 @@
         <v>1603638.0160600001</v>
       </c>
       <c r="J81" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K81" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L81" s="4">
         <f t="shared" si="8"/>
         <v>-1.6539999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3934,7 +3955,7 @@
         <v>45238</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3954,17 +3975,17 @@
         <v>1603752.0160600001</v>
       </c>
       <c r="J82" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K82" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L82" s="4">
         <f t="shared" si="8"/>
         <v>-1.6470000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3975,7 +3996,7 @@
         <v>45238</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3995,17 +4016,17 @@
         <v>1603796.0160600001</v>
       </c>
       <c r="J83" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K83" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L83" s="4">
         <f t="shared" si="8"/>
         <v>-1.6440000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4016,7 +4037,7 @@
         <v>45238</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4036,17 +4057,17 @@
         <v>1604116.0160600001</v>
       </c>
       <c r="J84" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K84" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L84" s="4">
         <f t="shared" si="8"/>
         <v>-1.625</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4057,7 +4078,7 @@
         <v>45238</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4077,17 +4098,17 @@
         <v>1604391.0160600001</v>
       </c>
       <c r="J85" t="s">
+        <v>63</v>
+      </c>
+      <c r="K85" t="s">
         <v>67</v>
-      </c>
-      <c r="K85" t="s">
-        <v>71</v>
       </c>
       <c r="L85" s="4">
         <f t="shared" si="8"/>
         <v>-1.609</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4098,7 +4119,7 @@
         <v>45239</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4118,17 +4139,17 @@
         <v>1604731.0160600001</v>
       </c>
       <c r="J86" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K86" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L86" s="4">
         <f t="shared" si="8"/>
         <v>-1.5880000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4139,7 +4160,7 @@
         <v>45240</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -4159,17 +4180,17 @@
         <v>1603910.0160600001</v>
       </c>
       <c r="J87" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K87" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L87" s="4">
         <f t="shared" si="8"/>
         <v>-1.6369999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4180,7 +4201,7 @@
         <v>45240</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4200,17 +4221,17 @@
         <v>1604162.0160600001</v>
       </c>
       <c r="J88" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K88" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L88" s="4">
         <f t="shared" si="8"/>
         <v>-1.6219999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4221,7 +4242,7 @@
         <v>45240</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4241,17 +4262,17 @@
         <v>1604458.0160600001</v>
       </c>
       <c r="J89" t="s">
+        <v>63</v>
+      </c>
+      <c r="K89" t="s">
         <v>67</v>
-      </c>
-      <c r="K89" t="s">
-        <v>71</v>
       </c>
       <c r="L89" s="4">
         <f t="shared" si="8"/>
         <v>-1.6049999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4262,7 +4283,7 @@
         <v>45240</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4282,17 +4303,17 @@
         <v>1605568.0160600001</v>
       </c>
       <c r="J90" t="s">
+        <v>63</v>
+      </c>
+      <c r="K90" t="s">
         <v>67</v>
-      </c>
-      <c r="K90" t="s">
-        <v>71</v>
       </c>
       <c r="L90" s="4">
         <f t="shared" si="8"/>
         <v>-1.5380000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4303,7 +4324,7 @@
         <v>45240</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4323,17 +4344,17 @@
         <v>1605708.0160600001</v>
       </c>
       <c r="J91" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K91" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L91" s="4">
         <f t="shared" si="8"/>
         <v>-1.5300000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4344,7 +4365,7 @@
         <v>45240</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4364,17 +4385,17 @@
         <v>1605878.0160600001</v>
       </c>
       <c r="J92" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K92" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L92" s="4">
         <f t="shared" si="8"/>
         <v>-1.5199999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4385,7 +4406,7 @@
         <v>45240</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -4405,17 +4426,17 @@
         <v>1606188.0160600001</v>
       </c>
       <c r="J93" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K93" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L93" s="4">
         <f t="shared" si="8"/>
         <v>-1.5009999999999994</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4426,7 +4447,7 @@
         <v>45240</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -4446,17 +4467,17 @@
         <v>1605188.0160600001</v>
       </c>
       <c r="J94" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K94" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L94" s="4">
         <f t="shared" si="8"/>
         <v>-1.5609999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4467,7 +4488,7 @@
         <v>45240</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4487,17 +4508,17 @@
         <v>1600188.0160600001</v>
       </c>
       <c r="J95" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K95" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L95" s="4">
         <f t="shared" si="8"/>
         <v>-1.8599999999999994</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4508,7 +4529,7 @@
         <v>45240</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -4528,17 +4549,17 @@
         <v>1601288.0160600001</v>
       </c>
       <c r="J96" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K96" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L96" s="4">
         <f t="shared" si="8"/>
         <v>-1.7939999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4549,7 +4570,7 @@
         <v>45240</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -4569,17 +4590,17 @@
         <v>1602108.0160600001</v>
       </c>
       <c r="J97" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K97" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L97" s="4">
         <f t="shared" si="8"/>
         <v>-1.7450000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4590,7 +4611,7 @@
         <v>45240</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -4610,17 +4631,17 @@
         <v>1602684.0160600001</v>
       </c>
       <c r="J98" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K98" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L98" s="4">
         <f t="shared" si="8"/>
         <v>-1.7109999999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4631,7 +4652,7 @@
         <v>45240</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -4651,17 +4672,17 @@
         <v>1603024.0160600001</v>
       </c>
       <c r="J99" t="s">
+        <v>63</v>
+      </c>
+      <c r="K99" t="s">
         <v>67</v>
-      </c>
-      <c r="K99" t="s">
-        <v>71</v>
       </c>
       <c r="L99" s="4">
         <f t="shared" ref="L99:L117" si="9">ROUND((I99/$G$31-1)*100, 3)+$L$29</f>
         <v>-1.6899999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4672,7 +4693,7 @@
         <v>45240</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -4692,17 +4713,17 @@
         <v>1603474.0160600001</v>
       </c>
       <c r="J100" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K100" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L100" s="4">
         <f t="shared" si="9"/>
         <v>-1.6630000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4713,7 +4734,7 @@
         <v>45240</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -4733,17 +4754,17 @@
         <v>1603734.0160600001</v>
       </c>
       <c r="J101" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K101" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L101" s="4">
         <f t="shared" si="9"/>
         <v>-1.6479999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4754,7 +4775,7 @@
         <v>45240</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -4774,17 +4795,17 @@
         <v>1603764.0160600001</v>
       </c>
       <c r="J102" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K102" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L102" s="4">
         <f t="shared" si="9"/>
         <v>-1.6459999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4795,7 +4816,7 @@
         <v>45240</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -4815,17 +4836,17 @@
         <v>1604036.0160600001</v>
       </c>
       <c r="J103" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K103" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L103" s="4">
         <f t="shared" si="9"/>
         <v>-1.63</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4836,7 +4857,7 @@
         <v>45240</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -4856,17 +4877,17 @@
         <v>1604397.0160600001</v>
       </c>
       <c r="J104" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K104" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L104" s="4">
         <f t="shared" si="9"/>
         <v>-1.6079999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4877,7 +4898,7 @@
         <v>45240</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -4897,17 +4918,17 @@
         <v>1604590.0160600001</v>
       </c>
       <c r="J105" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K105" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L105" s="4">
         <f t="shared" si="9"/>
         <v>-1.5969999999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4918,7 +4939,7 @@
         <v>45240</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -4938,17 +4959,17 @@
         <v>1604686.0160600001</v>
       </c>
       <c r="J106" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K106" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L106" s="4">
         <f t="shared" si="9"/>
         <v>-1.5910000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4959,7 +4980,7 @@
         <v>45240</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -4979,17 +5000,17 @@
         <v>1604701.0160600001</v>
       </c>
       <c r="J107" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K107" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L107" s="4">
         <f t="shared" si="9"/>
         <v>-1.5899999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5000,7 +5021,7 @@
         <v>45240</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5020,17 +5041,17 @@
         <v>1604885.0160600001</v>
       </c>
       <c r="J108" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K108" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L108" s="4">
         <f t="shared" si="9"/>
         <v>-1.5789999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5041,7 +5062,7 @@
         <v>45240</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -5061,17 +5082,17 @@
         <v>1603885.0160600001</v>
       </c>
       <c r="J109" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K109" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L109" s="4">
         <f t="shared" si="9"/>
         <v>-1.6390000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5082,7 +5103,7 @@
         <v>45241</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5112,7 +5133,7 @@
         <v>-1.569</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5123,7 +5144,7 @@
         <v>45242</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5143,17 +5164,17 @@
         <v>1604658.0160600001</v>
       </c>
       <c r="J111" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K111" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L111" s="4">
         <f t="shared" si="9"/>
         <v>-1.593</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5164,7 +5185,7 @@
         <v>45242</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5184,17 +5205,17 @@
         <v>1604748.0160600001</v>
       </c>
       <c r="J112" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K112" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L112" s="4">
         <f t="shared" si="9"/>
         <v>-1.5869999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5205,7 +5226,7 @@
         <v>45242</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5225,17 +5246,17 @@
         <v>1605198.0160600001</v>
       </c>
       <c r="J113" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K113" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L113" s="4">
         <f t="shared" si="9"/>
         <v>-1.5599999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5246,7 +5267,7 @@
         <v>45243</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5266,17 +5287,17 @@
         <v>1605268.0160600001</v>
       </c>
       <c r="J114" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K114" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L114" s="4">
         <f t="shared" si="9"/>
         <v>-1.556</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5287,7 +5308,7 @@
         <v>45243</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5307,17 +5328,17 @@
         <v>1605363.0160600001</v>
       </c>
       <c r="J115" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K115" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L115" s="4">
         <f t="shared" si="9"/>
         <v>-1.5510000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5328,7 +5349,7 @@
         <v>45243</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5348,17 +5369,17 @@
         <v>1605455.0160600001</v>
       </c>
       <c r="J116" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K116" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L116" s="4">
         <f t="shared" si="9"/>
         <v>-1.5449999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5369,7 +5390,7 @@
         <v>45243</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -5389,17 +5410,17 @@
         <v>1604855.0160600001</v>
       </c>
       <c r="J117" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L117" s="4">
         <f t="shared" si="9"/>
         <v>-1.5809999999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5410,7 +5431,7 @@
         <v>45243</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -5430,17 +5451,17 @@
         <v>1604455.0160600001</v>
       </c>
       <c r="J118" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K118" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L118" s="4">
         <f t="shared" ref="L118:L182" si="12">ROUND((I118/$G$31-1)*100, 3)+$L$29</f>
         <v>-1.6049999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5451,7 +5472,7 @@
         <v>45243</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5471,17 +5492,17 @@
         <v>1604555.0160600001</v>
       </c>
       <c r="J119" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K119" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L119" s="4">
         <f t="shared" si="12"/>
         <v>-1.5990000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5492,7 +5513,7 @@
         <v>45243</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -5515,14 +5536,14 @@
         <v>0</v>
       </c>
       <c r="K120" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L120" s="4">
         <f t="shared" si="12"/>
         <v>-1.5979999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5533,7 +5554,7 @@
         <v>45243</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -5556,14 +5577,14 @@
         <v>0</v>
       </c>
       <c r="K121" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L121" s="4">
         <f t="shared" si="12"/>
         <v>-1.6269999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5574,7 +5595,7 @@
         <v>45243</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -5594,17 +5615,17 @@
         <v>1604435.0160600001</v>
       </c>
       <c r="J122" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K122" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L122" s="4">
         <f t="shared" si="12"/>
         <v>-1.6059999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5615,7 +5636,7 @@
         <v>45243</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -5635,17 +5656,17 @@
         <v>1604535.0160600001</v>
       </c>
       <c r="J123" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K123" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L123" s="4">
         <f t="shared" si="12"/>
         <v>-1.5999999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5656,7 +5677,7 @@
         <v>45243</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -5676,17 +5697,17 @@
         <v>1604035.0160600001</v>
       </c>
       <c r="J124" t="s">
+        <v>63</v>
+      </c>
+      <c r="K124" t="s">
         <v>67</v>
-      </c>
-      <c r="K124" t="s">
-        <v>71</v>
       </c>
       <c r="L124" s="4">
         <f t="shared" si="12"/>
         <v>-1.63</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5697,7 +5718,7 @@
         <v>45243</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -5717,17 +5738,17 @@
         <v>1604630.0160600001</v>
       </c>
       <c r="J125" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K125" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L125" s="4">
         <f t="shared" si="12"/>
         <v>-1.5939999999999994</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5738,7 +5759,7 @@
         <v>45243</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -5758,17 +5779,17 @@
         <v>1597364.0160600001</v>
       </c>
       <c r="J126" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K126" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L126" s="4">
         <f t="shared" si="12"/>
         <v>-2.0279999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5779,7 +5800,7 @@
         <v>45243</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -5799,17 +5820,17 @@
         <v>1597442.0160600001</v>
       </c>
       <c r="J127" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K127" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L127" s="4">
         <f t="shared" si="12"/>
         <v>-2.024</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5820,7 +5841,7 @@
         <v>45243</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -5840,17 +5861,17 @@
         <v>1597492.0160600001</v>
       </c>
       <c r="J128" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K128" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L128" s="4">
         <f t="shared" si="12"/>
         <v>-2.0209999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5861,7 +5882,7 @@
         <v>45243</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -5881,17 +5902,17 @@
         <v>1597769.0160600001</v>
       </c>
       <c r="J129" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K129" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L129" s="4">
         <f t="shared" si="12"/>
         <v>-2.0039999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5902,7 +5923,7 @@
         <v>45243</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -5922,17 +5943,17 @@
         <v>1597868.0160600001</v>
       </c>
       <c r="J130" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K130" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L130" s="4">
         <f t="shared" si="12"/>
         <v>-1.9980000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5943,7 +5964,7 @@
         <v>45243</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -5963,17 +5984,17 @@
         <v>1598108.0160600001</v>
       </c>
       <c r="J131" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K131" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L131" s="4">
         <f t="shared" si="12"/>
         <v>-1.984</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5981,11 +6002,11 @@
         <v>45244</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5996,7 +6017,7 @@
         <v>45245</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6016,17 +6037,17 @@
         <v>1598118.0160600001</v>
       </c>
       <c r="J133" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K133" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L133" s="4">
         <f t="shared" si="12"/>
         <v>-1.9829999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6037,7 +6058,7 @@
         <v>45245</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6060,14 +6081,14 @@
         <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L134" s="4">
         <f t="shared" si="12"/>
         <v>-1.9289999999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6078,7 +6099,7 @@
         <v>45245</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6098,17 +6119,17 @@
         <v>1599089.0160600001</v>
       </c>
       <c r="J135" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K135" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L135" s="4">
         <f t="shared" si="12"/>
         <v>-1.9249999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6119,7 +6140,7 @@
         <v>45245</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6139,17 +6160,17 @@
         <v>1599229.0160600001</v>
       </c>
       <c r="J136" t="s">
+        <v>63</v>
+      </c>
+      <c r="K136" t="s">
         <v>67</v>
-      </c>
-      <c r="K136" t="s">
-        <v>71</v>
       </c>
       <c r="L136" s="4">
         <f t="shared" si="12"/>
         <v>-1.9169999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6160,7 +6181,7 @@
         <v>45245</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6180,17 +6201,17 @@
         <v>1599339.0160600001</v>
       </c>
       <c r="J137" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K137" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L137" s="4">
         <f t="shared" si="12"/>
         <v>-1.9100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6201,7 +6222,7 @@
         <v>45245</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6221,17 +6242,17 @@
         <v>1599344.0160600001</v>
       </c>
       <c r="J138" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K138" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L138" s="4">
         <f t="shared" si="12"/>
         <v>-1.9100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6242,7 +6263,7 @@
         <v>45245</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6265,14 +6286,14 @@
         <v>0</v>
       </c>
       <c r="K139" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L139" s="4">
         <f t="shared" si="12"/>
         <v>-1.8999999999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6283,7 +6304,7 @@
         <v>45245</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6306,14 +6327,14 @@
         <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L140" s="4">
         <f t="shared" si="12"/>
         <v>-1.8780000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6321,11 +6342,11 @@
         <v>45246</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6336,7 +6357,7 @@
         <v>45247</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6356,17 +6377,17 @@
         <v>1599942.0160600001</v>
       </c>
       <c r="J142" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K142" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L142" s="4">
         <f t="shared" si="12"/>
         <v>-1.8739999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6377,7 +6398,7 @@
         <v>45247</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6397,17 +6418,17 @@
         <v>1599982.0160600001</v>
       </c>
       <c r="J143" t="s">
+        <v>63</v>
+      </c>
+      <c r="K143" t="s">
         <v>67</v>
-      </c>
-      <c r="K143" t="s">
-        <v>71</v>
       </c>
       <c r="L143" s="4">
         <f t="shared" si="12"/>
         <v>-1.8719999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6418,7 +6439,7 @@
         <v>45247</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6441,14 +6462,14 @@
         <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L144" s="4">
         <f t="shared" si="12"/>
         <v>-1.8709999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6459,7 +6480,7 @@
         <v>45247</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6482,14 +6503,14 @@
         <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L145" s="4">
         <f t="shared" si="12"/>
         <v>-1.867</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6500,7 +6521,7 @@
         <v>45247</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6523,14 +6544,14 @@
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L146" s="4">
         <f t="shared" si="12"/>
         <v>-1.8639999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6541,7 +6562,7 @@
         <v>45247</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -6564,14 +6585,14 @@
         <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L147" s="4">
         <f t="shared" si="12"/>
         <v>-1.9130000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6582,7 +6603,7 @@
         <v>45247</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -6605,14 +6626,14 @@
         <v>0</v>
       </c>
       <c r="K148" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L148" s="4">
         <f t="shared" si="12"/>
         <v>-1.9249999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6623,7 +6644,7 @@
         <v>45248</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -6643,17 +6664,17 @@
         <v>1599889.0160600001</v>
       </c>
       <c r="J149" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K149" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L149" s="4">
         <f t="shared" si="12"/>
         <v>-1.8769999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6664,7 +6685,7 @@
         <v>45249</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -6694,7 +6715,7 @@
         <v>-1.0499999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6702,11 +6723,11 @@
         <v>45250</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L151" s="4"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6717,7 +6738,7 @@
         <v>45251</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -6747,7 +6768,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6755,11 +6776,11 @@
         <v>45252</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L153" s="4"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6767,11 +6788,11 @@
         <v>45253</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L154" s="4"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6782,7 +6803,7 @@
         <v>45254</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -6805,14 +6826,14 @@
         <v>0</v>
       </c>
       <c r="K155" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L155" s="4">
         <f t="shared" si="12"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6823,7 +6844,7 @@
         <v>45254</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -6846,14 +6867,14 @@
         <v>0</v>
       </c>
       <c r="K156" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L156" s="4">
         <f t="shared" si="12"/>
         <v>-0.98499999999999988</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6861,11 +6882,11 @@
         <v>45255</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L157" s="4"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6876,7 +6897,7 @@
         <v>45256</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -6896,17 +6917,17 @@
         <v>1615714.0160600001</v>
       </c>
       <c r="J158" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K158" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L158" s="4">
         <f t="shared" si="12"/>
         <v>-0.93199999999999994</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6914,11 +6935,11 @@
         <v>45257</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6926,11 +6947,11 @@
         <v>45258</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L160" s="4"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6941,7 +6962,7 @@
         <v>45259</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -6961,17 +6982,17 @@
         <v>1615894.0160600001</v>
       </c>
       <c r="J161" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K161" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L161" s="4">
         <f t="shared" si="12"/>
         <v>-0.92199999999999971</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6982,7 +7003,7 @@
         <v>45259</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7002,17 +7023,17 @@
         <v>1616389.0160600001</v>
       </c>
       <c r="J162" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K162" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L162" s="4">
         <f t="shared" si="12"/>
         <v>-0.8919999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7020,11 +7041,11 @@
         <v>45260</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7032,11 +7053,11 @@
         <v>45261</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L164" s="4"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7044,11 +7065,11 @@
         <v>45262</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L165" s="4"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7056,11 +7077,11 @@
         <v>45263</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7071,7 +7092,7 @@
         <v>45264</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -7094,14 +7115,14 @@
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L167" s="4">
         <f t="shared" si="12"/>
         <v>-1.0049999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7112,7 +7133,7 @@
         <v>45264</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7132,17 +7153,17 @@
         <v>1615302.0160600001</v>
       </c>
       <c r="J168" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K168" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L168" s="4">
         <f t="shared" si="12"/>
         <v>-0.95699999999999985</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7153,7 +7174,7 @@
         <v>45264</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7173,17 +7194,17 @@
         <v>1615599.0160600001</v>
       </c>
       <c r="J169" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K169" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L169" s="4">
         <f t="shared" si="12"/>
         <v>-0.93899999999999961</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7194,7 +7215,7 @@
         <v>45264</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -7217,14 +7238,14 @@
         <v>0</v>
       </c>
       <c r="K170" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L170" s="4">
         <f t="shared" si="12"/>
         <v>-1.3029999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7235,7 +7256,7 @@
         <v>45264</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -7258,14 +7279,14 @@
         <v>0</v>
       </c>
       <c r="K171" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L171" s="4">
         <f t="shared" si="12"/>
         <v>-0.88499999999999979</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7276,7 +7297,7 @@
         <v>45264</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -7296,17 +7317,17 @@
         <v>1618222.0160600001</v>
       </c>
       <c r="J172" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K172" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L172" s="4">
         <f t="shared" si="12"/>
         <v>-0.78299999999999992</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7317,7 +7338,7 @@
         <v>45264</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -7337,17 +7358,17 @@
         <v>1618310.0160600001</v>
       </c>
       <c r="J173" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K173" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L173" s="4">
         <f t="shared" si="12"/>
         <v>-0.77699999999999969</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7358,7 +7379,7 @@
         <v>45264</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -7374,21 +7395,21 @@
         <v>51</v>
       </c>
       <c r="I174">
-        <f t="shared" ref="I174:I220" si="15">G174+H174</f>
+        <f t="shared" ref="I174:I230" si="15">G174+H174</f>
         <v>1618361.0160600001</v>
       </c>
       <c r="J174" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K174" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L174" s="4">
         <f t="shared" si="12"/>
         <v>-0.77400000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7399,7 +7420,7 @@
         <v>45265</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -7419,17 +7440,17 @@
         <v>1618633.0160600001</v>
       </c>
       <c r="J175" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K175" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L175" s="4">
         <f t="shared" si="12"/>
         <v>-0.75800000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7440,7 +7461,7 @@
         <v>45265</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -7460,17 +7481,17 @@
         <v>1618712.0160600001</v>
       </c>
       <c r="J176" t="s">
+        <v>63</v>
+      </c>
+      <c r="K176" t="s">
         <v>67</v>
-      </c>
-      <c r="K176" t="s">
-        <v>71</v>
       </c>
       <c r="L176" s="4">
         <f t="shared" si="12"/>
         <v>-0.75299999999999967</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7481,7 +7502,7 @@
         <v>45265</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -7501,17 +7522,17 @@
         <v>1618012.0160600001</v>
       </c>
       <c r="J177" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K177" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L177" s="4">
         <f t="shared" si="12"/>
         <v>-0.79499999999999993</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7522,7 +7543,7 @@
         <v>45265</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -7542,17 +7563,17 @@
         <v>1619162.0160600001</v>
       </c>
       <c r="J178" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K178" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L178" s="4">
         <f t="shared" si="12"/>
         <v>-0.72599999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7563,7 +7584,7 @@
         <v>45265</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -7583,17 +7604,17 @@
         <v>1619211.0160600001</v>
       </c>
       <c r="J179" t="s">
+        <v>63</v>
+      </c>
+      <c r="K179" t="s">
         <v>67</v>
-      </c>
-      <c r="K179" t="s">
-        <v>71</v>
       </c>
       <c r="L179" s="4">
         <f t="shared" si="12"/>
         <v>-0.72399999999999975</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7604,7 +7625,7 @@
         <v>45265</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -7624,17 +7645,17 @@
         <v>1619551.0160600001</v>
       </c>
       <c r="J180" t="s">
+        <v>63</v>
+      </c>
+      <c r="K180" t="s">
         <v>67</v>
-      </c>
-      <c r="K180" t="s">
-        <v>71</v>
       </c>
       <c r="L180" s="4">
         <f t="shared" si="12"/>
         <v>-0.70299999999999985</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7645,7 +7666,7 @@
         <v>45265</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -7668,14 +7689,14 @@
         <v>0</v>
       </c>
       <c r="K181" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L181" s="4">
         <f t="shared" si="12"/>
         <v>-0.6769999999999996</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7686,7 +7707,7 @@
         <v>45265</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -7706,17 +7727,17 @@
         <v>1620015.0160600001</v>
       </c>
       <c r="J182" t="s">
+        <v>63</v>
+      </c>
+      <c r="K182" t="s">
         <v>67</v>
-      </c>
-      <c r="K182" t="s">
-        <v>71</v>
       </c>
       <c r="L182" s="4">
         <f t="shared" si="12"/>
         <v>-0.67599999999999971</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7727,7 +7748,7 @@
         <v>45265</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -7747,17 +7768,17 @@
         <v>1620051.0160600001</v>
       </c>
       <c r="J183" t="s">
+        <v>63</v>
+      </c>
+      <c r="K183" t="s">
         <v>67</v>
       </c>
-      <c r="K183" t="s">
-        <v>71</v>
-      </c>
       <c r="L183" s="4">
-        <f t="shared" ref="L183:L220" si="16">ROUND((I183/$G$31-1)*100, 3)+$L$29</f>
+        <f t="shared" ref="L183:L230" si="16">ROUND((I183/$G$31-1)*100, 3)+$L$29</f>
         <v>-0.67300000000000004</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7768,7 +7789,7 @@
         <v>45265</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -7788,17 +7809,17 @@
         <v>1620089.0160600001</v>
       </c>
       <c r="J184" t="s">
+        <v>63</v>
+      </c>
+      <c r="K184" t="s">
         <v>67</v>
-      </c>
-      <c r="K184" t="s">
-        <v>71</v>
       </c>
       <c r="L184" s="4">
         <f t="shared" si="16"/>
         <v>-0.67099999999999982</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7806,11 +7827,11 @@
         <v>45266</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L185" s="4"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7821,7 +7842,7 @@
         <v>45267</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -7841,17 +7862,17 @@
         <v>1620165.0160600001</v>
       </c>
       <c r="J186" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K186" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L186" s="4">
         <f t="shared" si="16"/>
         <v>-0.66699999999999982</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7862,7 +7883,7 @@
         <v>45267</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -7882,17 +7903,17 @@
         <v>1620400.0160600001</v>
       </c>
       <c r="J187" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K187" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L187" s="4">
         <f t="shared" si="16"/>
         <v>-0.65300000000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7903,7 +7924,7 @@
         <v>45267</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7923,17 +7944,17 @@
         <v>1620456.0160600001</v>
       </c>
       <c r="J188" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K188" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L188" s="4">
         <f t="shared" si="16"/>
         <v>-0.64900000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7944,7 +7965,7 @@
         <v>45267</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -7964,17 +7985,17 @@
         <v>1620470.0160600001</v>
       </c>
       <c r="J189" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K189" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L189" s="4">
         <f t="shared" si="16"/>
         <v>-0.64799999999999969</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -7985,7 +8006,7 @@
         <v>45267</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -8005,17 +8026,17 @@
         <v>1620595.0160600001</v>
       </c>
       <c r="J190" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K190" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L190" s="4">
         <f t="shared" si="16"/>
         <v>-0.64100000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8026,7 +8047,7 @@
         <v>45267</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -8046,17 +8067,17 @@
         <v>1620750.0160600001</v>
       </c>
       <c r="J191" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K191" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L191" s="4">
         <f t="shared" si="16"/>
         <v>-0.63199999999999967</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8067,7 +8088,7 @@
         <v>45267</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E192">
         <v>1</v>
@@ -8087,17 +8108,17 @@
         <v>1620810.0160600001</v>
       </c>
       <c r="J192" t="s">
+        <v>63</v>
+      </c>
+      <c r="K192" t="s">
         <v>67</v>
-      </c>
-      <c r="K192" t="s">
-        <v>71</v>
       </c>
       <c r="L192" s="4">
         <f t="shared" si="16"/>
         <v>-0.62799999999999967</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8108,7 +8129,7 @@
         <v>45267</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -8128,17 +8149,17 @@
         <v>1620866.0160600001</v>
       </c>
       <c r="J193" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K193" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L193" s="4">
         <f t="shared" si="16"/>
         <v>-0.625</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8149,7 +8170,7 @@
         <v>45267</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -8169,17 +8190,17 @@
         <v>1620962.0160600001</v>
       </c>
       <c r="J194" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K194" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L194" s="4">
         <f t="shared" si="16"/>
         <v>-0.61899999999999977</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8190,7 +8211,7 @@
         <v>45267</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -8210,17 +8231,17 @@
         <v>1621112.0160600001</v>
       </c>
       <c r="J195" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K195" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L195" s="4">
         <f t="shared" si="16"/>
         <v>-0.60999999999999988</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8228,11 +8249,11 @@
         <v>45268</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L196" s="4"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8240,11 +8261,11 @@
         <v>45269</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L197" s="4"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8252,11 +8273,11 @@
         <v>45270</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L198" s="4"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8267,7 +8288,7 @@
         <v>45271</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -8287,17 +8308,17 @@
         <v>1621302.0160600001</v>
       </c>
       <c r="J199" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K199" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L199" s="4">
         <f t="shared" si="16"/>
         <v>-0.59899999999999975</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8308,7 +8329,7 @@
         <v>45271</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -8328,17 +8349,17 @@
         <v>1621647.0160600001</v>
       </c>
       <c r="J200" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K200" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L200" s="4">
         <f t="shared" si="16"/>
         <v>-0.57799999999999985</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8349,7 +8370,7 @@
         <v>45271</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -8369,17 +8390,17 @@
         <v>1621697.0160600001</v>
       </c>
       <c r="J201" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K201" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L201" s="4">
         <f t="shared" si="16"/>
         <v>-0.57499999999999973</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8390,7 +8411,7 @@
         <v>45271</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -8410,17 +8431,17 @@
         <v>1621822.0160600001</v>
       </c>
       <c r="J202" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K202" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L202" s="4">
         <f t="shared" si="16"/>
         <v>-0.56799999999999962</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8431,7 +8452,7 @@
         <v>45271</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -8451,17 +8472,17 @@
         <v>1621872.0160600001</v>
       </c>
       <c r="J203" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K203" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L203" s="4">
         <f t="shared" si="16"/>
         <v>-0.56499999999999995</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8472,7 +8493,7 @@
         <v>45271</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -8492,17 +8513,17 @@
         <v>1616872.0160600001</v>
       </c>
       <c r="J204" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K204" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L204" s="4">
         <f t="shared" si="16"/>
         <v>-0.86299999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8513,7 +8534,7 @@
         <v>45271</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -8533,17 +8554,17 @@
         <v>1598499.0160600001</v>
       </c>
       <c r="J205" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K205" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L205" s="4">
         <f t="shared" si="16"/>
         <v>-1.96</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8554,7 +8575,7 @@
         <v>45271</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -8577,14 +8598,14 @@
         <v>0</v>
       </c>
       <c r="K206" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L206" s="4">
         <f t="shared" si="16"/>
         <v>-0.13300000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8592,11 +8613,11 @@
         <v>45272</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L207" s="4"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8607,7 +8628,7 @@
         <v>45273</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -8630,14 +8651,14 @@
         <v>0</v>
       </c>
       <c r="K208" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L208" s="4">
         <f t="shared" si="16"/>
         <v>-0.10599999999999987</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8648,7 +8669,7 @@
         <v>45273</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E209">
         <v>1</v>
@@ -8668,17 +8689,17 @@
         <v>1630027.0160600001</v>
       </c>
       <c r="J209" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K209" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L209" s="4">
         <f t="shared" si="16"/>
         <v>-7.7999999999999847E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8689,7 +8710,7 @@
         <v>45273</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -8709,17 +8730,17 @@
         <v>1630247.0160600001</v>
       </c>
       <c r="J210" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K210" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L210" s="4">
         <f t="shared" si="16"/>
         <v>-6.3999999999999613E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8730,7 +8751,7 @@
         <v>45273</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -8750,17 +8771,17 @@
         <v>1625747.0160600001</v>
       </c>
       <c r="J211" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K211" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="L211" s="4">
         <f t="shared" si="16"/>
         <v>-0.33299999999999974</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8771,7 +8792,7 @@
         <v>45273</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8794,14 +8815,14 @@
         <v>0</v>
       </c>
       <c r="K212" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L212" s="4">
         <f t="shared" si="16"/>
         <v>-1.6589999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8812,7 +8833,7 @@
         <v>45273</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -8835,14 +8856,14 @@
         <v>0</v>
       </c>
       <c r="K213" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L213" s="4">
         <f t="shared" si="16"/>
         <v>-2.1959999999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8853,7 +8874,7 @@
         <v>45273</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -8876,14 +8897,14 @@
         <v>0</v>
       </c>
       <c r="K214" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L214" s="4">
         <f t="shared" si="16"/>
         <v>-1.5779999999999994</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8894,7 +8915,7 @@
         <v>45273</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -8914,17 +8935,17 @@
         <v>1637897.0160600001</v>
       </c>
       <c r="J215" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K215" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L215" s="4">
         <f t="shared" si="16"/>
         <v>0.39200000000000035</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8935,7 +8956,7 @@
         <v>45273</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -8955,17 +8976,17 @@
         <v>1638577.0160600001</v>
       </c>
       <c r="J216" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K216" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L216" s="4">
         <f t="shared" si="16"/>
         <v>0.43300000000000027</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>216</v>
       </c>
@@ -8976,7 +8997,7 @@
         <v>45274</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -8996,17 +9017,17 @@
         <v>1639417.0160600001</v>
       </c>
       <c r="J217" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K217" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L217" s="4">
         <f t="shared" si="16"/>
         <v>0.4830000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9014,11 +9035,11 @@
         <v>45275</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L218" s="4"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9026,11 +9047,11 @@
         <v>45276</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L219" s="4"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9041,7 +9062,7 @@
         <v>45277</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -9061,15 +9082,242 @@
         <v>1640467.0160600001</v>
       </c>
       <c r="J220" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K220" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L220" s="4">
         <f t="shared" si="16"/>
         <v>0.54600000000000026</v>
       </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>196</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45278</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>1.22</v>
+      </c>
+      <c r="G221">
+        <f>I220</f>
+        <v>1640467.0160600001</v>
+      </c>
+      <c r="H221">
+        <v>-8800</v>
+      </c>
+      <c r="I221">
+        <f t="shared" si="15"/>
+        <v>1631667.0160600001</v>
+      </c>
+      <c r="J221" t="s">
+        <v>88</v>
+      </c>
+      <c r="K221" t="s">
+        <v>89</v>
+      </c>
+      <c r="L221" s="4">
+        <f t="shared" si="16"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>197</v>
+      </c>
+      <c r="C222" s="2">
+        <v>45279</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G222">
+        <f>I221</f>
+        <v>1631667.0160600001</v>
+      </c>
+      <c r="H222">
+        <v>1419</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="15"/>
+        <v>1633086.0160600001</v>
+      </c>
+      <c r="J222" t="s">
+        <v>88</v>
+      </c>
+      <c r="K222" t="s">
+        <v>89</v>
+      </c>
+      <c r="L222" s="4">
+        <f t="shared" si="16"/>
+        <v>0.10499999999999998</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="C223" s="2">
+        <v>45280</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L223" s="4"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>198</v>
+      </c>
+      <c r="C224" s="2">
+        <v>45281</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1.25</v>
+      </c>
+      <c r="G224">
+        <f>I222</f>
+        <v>1633086.0160600001</v>
+      </c>
+      <c r="H224">
+        <v>1010</v>
+      </c>
+      <c r="I224">
+        <f t="shared" si="15"/>
+        <v>1634096.0160600001</v>
+      </c>
+      <c r="J224" t="s">
+        <v>88</v>
+      </c>
+      <c r="K224" t="s">
+        <v>89</v>
+      </c>
+      <c r="L224" s="4">
+        <f t="shared" si="16"/>
+        <v>0.16500000000000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="C225" s="2">
+        <v>45282</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L225" s="4"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="C226" s="2">
+        <v>45283</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L226" s="4"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="C227" s="2">
+        <v>45284</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L227" s="4"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="C228" s="2">
+        <v>45285</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L228" s="4"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>199</v>
+      </c>
+      <c r="C229" s="2">
+        <v>45286</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <f>I224</f>
+        <v>1634096.0160600001</v>
+      </c>
+      <c r="H229">
+        <v>19838</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="15"/>
+        <v>1653934.0160600001</v>
+      </c>
+      <c r="J229" t="s">
+        <v>143</v>
+      </c>
+      <c r="K229" t="s">
+        <v>143</v>
+      </c>
+      <c r="L229" s="4">
+        <f t="shared" si="16"/>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L230" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9079,20 +9327,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91972E91-C486-48A1-B1C4-268DB8F8852F}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="B5:F5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -9112,7 +9360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9133,32 +9381,32 @@
         <v>25793.64</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>462440</v>
+        <v>459767.0968</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>54753.06</v>
+        <v>54436.587313199998</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>81628.56</v>
+        <v>81156.7469232</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>32896.82</v>
+        <v>32706.6763804</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>25793.64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>25644.552760800001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9178,35 +9426,40 @@
         <v>26457.826229999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>1482397.7691518001</v>
+        <v>1494251.5257050002</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>56469.601009070699</v>
+        <v>56921.151137482499</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>84187.66392499319</v>
+        <v>84860.857108169992</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>33928.154880607901</v>
+        <v>34199.455942052504</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>26602.285961215799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+        <v>26815.006884104998</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F10" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="O10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="G15" s="8"/>
     </row>
   </sheetData>
@@ -9222,9 +9475,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -9246,20 +9499,8 @@
       <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9284,7 +9525,7 @@
         <v>657512.07999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9308,7 +9549,7 @@
         <v>674443.01605999994</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9332,26 +9573,11 @@
         <f>SUM(B4:F4)</f>
         <v>1674443.0160600001</v>
       </c>
-      <c r="H4" s="7">
-        <f>2.575+100</f>
-        <v>102.575</v>
-      </c>
-      <c r="I4" s="6">
-        <f>G4/100</f>
-        <v>16744.430160600001</v>
-      </c>
-      <c r="J4" s="6">
-        <f>I4*2</f>
-        <v>33488.860321200002</v>
-      </c>
-      <c r="K4" s="6">
-        <f>I4+J4</f>
-        <v>50233.290481800002</v>
-      </c>
-      <c r="L4" s="6">
-        <f>K4+J4</f>
-        <v>83722.150802999997</v>
-      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633F020C-DA10-44C9-A21A-7D02B2E5482F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB25DF48-5C1D-44A3-ACD7-902D17463B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="152">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
   <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="N227" sqref="N227"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="H230" sqref="H230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9317,7 +9317,45 @@
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="L230" s="4"/>
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>200</v>
+      </c>
+      <c r="C230" s="2">
+        <v>45286</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1.25</v>
+      </c>
+      <c r="G230">
+        <f>I229</f>
+        <v>1653934.0160600001</v>
+      </c>
+      <c r="H230">
+        <v>900</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="15"/>
+        <v>1654834.0160600001</v>
+      </c>
+      <c r="J230" t="s">
+        <v>0</v>
+      </c>
+      <c r="K230" t="s">
+        <v>92</v>
+      </c>
+      <c r="L230" s="4">
+        <f t="shared" si="16"/>
+        <v>1.4040000000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9387,23 +9425,23 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>459767.0968</v>
+        <v>459780.97</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>54436.587313199998</v>
+        <v>54438.229905</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>81156.7469232</v>
+        <v>81159.195779999995</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>32706.6763804</v>
+        <v>32707.663284999999</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>25644.552760800001</v>
+        <v>25645.326570000001</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -9432,23 +9470,23 @@
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>1494251.5257050002</v>
+        <v>1495047.6735332001</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>56921.151137482499</v>
+        <v>56951.479131181797</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>84860.857108169992</v>
+        <v>84906.071575696798</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>34199.455942052504</v>
+        <v>34217.677655134605</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>26815.006884104998</v>
+        <v>26829.294110269198</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB25DF48-5C1D-44A3-ACD7-902D17463B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E552A0-F310-4EE6-8791-926A120A3F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-26685" yWindow="4245" windowWidth="14400" windowHeight="8280" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="159">
   <si>
     <t>ESPORTS</t>
   </si>
@@ -516,6 +516,27 @@
   </si>
   <si>
     <t>2023-12-26</t>
+  </si>
+  <si>
+    <t>2023-12-27</t>
+  </si>
+  <si>
+    <t>2023-12-28</t>
+  </si>
+  <si>
+    <t>2023-12-29</t>
+  </si>
+  <si>
+    <t>2023-12-30</t>
+  </si>
+  <si>
+    <t>2023-12-31</t>
+  </si>
+  <si>
+    <t>DEMACIA CUP</t>
+  </si>
+  <si>
+    <t>ITALIA SERIE A3</t>
   </si>
 </sst>
 </file>
@@ -523,8 +544,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -574,17 +595,17 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -903,25 +924,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
-  <dimension ref="A1:L230"/>
+  <dimension ref="A1:L240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="H230" sqref="H230"/>
+    <sheetView tabSelected="1" topLeftCell="C230" workbookViewId="0">
+      <selection activeCell="L242" sqref="L242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="4.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" customWidth="1"/>
+    <col min="1" max="2" width="4.53125" customWidth="1"/>
+    <col min="4" max="4" width="9.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.73046875" customWidth="1"/>
+    <col min="7" max="7" width="9.73046875" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" customWidth="1"/>
-    <col min="11" max="11" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.06640625" customWidth="1"/>
+    <col min="11" max="11" width="28.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -959,7 +980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -996,7 +1017,7 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1034,7 +1055,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1072,7 +1093,7 @@
         <v>-0.65900000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1110,7 +1131,7 @@
         <v>-1.758</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1148,7 +1169,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1186,7 +1207,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1224,7 +1245,7 @@
         <v>0.82399999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1262,7 +1283,7 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1300,7 +1321,7 @@
         <v>1.0660000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1338,7 +1359,7 @@
         <v>1.1739999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1376,7 +1397,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1414,7 +1435,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1452,7 +1473,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1490,7 +1511,7 @@
         <v>1.1020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1528,7 +1549,7 @@
         <v>1.111</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1566,7 +1587,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1604,7 +1625,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1642,7 +1663,7 @@
         <v>1.089</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1680,7 +1701,7 @@
         <v>1.5349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1718,7 +1739,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1756,7 +1777,7 @@
         <v>1.7849999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1794,7 +1815,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1832,7 +1853,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1870,7 +1891,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1908,7 +1929,7 @@
         <v>2.222</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1946,7 +1967,7 @@
         <v>2.2229999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1984,7 +2005,7 @@
         <v>2.5379999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2022,7 +2043,7 @@
         <v>2.5750000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2034,7 +2055,7 @@
       </c>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2071,7 +2092,7 @@
         <v>2.5760000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2109,7 +2130,7 @@
         <v>2.6590000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2147,7 +2168,7 @@
         <v>2.6990000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2185,7 +2206,7 @@
         <v>2.7510000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2223,7 +2244,7 @@
         <v>2.8010000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2261,7 +2282,7 @@
         <v>2.2680000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2299,7 +2320,7 @@
         <v>2.363</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2337,7 +2358,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2375,7 +2396,7 @@
         <v>2.5830000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2413,7 +2434,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2451,7 +2472,7 @@
         <v>3.1390000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2463,7 +2484,7 @@
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2475,7 +2496,7 @@
       </c>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2486,7 +2507,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2524,7 +2545,7 @@
         <v>3.1539999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2562,7 +2583,7 @@
         <v>2.0860000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2600,7 +2621,7 @@
         <v>2.4350000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2638,7 +2659,7 @@
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2676,7 +2697,7 @@
         <v>3.0700000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2714,7 +2735,7 @@
         <v>2.1140000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2752,7 +2773,7 @@
         <v>2.6040000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2790,7 +2811,7 @@
         <v>1.649</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2828,7 +2849,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2866,7 +2887,7 @@
         <v>-0.79999999999999982</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2907,7 +2928,7 @@
         <v>-0.7849999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2948,7 +2969,7 @@
         <v>-0.83599999999999985</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2989,7 +3010,7 @@
         <v>-0.70499999999999963</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3030,7 +3051,7 @@
         <v>-0.65700000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3071,7 +3092,7 @@
         <v>-0.61199999999999966</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3112,7 +3133,7 @@
         <v>-0.55399999999999983</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3153,7 +3174,7 @@
         <v>-0.52099999999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3194,7 +3215,7 @@
         <v>-0.47799999999999976</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3235,7 +3256,7 @@
         <v>-0.43499999999999961</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3276,7 +3297,7 @@
         <v>-0.32199999999999962</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3317,7 +3338,7 @@
         <v>-0.26600000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3329,7 +3350,7 @@
       </c>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3370,7 +3391,7 @@
         <v>-0.24899999999999967</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3411,7 +3432,7 @@
         <v>-0.22999999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3452,7 +3473,7 @@
         <v>-0.52899999999999991</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3493,7 +3514,7 @@
         <v>-0.50199999999999978</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3534,7 +3555,7 @@
         <v>-0.39999999999999991</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3575,7 +3596,7 @@
         <v>-0.34299999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3616,7 +3637,7 @@
         <v>-1.4779999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3657,7 +3678,7 @@
         <v>-1.3879999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3698,7 +3719,7 @@
         <v>-1.6869999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3739,7 +3760,7 @@
         <v>-1.681</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3780,7 +3801,7 @@
         <v>-1.6589999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3821,7 +3842,7 @@
         <v>-1.5910000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3862,7 +3883,7 @@
         <v>-1.71</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3903,7 +3924,7 @@
         <v>-1.6710000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3944,7 +3965,7 @@
         <v>-1.6539999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3985,7 +4006,7 @@
         <v>-1.6470000000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4026,7 +4047,7 @@
         <v>-1.6440000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4067,7 +4088,7 @@
         <v>-1.625</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4108,7 +4129,7 @@
         <v>-1.609</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4149,7 +4170,7 @@
         <v>-1.5880000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4190,7 +4211,7 @@
         <v>-1.6369999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4231,7 +4252,7 @@
         <v>-1.6219999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4272,7 +4293,7 @@
         <v>-1.6049999999999995</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4313,7 +4334,7 @@
         <v>-1.5380000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4354,7 +4375,7 @@
         <v>-1.5300000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4395,7 +4416,7 @@
         <v>-1.5199999999999996</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4436,7 +4457,7 @@
         <v>-1.5009999999999994</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4477,7 +4498,7 @@
         <v>-1.5609999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4518,7 +4539,7 @@
         <v>-1.8599999999999994</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4559,7 +4580,7 @@
         <v>-1.7939999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4600,7 +4621,7 @@
         <v>-1.7450000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4641,7 +4662,7 @@
         <v>-1.7109999999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4682,7 +4703,7 @@
         <v>-1.6899999999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4723,7 +4744,7 @@
         <v>-1.6630000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4764,7 +4785,7 @@
         <v>-1.6479999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4805,7 +4826,7 @@
         <v>-1.6459999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4846,7 +4867,7 @@
         <v>-1.63</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4887,7 +4908,7 @@
         <v>-1.6079999999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4928,7 +4949,7 @@
         <v>-1.5969999999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4969,7 +4990,7 @@
         <v>-1.5910000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5010,7 +5031,7 @@
         <v>-1.5899999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5051,7 +5072,7 @@
         <v>-1.5789999999999997</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5092,7 +5113,7 @@
         <v>-1.6390000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5133,7 +5154,7 @@
         <v>-1.569</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5174,7 +5195,7 @@
         <v>-1.593</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5215,7 +5236,7 @@
         <v>-1.5869999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5256,7 +5277,7 @@
         <v>-1.5599999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5297,7 +5318,7 @@
         <v>-1.556</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5338,7 +5359,7 @@
         <v>-1.5510000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5379,7 +5400,7 @@
         <v>-1.5449999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5420,7 +5441,7 @@
         <v>-1.5809999999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5461,7 +5482,7 @@
         <v>-1.6049999999999995</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5502,7 +5523,7 @@
         <v>-1.5990000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5543,7 +5564,7 @@
         <v>-1.5979999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5584,7 +5605,7 @@
         <v>-1.6269999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5625,7 +5646,7 @@
         <v>-1.6059999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5666,7 +5687,7 @@
         <v>-1.5999999999999996</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5707,7 +5728,7 @@
         <v>-1.63</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5748,7 +5769,7 @@
         <v>-1.5939999999999994</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5789,7 +5810,7 @@
         <v>-2.0279999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5830,7 +5851,7 @@
         <v>-2.024</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5871,7 +5892,7 @@
         <v>-2.0209999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5912,7 +5933,7 @@
         <v>-2.0039999999999996</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5953,7 +5974,7 @@
         <v>-1.9980000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5994,7 +6015,7 @@
         <v>-1.984</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6006,7 +6027,7 @@
       </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6047,7 +6068,7 @@
         <v>-1.9829999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6088,7 +6109,7 @@
         <v>-1.9289999999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6129,7 +6150,7 @@
         <v>-1.9249999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6170,7 +6191,7 @@
         <v>-1.9169999999999998</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6211,7 +6232,7 @@
         <v>-1.9100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6252,7 +6273,7 @@
         <v>-1.9100000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6293,7 +6314,7 @@
         <v>-1.8999999999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6334,7 +6355,7 @@
         <v>-1.8780000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6346,7 +6367,7 @@
       </c>
       <c r="L141" s="4"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6387,7 +6408,7 @@
         <v>-1.8739999999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6428,7 +6449,7 @@
         <v>-1.8719999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6469,7 +6490,7 @@
         <v>-1.8709999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6510,7 +6531,7 @@
         <v>-1.867</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6551,7 +6572,7 @@
         <v>-1.8639999999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6592,7 +6613,7 @@
         <v>-1.9130000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6633,7 +6654,7 @@
         <v>-1.9249999999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6674,7 +6695,7 @@
         <v>-1.8769999999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6715,7 +6736,7 @@
         <v>-1.0499999999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6727,7 +6748,7 @@
       </c>
       <c r="L151" s="4"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6768,7 +6789,7 @@
         <v>-1.02</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6780,7 +6801,7 @@
       </c>
       <c r="L153" s="4"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6792,7 +6813,7 @@
       </c>
       <c r="L154" s="4"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6833,7 +6854,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6874,7 +6895,7 @@
         <v>-0.98499999999999988</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6886,7 +6907,7 @@
       </c>
       <c r="L157" s="4"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6927,7 +6948,7 @@
         <v>-0.93199999999999994</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6939,7 +6960,7 @@
       </c>
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6951,7 +6972,7 @@
       </c>
       <c r="L160" s="4"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6992,7 +7013,7 @@
         <v>-0.92199999999999971</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7033,7 +7054,7 @@
         <v>-0.8919999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7045,7 +7066,7 @@
       </c>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7057,7 +7078,7 @@
       </c>
       <c r="L164" s="4"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7069,7 +7090,7 @@
       </c>
       <c r="L165" s="4"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7081,7 +7102,7 @@
       </c>
       <c r="L166" s="4"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7122,7 +7143,7 @@
         <v>-1.0049999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7163,7 +7184,7 @@
         <v>-0.95699999999999985</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7204,7 +7225,7 @@
         <v>-0.93899999999999961</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7245,7 +7266,7 @@
         <v>-1.3029999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7286,7 +7307,7 @@
         <v>-0.88499999999999979</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7327,7 +7348,7 @@
         <v>-0.78299999999999992</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7368,7 +7389,7 @@
         <v>-0.77699999999999969</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7395,7 +7416,7 @@
         <v>51</v>
       </c>
       <c r="I174">
-        <f t="shared" ref="I174:I230" si="15">G174+H174</f>
+        <f t="shared" ref="I174:I237" si="15">G174+H174</f>
         <v>1618361.0160600001</v>
       </c>
       <c r="J174" t="s">
@@ -7409,7 +7430,7 @@
         <v>-0.77400000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7450,7 +7471,7 @@
         <v>-0.75800000000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -7491,7 +7512,7 @@
         <v>-0.75299999999999967</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7532,7 +7553,7 @@
         <v>-0.79499999999999993</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7573,7 +7594,7 @@
         <v>-0.72599999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7614,7 +7635,7 @@
         <v>-0.72399999999999975</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7655,7 +7676,7 @@
         <v>-0.70299999999999985</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7696,7 +7717,7 @@
         <v>-0.6769999999999996</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7737,7 +7758,7 @@
         <v>-0.67599999999999971</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7774,11 +7795,11 @@
         <v>67</v>
       </c>
       <c r="L183" s="4">
-        <f t="shared" ref="L183:L230" si="16">ROUND((I183/$G$31-1)*100, 3)+$L$29</f>
+        <f t="shared" ref="L183:L240" si="16">ROUND((I183/$G$31-1)*100, 3)+$L$29</f>
         <v>-0.67300000000000004</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7819,7 +7840,7 @@
         <v>-0.67099999999999982</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7831,7 +7852,7 @@
       </c>
       <c r="L185" s="4"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7872,7 +7893,7 @@
         <v>-0.66699999999999982</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7913,7 +7934,7 @@
         <v>-0.65300000000000002</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7954,7 +7975,7 @@
         <v>-0.64900000000000002</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7995,7 +8016,7 @@
         <v>-0.64799999999999969</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8036,7 +8057,7 @@
         <v>-0.64100000000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8077,7 +8098,7 @@
         <v>-0.63199999999999967</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8118,7 +8139,7 @@
         <v>-0.62799999999999967</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8159,7 +8180,7 @@
         <v>-0.625</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8200,7 +8221,7 @@
         <v>-0.61899999999999977</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8241,7 +8262,7 @@
         <v>-0.60999999999999988</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8253,7 +8274,7 @@
       </c>
       <c r="L196" s="4"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8265,7 +8286,7 @@
       </c>
       <c r="L197" s="4"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8277,7 +8298,7 @@
       </c>
       <c r="L198" s="4"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8318,7 +8339,7 @@
         <v>-0.59899999999999975</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8359,7 +8380,7 @@
         <v>-0.57799999999999985</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8400,7 +8421,7 @@
         <v>-0.57499999999999973</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8441,7 +8462,7 @@
         <v>-0.56799999999999962</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8482,7 +8503,7 @@
         <v>-0.56499999999999995</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8523,7 +8544,7 @@
         <v>-0.86299999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>204</v>
       </c>
@@ -8564,7 +8585,7 @@
         <v>-1.96</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>205</v>
       </c>
@@ -8605,7 +8626,7 @@
         <v>-0.13300000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>206</v>
       </c>
@@ -8617,7 +8638,7 @@
       </c>
       <c r="L207" s="4"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>207</v>
       </c>
@@ -8658,7 +8679,7 @@
         <v>-0.10599999999999987</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>208</v>
       </c>
@@ -8699,7 +8720,7 @@
         <v>-7.7999999999999847E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>209</v>
       </c>
@@ -8740,7 +8761,7 @@
         <v>-6.3999999999999613E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>210</v>
       </c>
@@ -8781,7 +8802,7 @@
         <v>-0.33299999999999974</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>211</v>
       </c>
@@ -8822,7 +8843,7 @@
         <v>-1.6589999999999998</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>212</v>
       </c>
@@ -8863,7 +8884,7 @@
         <v>-2.1959999999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>213</v>
       </c>
@@ -8904,7 +8925,7 @@
         <v>-1.5779999999999994</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>214</v>
       </c>
@@ -8945,7 +8966,7 @@
         <v>0.39200000000000035</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>215</v>
       </c>
@@ -8986,7 +9007,7 @@
         <v>0.43300000000000027</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>216</v>
       </c>
@@ -9027,7 +9048,7 @@
         <v>0.4830000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>217</v>
       </c>
@@ -9039,7 +9060,7 @@
       </c>
       <c r="L218" s="4"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>218</v>
       </c>
@@ -9051,7 +9072,7 @@
       </c>
       <c r="L219" s="4"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9092,7 +9113,7 @@
         <v>0.54600000000000026</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>220</v>
       </c>
@@ -9133,7 +9154,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>221</v>
       </c>
@@ -9174,7 +9195,7 @@
         <v>0.10499999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>222</v>
       </c>
@@ -9186,7 +9207,7 @@
       </c>
       <c r="L223" s="4"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>223</v>
       </c>
@@ -9227,7 +9248,7 @@
         <v>0.16500000000000004</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>224</v>
       </c>
@@ -9239,7 +9260,7 @@
       </c>
       <c r="L225" s="4"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>225</v>
       </c>
@@ -9251,7 +9272,7 @@
       </c>
       <c r="L226" s="4"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>226</v>
       </c>
@@ -9263,7 +9284,7 @@
       </c>
       <c r="L227" s="4"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>227</v>
       </c>
@@ -9275,7 +9296,7 @@
       </c>
       <c r="L228" s="4"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>228</v>
       </c>
@@ -9316,7 +9337,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>229</v>
       </c>
@@ -9355,6 +9376,304 @@
       <c r="L230" s="4">
         <f t="shared" si="16"/>
         <v>1.4040000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C231" s="2">
+        <v>45287</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L231" s="4"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C232" s="2">
+        <v>45288</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L232" s="4"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C233" s="2">
+        <v>45289</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>1.66</v>
+      </c>
+      <c r="G233">
+        <f>I230</f>
+        <v>1654834.0160600001</v>
+      </c>
+      <c r="H233">
+        <v>-1405</v>
+      </c>
+      <c r="I233">
+        <f t="shared" si="15"/>
+        <v>1653429.0160600001</v>
+      </c>
+      <c r="J233" t="s">
+        <v>63</v>
+      </c>
+      <c r="K233" t="s">
+        <v>69</v>
+      </c>
+      <c r="L233" s="4">
+        <f t="shared" si="16"/>
+        <v>1.3200000000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C234" s="2">
+        <v>45289</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>1.73</v>
+      </c>
+      <c r="G234">
+        <f>I233</f>
+        <v>1653429.0160600001</v>
+      </c>
+      <c r="H234">
+        <v>-8000</v>
+      </c>
+      <c r="I234">
+        <f t="shared" si="15"/>
+        <v>1645429.0160600001</v>
+      </c>
+      <c r="J234" t="s">
+        <v>0</v>
+      </c>
+      <c r="K234" t="s">
+        <v>92</v>
+      </c>
+      <c r="L234" s="4">
+        <f t="shared" si="16"/>
+        <v>0.84200000000000008</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C235" s="2">
+        <v>45289</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>1.24</v>
+      </c>
+      <c r="G235">
+        <f t="shared" ref="G235:G240" si="20">I234</f>
+        <v>1645429.0160600001</v>
+      </c>
+      <c r="H235">
+        <v>2400</v>
+      </c>
+      <c r="I235">
+        <f t="shared" si="15"/>
+        <v>1647829.0160600001</v>
+      </c>
+      <c r="J235" t="s">
+        <v>0</v>
+      </c>
+      <c r="K235" t="s">
+        <v>92</v>
+      </c>
+      <c r="L235" s="4">
+        <f t="shared" si="16"/>
+        <v>0.98600000000000021</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C236" s="2">
+        <v>45289</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="20"/>
+        <v>1647829.0160600001</v>
+      </c>
+      <c r="H236">
+        <v>500</v>
+      </c>
+      <c r="I236">
+        <f t="shared" si="15"/>
+        <v>1648329.0160600001</v>
+      </c>
+      <c r="J236" t="s">
+        <v>88</v>
+      </c>
+      <c r="K236" t="s">
+        <v>89</v>
+      </c>
+      <c r="L236" s="4">
+        <f t="shared" si="16"/>
+        <v>1.0150000000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C237" s="2">
+        <v>45289</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1.3</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="20"/>
+        <v>1648329.0160600001</v>
+      </c>
+      <c r="H237">
+        <v>2220</v>
+      </c>
+      <c r="I237">
+        <f t="shared" si="15"/>
+        <v>1650549.0160600001</v>
+      </c>
+      <c r="J237" t="s">
+        <v>88</v>
+      </c>
+      <c r="K237" t="s">
+        <v>89</v>
+      </c>
+      <c r="L237" s="4">
+        <f t="shared" si="16"/>
+        <v>1.1480000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C238" s="2">
+        <v>45290</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="20"/>
+        <v>1650549.0160600001</v>
+      </c>
+      <c r="H238">
+        <v>-1120</v>
+      </c>
+      <c r="I238">
+        <f t="shared" ref="I238:I240" si="21">G238+H238</f>
+        <v>1649429.0160600001</v>
+      </c>
+      <c r="J238" t="s">
+        <v>63</v>
+      </c>
+      <c r="K238" t="s">
+        <v>64</v>
+      </c>
+      <c r="L238" s="4">
+        <f t="shared" si="16"/>
+        <v>1.0810000000000002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C239" s="2">
+        <v>45290</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="20"/>
+        <v>1649429.0160600001</v>
+      </c>
+      <c r="H239">
+        <v>560</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="21"/>
+        <v>1649989.0160600001</v>
+      </c>
+      <c r="J239" t="s">
+        <v>93</v>
+      </c>
+      <c r="K239" t="s">
+        <v>158</v>
+      </c>
+      <c r="L239" s="4">
+        <f t="shared" si="16"/>
+        <v>1.1150000000000002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C240" s="2">
+        <v>45291</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1.27</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="20"/>
+        <v>1649989.0160600001</v>
+      </c>
+      <c r="H240">
+        <v>1217</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="21"/>
+        <v>1651206.0160600001</v>
+      </c>
+      <c r="J240" t="s">
+        <v>0</v>
+      </c>
+      <c r="K240" t="s">
+        <v>157</v>
+      </c>
+      <c r="L240" s="4">
+        <f t="shared" si="16"/>
+        <v>1.1870000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -9371,14 +9690,14 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -9398,7 +9717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9419,32 +9738,32 @@
         <v>25793.64</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">B2+B2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>459780.97</v>
+        <v>462079.29680000001</v>
       </c>
       <c r="C3" s="3" cm="1">
         <f t="array" ref="C3">C2+C2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>54438.229905</v>
+        <v>54710.352613199997</v>
       </c>
       <c r="D3" s="3" cm="1">
         <f t="array" ref="D3">D2+D2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>81159.195779999995</v>
+        <v>81564.889723200002</v>
       </c>
       <c r="E3" s="3" cm="1">
         <f t="array" ref="E3">E2+E2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>32707.663284999999</v>
+        <v>32871.160480400002</v>
       </c>
       <c r="F3" s="3" cm="1">
         <f t="array" ref="F3">F2+F2*INDEX(bets!$L:$L,COUNTA(bets!$L:$L))/100</f>
-        <v>25645.326570000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+        <v>25773.5209608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9464,40 +9783,40 @@
         <v>26457.826229999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">B4+B4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>1495047.6735332001</v>
+        <v>1491848.3387421002</v>
       </c>
       <c r="C5" s="3" cm="1">
         <f t="array" ref="C5">C4+C4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>56951.479131181797</v>
+        <v>56829.605526871652</v>
       </c>
       <c r="D5" s="3" cm="1">
         <f t="array" ref="D5">D4+D4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>84906.071575696798</v>
+        <v>84724.376400635389</v>
       </c>
       <c r="E5" s="3" cm="1">
         <f t="array" ref="E5">E4+E4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>34217.677655134605</v>
+        <v>34144.453363675057</v>
       </c>
       <c r="F5" s="3" cm="1">
         <f t="array" ref="F5">F4+F4*INDEX(bets!$L:$L,MAX((bets!$L:$L&lt;&gt;"")*ROW(bets!$L:$L)))/100</f>
-        <v>26829.294110269198</v>
+        <v>26771.8806273501</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F10" s="9"/>
       <c r="O10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="G15" s="8"/>
     </row>
   </sheetData>
@@ -9513,9 +9832,9 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -9538,7 +9857,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9563,7 +9882,7 @@
         <v>657512.07999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9587,7 +9906,7 @@
         <v>674443.01605999994</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>

--- a/bets-2023-2.xlsx
+++ b/bets-2023-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E552A0-F310-4EE6-8791-926A120A3F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5200DE71-4605-4AC4-9D25-5E5251D45DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26685" yWindow="4245" windowWidth="14400" windowHeight="8280" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
+    <workbookView xWindow="-28920" yWindow="2985" windowWidth="29040" windowHeight="15840" xr2:uid="{A6968CD2-91AD-474D-9B11-CB2A3F66CCBF}"/>
   </bookViews>
   <sheets>
     <sheet name="bets" sheetId="2" r:id="rId1"/>
@@ -926,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B18F06-8D4A-4FF5-84C5-257D6E19851B}">
   <dimension ref="A1:L240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C230" workbookViewId="0">
-      <selection activeCell="L242" sqref="L242"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9379,6 +9379,9 @@
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>230</v>
+      </c>
       <c r="C231" s="2">
         <v>45287</v>
       </c>
@@ -9388,6 +9391,9 @@
       <c r="L231" s="4"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>231</v>
+      </c>
       <c r="C232" s="2">
         <v>45288</v>
       </c>
@@ -9397,6 +9403,12 @@
       <c r="L232" s="4"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>201</v>
+      </c>
       <c r="C233" s="2">
         <v>45289</v>
       </c>
@@ -9432,6 +9444,12 @@
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>202</v>
+      </c>
       <c r="C234" s="2">
         <v>45289</v>
       </c>
@@ -9467,6 +9485,12 @@
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>203</v>
+      </c>
       <c r="C235" s="2">
         <v>45289</v>
       </c>
@@ -9502,6 +9526,12 @@
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>204</v>
+      </c>
       <c r="C236" s="2">
         <v>45289</v>
       </c>
@@ -9537,6 +9567,12 @@
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>205</v>
+      </c>
       <c r="C237" s="2">
         <v>45289</v>
       </c>
@@ -9572,6 +9608,12 @@
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>206</v>
+      </c>
       <c r="C238" s="2">
         <v>45290</v>
       </c>
@@ -9607,6 +9649,12 @@
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>207</v>
+      </c>
       <c r="C239" s="2">
         <v>45290</v>
       </c>
@@ -9642,6 +9690,12 @@
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>208</v>
+      </c>
       <c r="C240" s="2">
         <v>45291</v>
       </c>
